--- a/output/test.xlsx
+++ b/output/test.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C380"/>
+  <dimension ref="A1:C384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,13 +448,13 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
@@ -467,13 +467,13 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Barron
+          <t>Richard Barron
 blind; མིག་ལོང་བ blind</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 མིག་དབང་ཉམས་པའི་མི་མིང་བསྡུས་ན་ལོང་ཞེས་འབྲི་ཆོག་སྟེ། དམུས་ལོང་། སྲོད་ལོང་ཞེས་པ་ལྟ་བུ། ༼ལོང་ཁྲིད༽ ༼༡༽ ལོང་བའི་ལག་རྟེན་དབྱུ་གུའི་མིང་། ༼༢༽ ལོང་བ་འཁྲིད་མཁན་གྱི་མི།</t>
         </is>
       </c>
@@ -493,13 +493,13 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Waldo
+          <t>Ives Waldo
 story, fable</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་མིའི་གཏམ་རྒྱུད་བརྗོད་བྱར་བྱས་པའི་རྩོམ་རིག་གི་རྣམ་པ་ཞིག་གི་མིང་སྟེ། སྒྲུང་དཔེ། སྒྲུང་གླུ་ཞེས་པ་ལྟ་བུ། ༢.༼གེ་སར་རྒྱལ་པོའི་སྒྲུང༽ གི་མིང་མཐའ་བསྡུས་པ།</t>
         </is>
       </c>
@@ -519,7 +519,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 former</t>
         </is>
       </c>
@@ -538,7 +538,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 former</t>
         </is>
       </c>
@@ -557,13 +557,13 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) particle indicating "a" [often untranslatable]; (2) disintegrate; destroy; perish [past tense]</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཅིག་ལ་ལྟོས། ༢.འཇིག་གི་སྐུལ་ཚིག་ལ་ཞིག་འབྲི་བའང་ཡོད། ༣.ཞིག་པོ་ཡི་ཚིག་བསྡུས་པ།</t>
         </is>
       </c>
@@ -576,13 +576,13 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
@@ -595,13 +595,13 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 [vast-lake]; ocean; large lake</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
         </is>
       </c>
@@ -614,7 +614,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 great; large; big; great one</t>
         </is>
       </c>
@@ -633,13 +633,13 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) particle indicating "a" [often untranslatable]; (2) disintegrate; destroy; perish [past tense]</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཅིག་ལ་ལྟོས། ༢.འཇིག་གི་སྐུལ་ཚིག་ལ་ཞིག་འབྲི་བའང་ཡོད། ༣.ཞིག་པོ་ཡི་ཚིག་བསྡུས་པ།</t>
         </is>
       </c>
@@ -652,7 +652,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Waldo
+          <t>Ives Waldo
 exists, existed * there are/_were</t>
         </is>
       </c>
@@ -672,7 +672,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 ship; boat</t>
         </is>
       </c>
@@ -691,13 +691,13 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 in; internal; inside; interior; house</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
         </is>
       </c>
@@ -710,13 +710,13 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 accusative, adverbial accusative, dative, and locative particle: to; in; as; -ly; at; many; plural</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་གྲངས་ཅི་ཙམ་གྱི་དོན་དྲིས་པ་སྟེ། རྟ་དུ་ཡོད། ལུག་དུ་འཚོས། མི་དུ་འོངས་ལྟ་བུ་། ༢.དུ་བ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༣.ལ་དོན་ལ་འཇུག་པ་ནི་ལ་ལ་ལྟོས།</t>
         </is>
       </c>
@@ -729,13 +729,13 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 moon; month; object; monday</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་སའི་གོ་ལའི་སྲུང་སྐར་ཡིན་ལ། ཟླ་བའི་འོད་ནི་ཉི་མའི་རང་སྟེང་དུ་ཕོག་པ་ལས་སླར་འཕྲོས་པ་ཡིན། ༼ཟླ་འཛིན༽ སའི་གོ་ལ་གཉིས་ཀྱི་བར་ལ་བསླེབས་ནས་དྲང་ཐིག་གཅིག་ལ་བབས་ཏེ་ས་སྟེང་ལ་འཕྲོ་བའི་ཉི་འོད་བསྒྲིབས་པའི་སྣང་ཚུལ་ཡིན། ༢.ལོ་གཅིག་ཆ་བཅུ་གཉིས་སུ་བགོས་པའི་ཆ་གཅིག་གི་མིང་སྟེ། ས་ག་ཟླ་བ། ཟླ་བ་གསུམ་པ་ཞེས་པ་ལྟ་བུ། ༣.ཚིག་བསྡུས་ན་ཟླ་ཞེས་འབྲི་སྟེ། ཟླ་སྟོད། ཟླ་དཀྱིལ། ཟླ་སྨད་ཅེས་པ་ལྟ་བུ། ༼ཟླ་གམ༽ ༼༡༽ ཟླ་བ་ཕྱེད་པའི་དབྱིབས་ཀྱི་མིང་། ༼༢༽ ཟླ་བ་ཕྱེད་པའི་དབྱིབས་ལྟ་བུའི་བོད་ཀྱི་བཙུན་པའི་ལྭ་བ་རིགས་ཤིག་གི་མིང་། ༼ཟླ་མཚན༽ བུད་མེད་ལོ་བཅུ་གསུམ་ནས་ལྔ་བཅུ་ལྷག་གི་བར་ཉིན་ཉི་ཤུ་ལྷག་གི་མཚམས་སུ་མངལ་ནས་འོངས་པའི་བཤེར་ཁུ་དམར་པོ།</t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 many; much</t>
         </is>
       </c>
@@ -774,13 +774,13 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 gone; passed; become; occured; proceeded; has been accepted(BJ 22.2); has been asserted [with rtags or gsal ba preceeding it]; Liu Sung Dynasty (rgya rje song, 420 - 479 ce) of China</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་འགྲོ་བ་ཡི་འདས་པ་དང་སྐུལ་ཚིག ༢་འདས་ཚིག་གི་མཐར་སྦྱར་ན་བྱ་བ་གྲུབ་པར་སྟོན་པའི་ཚིག་གྲོགས་ཏེ། དེ་ཤེས་སོང་། ཉི་མ་ཤར་སོང་ལྟ་བུ། ༼སོང་ཐོ༽ བཀོལ་ཚར་བའི་རྒྱུ་ནོར་གྱི་མིང་དང་གྲངས་ཀ་སོགས་བཀོད་པའི་ཡི་གེ་དང་རེའུ་མིག་གི་མིང་།</t>
         </is>
       </c>
@@ -793,13 +793,13 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) but; even; also; again; and; (2) light [as in not heavy](D1)</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཀྱང་ལ་ལྟོས། ༢.༼ཀ༽ ལྗིད་ཚད་ཆུང་བ ༼ལྕི་བའི་ལྡོག་ཟླ༽ སྟེ། སྣུམ་ནི་ཆུ་ལས་ཡང་བས། སྣུམ་ཆུའི་ཁར་གཡེང་། ཧ་ཅང་ཡང་བའི་ཁུར་བོ། ཁུར་བོ་ཡང་མོ་ལྟ་བུ། ༼ཡང་ཟོར༽ ཡར་མཆོང་བའི་རྩལ་དང་ནུས་པའི་མིང་སྟེ། གཞོན་དུས་ལུས་པོ་ཡང་ཟོར་ཆེ། མི་ཡང་ཟོར་ཅན་ཞེས་པ་ལྟ་བུ། ༼ཁ༽ ཚད་ཆུང་བའམ་གྲངས་ཉུང་བ་སྟེ། རྨས་ཡང་མོ། ནད་ཡང་བ། ལས་ཀ་ཧ་ཅང་ཡང་ཞེས་པ་ལྟ་བུ། ༣.བསྐྱར་ཟློས་ལ་འཇུག་པའི་ཕྲད་རང་དབང་ཅན་ཏེ། ད་ལོ་ཡང་ལོ་ཡག་བྱུང་། དེ་རིང་ཡང་ཆར་བ་བབས་ཞེས་པ་ལྟ་བུ། ༼ཡང་བསྐྱར༽ ལན་གྲངས་གཉིས་པ་ཡན་ཏེ། ཡང་བསྐྱར་སློབ་གསོ་བཏང་། ཡང་བསྐྱར་ཐེངས་གཅིག་བཤད་ལྟ་བུ། ༼ཡང་རྒོད༽ རྒོད་པ་ལས་ཀྱང་རྒོད་པ་སྟེ། རྟ་རྒོད་པོ་ཡང་རྒོད། བློ་རྒོད་པོ་ཡང་རྒོད་ཅེས་པ་ལྟ་བུ། ༼ཡང་འཇུག༽ བོད་ཡིག་གི་རྗེས་འཇུག་བཅུའི་ནང་གི་ད་ས་གཉིས་ལ་ཟེར། ༼ཡང་ཕྱི༽ རང་གི་མེས་པོའི་ས་ཡིན། ༼ཡང་མེས༽ མེས་པོའི་ཕ། ༼ཡང་རྩལ༽ ཡང་མཆོང་བའི་རྩལ་ཁྱད་པར་བའི་མིང་སྟེ། བྱ་དང་བྱིའུས་གཤོག་རྩལ་བསྒྱུར། སྤྲ་དང་སྤེའུས་ཡང་རྩལ་སྟོན་ལྟ་བུ། ༼ཡང་རྩེ༽ རྩེ་མོ་ལས་ཀྱང་རྩེ་མོའི་མིང་། ༼ཡང་ཚ༽ ཚ་བོའི་བུ་སོགས། ༼ཡང་ཟབ༽ ཟབ་པ་ལས་ཀྱང་ཟབ་པ།</t>
         </is>
       </c>
@@ -812,13 +812,13 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 [vast-lake]; ocean; large lake</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
         </is>
       </c>
@@ -831,13 +831,13 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
@@ -850,13 +850,13 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 cross over; objection; object; disputation</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 རྒལ་གྱི་མ་འོངས་པ་དང་འདས་པ། ༼བརྒལ་བརྟག༽ རྒྱུ་མཚན་བཀོད་ནས་ཡིན་མིན་སོགས་བཤད་པའི་ཚིག་གི་མིང་སྟེ། རིགས་པས་བརྒལ་བརྟག་བྱེད་པ་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
@@ -869,13 +869,13 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Waldo
+          <t>Ives Waldo
 1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
         </is>
       </c>
@@ -888,13 +888,13 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 [as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
         </is>
       </c>
@@ -921,13 +921,13 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 [vast-lake]; ocean; large lake</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
@@ -966,13 +966,13 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 later; below; beneath; under</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་དངོས་རྫས་ས་ངོས་སུ་བསྟན་པའི་ཞབས་ངོས་ཀྱི་མིང་སྟེ། གདན་འོག་ཁྲི་འོག་རྡོ་འོག་ཏུ་མནན་ལྟ་བུ། ༢.འོག་མ་སྟེ། རིམ་པ་དམའ་ཤོས་ཀྱི་མིང་། དཔེར་ན། རང་འཐག་གི་འོག་རྡོ། རིམ་པ་འོག་མ། ཡི་གེའི་ཐིག་ཤར་འོག་མ། རྩིག་པའི་འོག་གཞི། གདན་སུམ་རྩེག་གི་འོག་མ་ལྟ་བུ། ༣.ཕྱི་མའམ་རྗེས་མའི་མིང་སྟེ། ཚིག་གོང་འོག་ལོ་གསུམ་འདས་པའི་འོག་ཏུ་ཞེས་པ་ལྟ་བུ། ༼འོག་ཤལ༽ བ་ལང་དང་མ་ཧེའི་སྐེ་འོག་ཏུ་འཕྱང་བའི་སྐྱི་མོའི་མིང་། ༤.ལུས་སྨད་ཀྱི་མིང་སྟེ། འོག་ཁེབས། འོག་པག ༼སྨད་གཡོགས། ༽ ཅེས་པ་ལྟ་བུ། ༼འོག་འགྱུ༽ རྟོག་པ་འོག་འགྱུར་ཏེ། སེམས་དབང་མེད་དུ་གཡེང་བའི་དོན།</t>
         </is>
       </c>
@@ -985,13 +985,13 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
@@ -1004,13 +1004,13 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 eye</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་གཟུགས་མཐོང་བྱེད་ཀྱི་དབང་བོ་འི་མིང་། ༼མིག་དམར༽ ༼༡༽ རེས་གཟའ་བདུན་གྱི་གཉིས་པ། ༼༢༽ མིག་མདོག་དམར་པོ་། ༼མིག་འབྲས༽ ཕལ་སྐད་དུ་མིག་རིལ་ཟེར་བ་དེ་ཡིན། ༼མིག་སྐྱག༽ མིག་གྲུ་ལ་ཆགས་པའི་དྲི་མ། ༼མིག་ལྟོས༽ མི་རྣམས་ཀྱིས་ལེགས་པའི་དཔེ་ཚད་དུ་བྱེད་འོས་པའི་བྱ་སྤྱོད་དང་བྱ་སྤྱོད་དེ་ལྟ་བུ་ལྡན་པའི་མི་སྟེ། མིག་ལྟོས་བྱེད་འོས་པའི་བྱ་བ། མི་གཞུང་དྲང་ཤེས་ཅན་ནི་ང་ཚོས་མིག་ལྟོས་བྱེད་ས་ཡིན་ལྟ་བུ། ༼མིག་སྐྱི༽ མིག་འབྲས་ཀྱི་ཕྱི་ངོས་ཀྱི་སྐྱི་མོ་སྲབ་ཅིང་དྭངས་པའི་མིང་། ༼མིག་ལྕིབས༽ མིག་འབྲས་འགེབ་ཐུབ་པའི་མིག་མཐའི་སྐྱི་མོའི་མིང་། ༼མིག་ཚག༽ མིག་ནད་ཅིག་གི་མིང་སྟེ། ཚབས་ཆེན་དུ་གྱུར་ན་མིག་རལ་འགྲོ། ༼མིག་ཡོར༽ མིག་འཁྲུལ་བར་བྱེད་པའི་གཟུགས་བརྙན་ལྟ་བུའི་མིང་། ༼མིག་ལོག༽ ཁྲོ་བའམ་མི་དགའ་བའི་ལྟ་སྟངས་ཏེ། མིག་ལོག་གིས་བལྟས་ཟེར་བ་ལྟ་བུ། ༢.བུ་ག་ཆུང་ངུའི་མིང་སྟེ། མིག་བུ། ཁབ་མིག་དྲ་མིག་འཇུར་མིག་ཅེས་པ་སོགས་ལྟ་བུ། ༼མིག་མང༽ ༼༡༽ རྩེད་མོ་ཞིག་སྟེ། ཕལ་སྐད་དུ་འཇིག་ཟེར། ༢.འབྲུ་རིགས་ཚགས་བྱེད་ཀྱི་ཡོ་བྱད་ཅིག་སྟེ། ཁྲོལ་མ་ཡང་ཟེར། ༼མིག་དར་བསལ་བ༽ ནང་འཇུག་གི་ནང་གསེས་ཏེ། སློབ་མ་རྣམས་མ་རིག་གཉིས་འཛིན་གྱིས་ལྡོངས་པའི་མཚོན་བྱེད་མིག་དར་ཏེ་གདོང་གཡོགས་བསལ་བ་དང་མཉམ་དུ་མ་རིག་པ་བསལ་ནས། རིག་པ་ཡེ་ཤེས་ལྷའི་ངོ་བོ་ཇི་ལྟ་བར་གསལ་བ་ལ་མིག་དར་བསལ་བ་ཞེས་བྱའོ། །</t>
         </is>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 both</t>
         </is>
       </c>
@@ -1042,13 +1042,13 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Barron
+          <t>Richard Barron
 blind; མིག་ལོང་བ blind</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 མིག་དབང་ཉམས་པའི་མི་མིང་བསྡུས་ན་ལོང་ཞེས་འབྲི་ཆོག་སྟེ། དམུས་ལོང་། སྲོད་ལོང་ཞེས་པ་ལྟ་བུ། ༼ལོང་ཁྲིད༽ ༼༡༽ ལོང་བའི་ལག་རྟེན་དབྱུ་གུའི་མིང་། ༼༢༽ ལོང་བ་འཁྲིད་མཁན་གྱི་མི།</t>
         </is>
       </c>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 is; (T) being</t>
         </is>
       </c>
@@ -1087,13 +1087,13 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 great; large; big; great one</t>
         </is>
       </c>
@@ -1125,13 +1125,13 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) particle indicating "a" [often untranslatable]; (2) disintegrate; destroy; perish [past tense]</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཅིག་ལ་ལྟོས། ༢.འཇིག་གི་སྐུལ་ཚིག་ལ་ཞིག་འབྲི་བའང་ཡོད། ༣.ཞིག་པོ་ཡི་ཚིག་བསྡུས་པ།</t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Waldo
+          <t>Ives Waldo
 exists, existed * there are/_were</t>
         </is>
       </c>
@@ -1164,13 +1164,13 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
@@ -1183,13 +1183,13 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
@@ -1209,13 +1209,13 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 [vast-lake]; ocean; large lake</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
         </is>
       </c>
@@ -1235,13 +1235,13 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 in; internal; inside; interior; house</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 accusative, adverbial accusative, dative, and locative particle: to; in; as; -ly; at; many; plural</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་གྲངས་ཅི་ཙམ་གྱི་དོན་དྲིས་པ་སྟེ། རྟ་དུ་ཡོད། ལུག་དུ་འཚོས། མི་དུ་འོངས་ལྟ་བུ་། ༢.དུ་བ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༣.ལ་དོན་ལ་འཇུག་པ་ནི་ལ་ལ་ལྟོས།</t>
         </is>
       </c>
@@ -1273,13 +1273,13 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 created phenomenon; created; man; human being [synonymous with skyes bu]; produce; grow; be born; persons; that which is created</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ན་ཚོད་སྨིན་པའི་མི་ཕོའི་མིང་སྟེ། སྐྱེས་པ་ཁྱོ་ག་སྐྱེས་པ་དང་བུད་མེད་ཅེས་པ་ལྟ་བུ། ཚིག་བསྡུས་ན་སྐྱེས་ཞེས་འབྲི་ཆོག་སྟེ། སྐྱེས་ཕོ་མོ་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Waldo
+          <t>Ives Waldo
 edible plants/_vegetables</t>
         </is>
       </c>
@@ -1318,13 +1318,13 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
@@ -1337,13 +1337,13 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 reasoning; lineage</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་རྣམ་གྲངས་སོ་སོའམ་སྣ་ག་སོ་སོར་ཕྱེ་བའི་ཚན་ཁག་གི་མིང་སྟེ། སྒོ་ཕྱུགས་རིགས་མཐུན། ལོ་ཏོག་རིགས་མི་འདྲ་བ། བཟོ་ལས་རིགས་མང་བོ་། ལྕགས་རིགས་མདོག་མི་འདྲ་བ་ཞེས་པ་སོགས་ལྟ་བུ། ༢.འོས་པའམ་རུང་བའི་དོན་ཏེ། ཁྲིམས་འགལ་གྱི་བྱ་སྤྱོད་བྱེད་མི་རིགས། ཚིག་ངན་བཤད་རིགས་སམ་ལྟ་བུ། ༣.ཁྱད་ཆོས་ཐུན་མོང་བ་ཡོད་པའི་ཁོངས་གཏོགས་ཀྱི་མིང་སྟེ། མི་རིགས། བོད་རིགས། རྒྱ་རིགས། རིགས་རུས་ཞེས་པ་སོགས་ལྟ་བུ། ༼རིགས་རྒྱུད༽ མི་རྒྱུད་ཕྱི་མ་སྟེ། རིགས་རྒྱུད་འཕེལ་ཞེས་པ་ལྟ་བུ། ༤.རིགས་པ་ཞེས་པའི་ཚིག་བསྡུས་པ།</t>
         </is>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 many; much</t>
         </is>
       </c>
@@ -1375,13 +1375,13 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 eat [imperfect stem]; food</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཟ་ཡི་འདས་པ། ༢.འཛའ་ཡི་འདས་པ། ༣.ཟ་ཡི་འདས་པ།</t>
         </is>
       </c>
@@ -1394,13 +1394,13 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) ablative particle: from; than; (2) barley</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
@@ -1413,13 +1413,13 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 year; [particle indicating the end of a statement]; leaf; petal (=lo ma)</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཡུན་ཚད་ཀྱི་སྡེ་ཚན་ཏེ། སའི་གོ་ལས་ཉི་མར་སྐོར་བ་གཅིག་ལོངས་པའི་ཡུན་ཚད་ནི་ལོ་གཅིག་ཡིན། ལོ་གཅིག་ལ་ཟླ་བ་བཅུ་གཉིས་ཡོད། ལུགས་གསར་གྱི་ཟླ་བ་གཅིག་ལ་ཉིན་སུམ་ཅུའམ་སོ་གཅིག་ཡིན། ཟླ་བ་གཉིས་ལ་ཉིན་ཉེར་བརྒྱད་དང་ཉེར་དགུ་ཡིན། ཟླ་ཤོལ་ལམ་ཟླ་ལྷག་ཡོད་པའི་ལོ་ལ་ལོ་གཅིག་ནི་ཟླ་བ་བཅུ་གསུམ་ཡིན། ལུགས་གསར་ལ་རྒྱུན་ལྡན་གྱི་ལོ་གཅིག་ལ་ཉིན་ཞག་སུམ་བརྒྱ་རེ་ལྔ་དང་ཤོལ་ལོ་ལ་ཉིན་ཞག་སུམ་བ་རྒྱ་རེ་དྲུག་ཏུ་གཏན་ཁེལ་བྱས་ཡོད། ༼ལོ་སྐོར་བཅུ་གཉིས༽ ལུགས་རྙིང་གི་ལོ་ཟླ་ཞག་དུས་སོགས་རྩི་བྱེད་ཀྱི་གྲངས་ཀ་མཚོན་བྱེད་ཅིག་སྟེ། བྱི་བ། གླང། སྟག་ཡོས། འབྲུག་སྦྲུལ། རྟ། ལུག་སྤྲེལ། བྱ། ཁྱི། ཕག་རྣམས་ཡིན། ༼ལོ་རྒན་དྲུག་ཅུ༽ ལོ་སྐོར་བཅུ་གཉིས་ལ། ཤིང་ཕོ་ཤིང་མོ། མེ་ཕོ་མེ་མོ། ས་ཕོ་ས་མོ། ལྕགས་ཕོ་ལྕགས་མོ། ཆུ་ཕོ་ཆུ་མོ་བཅས་སྦྱར་ཏེ། ཤིང་ཕོ་བྱི་བ་ནས་ཆུ་མོ་ཕག་གི་བར་དྲུག་ཅུ་ཡིན། ༼ལོ་རྒྱུས༽ ༼༡༽ མིའི་རིགས་ཀྱི་སྤྱི་ཚོགས་དང་རང་བྱུང་ཁམས་ཀྱི་འདས་ཚར་བའི་སྔོན་བྱུང་གི་བྱ་བ་དང་། སྔོན་བྱུང་གི་ལོ་རྒྱུས་བཀོད་པའི་ཡི་གེ་དང་ལོ་རྒྱུས་ལ་བརྟག་དཔྱད་བྱེད་པའི་ཚན་རིག་གཉིས་ཀྱི་མིང་། ༢.མི་རྣམས་ཀྱི་ངག་རྒྱུན་ལ་གྲགས་པའི་གཏམ་རྒྱུད་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། རྒན་པོས་བྱིས་པ་ལ་ལོ་རྒྱུས་བཤད་ལྟ་བུ། ༣.རྒྱུ་མཚན་ནམ་གནས་ཚུལ་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། ཁོས་ཁོ་རང་གི་ལོ་རྒྱུས་རྣམས་བཤད་པས། ཐམས་ཅད་ཡིད་ཆེས་པར་གྱུར་ཅེས་པ་ལྟ་བུ། ༼ལོ་ཐོ༽ ལི་ཐོ་ཡི་མིང་གཞན། ༼ལོ་རེས༽ ལོ་སྐོར་ཟླ་བ་བཅུ་གཉིས་ལྟར་མིའི་ལོ་གྲངས་རྩི་བྱེད་ཅིག་སྟེ། བྱིས་པ་འདིའི་ལོ་རེས་ཕག་ཡིན། ངའི་ལོ་རེས་ལུག་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ལོ་བ༽ ལོ་རེས་དང་དོན་འདྲ་སྟེ། བུ་སྟག་ལོ་བ་ཞེས་པ་ལྟ་བུ། ༢.མིའི་ན་ཚོད་ཀྱི་མིང་སྟེ། ལོ་གཞོན། ལོ་རྒན་པ། དགུང་ལོ་བགྲེས་པ་ཞེས་པ་ལྟ་བུ། ༣.ལོ་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.རྫོགས་ཚིག་ལ་འཇུག་པ་ནི་གོ་ལ་ལྟོས། ༥.བརྡ་རྙིང་དུ་མ་རང་བའམ་མི་འཐད་པ་སྟོན་པའི་ཚིག་གྲོགས་ལ་འཇུག་སྟེ། ནམ་མཁའ་རྟག་པ་ཡིན་ཞེས་གྲགས་སོ་ལོ། ཡིན་ནོ་ལོ་ཞེས་པ་ལྟ་བུ། ༦.ལོ་ཏོག་གི་མིང་བསྡུས་པ།</t>
         </is>
       </c>
@@ -1432,13 +1432,13 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 hundred</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་གྲངས་ཀ་སྟེ། བཅུ་ཕྲ་ག་བཅུ་ནི་བརྒྱ་ཡིན། དཔེར་ན། བརྒྱ་ཕྲག་གཅིག་བརྒྱ་ཕྲག་གཉིས། ཉིས་བརྒྱ། སུམ་བརྒྱ་ལྟ་བུ། ༢.མང་ཚིག་ལ་འཇུག་པ་ནི། བརྒྱ་བཤད་སྟོང་བཤད། མཁས་བརྒྱས་འགྲན་གླེང་བྱེད་ལྟ་བུ། ༼བརྒྱ་ཆ་བསྡུར་བ༽ བརྒྱ་ཆའི་ཚད་ཀྱི་སྒོ་ནས་ཁ་གྲངས་གཉིས་ཀྱི་འབྲེལ་བ་མཚོན་ཚུལ་ཞིག་ཡིན་ཞིང་། དཔེར་ན་སློབ་གྲྭ་ཞིག་ན་སློབ་གྲྭ་བ་ལྔ་བཅུ་ཡོད་པའི་ནང་གི་མི་ཉི་ཤུ་བུ་མོ་ཡིན་ན། འཛིན་གྲྭ་དེའི་ནང་གི་བུ་མོའི་ཁ་གྲངས་ཀྱིས་བརྒྱ་ཆའི་ཟིན་ཚད་ནི་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ། ༼བརྒྱ་ཆའི་ཚད༽ ཁ་གྲངས་ཀ་པ་ནི་མ་གྲངས་དང་། ཁ་གྲངས་ཁ་པ་ནི་ཆ་གྲངས་བྱས་ན། ཁ་གྲངས་ཁ་པས་ཟིན་པའི་ཁ་གྲངས་ཀ་པའི་བརྒྱ་ཆའི་གྲངས་ཀ་ནི་བརྒྱ་ཆའི་ཚད་ཡིན། དཔེར་ན་ལྔ་ཆ་གཉིས་ཡི་ཆ་གྲངས་ནི་བརྒྱ་ཆའི་ཚད་ཀྱིས་མཚོན་ན་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ་རེད། ༼བརྒྱ་ཆའི་རྟགས༽ རྟགས་འདི་ལ་ཟེར།</t>
         </is>
       </c>
@@ -1451,13 +1451,13 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 [an intensifier:] special; surpassing; exceeding; beyond; more; surpassing; superior; unusual; remaining; greater than</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་གཞན་ལས་ཁྱད་པར་དུ་འཕགས་པའི་དོན་ཏེ། མི་རབས་གཅིག་ལས་གཅིག་ལྷག་ཡིན། སྔར་ལས་ཀྱང་ལྷག་པའི་བདེ་སྐྱིད་འབྱུང་ལྟ་བུ། ༢.གྲངས་ཚད་ལས་འདས་པའམ་བགོས་པ་དང་སྤྱད་ནས་འཕྲོ་མ་ཡོད་པའི་དོན་ཏེ། ཞིང་པ་ས་འ་བྲུ་ལྷག་བཙོངས། བརྒྱ་ལས་དྲུག་ཅུ་བླངས་ན་བཞི་བཅུ་ལྷག་ལྟ་བུ། ༼ལྷག་བཅས༽ བོད་ཡིག་གི་ཏེ་དེ་སྟེ་གསུམ་ལ་ལྷག་བཅས་སམ་ལྷག་བཅས་ཀྱི་སྒྲ་ཟེར། འཇུག་ཚུལ་ཏེ་ལ་བལྟོས། ༼ལྷག་པ༽ ༼༡༽ གྲངས་ཚད་ལས་འདས་པའམ་བགོས་པ་དང་སྤྱད་པའི་འཕྲོ་མའི་མིང་སྟེ། ༼རྩ་ཁྲིམས༽ དེབ་བརྒྱ་ཡོད་པ་ལས་མི་དགུ་བཅུ་ལ་དེབ་རེ་རེ་བྱིན་ན་ད་དུང་དེབ་བཅུ་ལྷག་པ་ཡོད། འབྲུ་རྒྱ་མ་ཆིག་སྟོང་སུམ་བརྒྱ་ཡོད་པ་ཞིང་བ་གཉིས་ལ་རྒྱ་མ་དྲུག་བ་རྒྱ་རེ་བགོས་ན་ད་དུང་ལྷག་པ་རྒྱ་མ་བརྒྱ་ཡོད་ལྟ་བུ། ༼༢༽ རེས་གཟའ་གསུམ་པའི་མིང་། ༼ལྷག་མ༽ ལོངས་སྤྱོད་པའམ་བགོས་ནས་མ་ཚར་བར་ལུས་པའི་དངོས་རྫས་ཀྱི་མིང་སྟེ། ཟས་ཀྱི་ལྷག་མ། འབྲུ་རིགས་ཀྱི་ལྷག་མ་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
@@ -1470,13 +1470,13 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
@@ -1489,13 +1489,13 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 long; length; distant</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡. ༼ཀ༽ དབྱིབས་རིང་བོ་སྟེ། ཀ་བ་རིང་བོ། ཀ་རིང་། ལྭ་བ་ཧ་ཅང་རིང་བ་ཞེས་པ་ལྟ་བུ། ༼ཁ༽ ཐག་ཉེ་རིང་གི་རིང་སྟེ། རྒྱང་རིང་བོ། རྒྱང་རིང། ས་ཁ་ཐག་རིང་བོ། བར་ཐག་ཧ་ཅང་རིང་བ་ཞེས་པ་ལྟ་བུ། ༢.དུས་སྐབས་ངེས་ཅན་ཞིག་གི་མིང་སྟེ། ལོ་གཅིག་གི་རིང་ལ། ཟླ་གཉིས་ཀྱི་རིང་། ཉིན་གསུམ་གྱི་རིང་ལ། རྒྱལ་རིང་། སྐུ་རིང་། ཕ་རིང་། བུ་རིང་ཞེས་པ་ལྟ་བུ། ༼རིང་མོ༽ ༼༡༽ མིང་བྱེ་བྲག་པའི་མཐར་སྦྱར་ན་རིང་བའི་ཁྱད་ཆོས་ཁྱད་པར་བ་ཞིག་ཡིན་པའི་དོན་ཏེ། མདོ་དབུས་གཞུང་ལམ་རིང་མོ། དར་ཤིང་རིང་མོ་ཞེས་པ་ལྟ་བུ། ༼༢༽ དུས་ཡུན་རིང་བོ་སྟེ། རིང་མོ་ཞིག་ནས་བརྡ་སྤྲོད་མདོར་བསྡུས་ཤིག་སྒྲིག་རྒྱུའི་འདུན་པ་ཡོད་ལྟ་བུ།</t>
         </is>
       </c>
@@ -1508,13 +1508,13 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
+          <t>Hopkins 2015
 (1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
@@ -1522,2229 +1522,2259 @@
     <row r="66" ht="50" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>གཉིད་ཁུག་</t>
+          <t>གཉིད་</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Valby
-to fall asleep</t>
+          <t>Gaeng, Wetzel
+sleepiness\nSanskrit: middham\nPali: middham</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཀླད་ཆེན་གྱི་པགས་རིམ་ངལ་གསོ་བའི་ངང་ལ་གནས་པའི་རྣམ་འགྱུར་གྱི་མིང་སྟེ། གཉིད་ལོག་ནས་རྨི་ལམ་རྨིས། གཉིད་སད། གཉིད་སངས། གཉིད་འབབ། གཉིད་བབས། གཉིད་ཡེར། གཉིད་མཐུག་པོ་ལོག་གཉིད་དུ་ཡུར་ལྟ་བུ། ༢.བྱེད་མེད་ལས་ཚིག་གཉིད་འབབ་པ་སྟེ། གཉིད་རྒྱུ་རེད། གཉིད་ཀྱིན་འདུག་གཉིད་སོང་སོགས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="67" ht="50" customHeight="1">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>གི་ཡོད་རེད</t>
+          <t>ཁུག་</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+1) ['Gugs pa!] [past: 'gugs] be drawn/_attracted, seduce, bow!; 2) solitary place; 3) nook, corner, ཁོ་སིམ་བུ, creek, inlet, bay, gulf</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་འབྲེལ་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བ༽ ཚོང་རྫས་སོགས་ཉོ་བྱེད་ཀྱི་དངུལ་འདང་བའི་དོན་ཏེ། སྒོར་མོ་གཅིག་གིས་ཀ་ར་རྒྱ་མ་གང་ཁུག་ལྟ་བུ། ༼ཁུགས༽ ནི་འདས་པ་སྟེ། སྒོར་མོ་སུམ་ཅུས་ལྭ་བ་ཆ་ཚང་ཞིག་ཁུགས་ནས་ད་དུང་ལྷག་མ་ཡོད་ལྟ་བུ། ༢.བཀུག་གི་སྐུལ་ཚིག ༣་ཁུག་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.ཁུགས་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="68" ht="50" customHeight="1">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>གི་ཡོད་རེད</t>
         </is>
       </c>
     </row>
     <row r="69" ht="50" customHeight="1">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>ལོ་</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-year; [particle indicating the end of a statement]; leaf; petal (=lo ma)</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཡུན་ཚད་ཀྱི་སྡེ་ཚན་ཏེ། སའི་གོ་ལས་ཉི་མར་སྐོར་བ་གཅིག་ལོངས་པའི་ཡུན་ཚད་ནི་ལོ་གཅིག་ཡིན། ལོ་གཅིག་ལ་ཟླ་བ་བཅུ་གཉིས་ཡོད། ལུགས་གསར་གྱི་ཟླ་བ་གཅིག་ལ་ཉིན་སུམ་ཅུའམ་སོ་གཅིག་ཡིན། ཟླ་བ་གཉིས་ལ་ཉིན་ཉེར་བརྒྱད་དང་ཉེར་དགུ་ཡིན། ཟླ་ཤོལ་ལམ་ཟླ་ལྷག་ཡོད་པའི་ལོ་ལ་ལོ་གཅིག་ནི་ཟླ་བ་བཅུ་གསུམ་ཡིན། ལུགས་གསར་ལ་རྒྱུན་ལྡན་གྱི་ལོ་གཅིག་ལ་ཉིན་ཞག་སུམ་བརྒྱ་རེ་ལྔ་དང་ཤོལ་ལོ་ལ་ཉིན་ཞག་སུམ་བ་རྒྱ་རེ་དྲུག་ཏུ་གཏན་ཁེལ་བྱས་ཡོད། ༼ལོ་སྐོར་བཅུ་གཉིས༽ ལུགས་རྙིང་གི་ལོ་ཟླ་ཞག་དུས་སོགས་རྩི་བྱེད་ཀྱི་གྲངས་ཀ་མཚོན་བྱེད་ཅིག་སྟེ། བྱི་བ། གླང། སྟག་ཡོས། འབྲུག་སྦྲུལ། རྟ། ལུག་སྤྲེལ། བྱ། ཁྱི། ཕག་རྣམས་ཡིན། ༼ལོ་རྒན་དྲུག་ཅུ༽ ལོ་སྐོར་བཅུ་གཉིས་ལ། ཤིང་ཕོ་ཤིང་མོ། མེ་ཕོ་མེ་མོ། ས་ཕོ་ས་མོ། ལྕགས་ཕོ་ལྕགས་མོ། ཆུ་ཕོ་ཆུ་མོ་བཅས་སྦྱར་ཏེ། ཤིང་ཕོ་བྱི་བ་ནས་ཆུ་མོ་ཕག་གི་བར་དྲུག་ཅུ་ཡིན། ༼ལོ་རྒྱུས༽ ༼༡༽ མིའི་རིགས་ཀྱི་སྤྱི་ཚོགས་དང་རང་བྱུང་ཁམས་ཀྱི་འདས་ཚར་བའི་སྔོན་བྱུང་གི་བྱ་བ་དང་། སྔོན་བྱུང་གི་ལོ་རྒྱུས་བཀོད་པའི་ཡི་གེ་དང་ལོ་རྒྱུས་ལ་བརྟག་དཔྱད་བྱེད་པའི་ཚན་རིག་གཉིས་ཀྱི་མིང་། ༢.མི་རྣམས་ཀྱི་ངག་རྒྱུན་ལ་གྲགས་པའི་གཏམ་རྒྱུད་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། རྒན་པོས་བྱིས་པ་ལ་ལོ་རྒྱུས་བཤད་ལྟ་བུ། ༣.རྒྱུ་མཚན་ནམ་གནས་ཚུལ་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། ཁོས་ཁོ་རང་གི་ལོ་རྒྱུས་རྣམས་བཤད་པས། ཐམས་ཅད་ཡིད་ཆེས་པར་གྱུར་ཅེས་པ་ལྟ་བུ། ༼ལོ་ཐོ༽ ལི་ཐོ་ཡི་མིང་གཞན། ༼ལོ་རེས༽ ལོ་སྐོར་ཟླ་བ་བཅུ་གཉིས་ལྟར་མིའི་ལོ་གྲངས་རྩི་བྱེད་ཅིག་སྟེ། བྱིས་པ་འདིའི་ལོ་རེས་ཕག་ཡིན། ངའི་ལོ་རེས་ལུག་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ལོ་བ༽ ལོ་རེས་དང་དོན་འདྲ་སྟེ། བུ་སྟག་ལོ་བ་ཞེས་པ་ལྟ་བུ། ༢.མིའི་ན་ཚོད་ཀྱི་མིང་སྟེ། ལོ་གཞོན། ལོ་རྒན་པ། དགུང་ལོ་བགྲེས་པ་ཞེས་པ་ལྟ་བུ། ༣.ལོ་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.རྫོགས་ཚིག་ལ་འཇུག་པ་ནི་གོ་ལ་ལྟོས། ༥.བརྡ་རྙིང་དུ་མ་རང་བའམ་མི་འཐད་པ་སྟོན་པའི་ཚིག་གྲོགས་ལ་འཇུག་སྟེ། ནམ་མཁའ་རྟག་པ་ཡིན་ཞེས་གྲགས་སོ་ལོ། ཡིན་ནོ་ལོ་ཞེས་པ་ལྟ་བུ། ༦.ལོ་ཏོག་གི་མིང་བསྡུས་པ།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="70" ht="50" customHeight="1">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>བརྒྱ་</t>
+          <t>ལོ་</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-hundred</t>
+          <t>Hopkins 2015
+year; [particle indicating the end of a statement]; leaf; petal (=lo ma)</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་གྲངས་ཀ་སྟེ། བཅུ་ཕྲ་ག་བཅུ་ནི་བརྒྱ་ཡིན། དཔེར་ན། བརྒྱ་ཕྲག་གཅིག་བརྒྱ་ཕྲག་གཉིས། ཉིས་བརྒྱ། སུམ་བརྒྱ་ལྟ་བུ། ༢.མང་ཚིག་ལ་འཇུག་པ་ནི། བརྒྱ་བཤད་སྟོང་བཤད། མཁས་བརྒྱས་འགྲན་གླེང་བྱེད་ལྟ་བུ། ༼བརྒྱ་ཆ་བསྡུར་བ༽ བརྒྱ་ཆའི་ཚད་ཀྱི་སྒོ་ནས་ཁ་གྲངས་གཉིས་ཀྱི་འབྲེལ་བ་མཚོན་ཚུལ་ཞིག་ཡིན་ཞིང་། དཔེར་ན་སློབ་གྲྭ་ཞིག་ན་སློབ་གྲྭ་བ་ལྔ་བཅུ་ཡོད་པའི་ནང་གི་མི་ཉི་ཤུ་བུ་མོ་ཡིན་ན། འཛིན་གྲྭ་དེའི་ནང་གི་བུ་མོའི་ཁ་གྲངས་ཀྱིས་བརྒྱ་ཆའི་ཟིན་ཚད་ནི་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ། ༼བརྒྱ་ཆའི་ཚད༽ ཁ་གྲངས་ཀ་པ་ནི་མ་གྲངས་དང་། ཁ་གྲངས་ཁ་པ་ནི་ཆ་གྲངས་བྱས་ན། ཁ་གྲངས་ཁ་པས་ཟིན་པའི་ཁ་གྲངས་ཀ་པའི་བརྒྱ་ཆའི་གྲངས་ཀ་ནི་བརྒྱ་ཆའི་ཚད་ཡིན། དཔེར་ན་ལྔ་ཆ་གཉིས་ཡི་ཆ་གྲངས་ནི་བརྒྱ་ཆའི་ཚད་ཀྱིས་མཚོན་ན་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ་རེད། ༼བརྒྱ་ཆའི་རྟགས༽ རྟགས་འདི་ལ་ཟེར།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཡུན་ཚད་ཀྱི་སྡེ་ཚན་ཏེ། སའི་གོ་ལས་ཉི་མར་སྐོར་བ་གཅིག་ལོངས་པའི་ཡུན་ཚད་ནི་ལོ་གཅིག་ཡིན། ལོ་གཅིག་ལ་ཟླ་བ་བཅུ་གཉིས་ཡོད། ལུགས་གསར་གྱི་ཟླ་བ་གཅིག་ལ་ཉིན་སུམ་ཅུའམ་སོ་གཅིག་ཡིན། ཟླ་བ་གཉིས་ལ་ཉིན་ཉེར་བརྒྱད་དང་ཉེར་དགུ་ཡིན། ཟླ་ཤོལ་ལམ་ཟླ་ལྷག་ཡོད་པའི་ལོ་ལ་ལོ་གཅིག་ནི་ཟླ་བ་བཅུ་གསུམ་ཡིན། ལུགས་གསར་ལ་རྒྱུན་ལྡན་གྱི་ལོ་གཅིག་ལ་ཉིན་ཞག་སུམ་བརྒྱ་རེ་ལྔ་དང་ཤོལ་ལོ་ལ་ཉིན་ཞག་སུམ་བ་རྒྱ་རེ་དྲུག་ཏུ་གཏན་ཁེལ་བྱས་ཡོད། ༼ལོ་སྐོར་བཅུ་གཉིས༽ ལུགས་རྙིང་གི་ལོ་ཟླ་ཞག་དུས་སོགས་རྩི་བྱེད་ཀྱི་གྲངས་ཀ་མཚོན་བྱེད་ཅིག་སྟེ། བྱི་བ། གླང། སྟག་ཡོས། འབྲུག་སྦྲུལ། རྟ། ལུག་སྤྲེལ། བྱ། ཁྱི། ཕག་རྣམས་ཡིན། ༼ལོ་རྒན་དྲུག་ཅུ༽ ལོ་སྐོར་བཅུ་གཉིས་ལ། ཤིང་ཕོ་ཤིང་མོ། མེ་ཕོ་མེ་མོ། ས་ཕོ་ས་མོ། ལྕགས་ཕོ་ལྕགས་མོ། ཆུ་ཕོ་ཆུ་མོ་བཅས་སྦྱར་ཏེ། ཤིང་ཕོ་བྱི་བ་ནས་ཆུ་མོ་ཕག་གི་བར་དྲུག་ཅུ་ཡིན། ༼ལོ་རྒྱུས༽ ༼༡༽ མིའི་རིགས་ཀྱི་སྤྱི་ཚོགས་དང་རང་བྱུང་ཁམས་ཀྱི་འདས་ཚར་བའི་སྔོན་བྱུང་གི་བྱ་བ་དང་། སྔོན་བྱུང་གི་ལོ་རྒྱུས་བཀོད་པའི་ཡི་གེ་དང་ལོ་རྒྱུས་ལ་བརྟག་དཔྱད་བྱེད་པའི་ཚན་རིག་གཉིས་ཀྱི་མིང་། ༢.མི་རྣམས་ཀྱི་ངག་རྒྱུན་ལ་གྲགས་པའི་གཏམ་རྒྱུད་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། རྒན་པོས་བྱིས་པ་ལ་ལོ་རྒྱུས་བཤད་ལྟ་བུ། ༣.རྒྱུ་མཚན་ནམ་གནས་ཚུལ་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། ཁོས་ཁོ་རང་གི་ལོ་རྒྱུས་རྣམས་བཤད་པས། ཐམས་ཅད་ཡིད་ཆེས་པར་གྱུར་ཅེས་པ་ལྟ་བུ། ༼ལོ་ཐོ༽ ལི་ཐོ་ཡི་མིང་གཞན། ༼ལོ་རེས༽ ལོ་སྐོར་ཟླ་བ་བཅུ་གཉིས་ལྟར་མིའི་ལོ་གྲངས་རྩི་བྱེད་ཅིག་སྟེ། བྱིས་པ་འདིའི་ལོ་རེས་ཕག་ཡིན། ངའི་ལོ་རེས་ལུག་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ལོ་བ༽ ལོ་རེས་དང་དོན་འདྲ་སྟེ། བུ་སྟག་ལོ་བ་ཞེས་པ་ལྟ་བུ། ༢.མིའི་ན་ཚོད་ཀྱི་མིང་སྟེ། ལོ་གཞོན། ལོ་རྒན་པ། དགུང་ལོ་བགྲེས་པ་ཞེས་པ་ལྟ་བུ། ༣.ལོ་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.རྫོགས་ཚིག་ལ་འཇུག་པ་ནི་གོ་ལ་ལྟོས། ༥.བརྡ་རྙིང་དུ་མ་རང་བའམ་མི་འཐད་པ་སྟོན་པའི་ཚིག་གྲོགས་ལ་འཇུག་སྟེ། ནམ་མཁའ་རྟག་པ་ཡིན་ཞེས་གྲགས་སོ་ལོ། ཡིན་ནོ་ལོ་ཞེས་པ་ལྟ་བུ། ༦.ལོ་ཏོག་གི་མིང་བསྡུས་པ།</t>
         </is>
       </c>
     </row>
     <row r="71" ht="50" customHeight="1">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>རེ</t>
+          <t>བརྒྱ་</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-each; every; single; hope</t>
+          <t>Hopkins 2015
+hundred</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡. ༼བྱེད་འབྲེལ་ལས་ཚིག༽ དོན་བྱ་ཞིག་འགྲུབ་འདོད་པའམ་ལས་དོན་ཞིག་འབྱུང་འདོད་པ་སྟེ། རང་གིས་ངལ་རྩོལ་བྱས་ན། ཟས་གོས་མི་ལ་རེ་མི་དགོས། སྐོམ་པས་ཆུ་ལ་རེ། ལོ་ཡག་བསྐལ་བཟང་འབྱུང་བར་རེ་ལྟ་བུ། ༢.༼ཀ༽ རྐྱང་བ་འམ་སོ་སོ་བའི་དོན་ཏེ། ཁྱིམ་རེ་ནས་མི་རེ་འོངས། མི་རེའི་ཁ་ནས་གཏམ་རེ་བཤད། ལུག་ཁྱུ་གཅིག་རེ་ལ་ལུག་སུམ་བརྒྱ་རེ་ཡོད་ལྟ་བུ། ༼རེ་རེ་གཉིས་རེ༽ གྲངས་ཀ་ཧ་ཅང་ཉུང་བའི་དོན་ཏེ། མི་མང་ཆེ་བ་ནི་བཟང་བོ་ཡིན། ངན་པ་ནི་རེ་རེ་གཉིས་རེ་ཡིན་ལྟ་བུ། ༼ཁ༽ དྲུག་ཅུའི་མཚོན་བྱེད་དེ། རེ་གཅིག་རེ་དགུ་ཞེས་པ་ལྟ་བུ། ༣.གེ་ལ་ལྟོས། ༤.རེ་བ་ཡི་ཚིག་བསྡུས་པ། ༥.རེའུ་ཞེས་པ་བསྡུས་ནས་བྲིས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་གྲངས་ཀ་སྟེ། བཅུ་ཕྲ་ག་བཅུ་ནི་བརྒྱ་ཡིན། དཔེར་ན། བརྒྱ་ཕྲག་གཅིག་བརྒྱ་ཕྲག་གཉིས། ཉིས་བརྒྱ། སུམ་བརྒྱ་ལྟ་བུ། ༢.མང་ཚིག་ལ་འཇུག་པ་ནི། བརྒྱ་བཤད་སྟོང་བཤད། མཁས་བརྒྱས་འགྲན་གླེང་བྱེད་ལྟ་བུ། ༼བརྒྱ་ཆ་བསྡུར་བ༽ བརྒྱ་ཆའི་ཚད་ཀྱི་སྒོ་ནས་ཁ་གྲངས་གཉིས་ཀྱི་འབྲེལ་བ་མཚོན་ཚུལ་ཞིག་ཡིན་ཞིང་། དཔེར་ན་སློབ་གྲྭ་ཞིག་ན་སློབ་གྲྭ་བ་ལྔ་བཅུ་ཡོད་པའི་ནང་གི་མི་ཉི་ཤུ་བུ་མོ་ཡིན་ན། འཛིན་གྲྭ་དེའི་ནང་གི་བུ་མོའི་ཁ་གྲངས་ཀྱིས་བརྒྱ་ཆའི་ཟིན་ཚད་ནི་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ། ༼བརྒྱ་ཆའི་ཚད༽ ཁ་གྲངས་ཀ་པ་ནི་མ་གྲངས་དང་། ཁ་གྲངས་ཁ་པ་ནི་ཆ་གྲངས་བྱས་ན། ཁ་གྲངས་ཁ་པས་ཟིན་པའི་ཁ་གྲངས་ཀ་པའི་བརྒྱ་ཆའི་གྲངས་ཀ་ནི་བརྒྱ་ཆའི་ཚད་ཡིན། དཔེར་ན་ལྔ་ཆ་གཉིས་ཡི་ཆ་གྲངས་ནི་བརྒྱ་ཆའི་ཚད་ཀྱིས་མཚོན་ན་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ་རེད། ༼བརྒྱ་ཆའི་རྟགས༽ རྟགས་འདི་ལ་ཟེར།</t>
         </is>
       </c>
     </row>
     <row r="72" ht="50" customHeight="1">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t>རེ</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+each; every; single; hope</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་འབྲེལ་ལས་ཚིག༽ དོན་བྱ་ཞིག་འགྲུབ་འདོད་པའམ་ལས་དོན་ཞིག་འབྱུང་འདོད་པ་སྟེ། རང་གིས་ངལ་རྩོལ་བྱས་ན། ཟས་གོས་མི་ལ་རེ་མི་དགོས། སྐོམ་པས་ཆུ་ལ་རེ། ལོ་ཡག་བསྐལ་བཟང་འབྱུང་བར་རེ་ལྟ་བུ། ༢.༼ཀ༽ རྐྱང་བ་འམ་སོ་སོ་བའི་དོན་ཏེ། ཁྱིམ་རེ་ནས་མི་རེ་འོངས། མི་རེའི་ཁ་ནས་གཏམ་རེ་བཤད། ལུག་ཁྱུ་གཅིག་རེ་ལ་ལུག་སུམ་བརྒྱ་རེ་ཡོད་ལྟ་བུ། ༼རེ་རེ་གཉིས་རེ༽ གྲངས་ཀ་ཧ་ཅང་ཉུང་བའི་དོན་ཏེ། མི་མང་ཆེ་བ་ནི་བཟང་བོ་ཡིན། ངན་པ་ནི་རེ་རེ་གཉིས་རེ་ཡིན་ལྟ་བུ། ༼ཁ༽ དྲུག་ཅུའི་མཚོན་བྱེད་དེ། རེ་གཅིག་རེ་དགུ་ཞེས་པ་ལྟ་བུ། ༣.གེ་ལ་ལྟོས། ༤.རེ་བ་ཡི་ཚིག་བསྡུས་པ། ༥.རེའུ་ཞེས་པ་བསྡུས་ནས་བྲིས་པ།</t>
         </is>
       </c>
     </row>
     <row r="73" ht="50" customHeight="1">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>མཚམས་</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-intermediate space; border; juncture; limit; gap between lives; intermediate directions</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དངོས་པོ་གཉིས་ཐུག་སའི་བར་གྱི་མིང་སྟེ། ཚིགས་མཚམས་བར་མཚམས། རི་ཐང་གཉིས་ཀྱི་མཚམས་ཞེས་པ་ལྟ་བུ། ༼མཚམས་སྤྲིན༽ ནངས་མོ་ཉི་མ་འཆར་ཁའི་སྤྲིན་དམར་སེར་དང་། དགོང་མོ་ཉི་མ་ནུབ་ནས་ས་རུབ་ཁའི་སྤྲིན་ཚོན་མདོག་ཅན་གྱི་མིང་། ༢.བྱ་སྤྱོད་སོགས་སྔ་ཕྱིའི་འབྲེལ་སའི་མིང་སྟེ། ཚིག་མཚམས། ལས་ཀ་ལས་མཚམས། སློབ་སྦྱོང་མཚམས་མ་བཞག་པར་བྱས་ལྟ་བུ། ༼མཚམས་སྦྱོར༽ ༼༡༽ མི་ཕན་ཚུན་ངོ་སྤྲད་པའི་དོན་ཏེ། ངས་བྱིས་པ་དགེ་རྒན་ལ་མཚམས་སྦྱོར་བྱས་ལྟ་བུ། ༼༢༽ ཚིག་དོན་སོགས་སྔ་ཕྱི་འབྲེལ་བར་བྱས་པའི་དོན་ཏེ། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བྱས་ལྟ་བུ། ༼༣༽ ཕན་ཚུན་ངོ་སྤྲད་པ་དང་ཚིག་སྔ་ཕྱི་སོགས་འབྲེལ་བར་བྱེད་པའི་ལས་ཚིག་ལ་འཇུག་པ་ནི། དགེ་རྒན་མཚམས་སྦྱོར་མཁན། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བྱེད་ཀྱི་ཚིག་ཕྲད། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱར་ཏེ་ཞེས་པ་ལྟ་བུ། ༼མཚམས་ཚིག༽ སྔ་ཕྱིའི་རིམ་པའམ་སྐབས་རིམ་གྱི་མིང་སྟེ། རྟས་རྩྭ་མཚམས་ཚིགས་མེད་པར་ཟ་ལྟ་བུ། ༣.ཕྱོགས་བཞིའི་མཚམས་ཀྱི་མིང་སྟེ། ཕྱོགས་བཞི་མཚམས་བརྒྱད། ཤར་ལྷོའི་མཚམས་ཞེས་པ་ལྟ་བུ། ༤.སྔ་ཕྱི་འབྲེལ་བའི་རྒྱུན་གྱི་མིང་སྟེ། ནད་ཡམས་མཚམས་ཆད། བྱ་ངན་མཚམས་ཆད། མཚམས་མེད་པར་སློབ་སྦྱོང་བྱས་ལྟ་བུ།</t>
+          <t>འི་</t>
         </is>
       </c>
     </row>
     <row r="74" ht="50" customHeight="1">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>སུ་</t>
+          <t>མཚམས་</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-[accusative, adverbial accusative, dative, and locative particle:] to; in; as; -ly; at; who?</t>
+          <t>Hopkins 2015
+intermediate space; border; juncture; limit; gap between lives; intermediate directions</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིའི་ཚབ་ཚིག་སྟེ། སུ་འོངས་སམ། སུས་བཤད་དམ། སུའི་དཔེ་ཆ་རེད་དམ་ལྟ་བུ། ༢.ལ་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དངོས་པོ་གཉིས་ཐུག་སའི་བར་གྱི་མིང་སྟེ། ཚིགས་མཚམས་བར་མཚམས། རི་ཐང་གཉིས་ཀྱི་མཚམས་ཞེས་པ་ལྟ་བུ། ༼མཚམས་སྤྲིན༽ ནངས་མོ་ཉི་མ་འཆར་ཁའི་སྤྲིན་དམར་སེར་དང་། དགོང་མོ་ཉི་མ་ནུབ་ནས་ས་རུབ་ཁའི་སྤྲིན་ཚོན་མདོག་ཅན་གྱི་མིང་། ༢.བྱ་སྤྱོད་སོགས་སྔ་ཕྱིའི་འབྲེལ་སའི་མིང་སྟེ། ཚིག་མཚམས། ལས་ཀ་ལས་མཚམས། སློབ་སྦྱོང་མཚམས་མ་བཞག་པར་བྱས་ལྟ་བུ། ༼མཚམས་སྦྱོར༽ ༼༡༽ མི་ཕན་ཚུན་ངོ་སྤྲད་པའི་དོན་ཏེ། ངས་བྱིས་པ་དགེ་རྒན་ལ་མཚམས་སྦྱོར་བྱས་ལྟ་བུ། ༼༢༽ ཚིག་དོན་སོགས་སྔ་ཕྱི་འབྲེལ་བར་བྱས་པའི་དོན་ཏེ། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བྱས་ལྟ་བུ། ༼༣༽ ཕན་ཚུན་ངོ་སྤྲད་པ་དང་ཚིག་སྔ་ཕྱི་སོགས་འབྲེལ་བར་བྱེད་པའི་ལས་ཚིག་ལ་འཇུག་པ་ནི། དགེ་རྒན་མཚམས་སྦྱོར་མཁན། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བྱེད་ཀྱི་ཚིག་ཕྲད། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱར་ཏེ་ཞེས་པ་ལྟ་བུ། ༼མཚམས་ཚིག༽ སྔ་ཕྱིའི་རིམ་པའམ་སྐབས་རིམ་གྱི་མིང་སྟེ། རྟས་རྩྭ་མཚམས་ཚིགས་མེད་པར་ཟ་ལྟ་བུ། ༣.ཕྱོགས་བཞིའི་མཚམས་ཀྱི་མིང་སྟེ། ཕྱོགས་བཞི་མཚམས་བརྒྱད། ཤར་ལྷོའི་མཚམས་ཞེས་པ་ལྟ་བུ། ༤.སྔ་ཕྱི་འབྲེལ་བའི་རྒྱུན་གྱི་མིང་སྟེ། ནད་ཡམས་མཚམས་ཆད། བྱ་ངན་མཚམས་ཆད། མཚམས་མེད་པར་སློབ་སྦྱོང་བྱས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="75" ht="50" customHeight="1">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>མགོ་</t>
+          <t>སུ་</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-head; top; beginning</t>
+          <t>Hopkins 2015
+[accusative, adverbial accusative, dative, and locative particle:] to; in; as; -ly; at; who?</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིའི་ཚབ་ཚིག་སྟེ། སུ་འོངས་སམ། སུས་བཤད་དམ། སུའི་དཔེ་ཆ་རེད་དམ་ལྟ་བུ། ༢.ལ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="76" ht="50" customHeight="1">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>ཡར་</t>
+          <t>མགོ་</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Hackett
-(PH) upper; upward</t>
+          <t>Hopkins 2015
+head; top; beginning</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་རིམ་པ་གོང་མའམ་ཐོག་ཕྱོགས་ཏེ། ཡར་ཞུ། ཡར་འབུལ། གནམ་ལ་ཡར་བལྟས། ཡར་འགྲོ་ཞེས་པ་ལྟ་བུ། ༼ཡར་སྐྱེད༽ གཟུགས་དང་ཡོན་ཏན་དང་བློ་ཁ་སོགས་དམའ་བ་ལས་མཐོ་བར་སོང་བ་སྟེ། བྱིས་པ་ཡར་སྐྱེད་བྱུང་། ཡོན་ཏན་ཡར་སྐྱེད་བྱུང་། བློ་ཁ་ཡར་སྐྱེད་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ག༽ གནས་མཐོ་སའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཡར་གའི་རི། ཁྱིམ་ཡར་ག་མར་ག་ཞེས་པ་ལྟ་བུ། ༼ཡར་རྒྱས༽ ཉུང་བ་ནས་མང་བར་འཕར་བའི་ཆ་སྟེ། སྟོབས་འབྱོར་ཡར་རྒྱས་སུ་སོང་། བཟོ་ལས་ཡར་རྒྱས་སུ་བཏང་། ཡར་རྒྱས་གོང་འཕེལ་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ངོ༽ ཟླ་ཁ་ཡར་གང་བའི་དུས་ཏེ། ལོ་རྩིས་ཀྱི་ཚེས་གཅིག་ནས་བཅོ་ལྔའི་བར། ༼ཡར་དར༽ གོང་ནས་གོང་དུ་འཕེལ་བཞིན་པའི་དུས་ཏེ། ཡར་དར་མར་འགྲིབ་ཅེས་པ་ལྟ་བུ། ༼ཡར་ཐོན༽ སྔོན་ལས་གོང་དུ་འཕགས་པའི་ཆ་སྟེ། ལག་རྩལ་ཡར་ཐོན་བྱུང་། ཡར་ཐོན་པ་ཞེས་པ་ལྟ་བུ། ༢.ལེགས་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཁ་མིག་ཡར་ལྟ། ཡར་འགོ་ཡར་འཐེན། བསམ་པ་ཡར་སེམས། སྤྱི་དོན་ལ་ཡར་གཏོག་ཅེས་པ་ལྟ་བུ། ༼ཡར་འགོ༽ ལས་དོན་ལེགས་པའི་རིགས་ཀྱི་སྣ་འདྲེན་པ་སྟེ། སྡེ་བའི་ནང་དུ་རྒན་པོ་ཚོས་ཡར་འགོ་ཡར་འཐེན་བྱས་ནས་ན་གཞོན་ཚོར་སློབ་སྦྱོང་བྱེད་དུ་བཅུག ༼ཡར་གཏོག༽ ཡུལ་སྐད་ལ་ལར་ལེགས་པའི་རིགས་བྱེད་པར་སྐུལ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། རང་ཉིད་ལོ་རྒས་ཀྱང་ན་གཞོན་ཚོར་རིག་གནས་སློབ་པར་ཡར་གཏོག་བརྒྱབ་པ་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ཡར་ལྟ༽ ལེགས་པའི་ཕྱོགས་ལ་སློབ་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། མི་བཟང་བོ་ར་ཁ་མིག་ཡར་ལྟ་གྱིས་ཞེས་པ་ལྟ་བུ། ༼ཡར་སེམས༽ ལེགས་པའི་ཕྱོགས་ལ་བརྩོན་པའི་སེམས་ཏེ། བསམ་པ་ཡར་སེམས་དྲན། མི་ཡར་སེམས་ཅན་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
         </is>
       </c>
     </row>
     <row r="77" ht="50" customHeight="1">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>བཀྱག་</t>
+          <t>ཡར་</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Hackett Def. 2015
+(PH) upper; upward</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་རིམ་པ་གོང་མའམ་ཐོག་ཕྱོགས་ཏེ། ཡར་ཞུ། ཡར་འབུལ། གནམ་ལ་ཡར་བལྟས། ཡར་འགྲོ་ཞེས་པ་ལྟ་བུ། ༼ཡར་སྐྱེད༽ གཟུགས་དང་ཡོན་ཏན་དང་བློ་ཁ་སོགས་དམའ་བ་ལས་མཐོ་བར་སོང་བ་སྟེ། བྱིས་པ་ཡར་སྐྱེད་བྱུང་། ཡོན་ཏན་ཡར་སྐྱེད་བྱུང་། བློ་ཁ་ཡར་སྐྱེད་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ག༽ གནས་མཐོ་སའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཡར་གའི་རི། ཁྱིམ་ཡར་ག་མར་ག་ཞེས་པ་ལྟ་བུ། ༼ཡར་རྒྱས༽ ཉུང་བ་ནས་མང་བར་འཕར་བའི་ཆ་སྟེ། སྟོབས་འབྱོར་ཡར་རྒྱས་སུ་སོང་། བཟོ་ལས་ཡར་རྒྱས་སུ་བཏང་། ཡར་རྒྱས་གོང་འཕེལ་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ངོ༽ ཟླ་ཁ་ཡར་གང་བའི་དུས་ཏེ། ལོ་རྩིས་ཀྱི་ཚེས་གཅིག་ནས་བཅོ་ལྔའི་བར། ༼ཡར་དར༽ གོང་ནས་གོང་དུ་འཕེལ་བཞིན་པའི་དུས་ཏེ། ཡར་དར་མར་འགྲིབ་ཅེས་པ་ལྟ་བུ། ༼ཡར་ཐོན༽ སྔོན་ལས་གོང་དུ་འཕགས་པའི་ཆ་སྟེ། ལག་རྩལ་ཡར་ཐོན་བྱུང་། ཡར་ཐོན་པ་ཞེས་པ་ལྟ་བུ། ༢.ལེགས་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཁ་མིག་ཡར་ལྟ། ཡར་འགོ་ཡར་འཐེན། བསམ་པ་ཡར་སེམས། སྤྱི་དོན་ལ་ཡར་གཏོག་ཅེས་པ་ལྟ་བུ། ༼ཡར་འགོ༽ ལས་དོན་ལེགས་པའི་རིགས་ཀྱི་སྣ་འདྲེན་པ་སྟེ། སྡེ་བའི་ནང་དུ་རྒན་པོ་ཚོས་ཡར་འགོ་ཡར་འཐེན་བྱས་ནས་ན་གཞོན་ཚོར་སློབ་སྦྱོང་བྱེད་དུ་བཅུག ༼ཡར་གཏོག༽ ཡུལ་སྐད་ལ་ལར་ལེགས་པའི་རིགས་བྱེད་པར་སྐུལ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། རང་ཉིད་ལོ་རྒས་ཀྱང་ན་གཞོན་ཚོར་རིག་གནས་སློབ་པར་ཡར་གཏོག་བརྒྱབ་པ་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ཡར་ལྟ༽ ལེགས་པའི་ཕྱོགས་ལ་སློབ་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། མི་བཟང་བོ་ར་ཁ་མིག་ཡར་ལྟ་གྱིས་ཞེས་པ་ལྟ་བུ། ༼ཡར་སེམས༽ ལེགས་པའི་ཕྱོགས་ལ་བརྩོན་པའི་སེམས་ཏེ། བསམ་པ་ཡར་སེམས་དྲན། མི་ཡར་སེམས་ཅན་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="78" ht="50" customHeight="1">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>ནས་</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) ablative particle: from; than; (2) barley</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
+          <t>བཀྱག་</t>
         </is>
       </c>
     </row>
     <row r="79" ht="50" customHeight="1">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>རྒྱ་མཚོ</t>
+          <t>ནས་</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-[vast-lake]; ocean; large lake</t>
+          <t>Hopkins 2015
+(1) ablative particle: from; than; (2) barley</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="80" ht="50" customHeight="1">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t>རྒྱ་མཚོ</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[vast-lake]; ocean; large lake</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
         </is>
       </c>
     </row>
     <row r="81" ht="50" customHeight="1">
       <c r="A81" s="1" t="inlineStr">
         <is>
+          <t>འི་</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="50" customHeight="1">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
           <t>ཕྱི་ལོགས་</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 subsequent</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཕྱི་རོལ། ཁང་པའི་ཕྱི་ལོགས། རྒྱལ་ཁབ་ཀྱི་ཕྱི་ལོགས།</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="50" customHeight="1">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>ལ་</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
     <row r="83" ht="50" customHeight="1">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>ཐེངས་མ་</t>
+          <t>ལ་</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-time[s], occasion, occurrence</t>
+          <t>Hopkins 2015
+(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="84" ht="50" customHeight="1">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>གཅིག་</t>
+          <t>ཐེངས་མ་</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-one; same; oneness; unitary; single; singular phenomenon</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་གྲངས་ཀ་རིལ་བོ་འི་ཉུང་མཐའ། ༼གཅིག་པ༽ འདྲ་བ་དང་མཚུངས་པ་མཐུན་པ་སོགས་ཀྱི་དོན་ཏེ། ཁྱི་དང་བྱི་ལ་ནི་སྲོག་ཆགས་རིགས་མི་གཅིག་པ་རེད། འབྲོང་དང་གཡག་ནི་རིགས་གཅིག་པ་རེད། ངེད་གཉིས་ཀྱི་དྲན་ཚུལ་གཅིག་པ་རེད་ལྟ་བུ། ༢.ཡོངས་སུ་རྫོགས་པ་དང་ཚད་ལོངས་པའི་དོན་ཏེ། ཚེ་གཅིག་ལུས་གཅིག་ཅེས་པ་ལྟ་བུ། ༣.བློ་ཐག་ཆོད་པོའི་དོན་ཏེ། མགྲིན་གཅིག་དབྱངས་གཅིག་བློ་གཅིག་སེམས་གཅིག་སེམས་བསམ་པ་རྩེ་གཅིག་ཅེས་པ་ལྟ་བུ། ༤.ཁེར་རྐྱང་གི་དོན་ཏེ། རང་གཅིག་པུ། ཁོ་གཅིག་པུས་དཔེ་ཆར་བལྟས་ལྟ་བུ། ༥.ལས་ཚིག་གི་མགོར་སྦྱར་ན་ལན་གྲངས་དང་ཡུན་ཐུང་བ་སོགས་ཀྱི་དོན་ཏེ། ཁོས་ང་ལ་གཅིག་བལྟས་ནས་ངོ་ཤེས་སོང་། ངས་རྐུན་ཇག་དེ་ལ་དབྱུག་པས་གཅིག་བརྒྱབ་ནས་ས་ལ་བསྒྱེལ། ཁྱོད་ཀྱིས་གཅིག་ལྟོས་དང་། ངས་གཅིག་བཤད། ཁྱོད་གཅིག་རྒྱུགས་དང་ལྟ་བུ།</t>
+          <t>Ives Waldo
+time[s], occasion, occurrence</t>
         </is>
       </c>
     </row>
     <row r="85" ht="50" customHeight="1">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>ལྟ་</t>
+          <t>གཅིག་</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-verb: view; look; see; readnoun: view; false view</t>
+          <t>Hopkins 2015
+one; same; oneness; unitary; single; singular phenomenon</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡. ༼བྱེད་འབྲེལ་ལས་ཚིག་ད་ལྟ་བ༽ ༼ཀ༽ མིག་གིས་ལྟ་བ་སྟེ། དཔེ་ཆར་ལྟ་བའི་སྐབས། དཔེ་ཆར་ལྟ་བཞིན་འདུག་ལྟ་བུ། ༼བལྟ༽ ནི་མ་འོངས་པ་སྟེ། བལྟ་བྱའི་གློག་བརྙན། གློག་བརྙན་ལ་བལྟ་རྒྱུ་ཡིན་ལྟ་བུ། ༼བལྟས༽ ནི་འདས་པ་སྟེ། སུམ་རྟགས་གཞུང་ལ་བལྟས་ནས་ཡི་གེ་ཇེ་དག་ཏུ་སོང་ལྟ་བུ། ༼ལྟོས༽ ནི་སྐུལ་ཚིག་སྟེ། རྒྱབ་མདུན་ཚང་མར་ལྟོས་ཤིག་ལྟ་བུ། ༼ལྟ་ན་སྡུག་པ༽ མཐོང་བ་ཙམ་གྱིས་མཛེས་པའི་སྣང་བ་ཤར་བའི་དོན། ༼ལྟ་བས་ཆོག་མི་ཤེས་པ༽ ཡང་དང་ཡང་དུ་ལྟ་འདོད་པའི་དོན། ༼ཁ༽ བརྟག་པ་བྱས་པ་དང་དཔྱད་པ་བཏང་བའི་དོན་ཏེ། སྨན་པས་ནད་པར་རྩ་བལྟས། ནད་པའི་གནས་ཚུལ་ལ་བལྟས་ནས་སྨན་སྟེར་ལྟ་བུ། ༼ག༽ འཚམ་འདྲི་བྱེད་པའི་དོན་ཏེ། ང་ཡུལ་དུ་ཕ་མ་ལ་ལྟ་རུ་སོང་། སྨན་ཁང་དུ་སོང་ནས་ནད་པར་བལྟས་པ་ཡིན་ལྟ་བུ། ༼ང༽ ཆགས་ཞེན་དང་བརྩེ་དུངས་སྐྱེ་བའི་དོན་ཏེ། མི་ངོ་ཆེན་གྱི་ངོ་ལ་མ་ལྟ། མི་ཕྱུག་པོའི་རྒྱུ་ནོར་ལ་མ་བལྟས་པར་ཁྲིམས་དྲང་བོ་བཅད་ལྟ་བུ། ༼ཅ༽ བསམ་བློ་བཏང་བའི་དོན་ཏེ། ངས་བལྟས་ན་རྩྭ་སའི་རྩོད་གླེང་འདི་འདུམ་སླ་ལྟ་བུ། ༼ལྟ་ཚུལ༽ ༼༡༽ བསམ་བློ་བཏང་བའམ་དཔྱད་པ་བཏང་ནས་ཐོབ་པའི་སེམས་ཀྱི་འཛིན་སྟངས་ལ་ད་སྐབས་ལྟ་ཚུལ་ཞེས་བྲིས་པ་སྣང་། ༼༢༽ མིག་གིས་ལྟ་བའི་རྣམ་པ་དང་སེམས་ལ་དྲན་ཚུལ་གྱི་མིང་། ༢.ལྟ་བ་ཞེས་པའི་མིང་བསྡུས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་གྲངས་ཀ་རིལ་བོ་འི་ཉུང་མཐའ། ༼གཅིག་པ༽ འདྲ་བ་དང་མཚུངས་པ་མཐུན་པ་སོགས་ཀྱི་དོན་ཏེ། ཁྱི་དང་བྱི་ལ་ནི་སྲོག་ཆགས་རིགས་མི་གཅིག་པ་རེད། འབྲོང་དང་གཡག་ནི་རིགས་གཅིག་པ་རེད། ངེད་གཉིས་ཀྱི་དྲན་ཚུལ་གཅིག་པ་རེད་ལྟ་བུ། ༢.ཡོངས་སུ་རྫོགས་པ་དང་ཚད་ལོངས་པའི་དོན་ཏེ། ཚེ་གཅིག་ལུས་གཅིག་ཅེས་པ་ལྟ་བུ། ༣.བློ་ཐག་ཆོད་པོའི་དོན་ཏེ། མགྲིན་གཅིག་དབྱངས་གཅིག་བློ་གཅིག་སེམས་གཅིག་སེམས་བསམ་པ་རྩེ་གཅིག་ཅེས་པ་ལྟ་བུ། ༤.ཁེར་རྐྱང་གི་དོན་ཏེ། རང་གཅིག་པུ། ཁོ་གཅིག་པུས་དཔེ་ཆར་བལྟས་ལྟ་བུ། ༥.ལས་ཚིག་གི་མགོར་སྦྱར་ན་ལན་གྲངས་དང་ཡུན་ཐུང་བ་སོགས་ཀྱི་དོན་ཏེ། ཁོས་ང་ལ་གཅིག་བལྟས་ནས་ངོ་ཤེས་སོང་། ངས་རྐུན་ཇག་དེ་ལ་དབྱུག་པས་གཅིག་བརྒྱབ་ནས་ས་ལ་བསྒྱེལ། ཁྱོད་ཀྱིས་གཅིག་ལྟོས་དང་། ངས་གཅིག་བཤད། ཁྱོད་གཅིག་རྒྱུགས་དང་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="86" ht="50" customHeight="1">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>ཡི་ཡོད་པ་རེད</t>
+          <t>ལྟ་</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+verb: view; look; see; readnoun: view; false view</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་འབྲེལ་ལས་ཚིག་ད་ལྟ་བ༽ ༼ཀ༽ མིག་གིས་ལྟ་བ་སྟེ། དཔེ་ཆར་ལྟ་བའི་སྐབས། དཔེ་ཆར་ལྟ་བཞིན་འདུག་ལྟ་བུ། ༼བལྟ༽ ནི་མ་འོངས་པ་སྟེ། བལྟ་བྱའི་གློག་བརྙན། གློག་བརྙན་ལ་བལྟ་རྒྱུ་ཡིན་ལྟ་བུ། ༼བལྟས༽ ནི་འདས་པ་སྟེ། སུམ་རྟགས་གཞུང་ལ་བལྟས་ནས་ཡི་གེ་ཇེ་དག་ཏུ་སོང་ལྟ་བུ། ༼ལྟོས༽ ནི་སྐུལ་ཚིག་སྟེ། རྒྱབ་མདུན་ཚང་མར་ལྟོས་ཤིག་ལྟ་བུ། ༼ལྟ་ན་སྡུག་པ༽ མཐོང་བ་ཙམ་གྱིས་མཛེས་པའི་སྣང་བ་ཤར་བའི་དོན། ༼ལྟ་བས་ཆོག་མི་ཤེས་པ༽ ཡང་དང་ཡང་དུ་ལྟ་འདོད་པའི་དོན། ༼ཁ༽ བརྟག་པ་བྱས་པ་དང་དཔྱད་པ་བཏང་བའི་དོན་ཏེ། སྨན་པས་ནད་པར་རྩ་བལྟས། ནད་པའི་གནས་ཚུལ་ལ་བལྟས་ནས་སྨན་སྟེར་ལྟ་བུ། ༼ག༽ འཚམ་འདྲི་བྱེད་པའི་དོན་ཏེ། ང་ཡུལ་དུ་ཕ་མ་ལ་ལྟ་རུ་སོང་། སྨན་ཁང་དུ་སོང་ནས་ནད་པར་བལྟས་པ་ཡིན་ལྟ་བུ། ༼ང༽ ཆགས་ཞེན་དང་བརྩེ་དུངས་སྐྱེ་བའི་དོན་ཏེ། མི་ངོ་ཆེན་གྱི་ངོ་ལ་མ་ལྟ། མི་ཕྱུག་པོའི་རྒྱུ་ནོར་ལ་མ་བལྟས་པར་ཁྲིམས་དྲང་བོ་བཅད་ལྟ་བུ། ༼ཅ༽ བསམ་བློ་བཏང་བའི་དོན་ཏེ། ངས་བལྟས་ན་རྩྭ་སའི་རྩོད་གླེང་འདི་འདུམ་སླ་ལྟ་བུ། ༼ལྟ་ཚུལ༽ ༼༡༽ བསམ་བློ་བཏང་བའམ་དཔྱད་པ་བཏང་ནས་ཐོབ་པའི་སེམས་ཀྱི་འཛིན་སྟངས་ལ་ད་སྐབས་ལྟ་ཚུལ་ཞེས་བྲིས་པ་སྣང་། ༼༢༽ མིག་གིས་ལྟ་བའི་རྣམ་པ་དང་སེམས་ལ་དྲན་ཚུལ་གྱི་མིང་། ༢.ལྟ་བ་ཞེས་པའི་མིང་བསྡུས་པ།</t>
         </is>
       </c>
     </row>
     <row r="87" ht="50" customHeight="1">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ཡི་ཡོད་པ་རེད</t>
         </is>
       </c>
     </row>
     <row r="88" ht="50" customHeight="1">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>དེ་ནས་</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[that-from]; then; from that; therefore</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཚིག་དོན་སྔ་ཕྱི་རིམ་པ་སྟོན་པའི་ཚིག་ཕྲད་དེ། ང་མལ་ལས་ལོངས་ནས་ཁ་ལག་བཀྲུས་ཤིང་། དེ་ནས་ནང་ཇ་འཐུངས་རྗེས་སློབ་གྲྭར་སོང་བ་ཡིན་ལྟ་བུ།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="89" ht="50" customHeight="1">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>དེ་ནས་</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[that-from]; then; from that; therefore</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཚིག་དོན་སྔ་ཕྱི་རིམ་པ་སྟོན་པའི་ཚིག་ཕྲད་དེ། ང་མལ་ལས་ལོངས་ནས་ཁ་ལག་བཀྲུས་ཤིང་། དེ་ནས་ནང་ཇ་འཐུངས་རྗེས་སློབ་གྲྭར་སོང་བ་ཡིན་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="50" customHeight="1">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
           <t>སྔོ་ཚལ་</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 edible plants/_vegetables</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 བཟའ་བཅའི་སྔོ་རིགས།</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="50" customHeight="1">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="91" ht="50" customHeight="1">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>གྲོད་ཁོག་</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 stomach, belly; stomach, belly. belly [= dku, dgang bya, lto ba, pho ba, brang zhol, gsus pa]</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ལྟོ་བའམ་གསུས་པ། གྲོད་ཁོག་ཆེ་བ། གྲོད་ཁོག་ཆུང་བ། གྲོད་ཁོག་ལྟོགས་པ། མིང་གི་རྣམ་གྲངས་ལ་དཀུ། དགང་བྱ། ལྟོ་བ། ཕོ་བ། བྲང་ཞོལ། གསུས་པ་བཅས་སོ།</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="50" customHeight="1">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>གང་</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-relative and interrogative pronoun: what; who; which</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཚབ་ཚིག་སྤྱི་སྒྲ་སྟེ། མི་གང་དག་བྱ་བ་གང་ཞིག་ས་གང་ལ་འགྲོ། གང་དྲན་དྲན་མ་བྱེད། མི་གང་འདྲ་ཞེས་པ་ལྟ་བུ། ༼གང་རུང་། གང་ཡང་རུང་བ༽ མི་འདི་གཉིས་ལས་གང་རུང་ཞིག་ནི་སློབ་གྲྭའི་དགེ་རྒན་རེད། སྨན་འདི་རྣམས་ལས་གང་ཡང་རུང་བ་ཞིག་གིས་ཆམ་པའི་ནད་ལ་ཕན་ལྟ་བུ། ༼གང་རིགས༽ གང་དག་གམ་གང་འོས་ཀྱི་དོན་ཏེ། མི་གང་རིགས། ས་གང་རིགས། དོན་དེ་གང་རིགས་ཤིག་སྒྲུབ་ལྟ་བུ། ༢.གཅིག་མཚོན་པའི་གྲངས་ཚིག་སྟེ། འབྲུ་བྲེ་གང་། མར་རྒྱ་མ་གང་། རས་ཁྲུ་ཙི་གང་ཞེས་པ་སོགས་ལྟ་བུ། ༣.གང་བ་ཡི་མིང་མཐའ་བསྡུས་པ། ༤.གང་བོ་ཡི་མིང་མཐའ་བསྡུས་པ། གང་བུ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
     <row r="92" ht="50" customHeight="1">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>ཟོས་</t>
+          <t>གང་</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-eat [imperfect stem]; food</t>
+          <t>Hopkins 2015
+relative and interrogative pronoun: what; who; which</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཟ་ཡི་འདས་པ། ༢.འཛའ་ཡི་འདས་པ། ༣.ཟ་ཡི་འདས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཚབ་ཚིག་སྤྱི་སྒྲ་སྟེ། མི་གང་དག་བྱ་བ་གང་ཞིག་ས་གང་ལ་འགྲོ། གང་དྲན་དྲན་མ་བྱེད། མི་གང་འདྲ་ཞེས་པ་ལྟ་བུ། ༼གང་རུང་། གང་ཡང་རུང་བ༽ མི་འདི་གཉིས་ལས་གང་རུང་ཞིག་ནི་སློབ་གྲྭའི་དགེ་རྒན་རེད། སྨན་འདི་རྣམས་ལས་གང་ཡང་རུང་བ་ཞིག་གིས་ཆམ་པའི་ནད་ལ་ཕན་ལྟ་བུ། ༼གང་རིགས༽ གང་དག་གམ་གང་འོས་ཀྱི་དོན་ཏེ། མི་གང་རིགས། ས་གང་རིགས། དོན་དེ་གང་རིགས་ཤིག་སྒྲུབ་ལྟ་བུ། ༢.གཅིག་མཚོན་པའི་གྲངས་ཚིག་སྟེ། འབྲུ་བྲེ་གང་། མར་རྒྱ་མ་གང་། རས་ཁྲུ་ཙི་གང་ཞེས་པ་སོགས་ལྟ་བུ། ༣.གང་བ་ཡི་མིང་མཐའ་བསྡུས་པ། ༤.གང་བོ་ཡི་མིང་མཐའ་བསྡུས་པ། གང་བུ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="93" ht="50" customHeight="1">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>རྗེས་</t>
+          <t>ཟོས་</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-after; subsequent to</t>
+          <t>Hopkins 2015
+eat [imperfect stem]; food</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མི་དང་སྲོག་ཆགས་ཀྱི་རྐང་ལག་ས་ལ་སྤོས་པའི་ཤུལ་གྱི་མིང་སྟེ། མིའི་རྐང་རྗེས། རྟའི་རྨིག་རྗེས། རྗེས་ཤུལ་ཞེས་པ་ལྟ་བུ། ༢.སྔོན་གྱི་ལྡོག་ཟླ་སྟེ། རྗེས་སུ་འབྲངས། རྗེས་ལ་སྙེགས། མི་རབས་རྗེས་མ། དུས་རྗེས་མ། རྗེས་སུ་ལུས་ཞེས་པ་ལྟ་བུ། ༼རྗེས་གྲུབ་ཀྱི་མིང༽ འདོད་རྒྱལ་གྱི་ཐ་སྙད་གཉིས་ཡན་མཉམ་དུ་སྦྱར་ནས་གྲུབ་པའི་ཐ་སྙད་ཀྱི་མིང་སྟེ། དཔེར་ན་ཤིང་ལོ། གྲོ་ཕྱེ། ཤིང་ཁང་ཞེས་པའི་ཐ་སྙད་འདི་རྣམས་ནི་རྗེས་གྲུབ་ཀྱི་ཐ་སྙད་ཡིན་ཞིང་། ཤིང་། གྲོ་ཁང་བ་ཞེས་པ་སོགས་ནི་འདོད་རྒྱལ་གྱི་ཐ་སྙད་ཡིན་པ་ལྟ་བུ། ༼རྗེས་དྲན༽ མི་དང་བྱ་བ་སོགས་རྗེས་སུ་དྲན་པའི་བྱ་བའི་མིང་སྟེ། དཔའ་བོ་ལ་རྗེས་དྲན་བྱེད་པ། རྗེས་དྲན་རྡོ་རིང་། རྗེས་དྲན་ཚོགས་འདུ་ཞེས་པ་ལྟ་བུ། ༼རྗེས་དཔག༽ རྟགས་མཐོང་ཞིང་འབྲེལ་བ་ངེས་པའི་རྗེས་སུ་སྒྲུབ་བྱ་དཔོག་པའམ་གཞལ་བྱ་ལྐོག་གྱུར་འཇལ་བ་སྟེ། དུ་བ་དང་ཆུ་སྐྱར་གྱི་རྟགས་ལས་མེ་དང་ཆུ་ཡོད་པར་དཔོག་པ་ལྟ་བུའོ། ། ༼རྗེས་འཇུག་གི་ཡི་གེ༽ བོད་ཡིག་ག་ང་ད་ན་བ་མ་འ་ར་ལ་ས་བཅུའི་སྤྱི་མིང་། ༣.བརྗེ་ཡི་སྐུལ་ཚིག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཟ་ཡི་འདས་པ། ༢.འཛའ་ཡི་འདས་པ། ༣.ཟ་ཡི་འདས་པ།</t>
         </is>
       </c>
     </row>
     <row r="94" ht="50" customHeight="1">
       <c r="A94" s="1" t="inlineStr">
         <is>
+          <t>རྗེས་</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+after; subsequent to</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མི་དང་སྲོག་ཆགས་ཀྱི་རྐང་ལག་ས་ལ་སྤོས་པའི་ཤུལ་གྱི་མིང་སྟེ། མིའི་རྐང་རྗེས། རྟའི་རྨིག་རྗེས། རྗེས་ཤུལ་ཞེས་པ་ལྟ་བུ། ༢.སྔོན་གྱི་ལྡོག་ཟླ་སྟེ། རྗེས་སུ་འབྲངས། རྗེས་ལ་སྙེགས། མི་རབས་རྗེས་མ། དུས་རྗེས་མ། རྗེས་སུ་ལུས་ཞེས་པ་ལྟ་བུ། ༼རྗེས་གྲུབ་ཀྱི་མིང༽ འདོད་རྒྱལ་གྱི་ཐ་སྙད་གཉིས་ཡན་མཉམ་དུ་སྦྱར་ནས་གྲུབ་པའི་ཐ་སྙད་ཀྱི་མིང་སྟེ། དཔེར་ན་ཤིང་ལོ། གྲོ་ཕྱེ། ཤིང་ཁང་ཞེས་པའི་ཐ་སྙད་འདི་རྣམས་ནི་རྗེས་གྲུབ་ཀྱི་ཐ་སྙད་ཡིན་ཞིང་། ཤིང་། གྲོ་ཁང་བ་ཞེས་པ་སོགས་ནི་འདོད་རྒྱལ་གྱི་ཐ་སྙད་ཡིན་པ་ལྟ་བུ། ༼རྗེས་དྲན༽ མི་དང་བྱ་བ་སོགས་རྗེས་སུ་དྲན་པའི་བྱ་བའི་མིང་སྟེ། དཔའ་བོ་ལ་རྗེས་དྲན་བྱེད་པ། རྗེས་དྲན་རྡོ་རིང་། རྗེས་དྲན་ཚོགས་འདུ་ཞེས་པ་ལྟ་བུ། ༼རྗེས་དཔག༽ རྟགས་མཐོང་ཞིང་འབྲེལ་བ་ངེས་པའི་རྗེས་སུ་སྒྲུབ་བྱ་དཔོག་པའམ་གཞལ་བྱ་ལྐོག་གྱུར་འཇལ་བ་སྟེ། དུ་བ་དང་ཆུ་སྐྱར་གྱི་རྟགས་ལས་མེ་དང་ཆུ་ཡོད་པར་དཔོག་པ་ལྟ་བུའོ། ། ༼རྗེས་འཇུག་གི་ཡི་གེ༽ བོད་ཡིག་ག་ང་ད་ན་བ་མ་འ་ར་ལ་ས་བཅུའི་སྤྱི་མིང་། ༣.བརྗེ་ཡི་སྐུལ་ཚིག</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="50" customHeight="1">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
           <t>ཡང་བསྐྱར་</t>
         </is>
       </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 again; again, once more</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 སླར་ཡང་ངམ་བསྐྱར་མ། ཡང་བསྐྱར་གསལ་པོར་བཤད་པ། ཡང་བསྐྱར་ཡང་བསྐྱར།</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="50" customHeight="1">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>གཉིད་ཁུག་</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>Valby
-to fall asleep</t>
-        </is>
-      </c>
-    </row>
     <row r="96" ht="50" customHeight="1">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>ནས་</t>
+          <t>གཉིད་</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) ablative particle: from; than; (2) barley</t>
+          <t>Gaeng, Wetzel
+sleepiness\nSanskrit: middham\nPali: middham</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཀླད་ཆེན་གྱི་པགས་རིམ་ངལ་གསོ་བའི་ངང་ལ་གནས་པའི་རྣམ་འགྱུར་གྱི་མིང་སྟེ། གཉིད་ལོག་ནས་རྨི་ལམ་རྨིས། གཉིད་སད། གཉིད་སངས། གཉིད་འབབ། གཉིད་བབས། གཉིད་ཡེར། གཉིད་མཐུག་པོ་ལོག་གཉིད་དུ་ཡུར་ལྟ་བུ། ༢.བྱེད་མེད་ལས་ཚིག་གཉིད་འབབ་པ་སྟེ། གཉིད་རྒྱུ་རེད། གཉིད་ཀྱིན་འདུག་གཉིད་སོང་སོགས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="97" ht="50" customHeight="1">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>བསྡད་</t>
+          <t>ཁུག་</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-to subsist; abide; stay; reside; sit; stop; dwell</t>
+          <t>Ives Waldo
+1) ['Gugs pa!] [past: 'gugs] be drawn/_attracted, seduce, bow!; 2) solitary place; 3) nook, corner, ཁོ་སིམ་བུ, creek, inlet, bay, gulf</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-སྡོད་ཀྱི་འདས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་འབྲེལ་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བ༽ ཚོང་རྫས་སོགས་ཉོ་བྱེད་ཀྱི་དངུལ་འདང་བའི་དོན་ཏེ། སྒོར་མོ་གཅིག་གིས་ཀ་ར་རྒྱ་མ་གང་ཁུག་ལྟ་བུ། ༼ཁུགས༽ ནི་འདས་པ་སྟེ། སྒོར་མོ་སུམ་ཅུས་ལྭ་བ་ཆ་ཚང་ཞིག་ཁུགས་ནས་ད་དུང་ལྷག་མ་ཡོད་ལྟ་བུ། ༢.བཀུག་གི་སྐུལ་ཚིག ༣་ཁུག་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.ཁུགས་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="98" ht="50" customHeight="1">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>ཀྱི་ཡོད</t>
+          <t>ནས་</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) ablative particle: from; than; (2) barley</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="99" ht="50" customHeight="1">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>བསྡད་</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+to subsist; abide; stay; reside; sit; stop; dwell</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+སྡོད་ཀྱི་འདས་པ།</t>
         </is>
       </c>
     </row>
     <row r="100" ht="50" customHeight="1">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>རྒྱ་མཚོ་</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[vast-lake]; ocean; large lake</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
+          <t>ཀྱི་ཡོད</t>
         </is>
       </c>
     </row>
     <row r="101" ht="50" customHeight="1">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>དེ་</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="102" ht="50" customHeight="1">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>ལ་</t>
+          <t>རྒྱ་མཚོ་</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+          <t>Hopkins 2015
+[vast-lake]; ocean; large lake</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
         </is>
       </c>
     </row>
     <row r="103" ht="50" customHeight="1">
       <c r="A103" s="1" t="inlineStr">
         <is>
+          <t>དེ་</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="50" customHeight="1">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>ལ་</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="50" customHeight="1">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
           <t>རྦ་རླབས་</t>
         </is>
       </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 wave</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཆུ་གཡོས་པའི་རླབས། དབྱར་དུས་ཀྱི་གཙང་པོའི་ནང་རྦ་རླབས་དྲག་པོ་འཕྱུར་བ། རྒྱ་མཚོའི་རྦ་རླབས་རི་ལྟར་མཐོ་བ། གསར་བརྗེའི་རྦ་རླབས་མཐོན་པོར་སློང་བ། ཆུ་ཀླུང་ཐམས་ཅད་རྦ་རླབས་འཕྱོ་ཞིང་གནམ་དུ་འཕྱུར་བ་སྙམ་བྱེད། རི་ཐམས་ཅད་ནི་གྲོག་པོར་བཏང། ཐང་ཐམས་ཅད་ནི་གྲམ་པར་བརྡལ། མིང་གི་རྣམ་གྲངས་ལ་ཆུ་འཁྲུག་དང། ཆུ་རྔམས་པ། ཆུ་རླབས། ཆུའི་འཁྲི་ཤིང། ཆུའི་སྒྲེ་ལོག་སྟེང་འཕར། དབའ་ཀློང། དབའ་རླབས། རླབས་ཕྲེང་བཅས་སོ།</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="50" customHeight="1">
-      <c r="A104" s="1" t="inlineStr">
+    <row r="106" ht="50" customHeight="1">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>ཤུགས་</t>
         </is>
       </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 force; strength; power; energy; implicit(ly)(BJ 17.2)</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་མི་ཕྱུགས་ཀྱི་ཤ་གནད་བརྐྱངས་སྐུམ་བྱེད་པ་ལས་ཐོན་པའི་ནུས་པའི་མིང་སྟེ། ལག་པའི་ཤུགས། མི་ཤུགས། རྟ་ཤུགས་ཞེས་པ་ལྟ་བུ། ༢.དངོས་པོ་རྣམས་ཀྱི་རང་གཤིས་སུ་གྲུབ་པའི་ནུས་པའི་མིང་སྟེ། རླུང་ཤུགས། ཆུ་ཤུགས། ལུ་གུས་རང་ཤུགས་ཀྱིས་རྩྭ་ཟ་ཤེས། ཆུ་རང་ཤུགས་ཀྱིས་ཐུར་དུ་འགྲོ་ལྟ་བུ། ༼ཤུགས་བསྟན༽ གཞུང་དང་ཚིག་གིས་དོན་ཞིག་དངོས་སུ་བཤད་པར་བརྟེན་ནས་དེ་དང་འབྲེལ་བ་ཡོད་པའི་དོན་དངོས་སུ་མ་བཤད་པ་ཞིག་ཧ་གོ་ཐུབ་ལ། དེ་ལྟར་ཧ་གོ་ཡོང་བའི་དོན་དེ་ལ་ཤུགས་བསྟན་ནམ་ཤུགས་ལ་བསྟན་པའི་དོན་ཟེར། དཔེར་ན། ༼སུམ་ཅུ་བའི་རྩ་བ༽ ལས་ལ་དོན་བཤད་སྐབས། སུ་རུ་དུ་ན་ལ་རྣམས་དངོས་སུ་བསྟན་པའི་ཤུགས་ལ་ཏུ་ཡིག་ཀྱང་ལ་དོན་གྱི་ཁོངས་སུ་གཏོགས་པར་ཤེས་ནུས་ལྟ་བུ། ༣.ཡིད་མི་དགའ་བའམ་མྱ་ངན་སྐྱེས་སྐབས་ཁ་ནས་དབུགས་རིང་བོ་འབྱིན་པའི་སྒྲ་སྟེ། ཤུགས་རིང་འབྱིན། ཤུགས་རིང་འཐེན་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="50" customHeight="1">
-      <c r="A105" s="1" t="inlineStr">
+    <row r="107" ht="50" customHeight="1">
+      <c r="A107" s="1" t="inlineStr">
         <is>
           <t>ཆེན་པོ་</t>
         </is>
       </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 great; large; big; great one</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཆུང་ངུའི་ལྡོག་ཕྱོགས་སྤྱིར་བཏང་ངམ་འཆར་ཅན་གྱི་ཚད་ལས་འདས་པ། མངའ་ཐང་ཆེན་པོ། ཡོན་ཏན་ཆེན་པོ། ཡུལ་གྲུ་རྒྱ་ཆེན་པོ། གལ་ཆེན་པོ། ཆེན་པོའི་ཆེན་པོ། ཆེན་པོའི་འབྲིང། ཆེན་པོའི་ཡང་ཆེན་པོ།</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="50" customHeight="1">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>ཡོད་རེད</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
-there are --</t>
-        </is>
-      </c>
-    </row>
-    <row r="107" ht="50" customHeight="1">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">། </t>
-        </is>
-      </c>
-    </row>
     <row r="108" ht="50" customHeight="1">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>རྒྱ་མཚོ་</t>
+          <t>ཡོད་རེད</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-[vast-lake]; ocean; large lake</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
+          <t>Ives Waldo
+there are --</t>
         </is>
       </c>
     </row>
     <row r="109" ht="50" customHeight="1">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>དེ</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="110" ht="50" customHeight="1">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t>རྒྱ་མཚོ་</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[vast-lake]; ocean; large lake</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
         </is>
       </c>
     </row>
     <row r="111" ht="50" customHeight="1">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>ཁ་</t>
+          <t>དེ</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-mouth; opening; face; area; verb + kha or ka = about to (do something)</t>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་བོད་ཡིག་གི་གསལ་བྱེད་གཉིས་པ། ༼ཁ་པ༽ ཀ་ཀའི་རིམ་པ་ལྟར་བསྒྲིགས་པའི་གཉིས་པའི་མཚོན་བྱེད་དེ། དེབ་ཁ་པ་ཞེས་པ་ལྟ་བུ། ༢.མི་དང་སྲོག་ཆགས་ཀྱི་ཟས་ཁོང་ལ་འཇུག་སའི་དབང་བོ་འི་མིང་། ༼ཁ་ཕྲུ༽ ཁ་ས་གཏོར་བའི་ཆུའི་ཟེགས་མ་འི་མིང་སྟེ། ཆུའི་ཁ་ཕྲུ་བཏབ་ལྟ་བུ། ༼ཁ་དཀྲི༽ མགོ་དང་སྐེ་དཀྲི་བྱེད་ཀྱི་རས་དང་སྣམ་བུ་སོགས་ཀྱི་མིང་། ༼ཁ་བརྙོགས༽ ༼༡༽ ཕྱུགས་ཀྱིས་རྩྭ་ཆས་ཟོས་པའི་ལྷག་མའི་མིང་། ༼༢༽ ཟས་ཞིམ་མངར་ཅན་ཟོས་རྗེས་ཟ་འདོད་ཀྱི་སྲེད་པ་ཇེ་ཆེར་སོང་བའི་དོན། ༣.མིས་སྐད་ཆ་བཤད་པའི་དབང་པོའི་ཆ་ཤས་ཤིག་ཡིན། ༤.སྐད་ཆའི་མིང་ལ་འཇུག་པ་ནི་ཁ་ལ་ཉན། ཁ་རྒོད། ཁ་བདེ། མི་ངན་གྱི་ཁ་ལ་མ་རྒྱུག་མི་ངན་གྱི་ཁ་ལ་མ་ཉན་ལྟ་བུ། ༼ཁ་སྐད༽ རྩོམ་རིག་གི་སྐད་ཆའི་གཞི་རྩ་ཡིན་པའི་སྐད་ཆ་དཀྱུས་མའི་མིང་། ༼ཁ་བརྡ༽ ཕན་ཚུན་ལབ་གླེང་བྱེད་པའི་ཚིག་གི་མིང་སྟེ། ངེད་གཉིས་ཀྱིས་ཁ་བརྡ་བྱས་ལྟ་བུ། ༼ཁ་དན༽ དམ་བཅས་པའི་ཚིག་གམ་དོན་གྱི་མིང་སྟེ། ཁ་དན་ལ་གནས་པ་ཞེས་པ་ལྟ་བུ། ༼ཁ་རྡུང༽ གཞན་ལ་སྡིགས་མོ་བྱས་པ་དང་དགག་པ་རྒྱག་པའི་ཚིག་གི་མིང་སྟེ། བཟོ་བཅོས་རིང་ལུགས་ལ་ཁ་རྡུང་དྲག་པོ་གཏོང་ལྟ་བུ། ༼ཁ་པར༽ གློག་སྐད་ཀྱི་མིང་གཞན། ༥.འཇུག་སྒོའི་མིང་སྟེ། སྣོད་ཁ། སྒྱེ་ཁ། དོང་ཁ། སྒོ་ཁ་ཞེས་པ་ལྟ་བུ། ༼ཁ་ཁེབས༽ སྣོད་ཀྱི་ཁ་འགེབ་བྱེད་ཀྱི་ཡོ་བྱད་ཀྱི་མིང་སྟེ། ཟངས་ངའི་ཁ་ཁེབས་ཞེས་པ་ལྟ་བུ། འདི་ལ་ཁ་ལེབ་དང་ཁ་གབ་ཟེར་བའང་ཡོད། ༦.ཐོག་ངོས་སམ་སྟེང་གི་མིང་སྟེ། ཤིང་ཆུ་ཁ་ལ་གཡེང་། རྫ་ཁའི་ནགས་ཚལ། ལ་ཁའི་ཉི་འོད། མྱུ་གུ་ས་ཁར་འབུས། ཞིང་བདག་གིས་དབུལ་བོའི་རྒྱུ་ནོར་ཕྲོགས་པའི་ཁར་ད་དུང་ཆུང་མ་ཡང་ཕྲོགས་ལྟ་བུ། ༧.འགྲམ་མམ་མཐའ་ཁའི་དོན་ཏེ། གད་ཁ། ཞིང་ཁ། རབ་ཁ་ལྟ་བུ། ༼ཁ་ཚར༽ ༼༡༽ རས་སོགས་ཐགས་སྐྲུན་བྱས་པའི་སྣེ་མོའི་སྐུད་པའི་མིང་སྟེ། རས་ཁ་ཚར་ཅན་ཞེས་པ་ལྟ་བུ། ༼༢༽ སྨན་རྫས་ལ་ཁ་སྣོན་བྱས་པའི་ཁག་གི་མིང་སྟེ། སྨན་ལ་ཁ་ཚར་བསྣན་ལྟ་བུ། ༨.ཚིག་དང་དངོས་རྫས་སོགས་ཀྱི་ཁག་གཅིག་གམ་ཆ་ཤས་ཀྱི་དོན་ལ་འཇུག་པ་ནི། མ་ཚང་བ་ཁ་བསྐངས། ཁ་ལ་བསྣན། ཁ་གསབ་བྱས། དཔེ་ཆ་ཁ་ཚང་བ། མགར་ཆས་ཁ་ཚང་བ། སྨན་རྫས་ཁ་མ་ཚང་ན་ནད་ལ་ཕན་པ་ཆུང་ལྟ་བུ། ༩.ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་དུས་ཉེ་བར་སྟོན་པའི་ཚིག་གྲོགས་ལ་འཇུག་པ་ནི། ཚོགས་འདུ་འཚོག་ཁ། ཉི་མ་འཆར་ཁ། ཟས་བཟའ་ཁ་ཞེས་པ་སོགས་ལྟ་བུ། ༡༠.རྟགས་མཐའ་འམ་མིང་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། དབྱར་ཁ། དགུན་ཁ་ཞེས་པ་ལྟ་བུ། ༡༡.ཕྱུགས་ཀྱི་ལོ་ཚད་ཀྱི་མིང་ལ་འཇུག་པ་ནི། གཡག་ཁ་རྒན། རྟ་ཁ་ཆུང་ཞེས་པ་ལྟ་བུ། ༡༢.ཁ་བ་ཞེས་པའི་མིང་མཐའ་བསྡུས་པ་སྟེ། ཁ་ཆར་སེར་གསུམ་ཟེར་བ་ལྟ་བུ། ༡༣.རས་ཀྱི་ཞིང་ཚད་ཀྱིས་དཀྱུས་ཚད་འཇལ་བའི་གྲུ་བཞིའི་ཚད་ཀྱི་མིང་སྟེ། རས་ཁ་གང་། རས་ཁ་ལྔ་ཞེས་པ་ལྟ་བུ། ༡༤.ཁ་དོག་གམ་མདོག་གི་མིང་བསྡུས་པ་སྟེ། རྟའི་སྤུ་ཁ། རས་ཁ་སྒྱུར། ཁ་ཡག་པོ་འགོས་ལྟ་བུ། ༡༥.རེ་རེ་བའམ་ཡན་གར་བའི་དོན་ཏེ། མ་མོ་དང་ལུ་གུ་ཁ་འགེར་རན། ཁ་བྲལ་ལྟ་བུ། ༡༦.གས་སྲུབས་ཀྱི་མིང་ལ་འཇུག་པ་ནི། གས་ཁ། སེར་ཁ། རྨ་ཁ་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="112" ht="50" customHeight="1">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>ན</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) to; in; as; at [accusative, dative, locative particle]; (2) if; when [non-case usages]; (3) be sick; be ill; in pain [for the verb, na ba]</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་མིང་གི་མཐའ་སྦྱར་ན་རྣམ་དབྱེ་ལ་འཇུག་པ་ནི། འབྲོག་ན་རྟ་ནོར་ལུག་གསུམ་ཡོད་ལྟ་བུ། རྒྱས་པར་ལ་ལ་ལྟོས། ༢.ལས་ཚིག་གི་མཐར་སྦྱར་ན་དོན་ཕྱི་མ་འདྲེན། ༼ཀ༽ ༼༡༽ མིང་གཞིའི་ཤིན་ཏུ་མོའི་ཡི་གེ་ཞིག ༼༢༽ རྗེས་འཇུག་གི་མ་ནིང་ཡི་གེ་ཞིག ༼ཁ༽ ༼༡༽ མིའི་ལོ་གྲངས་ཀྱི་ཚོད། ལོ་ན་མཐོན་པོ། ཕྲུ་གུ་ནར་མ་སོན་པ། ༼༢༽ ལོ་ལྔ་ལོན་པའི་རྟ་དྲེལ་གྱི་ལོ། ༼༣༽ ཆུ་རླན་ཆེ་བའམ་ཆུ་འཁྱིལ་མང་བོ་ཡོད་པའི་སྤང་ལྗོངས་ཀྱི་མིང་སྟེ། ན་ཐང་། ན་རྩྭ། ན་ཆུ། རྐྱང་ཁ་དཀར་རྨིག་བཞི་ན་ལ་ཟུག་ལྟ་བུ། ༣.ཚིག་ཕྲད་ན་ཡིག ༼༡༽ དམིགས་ཀྱིས་དབྱེ་བ། དངོས་སུ་ན། མདོར་བསྡུས་ན། ཡིན་གྲང་ན། ༼༢༽ རྒྱུ་མཚན་སྟོན་པ། མེ་ཡོད་ན་དུ་བ་འབྱུང་། ས་བོན་བཏབ་ན་འབྲས་བུ་སྐྱེ། ༼༣༽ རྒྱུ་མཚན་དོན་གྱིས་སྟོན་པ། ནད་མེད་ན་སྨན་པ་ཅིའི་ཕྱིར་བསྟེན། ཆང་མ་བཏུངས་ན་ར་བཟི་དོན་མེད། ཆུ་མེད་ན་ཉ་ག་ལ་ཡོང་། ༼༤༽ ཚིག་འགལ་བར་སྟོན་པ། ཁོ་རང་མཁས་པ་ཡིན་པར་གྲགས་ནའང་བཟང་ངན་གྱི་དབྱེ་བ་འབྱེད་མི་ཤེས་པའི་རྨོངས་པ་ཞིག་རེད་འདུག ༼༥༽ འོས་པར་དཀའ་བ། ཁྱི་ལའང་འཇིགས་ན་སེང་གེ་ལ་བཤད་མི་དགོས། མི་རྒན་པས་འཁུར་མི་ཐུབ་ན་ཕྲུ་གུས་ལྟ་ཅི་སྨོས། ནད་པ་དེ་ཕར་ཚུར་འགྲོ་ཐུབ་ན་ཡར་ལང་ཐུབ་པ་སྨོས་ཅི་འཚལ། ༼༦༽ ཕྱི་ཚིག་ངེས་པར་བྱེད་པ། དུད་འགྲོ་རྣམས་ཤིན་ཏུ་རྨོངས་ན་མིའང་དེ་ལྟར་འདུག་འབྲོག་པས་ཞིང་འདེབས་མི་ཤེས་ན་སོ་ནམ་པས་ཞིང་ཁ་འདེབས་མི་ཤེས་པའང་འདུག་ཅེས་པ་ལྟ་བུ། ༼༧༽ སྨོན་པ། ང་ཡ་ང་ཚན་རིག་པ་ཞིག་བྱེད་རྒྱུ་བྱུང་ན་ཅི་མ་རུང་ཞེས་པ་ལྟ་བུ། ༼༨༽ ཐེ་ཚོམ་སྟོན་པ། ས་བོན་ནི་བཏབ་ཟིན་ན་འདི་ལས་མྱུ་གུ་འབྱུང་ངམ་མི་འབྱུང། སྨན་བཏང་ཡོད་ན་ནད་ཨེ་སོས་མི་སོས། གདན་འདྲེན་ཞུས་ཟིན་ན་ཁོ་ཡ་འོང་ངམ་མི་ཡོང་། ༼ན་རམ༽ ན་གཞུང་དུ་སྐྱེ་བའི་རྩྭ་ལྡུམ་རིགས་ཤིག་གི་མིང་། ལོ་མའི་དབྱིབས་ཐ་རམ་དང་འདྲ་ལ་ཕྱུགས་ཀྱི་གཟན་རྩྭ་བཟང་བོ་ཞིག་ཡིན། ༤.ན་ཚོད་ཀྱི་ཚིག་བསྡུས་པ། ༥.ན་སོ་ལ་ལྟོས། ༦.ན་བ་ཡི་ཚིག་བསྡུས་པ།</t>
+          <t>འི་</t>
         </is>
       </c>
     </row>
     <row r="113" ht="50" customHeight="1">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ཁ་</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+mouth; opening; face; area; verb + kha or ka = about to (do something)</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་བོད་ཡིག་གི་གསལ་བྱེད་གཉིས་པ། ༼ཁ་པ༽ ཀ་ཀའི་རིམ་པ་ལྟར་བསྒྲིགས་པའི་གཉིས་པའི་མཚོན་བྱེད་དེ། དེབ་ཁ་པ་ཞེས་པ་ལྟ་བུ། ༢.མི་དང་སྲོག་ཆགས་ཀྱི་ཟས་ཁོང་ལ་འཇུག་སའི་དབང་བོ་འི་མིང་། ༼ཁ་ཕྲུ༽ ཁ་ས་གཏོར་བའི་ཆུའི་ཟེགས་མ་འི་མིང་སྟེ། ཆུའི་ཁ་ཕྲུ་བཏབ་ལྟ་བུ། ༼ཁ་དཀྲི༽ མགོ་དང་སྐེ་དཀྲི་བྱེད་ཀྱི་རས་དང་སྣམ་བུ་སོགས་ཀྱི་མིང་། ༼ཁ་བརྙོགས༽ ༼༡༽ ཕྱུགས་ཀྱིས་རྩྭ་ཆས་ཟོས་པའི་ལྷག་མའི་མིང་། ༼༢༽ ཟས་ཞིམ་མངར་ཅན་ཟོས་རྗེས་ཟ་འདོད་ཀྱི་སྲེད་པ་ཇེ་ཆེར་སོང་བའི་དོན། ༣.མིས་སྐད་ཆ་བཤད་པའི་དབང་པོའི་ཆ་ཤས་ཤིག་ཡིན། ༤.སྐད་ཆའི་མིང་ལ་འཇུག་པ་ནི་ཁ་ལ་ཉན། ཁ་རྒོད། ཁ་བདེ། མི་ངན་གྱི་ཁ་ལ་མ་རྒྱུག་མི་ངན་གྱི་ཁ་ལ་མ་ཉན་ལྟ་བུ། ༼ཁ་སྐད༽ རྩོམ་རིག་གི་སྐད་ཆའི་གཞི་རྩ་ཡིན་པའི་སྐད་ཆ་དཀྱུས་མའི་མིང་། ༼ཁ་བརྡ༽ ཕན་ཚུན་ལབ་གླེང་བྱེད་པའི་ཚིག་གི་མིང་སྟེ། ངེད་གཉིས་ཀྱིས་ཁ་བརྡ་བྱས་ལྟ་བུ། ༼ཁ་དན༽ དམ་བཅས་པའི་ཚིག་གམ་དོན་གྱི་མིང་སྟེ། ཁ་དན་ལ་གནས་པ་ཞེས་པ་ལྟ་བུ། ༼ཁ་རྡུང༽ གཞན་ལ་སྡིགས་མོ་བྱས་པ་དང་དགག་པ་རྒྱག་པའི་ཚིག་གི་མིང་སྟེ། བཟོ་བཅོས་རིང་ལུགས་ལ་ཁ་རྡུང་དྲག་པོ་གཏོང་ལྟ་བུ། ༼ཁ་པར༽ གློག་སྐད་ཀྱི་མིང་གཞན། ༥.འཇུག་སྒོའི་མིང་སྟེ། སྣོད་ཁ། སྒྱེ་ཁ། དོང་ཁ། སྒོ་ཁ་ཞེས་པ་ལྟ་བུ། ༼ཁ་ཁེབས༽ སྣོད་ཀྱི་ཁ་འགེབ་བྱེད་ཀྱི་ཡོ་བྱད་ཀྱི་མིང་སྟེ། ཟངས་ངའི་ཁ་ཁེབས་ཞེས་པ་ལྟ་བུ། འདི་ལ་ཁ་ལེབ་དང་ཁ་གབ་ཟེར་བའང་ཡོད། ༦.ཐོག་ངོས་སམ་སྟེང་གི་མིང་སྟེ། ཤིང་ཆུ་ཁ་ལ་གཡེང་། རྫ་ཁའི་ནགས་ཚལ། ལ་ཁའི་ཉི་འོད། མྱུ་གུ་ས་ཁར་འབུས། ཞིང་བདག་གིས་དབུལ་བོའི་རྒྱུ་ནོར་ཕྲོགས་པའི་ཁར་ད་དུང་ཆུང་མ་ཡང་ཕྲོགས་ལྟ་བུ། ༧.འགྲམ་མམ་མཐའ་ཁའི་དོན་ཏེ། གད་ཁ། ཞིང་ཁ། རབ་ཁ་ལྟ་བུ། ༼ཁ་ཚར༽ ༼༡༽ རས་སོགས་ཐགས་སྐྲུན་བྱས་པའི་སྣེ་མོའི་སྐུད་པའི་མིང་སྟེ། རས་ཁ་ཚར་ཅན་ཞེས་པ་ལྟ་བུ། ༼༢༽ སྨན་རྫས་ལ་ཁ་སྣོན་བྱས་པའི་ཁག་གི་མིང་སྟེ། སྨན་ལ་ཁ་ཚར་བསྣན་ལྟ་བུ། ༨.ཚིག་དང་དངོས་རྫས་སོགས་ཀྱི་ཁག་གཅིག་གམ་ཆ་ཤས་ཀྱི་དོན་ལ་འཇུག་པ་ནི། མ་ཚང་བ་ཁ་བསྐངས། ཁ་ལ་བསྣན། ཁ་གསབ་བྱས། དཔེ་ཆ་ཁ་ཚང་བ། མགར་ཆས་ཁ་ཚང་བ། སྨན་རྫས་ཁ་མ་ཚང་ན་ནད་ལ་ཕན་པ་ཆུང་ལྟ་བུ། ༩.ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་དུས་ཉེ་བར་སྟོན་པའི་ཚིག་གྲོགས་ལ་འཇུག་པ་ནི། ཚོགས་འདུ་འཚོག་ཁ། ཉི་མ་འཆར་ཁ། ཟས་བཟའ་ཁ་ཞེས་པ་སོགས་ལྟ་བུ། ༡༠.རྟགས་མཐའ་འམ་མིང་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། དབྱར་ཁ། དགུན་ཁ་ཞེས་པ་ལྟ་བུ། ༡༡.ཕྱུགས་ཀྱི་ལོ་ཚད་ཀྱི་མིང་ལ་འཇུག་པ་ནི། གཡག་ཁ་རྒན། རྟ་ཁ་ཆུང་ཞེས་པ་ལྟ་བུ། ༡༢.ཁ་བ་ཞེས་པའི་མིང་མཐའ་བསྡུས་པ་སྟེ། ཁ་ཆར་སེར་གསུམ་ཟེར་བ་ལྟ་བུ། ༡༣.རས་ཀྱི་ཞིང་ཚད་ཀྱིས་དཀྱུས་ཚད་འཇལ་བའི་གྲུ་བཞིའི་ཚད་ཀྱི་མིང་སྟེ། རས་ཁ་གང་། རས་ཁ་ལྔ་ཞེས་པ་ལྟ་བུ། ༡༤.ཁ་དོག་གམ་མདོག་གི་མིང་བསྡུས་པ་སྟེ། རྟའི་སྤུ་ཁ། རས་ཁ་སྒྱུར། ཁ་ཡག་པོ་འགོས་ལྟ་བུ། ༡༥.རེ་རེ་བའམ་ཡན་གར་བའི་དོན་ཏེ། མ་མོ་དང་ལུ་གུ་ཁ་འགེར་རན། ཁ་བྲལ་ལྟ་བུ། ༡༦.གས་སྲུབས་ཀྱི་མིང་ལ་འཇུག་པ་ནི། གས་ཁ། སེར་ཁ། རྨ་ཁ་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="114" ht="50" customHeight="1">
       <c r="A114" s="1" t="inlineStr">
         <is>
+          <t>ན</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) to; in; as; at [accusative, dative, locative particle]; (2) if; when [non-case usages]; (3) be sick; be ill; in pain [for the verb, na ba]</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་གི་མཐའ་སྦྱར་ན་རྣམ་དབྱེ་ལ་འཇུག་པ་ནི། འབྲོག་ན་རྟ་ནོར་ལུག་གསུམ་ཡོད་ལྟ་བུ། རྒྱས་པར་ལ་ལ་ལྟོས། ༢.ལས་ཚིག་གི་མཐར་སྦྱར་ན་དོན་ཕྱི་མ་འདྲེན། ༼ཀ༽ ༼༡༽ མིང་གཞིའི་ཤིན་ཏུ་མོའི་ཡི་གེ་ཞིག ༼༢༽ རྗེས་འཇུག་གི་མ་ནིང་ཡི་གེ་ཞིག ༼ཁ༽ ༼༡༽ མིའི་ལོ་གྲངས་ཀྱི་ཚོད། ལོ་ན་མཐོན་པོ། ཕྲུ་གུ་ནར་མ་སོན་པ། ༼༢༽ ལོ་ལྔ་ལོན་པའི་རྟ་དྲེལ་གྱི་ལོ། ༼༣༽ ཆུ་རླན་ཆེ་བའམ་ཆུ་འཁྱིལ་མང་བོ་ཡོད་པའི་སྤང་ལྗོངས་ཀྱི་མིང་སྟེ། ན་ཐང་། ན་རྩྭ། ན་ཆུ། རྐྱང་ཁ་དཀར་རྨིག་བཞི་ན་ལ་ཟུག་ལྟ་བུ། ༣.ཚིག་ཕྲད་ན་ཡིག ༼༡༽ དམིགས་ཀྱིས་དབྱེ་བ། དངོས་སུ་ན། མདོར་བསྡུས་ན། ཡིན་གྲང་ན། ༼༢༽ རྒྱུ་མཚན་སྟོན་པ། མེ་ཡོད་ན་དུ་བ་འབྱུང་། ས་བོན་བཏབ་ན་འབྲས་བུ་སྐྱེ། ༼༣༽ རྒྱུ་མཚན་དོན་གྱིས་སྟོན་པ། ནད་མེད་ན་སྨན་པ་ཅིའི་ཕྱིར་བསྟེན། ཆང་མ་བཏུངས་ན་ར་བཟི་དོན་མེད། ཆུ་མེད་ན་ཉ་ག་ལ་ཡོང་། ༼༤༽ ཚིག་འགལ་བར་སྟོན་པ། ཁོ་རང་མཁས་པ་ཡིན་པར་གྲགས་ནའང་བཟང་ངན་གྱི་དབྱེ་བ་འབྱེད་མི་ཤེས་པའི་རྨོངས་པ་ཞིག་རེད་འདུག ༼༥༽ འོས་པར་དཀའ་བ། ཁྱི་ལའང་འཇིགས་ན་སེང་གེ་ལ་བཤད་མི་དགོས། མི་རྒན་པས་འཁུར་མི་ཐུབ་ན་ཕྲུ་གུས་ལྟ་ཅི་སྨོས། ནད་པ་དེ་ཕར་ཚུར་འགྲོ་ཐུབ་ན་ཡར་ལང་ཐུབ་པ་སྨོས་ཅི་འཚལ། ༼༦༽ ཕྱི་ཚིག་ངེས་པར་བྱེད་པ། དུད་འགྲོ་རྣམས་ཤིན་ཏུ་རྨོངས་ན་མིའང་དེ་ལྟར་འདུག་འབྲོག་པས་ཞིང་འདེབས་མི་ཤེས་ན་སོ་ནམ་པས་ཞིང་ཁ་འདེབས་མི་ཤེས་པའང་འདུག་ཅེས་པ་ལྟ་བུ། ༼༧༽ སྨོན་པ། ང་ཡ་ང་ཚན་རིག་པ་ཞིག་བྱེད་རྒྱུ་བྱུང་ན་ཅི་མ་རུང་ཞེས་པ་ལྟ་བུ། ༼༨༽ ཐེ་ཚོམ་སྟོན་པ། ས་བོན་ནི་བཏབ་ཟིན་ན་འདི་ལས་མྱུ་གུ་འབྱུང་ངམ་མི་འབྱུང། སྨན་བཏང་ཡོད་ན་ནད་ཨེ་སོས་མི་སོས། གདན་འདྲེན་ཞུས་ཟིན་ན་ཁོ་ཡ་འོང་ངམ་མི་ཡོང་། ༼ན་རམ༽ ན་གཞུང་དུ་སྐྱེ་བའི་རྩྭ་ལྡུམ་རིགས་ཤིག་གི་མིང་། ལོ་མའི་དབྱིབས་ཐ་རམ་དང་འདྲ་ལ་ཕྱུགས་ཀྱི་གཟན་རྩྭ་བཟང་བོ་ཞིག་ཡིན། ༤.ན་ཚོད་ཀྱི་ཚིག་བསྡུས་པ། ༥.ན་སོ་ལ་ལྟོས། ༦.ན་བ་ཡི་ཚིག་བསྡུས་པ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="50" customHeight="1">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="50" customHeight="1">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="115" ht="50" customHeight="1">
-      <c r="A115" s="1" t="inlineStr">
+    <row r="117" ht="50" customHeight="1">
+      <c r="A117" s="1" t="inlineStr">
         <is>
           <t>དཀྱིལ་མ་</t>
         </is>
       </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 middle, center, the 1 in the middle, the central one</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 དབུས་མའམ་བར་མ། ཀ་བ་དཀྱིལ་མ། ཁང་པ་དཀྱིལ་མ།</t>
         </is>
       </c>
     </row>
-    <row r="116" ht="50" customHeight="1">
-      <c r="A116" s="1" t="inlineStr">
+    <row r="118" ht="50" customHeight="1">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>ལ་</t>
         </is>
       </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 (1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
-    <row r="117" ht="50" customHeight="1">
-      <c r="A117" s="1" t="inlineStr">
+    <row r="119" ht="50" customHeight="1">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>ཨི་ཁུང་</t>
         </is>
       </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 hole</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 བུག་པ། ཨི་ཁུང་རྒྱག་པ།</t>
         </is>
       </c>
     </row>
-    <row r="118" ht="50" customHeight="1">
-      <c r="A118" s="1" t="inlineStr">
+    <row r="120" ht="50" customHeight="1">
+      <c r="A120" s="1" t="inlineStr">
         <is>
           <t>ཆེ་ཆུང་</t>
         </is>
       </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 1) big and small [size], greater and lesser, degree, higher or lower, extent, two wives great and small; 2) size</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཆེ་བ་དང་ཆུང་བའི་བསྡུས་ཚིག་གོ་གནས་ཆེ་ཆུང། དབང་ཆ་ཆེ་ཆུང། ཁང་པ་ཆེ་ཆུང། མྱུར་ཚད་ཆེ་ཆུང། བྱས་ཉེས་ཆེ་ཆུང། དགོན་པ་སྒྲིག་མེད་ཀྱི་དུང་དེ་ཕུ་ཤུགས་ཆེ་ཆུང་དང། ཁྱིམ་ཚང་སྒྲིག་མེད་ཀྱི་འཁྲུག་པ་དེ་ཁ་རྩལ་ཆེ་ཆུང།</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="50" customHeight="1">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>རུས་སྦལ་</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
-        </is>
-      </c>
-    </row>
-    <row r="120" ht="50" customHeight="1">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>གྱི་</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
     <row r="121" ht="50" customHeight="1">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>མགོ་</t>
+          <t>རུས་སྦལ་</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-head; top; beginning</t>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
     </row>
     <row r="122" ht="50" customHeight="1">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>དང་</t>
+          <t>གྱི་</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-and; or; with</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིང་དང་ཚེག་སྔ་ཕྱི་སྦྲེལ་བྱེད་ཀྱི་ཚེག་ཕྲད་དེ། དགེ་རྒན་དང་སློབ་མ། རྟ་དང་ལུག་ཅེས་པ་ལྟ་བུ། ༢.སྒྲིག་ལམ་དང་མ་འགལ། རྩ་ཁྲིམས་དང་འགལ་མི་རུང་། དམག་དཔོན་འཁོར་དང་བཅས་པས་མཐའ་མཚམས་བསྲུངས། ང་དང་བཅས་པའི་ཁྱིམ་མི་ཚང་མས་གསར་འགྱུར་ཀློག་པར་ཉན་ལྟ་བུ། ༣.༼ཀ༽ སྐུལ་ཚི་ག་གི་མཐར་སྦྱར་ན་རེ་བ་ཞུ་བའི་དོན་ཏེ། ང་ལ་དཔེ་ཆ་ཞིག་གཡོར་དང་། གསུང་རོགས་གནོངས་དང་། ཉོན་དང་། ལྟོས་དང་ཞེས་པ་ལྟ་བུ། ༼ཁ༽ ཡིག་སྐད་དུ་རྒྱུ་རྐྱེན་ནམ་དུས་སྟོན་པའི་དོན་ཏེ། སྨན་འཐུངས་པ་དང་ནད་སོས། ཉི་མ་ཤར་བ་དང་མུན་པ་སངས་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="123" ht="50" customHeight="1">
       <c r="A123" s="1" t="inlineStr">
         <is>
+          <t>མགོ་</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+head; top; beginning</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="50" customHeight="1">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>དང་</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+and; or; with</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་དང་ཚེག་སྔ་ཕྱི་སྦྲེལ་བྱེད་ཀྱི་ཚེག་ཕྲད་དེ། དགེ་རྒན་དང་སློབ་མ། རྟ་དང་ལུག་ཅེས་པ་ལྟ་བུ། ༢.སྒྲིག་ལམ་དང་མ་འགལ། རྩ་ཁྲིམས་དང་འགལ་མི་རུང་། དམག་དཔོན་འཁོར་དང་བཅས་པས་མཐའ་མཚམས་བསྲུངས། ང་དང་བཅས་པའི་ཁྱིམ་མི་ཚང་མས་གསར་འགྱུར་ཀློག་པར་ཉན་ལྟ་བུ། ༣.༼ཀ༽ སྐུལ་ཚི་ག་གི་མཐར་སྦྱར་ན་རེ་བ་ཞུ་བའི་དོན་ཏེ། ང་ལ་དཔེ་ཆ་ཞིག་གཡོར་དང་། གསུང་རོགས་གནོངས་དང་། ཉོན་དང་། ལྟོས་དང་ཞེས་པ་ལྟ་བུ། ༼ཁ༽ ཡིག་སྐད་དུ་རྒྱུ་རྐྱེན་ནམ་དུས་སྟོན་པའི་དོན་ཏེ། སྨན་འཐུངས་པ་དང་ནད་སོས། ཉི་མ་ཤར་བ་དང་མུན་པ་སངས་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="50" customHeight="1">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
           <t>འདྲ་པོ་</t>
         </is>
       </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 like, similar</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 མཚུངས་པའི་དོན་དུ་གོ་བའི་འདྲ་བ་དང་འདྲ།</t>
         </is>
       </c>
     </row>
-    <row r="124" ht="50" customHeight="1">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>ཞིག་</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) particle indicating "a" [often untranslatable]; (2) disintegrate; destroy; perish [past tense]</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཅིག་ལ་ལྟོས། ༢.འཇིག་གི་སྐུལ་ཚིག་ལ་ཞིག་འབྲི་བའང་ཡོད། ༣.ཞིག་པོ་ཡི་ཚིག་བསྡུས་པ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="125" ht="50" customHeight="1">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>ཡོད་པ་རེད</t>
-        </is>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
-exists, existed * there are/_were</t>
-        </is>
-      </c>
-    </row>
     <row r="126" ht="50" customHeight="1">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ཞིག་</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) particle indicating "a" [often untranslatable]; (2) disintegrate; destroy; perish [past tense]</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཅིག་ལ་ལྟོས། ༢.འཇིག་གི་སྐུལ་ཚིག་ལ་ཞིག་འབྲི་བའང་ཡོད། ༣.ཞིག་པོ་ཡི་ཚིག་བསྡུས་པ།</t>
         </is>
       </c>
     </row>
     <row r="127" ht="50" customHeight="1">
       <c r="A127" s="1" t="inlineStr">
         <is>
+          <t>ཡོད་པ་རེད</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+exists, existed * there are/_were</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="50" customHeight="1">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="50" customHeight="1">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="128" ht="50" customHeight="1">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>དེ་</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="129" ht="50" customHeight="1">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>རྒྱ་མཚོ</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[vast-lake]; ocean; large lake</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
-        </is>
-      </c>
-    </row>
     <row r="130" ht="50" customHeight="1">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t>དེ་</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="131" ht="50" customHeight="1">
       <c r="A131" s="1" t="inlineStr">
         <is>
+          <t>རྒྱ་མཚོ</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[vast-lake]; ocean; large lake</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="50" customHeight="1">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>འི་</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="50" customHeight="1">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
           <t>རྦ་རླབས་</t>
         </is>
       </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 wave</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཆུ་གཡོས་པའི་རླབས། དབྱར་དུས་ཀྱི་གཙང་པོའི་ནང་རྦ་རླབས་དྲག་པོ་འཕྱུར་བ། རྒྱ་མཚོའི་རྦ་རླབས་རི་ལྟར་མཐོ་བ། གསར་བརྗེའི་རྦ་རླབས་མཐོན་པོར་སློང་བ། ཆུ་ཀླུང་ཐམས་ཅད་རྦ་རླབས་འཕྱོ་ཞིང་གནམ་དུ་འཕྱུར་བ་སྙམ་བྱེད། རི་ཐམས་ཅད་ནི་གྲོག་པོར་བཏང། ཐང་ཐམས་ཅད་ནི་གྲམ་པར་བརྡལ། མིང་གི་རྣམ་གྲངས་ལ་ཆུ་འཁྲུག་དང། ཆུ་རྔམས་པ། ཆུ་རླབས། ཆུའི་འཁྲི་ཤིང། ཆུའི་སྒྲེ་ལོག་སྟེང་འཕར། དབའ་ཀློང། དབའ་རླབས། རླབས་ཕྲེང་བཅས་སོ།</t>
         </is>
       </c>
     </row>
-    <row r="132" ht="50" customHeight="1">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>ཀྱིས་</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[as instrumental particle] by; by means of; with; because; through\n [as non-case particle corruptly used in place of the non-case usage of genitive particles] but; and; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱིས་གྱིས་གིས་འིས་ཡིས་ལྔ་ལ་བརྡ་སྤྲོད་དུ་བྱེད་སྒྲ་ཟེར། ༡.བྱེད་པ་པོ་སྟོན་པའི་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱེད་སྒྲ་ཡིན་ཏེ། ཁྱོད་ཀྱིས་ལྟོས། ཐབས་ཀྱིས་རྟ་རྒོད་འདུལ། དགེ་རྒན་གྱིས་སློབ་མར་དཔེ་ཆ་ཁྲིད། དམག་གིས་དམག་རྩལ་སྦྱང་། ཞིང་པ་ཡིས་ཞིང་འདེབས། འབྲོག་པས་ཕྱུགས་འཚོས་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པའི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བ་སྟེ། ཡིན་གྱིས་མིན། ཡོད་ཀྱིས་མེད། ཆོག་གིས་མི་ཆོག་ལྟ་བུ། ༣.འགའ་རེ་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་ཚིག་ཕྱི་མའི་རྣམ་པ་སོགས་སྟོན་པར་མཚོན་བྱེད་དེ། རྒྱལ་ཁབ་རིམ་གྱིས་དར། མི་རྣམས་ཁད་ཀྱིས་འདུས། བྱ་བ་ལྷུན་གྱིས་གྲུབ་ལྟ་བུ། ༤.འཇུག་ཚུལ་ནི་འབྲེལ་སྒྲ་གི་ཀྱི་གྱི་ཡི་འི་ལྔ་དང་མཚུངས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="133" ht="50" customHeight="1">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>ཤར་</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-east; eastern direction; eastern quarter</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཉི་མ་འཆར་བའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཤར་ལྷོ་ནུབ་བྱང་ཞེས་པ་ལྟ་བུ། ༢.མྱུར་བའམ་ཐོགས་པ་མེད་པའི་དོན་ཏེ། རླངས་འཁོར་ཤར་གཏོང་བྱས། ཡི་གེ་ཤར་ཤར་བཀླགས། ལམ་ལ་ཤར་གྱིས་སོང་ཞེས་པ་སོགས་ལྟ་བུ། ༣.ན་ཚོད་གཞོན་པའི་དོན་ཏེ། ཕོ་གཞོན་ལ་ཤར་བའམ་སྟག་ཤར། མོ་གཞོན་ལ་ཤར་མའམ་སྨན་ཤར་ཟེར་བ་ལྟ་བུ། ༤.འཆར་གྱི་འདས་པ།</t>
-        </is>
-      </c>
-    </row>
     <row r="134" ht="50" customHeight="1">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>ནས་</t>
+          <t>ཀྱིས་</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) ablative particle: from; than; (2) barley</t>
+          <t>Hopkins 2015
+[as instrumental particle] by; by means of; with; because; through\n [as non-case particle corruptly used in place of the non-case usage of genitive particles] but; and; (semi-colon)</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱིས་གྱིས་གིས་འིས་ཡིས་ལྔ་ལ་བརྡ་སྤྲོད་དུ་བྱེད་སྒྲ་ཟེར། ༡.བྱེད་པ་པོ་སྟོན་པའི་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱེད་སྒྲ་ཡིན་ཏེ། ཁྱོད་ཀྱིས་ལྟོས། ཐབས་ཀྱིས་རྟ་རྒོད་འདུལ། དགེ་རྒན་གྱིས་སློབ་མར་དཔེ་ཆ་ཁྲིད། དམག་གིས་དམག་རྩལ་སྦྱང་། ཞིང་པ་ཡིས་ཞིང་འདེབས། འབྲོག་པས་ཕྱུགས་འཚོས་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པའི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བ་སྟེ། ཡིན་གྱིས་མིན། ཡོད་ཀྱིས་མེད། ཆོག་གིས་མི་ཆོག་ལྟ་བུ། ༣.འགའ་རེ་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་ཚིག་ཕྱི་མའི་རྣམ་པ་སོགས་སྟོན་པར་མཚོན་བྱེད་དེ། རྒྱལ་ཁབ་རིམ་གྱིས་དར། མི་རྣམས་ཁད་ཀྱིས་འདུས། བྱ་བ་ལྷུན་གྱིས་གྲུབ་ལྟ་བུ། ༤.འཇུག་ཚུལ་ནི་འབྲེལ་སྒྲ་གི་ཀྱི་གྱི་ཡི་འི་ལྔ་དང་མཚུངས།</t>
         </is>
       </c>
     </row>
     <row r="135" ht="50" customHeight="1">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>ནུབ་</t>
+          <t>ཤར་</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-disappearance; west</t>
+          <t>Hopkins 2015
+east; eastern direction; eastern quarter</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡. ༼བྱེད་མེད་ལས་ཚིག༽ ༼ཀ༽ ཉི་ཟླ་སོགས་རི་བོ་སོགས་ཀྱི་ཕག་ལ་སོང་ནས་མི་མཐོང་བའི་དོན་ཏེ། ཉི་མ་འཆར་ནུབ། ཟླ་བ་རི་བོའི་ཕག་ལ་ནུབ་ལྟ་བུ། ༼ཁ༽ ཆུའི་ནང་ལ་འབྱིང་བའི་དོན་ཏེ། དགྲ་གྲུ་རྒྱ་མཚོར་ནུབ། ཆུ་བོ་རྐེད་པ་ནུབ་པ་ཙམ། ཆུ་ཕྲན་པུས་མོ་ནུབ་ཙམ་ཞེས་པ་ལྟ་བུ། ༼ག༽ སྲོལ་ངན་སོགས་ཉམས་པའི་དོན་ཏེ། སྲོལ་ངན་ནུབ་ཅེས་པ་ལྟ་བུ། ༢.ཉི་མ་ནུབ་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཤར་ནུབ། ནུབ་ཕྱོགས་ཞེས་པ་ལྟ་བུ། ༣.ཡོ་རུབ་གླིང་དང་བྱང་ཨ་མེ་རི་ཀའི་གླིང་གི་སྤྱི་མིང་དུ་འཇུག་སྟེ། ནུབ་ཕྱོགས་ཀྱི་གསོ་བ་རིག་པ། ནུབ་ཕྱོགས་པ་ཞེས་པ་ལྟ་བུ། ༤.ནུབ་མོ་ཡི་མིང་བསྡུས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཉི་མ་འཆར་བའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཤར་ལྷོ་ནུབ་བྱང་ཞེས་པ་ལྟ་བུ། ༢.མྱུར་བའམ་ཐོགས་པ་མེད་པའི་དོན་ཏེ། རླངས་འཁོར་ཤར་གཏོང་བྱས། ཡི་གེ་ཤར་ཤར་བཀླགས། ལམ་ལ་ཤར་གྱིས་སོང་ཞེས་པ་སོགས་ལྟ་བུ། ༣.ན་ཚོད་གཞོན་པའི་དོན་ཏེ། ཕོ་གཞོན་ལ་ཤར་བའམ་སྟག་ཤར། མོ་གཞོན་ལ་ཤར་མའམ་སྨན་ཤར་ཟེར་བ་ལྟ་བུ། ༤.འཆར་གྱི་འདས་པ།</t>
         </is>
       </c>
     </row>
     <row r="136" ht="50" customHeight="1">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>དང་</t>
+          <t>ནས་</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-and; or; with</t>
+          <t>Hopkins 2015
+(1) ablative particle: from; than; (2) barley</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིང་དང་ཚེག་སྔ་ཕྱི་སྦྲེལ་བྱེད་ཀྱི་ཚེག་ཕྲད་དེ། དགེ་རྒན་དང་སློབ་མ། རྟ་དང་ལུག་ཅེས་པ་ལྟ་བུ། ༢.སྒྲིག་ལམ་དང་མ་འགལ། རྩ་ཁྲིམས་དང་འགལ་མི་རུང་། དམག་དཔོན་འཁོར་དང་བཅས་པས་མཐའ་མཚམས་བསྲུངས། ང་དང་བཅས་པའི་ཁྱིམ་མི་ཚང་མས་གསར་འགྱུར་ཀློག་པར་ཉན་ལྟ་བུ། ༣.༼ཀ༽ སྐུལ་ཚི་ག་གི་མཐར་སྦྱར་ན་རེ་བ་ཞུ་བའི་དོན་ཏེ། ང་ལ་དཔེ་ཆ་ཞིག་གཡོར་དང་། གསུང་རོགས་གནོངས་དང་། ཉོན་དང་། ལྟོས་དང་ཞེས་པ་ལྟ་བུ། ༼ཁ༽ ཡིག་སྐད་དུ་རྒྱུ་རྐྱེན་ནམ་དུས་སྟོན་པའི་དོན་ཏེ། སྨན་འཐུངས་པ་དང་ནད་སོས། ཉི་མ་ཤར་བ་དང་མུན་པ་སངས་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="137" ht="50" customHeight="1">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ནུབ་</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+disappearance; west</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་མེད་ལས་ཚིག༽ ༼ཀ༽ ཉི་ཟླ་སོགས་རི་བོ་སོགས་ཀྱི་ཕག་ལ་སོང་ནས་མི་མཐོང་བའི་དོན་ཏེ། ཉི་མ་འཆར་ནུབ། ཟླ་བ་རི་བོའི་ཕག་ལ་ནུབ་ལྟ་བུ། ༼ཁ༽ ཆུའི་ནང་ལ་འབྱིང་བའི་དོན་ཏེ། དགྲ་གྲུ་རྒྱ་མཚོར་ནུབ། ཆུ་བོ་རྐེད་པ་ནུབ་པ་ཙམ། ཆུ་ཕྲན་པུས་མོ་ནུབ་ཙམ་ཞེས་པ་ལྟ་བུ། ༼ག༽ སྲོལ་ངན་སོགས་ཉམས་པའི་དོན་ཏེ། སྲོལ་ངན་ནུབ་ཅེས་པ་ལྟ་བུ། ༢.ཉི་མ་ནུབ་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཤར་ནུབ། ནུབ་ཕྱོགས་ཞེས་པ་ལྟ་བུ། ༣.ཡོ་རུབ་གླིང་དང་བྱང་ཨ་མེ་རི་ཀའི་གླིང་གི་སྤྱི་མིང་དུ་འཇུག་སྟེ། ནུབ་ཕྱོགས་ཀྱི་གསོ་བ་རིག་པ། ནུབ་ཕྱོགས་པ་ཞེས་པ་ལྟ་བུ། ༤.ནུབ་མོ་ཡི་མིང་བསྡུས་པ།</t>
         </is>
       </c>
     </row>
     <row r="138" ht="50" customHeight="1">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>བྱང་</t>
+          <t>དང་</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-north; later</t>
+          <t>Hopkins 2015
+and; or; with</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༼བྱེད་མེད་ལས་ཚིག་འདས་པ༽ ༡་འདག་པའི་དོན་ཏེ། ཉེས་པ་བྱང་ལྟ་བུ། ༼འབྱང༽ ནི་མ་འོངས་པ་དང་ད་ལྟ་བ་སྟེ། འབྱང་དཀའ་བའི་ཉེས་སྤྱོད་ཅེས་པ་ལྟ་བུ། ༢.ཟས་བཞུས་ནས་ཕོ་བ་དང་རྒྱུ་མ་སྟོང་བར་གྱུར་པའི་དོན་ཏེ། ཁོག་པ་བྱང་། ཆུ་བསྐོལ་འཐུངས་ན་ལྟོ་བ་བྱང་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་དང་ཚེག་སྔ་ཕྱི་སྦྲེལ་བྱེད་ཀྱི་ཚེག་ཕྲད་དེ། དགེ་རྒན་དང་སློབ་མ། རྟ་དང་ལུག་ཅེས་པ་ལྟ་བུ། ༢.སྒྲིག་ལམ་དང་མ་འགལ། རྩ་ཁྲིམས་དང་འགལ་མི་རུང་། དམག་དཔོན་འཁོར་དང་བཅས་པས་མཐའ་མཚམས་བསྲུངས། ང་དང་བཅས་པའི་ཁྱིམ་མི་ཚང་མས་གསར་འགྱུར་ཀློག་པར་ཉན་ལྟ་བུ། ༣.༼ཀ༽ སྐུལ་ཚི་ག་གི་མཐར་སྦྱར་ན་རེ་བ་ཞུ་བའི་དོན་ཏེ། ང་ལ་དཔེ་ཆ་ཞིག་གཡོར་དང་། གསུང་རོགས་གནོངས་དང་། ཉོན་དང་། ལྟོས་དང་ཞེས་པ་ལྟ་བུ། ༼ཁ༽ ཡིག་སྐད་དུ་རྒྱུ་རྐྱེན་ནམ་དུས་སྟོན་པའི་དོན་ཏེ། སྨན་འཐུངས་པ་དང་ནད་སོས། ཉི་མ་ཤར་བ་དང་མུན་པ་སངས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="139" ht="50" customHeight="1">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>ནས་</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) ablative particle: from; than; (2) barley</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="140" ht="50" customHeight="1">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>ལྷོ་</t>
+          <t>བྱང་</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Lin
-south</t>
+          <t>Hopkins 2015
+north; later</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཕྱོགས་བཞིའི་ལྷོ་ཕྱོགས། ༼ལྷོ་ཁ༽ ༼༡༽ དབུ་ས་གཙང་གི་ཡར་ཀླུང་གཙང་པོའི་ལྷོ་ཕྱོགས་ཀྱི་ས་ཆ། ༼༢༽ ས་ཁུལ་ཞིག་ལ་ལྷོ་བྱང་དུ་བགོས་པའི་ལྷོ་ཕྱོགས་ཀྱི་ས་ཆ། ༼ལྷོ་བྲག༽ བོད་རང་སྐྱོང་ལྗོངས་ཀྱི་ས་ཆ་ཞིག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་མེད་ལས་ཚིག་འདས་པ༽ ༡་འདག་པའི་དོན་ཏེ། ཉེས་པ་བྱང་ལྟ་བུ། ༼འབྱང༽ ནི་མ་འོངས་པ་དང་ད་ལྟ་བ་སྟེ། འབྱང་དཀའ་བའི་ཉེས་སྤྱོད་ཅེས་པ་ལྟ་བུ། ༢.ཟས་བཞུས་ནས་ཕོ་བ་དང་རྒྱུ་མ་སྟོང་བར་གྱུར་པའི་དོན་ཏེ། ཁོག་པ་བྱང་། ཆུ་བསྐོལ་འཐུངས་ན་ལྟོ་བ་བྱང་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="141" ht="50" customHeight="1">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>ལ་</t>
+          <t>ནས་</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+          <t>Hopkins 2015
+(1) ablative particle: from; than; (2) barley</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="142" ht="50" customHeight="1">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>འཁྱེར་</t>
+          <t>ལྷོ་</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-carry; bear; bring</t>
+          <t>Common Terms - Lin
+south</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཁྱེར་གྱི་མ་འོངས་པ་དང་ད་ལྟ་བ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཕྱོགས་བཞིའི་ལྷོ་ཕྱོགས། ༼ལྷོ་ཁ༽ ༼༡༽ དབུ་ས་གཙང་གི་ཡར་ཀླུང་གཙང་པོའི་ལྷོ་ཕྱོགས་ཀྱི་ས་ཆ། ༼༢༽ ས་ཁུལ་ཞིག་ལ་ལྷོ་བྱང་དུ་བགོས་པའི་ལྷོ་ཕྱོགས་ཀྱི་ས་ཆ། ༼ལྷོ་བྲག༽ བོད་རང་སྐྱོང་ལྗོངས་ཀྱི་ས་ཆ་ཞིག</t>
         </is>
       </c>
     </row>
     <row r="143" ht="50" customHeight="1">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>གྱི་</t>
+          <t>ལ་</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
+          <t>Hopkins 2015
+(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="144" ht="50" customHeight="1">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>ཡོད་</t>
+          <t>འཁྱེར་</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-exist; existence; exists; have</t>
+          <t>Hopkins 2015
+carry; bear; bring</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡. ༼ཀ༽ གཏོགས་པ་དང་དབང་བའི་དོན་ཏེ། ང་ལ་ལྕགས་རྟ་གཅིག་ཡོད་ལྟ་བུ། ༼ཁ༽ འཛོམས་པའམ་མང་བའི་དོན་ཏེ། ཞིང་བ་ལ་ཞིང་འདེབས་པའི་ཉམས་མྱོང་ཡོད། ཁོ་ལ་ཡོན་ཏན་ཡོད་ལྟ་བུ། ༼ག༽ གནས་པའི་དོན་ཏེ། ནགས་ན་རི་དྭགས་ཡོད། མཚོ་ན་ཉ་མང་བོ་ཡོད་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་ཚིག་ཐག་བཅད་པའི་དོན་ཏེ། ལག་ལ་མེ་མ་ད་འ་བ་ཟུ་ང་ཡོད། སེམས་ལ་མི་དམངས་བཅངས་ཡོད་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཁྱེར་གྱི་མ་འོངས་པ་དང་ད་ལྟ་བ།</t>
         </is>
       </c>
     </row>
     <row r="145" ht="50" customHeight="1">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>རེད</t>
+          <t>གྱི་</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-is</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="146" ht="50" customHeight="1">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ཡོད་</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+exist; existence; exists; have</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼ཀ༽ གཏོགས་པ་དང་དབང་བའི་དོན་ཏེ། ང་ལ་ལྕགས་རྟ་གཅིག་ཡོད་ལྟ་བུ། ༼ཁ༽ འཛོམས་པའམ་མང་བའི་དོན་ཏེ། ཞིང་བ་ལ་ཞིང་འདེབས་པའི་ཉམས་མྱོང་ཡོད། ཁོ་ལ་ཡོན་ཏན་ཡོད་ལྟ་བུ། ༼ག༽ གནས་པའི་དོན་ཏེ། ནགས་ན་རི་དྭགས་ཡོད། མཚོ་ན་ཉ་མང་བོ་ཡོད་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་ཚིག་ཐག་བཅད་པའི་དོན་ཏེ། ལག་ལ་མེ་མ་ད་འ་བ་ཟུ་ང་ཡོད། སེམས་ལ་མི་དམངས་བཅངས་ཡོད་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="147" ht="50" customHeight="1">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>ལྷ་</t>
+          <t>རེད</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>Wetzel
-god, deva\nSanskrit: devaḥ\nPali: devo</t>
+          <t>Hopkins 2015
+is</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཆོས་ལུགས་ཀྱི་བཤད་ཚུལ་ཞིག་སྟེ། ཆོས་ལུགས་མི་འདྲ་བར་ལྷའང་མི་འདྲ་བ་སྣ་ཚོགས་ཤིག་ཡོད་དེ། འཇིག་རྟེན་བྱེད་པོ་དང་འཇིག་རྟེན་ཁ་ལོ་སྒྱུར་མཁན་གྱི་ལྷ་གཅིག་ལས་མེད་པར་བཤད་པ་དང་། མི་ཁྱད་པར་བ་ཤི་རྗེས་རྣམ་ཤེས་ལྷར་འགྱུར་བར་བཤད་པ། སེམས་ཅན་ལ་ལྷ་དང་ལྷ་མ་ཡིན ༼ལྷ་མིན༽ མི། ཡི་དྭགས། དུད་འགྲོ་དམྱལ་བ་བཅས་འགྲོ་བ་རིགས་དྲུག་ཡོད་པའི་ནང་གི་ལྷ་ནི་མི་ལས་ཀྱང་རིག་པ་དང་མཐུ་ཆེ་ཞིང་། ལོངས་སྤྱོད་རང་གྲུབ་ཡིན་པར་བཤད་པ་སོགས་ལྟ་བུ། ༼ལྷ་སྒོ༽ བོན་གཞུང་དུ་གསོན་པོ་རྣམས་ལ་ལྷ་ཆོས་སྒྲུབ་པའི་སྒོ་སྟེ་གེགས་བར་ཆད་སེལ་བྱེད་ཀྱི་ཆོ་ག ༼ལྷ་སྒྲུང༽ དྲང་སྲོང་གི་གཏམ་རྒྱུད་དམ་གནའ་རབས་ཀྱི་དཔའ་བོ་རྣམས་ལྷའི་གཟུགས་སུ་བཀོད་པའི་གཏམ་རྒྱུད་དེ། དེ་ནི་གནའ་མི་ཚོས་རང་བྱུང་ཁམས་ཀྱི་གནས་ཚུལ་དང་སྤྱི་ཚོགས་ཀྱི་འཚོ་བར་བྱིས་བློས་འགྲེལ་བཤད་དང་ཡིད་སྨོན་ཡག་པོ་བྱས་པ་ཡིན་ལ། འཆར་ཡན་རིང་ལུགས་ཀྱི་དོན་སྙིང་དགེ་མཚན་ལྡན་པ་ཞིག་ཡོད་པས་ན། རྨོངས་དད་དང་གཏན་ནས་མི་འདྲའོ། ༼ལྷ་ཁང་༽ ལྷའི་འདྲ་གཟུགས་སོགས་ཡོད་པའི་ཁང་བ་ཆེན་པོའི་མིང་། ༼ལྷ་ཆོས༽ ༼༡༽ སངས་རྒྱས་ཀྱི་ཆོས། ༼༢༽ འཇིག་རྟེན་ལས་འདས་པའི་དགེ་ཆོས། དམ་པའི་ལྷ་ཆོས་བསྒྲུབ་པར་བློ་རྩེ་སྒྲིམ་ལྟ་བུ། ༼ལྷ་རྟེན༽ སངས་རྒྱས་ཆོས་ལུགས་ཀྱི་རྗེས་དྲན་གྱི་རྟེན། ༼ལྷ་སྡེ༽ དགོན་པ་ཁག་གི་ཁོངས་སུ་གཏོགས་པའི་སྡེ་འབངས། ༼ལྷ་མཐོ༽ ལྷ་གནས་སའི་ལྕོག་ཆུང་ངམ་ཁང་ཆུང་ཙོག་ཙོག ༼ལྷ་པ༽ ལྷ་འདྲེ་ཁོག་ཞུགས་ཀྱི་རྟེན་ཁོག་ལྷ་པ་མོ་པ་སྒྱུ་མ་གསུམ། འཇིག་རྟེན་ཁམས་ན་རྫུན་ཆེན་གསུམ་ལྟ་བུ། ༼ལྷ་འབངས༽ རྒྱལ་པོའི་མངའ་འབངས། བོད་ཀྱི་དགོན་པའི་མི་སེར། ༼ལྷ་འབྲུམ༽ འགོ་ནད་འབྲུམ་པའི་མིང་གཞན། ༢.བཀས་བཀོད་རྒྱུད་འཛིན་གྱི་སྤྱི་ཚོགས་སུ་རྒྱལ་བོ་ལ་ལྷ་ཞེས་འབོད། ༣.མི་ཐོབ་ཐང་ཅན་ལ་ཞེ་ས་བྱེད་པ་སྟེ། ལྷ་ལྕམ། ལྷ་བཙུན་ཞེས་པ་ལྟ་བུ། ༼ལྷ་གོས༽ ཁ་དར་གྱི་མིང་གཞན་ཏེ་ལྷ་རྫས་ཀྱང་ཟེར། ༼ལྷ་གཅིག༽ རྒྱལ་བོ་དང་སྲས་མོ་སོགས་འབོད་པའི་ཞེ་ས། ༤.རིགས་མཐུན་གཞན་ལས་ཁྱད་དུ་འཕགས་པའི་དོན་ཏེ། བདེ་སྐྱིད་ལྷ་དང་མཉམ་ཞེས་པ་ལྟ་བུ། ༼ལྷ་རྗེ༽ གསོ་རིག་གི་ཡོན་ཏན་ཕུན་སུམ་ཚོགས་པ་ཡོད་པའི་སྨན་པ། ༼ལྷ་མ་ཡིན༽ ལྷའི་དགྲ་འཐབ་རྩོད་ལ་དགའ་བ་ཐགས་བཟང་རིས་སོགས། ༼ལྷ་ཡུལ༽ ལྷ་གནས་སའི་འཇིག་རྟེན་གྱི་ཁམས། དགྲ་འཁྲུགས་པ་ལྷ་ཡི་ཡུལ་ལའང་ཡོད། གཉེན་འགྲིག་པ་སྲིན་པའི་ཡུལ་ལའང་ཡོད་ལྟ་བུ། ༼ལྷ་བསངས༽ ཡུལ་ལྷ་གསོལ་བའམ་ལྷ་བསངས་བཏང་པ། ༼ལྷ་གསུམ༽ འདོད་ཁམས་ཀྱི་ལྷ། གཟུགས་ཁམས་ཀྱི་ལྷ། གཟུགས་མེད་ཁམས་ཀྱི་ལྷ་བཅས་གསུམ་མོ། ༥.བོད་ཀྱི་རུས་ཤིག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="148" ht="50" customHeight="1">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>ཞིག་</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) particle indicating "a" [often untranslatable]; (2) disintegrate; destroy; perish [past tense]</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཅིག་ལ་ལྟོས། ༢.འཇིག་གི་སྐུལ་ཚིག་ལ་ཞིག་འབྲི་བའང་ཡོད། ༣.ཞིག་པོ་ཡི་ཚིག་བསྡུས་པ།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="149" ht="50" customHeight="1">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>གིས་</t>
+          <t>ལྷ་</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(as instrumental particle) by; by means of; with; because. (as non-case particle corruptly used in place of the non-case usage of genitive particles) but; and; (semi-colon)</t>
+          <t>Gaeng, Wetzel
+god, deva\nSanskrit: devaḥ\nPali: devo</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀྱིས་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཆོས་ལུགས་ཀྱི་བཤད་ཚུལ་ཞིག་སྟེ། ཆོས་ལུགས་མི་འདྲ་བར་ལྷའང་མི་འདྲ་བ་སྣ་ཚོགས་ཤིག་ཡོད་དེ། འཇིག་རྟེན་བྱེད་པོ་དང་འཇིག་རྟེན་ཁ་ལོ་སྒྱུར་མཁན་གྱི་ལྷ་གཅིག་ལས་མེད་པར་བཤད་པ་དང་། མི་ཁྱད་པར་བ་ཤི་རྗེས་རྣམ་ཤེས་ལྷར་འགྱུར་བར་བཤད་པ། སེམས་ཅན་ལ་ལྷ་དང་ལྷ་མ་ཡིན ༼ལྷ་མིན༽ མི། ཡི་དྭགས། དུད་འགྲོ་དམྱལ་བ་བཅས་འགྲོ་བ་རིགས་དྲུག་ཡོད་པའི་ནང་གི་ལྷ་ནི་མི་ལས་ཀྱང་རིག་པ་དང་མཐུ་ཆེ་ཞིང་། ལོངས་སྤྱོད་རང་གྲུབ་ཡིན་པར་བཤད་པ་སོགས་ལྟ་བུ། ༼ལྷ་སྒོ༽ བོན་གཞུང་དུ་གསོན་པོ་རྣམས་ལ་ལྷ་ཆོས་སྒྲུབ་པའི་སྒོ་སྟེ་གེགས་བར་ཆད་སེལ་བྱེད་ཀྱི་ཆོ་ག ༼ལྷ་སྒྲུང༽ དྲང་སྲོང་གི་གཏམ་རྒྱུད་དམ་གནའ་རབས་ཀྱི་དཔའ་བོ་རྣམས་ལྷའི་གཟུགས་སུ་བཀོད་པའི་གཏམ་རྒྱུད་དེ། དེ་ནི་གནའ་མི་ཚོས་རང་བྱུང་ཁམས་ཀྱི་གནས་ཚུལ་དང་སྤྱི་ཚོགས་ཀྱི་འཚོ་བར་བྱིས་བློས་འགྲེལ་བཤད་དང་ཡིད་སྨོན་ཡག་པོ་བྱས་པ་ཡིན་ལ། འཆར་ཡན་རིང་ལུགས་ཀྱི་དོན་སྙིང་དགེ་མཚན་ལྡན་པ་ཞིག་ཡོད་པས་ན། རྨོངས་དད་དང་གཏན་ནས་མི་འདྲའོ། ༼ལྷ་ཁང་༽ ལྷའི་འདྲ་གཟུགས་སོགས་ཡོད་པའི་ཁང་བ་ཆེན་པོའི་མིང་། ༼ལྷ་ཆོས༽ ༼༡༽ སངས་རྒྱས་ཀྱི་ཆོས། ༼༢༽ འཇིག་རྟེན་ལས་འདས་པའི་དགེ་ཆོས། དམ་པའི་ལྷ་ཆོས་བསྒྲུབ་པར་བློ་རྩེ་སྒྲིམ་ལྟ་བུ། ༼ལྷ་རྟེན༽ སངས་རྒྱས་ཆོས་ལུགས་ཀྱི་རྗེས་དྲན་གྱི་རྟེན། ༼ལྷ་སྡེ༽ དགོན་པ་ཁག་གི་ཁོངས་སུ་གཏོགས་པའི་སྡེ་འབངས། ༼ལྷ་མཐོ༽ ལྷ་གནས་སའི་ལྕོག་ཆུང་ངམ་ཁང་ཆུང་ཙོག་ཙོག ༼ལྷ་པ༽ ལྷ་འདྲེ་ཁོག་ཞུགས་ཀྱི་རྟེན་ཁོག་ལྷ་པ་མོ་པ་སྒྱུ་མ་གསུམ། འཇིག་རྟེན་ཁམས་ན་རྫུན་ཆེན་གསུམ་ལྟ་བུ། ༼ལྷ་འབངས༽ རྒྱལ་པོའི་མངའ་འབངས། བོད་ཀྱི་དགོན་པའི་མི་སེར། ༼ལྷ་འབྲུམ༽ འགོ་ནད་འབྲུམ་པའི་མིང་གཞན། ༢.བཀས་བཀོད་རྒྱུད་འཛིན་གྱི་སྤྱི་ཚོགས་སུ་རྒྱལ་བོ་ལ་ལྷ་ཞེས་འབོད། ༣.མི་ཐོབ་ཐང་ཅན་ལ་ཞེ་ས་བྱེད་པ་སྟེ། ལྷ་ལྕམ། ལྷ་བཙུན་ཞེས་པ་ལྟ་བུ། ༼ལྷ་གོས༽ ཁ་དར་གྱི་མིང་གཞན་ཏེ་ལྷ་རྫས་ཀྱང་ཟེར། ༼ལྷ་གཅིག༽ རྒྱལ་བོ་དང་སྲས་མོ་སོགས་འབོད་པའི་ཞེ་ས། ༤.རིགས་མཐུན་གཞན་ལས་ཁྱད་དུ་འཕགས་པའི་དོན་ཏེ། བདེ་སྐྱིད་ལྷ་དང་མཉམ་ཞེས་པ་ལྟ་བུ། ༼ལྷ་རྗེ༽ གསོ་རིག་གི་ཡོན་ཏན་ཕུན་སུམ་ཚོགས་པ་ཡོད་པའི་སྨན་པ། ༼ལྷ་མ་ཡིན༽ ལྷའི་དགྲ་འཐབ་རྩོད་ལ་དགའ་བ་ཐགས་བཟང་རིས་སོགས། ༼ལྷ་ཡུལ༽ ལྷ་གནས་སའི་འཇིག་རྟེན་གྱི་ཁམས། དགྲ་འཁྲུགས་པ་ལྷ་ཡི་ཡུལ་ལའང་ཡོད། གཉེན་འགྲིག་པ་སྲིན་པའི་ཡུལ་ལའང་ཡོད་ལྟ་བུ། ༼ལྷ་བསངས༽ ཡུལ་ལྷ་གསོལ་བའམ་ལྷ་བསངས་བཏང་པ། ༼ལྷ་གསུམ༽ འདོད་ཁམས་ཀྱི་ལྷ། གཟུགས་ཁམས་ཀྱི་ལྷ། གཟུགས་མེད་ཁམས་ཀྱི་ལྷ་བཅས་གསུམ་མོ། ༥.བོད་ཀྱི་རུས་ཤིག</t>
         </is>
       </c>
     </row>
     <row r="150" ht="50" customHeight="1">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>རུས་སྦལ་</t>
+          <t>ཞིག་</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
+          <t>Hopkins 2015
+(1) particle indicating "a" [often untranslatable]; (2) disintegrate; destroy; perish [past tense]</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཅིག་ལ་ལྟོས། ༢.འཇིག་གི་སྐུལ་ཚིག་ལ་ཞིག་འབྲི་བའང་ཡོད། ༣.ཞིག་པོ་ཡི་ཚིག་བསྡུས་པ།</t>
         </is>
       </c>
     </row>
     <row r="151" ht="50" customHeight="1">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>དེ་</t>
+          <t>གིས་</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
+          <t>Hopkins 2015
+(as instrumental particle) by; by means of; with; because. (as non-case particle corruptly used in place of the non-case usage of genitive particles) but; and; (semi-colon)</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱིས་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="152" ht="50" customHeight="1">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>ལ</t>
+          <t>རུས་སྦལ་</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
     </row>
     <row r="153" ht="50" customHeight="1">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>དེ་</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="154" ht="50" customHeight="1">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>ཁྱོད་རང་</t>
+          <t>ལ</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-you (yourself</t>
+          <t>Hopkins 2015
+(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="155" ht="50" customHeight="1">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>གི་</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="156" ht="50" customHeight="1">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>མགོ་</t>
+          <t>ཁྱོད་རང་</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-head; top; beginning</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+          <t>Ives Waldo
+you (yourself</t>
         </is>
       </c>
     </row>
     <row r="157" ht="50" customHeight="1">
       <c r="A157" s="1" t="inlineStr">
         <is>
+          <t>གི་</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="50" customHeight="1">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>མགོ་</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+head; top; beginning</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="50" customHeight="1">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="158" ht="50" customHeight="1">
-      <c r="A158" s="1" t="inlineStr">
+    <row r="160" ht="50" customHeight="1">
+      <c r="A160" s="1" t="inlineStr">
         <is>
           <t>ཀྱི་</t>
         </is>
       </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 [as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
         </is>
       </c>
     </row>
-    <row r="159" ht="50" customHeight="1">
-      <c r="A159" s="1" t="inlineStr">
+    <row r="161" ht="50" customHeight="1">
+      <c r="A161" s="1" t="inlineStr">
         <is>
           <t>ཨི་ཁུང་</t>
         </is>
       </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 hole</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 བུག་པ། ཨི་ཁུང་རྒྱག་པ།</t>
         </is>
       </c>
     </row>
-    <row r="160" ht="50" customHeight="1">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>ནང་</t>
-        </is>
-      </c>
-      <c r="B160" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-in; internal; inside; interior; house</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
-        </is>
-      </c>
-    </row>
-    <row r="161" ht="50" customHeight="1">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>ལ་</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
-        </is>
-      </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
     <row r="162" ht="50" customHeight="1">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>ག་དུས་</t>
+          <t>ནང་</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-when?; at what time?</t>
+          <t>Hopkins 2015
+in; internal; inside; interior; house</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
         </is>
       </c>
     </row>
     <row r="163" ht="50" customHeight="1">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>བཅུག་</t>
+          <t>ལ་</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-1) indicates causative construction; 2) enter; engage; apply; usher into</t>
+          <t>Hopkins 2015
+(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-འཇུག་གི་འདས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="164" ht="50" customHeight="1">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>ཐུབ་</t>
+          <t>ག་དུས་</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
+          <t>Hopkins 2015
+when?; at what time?</t>
         </is>
       </c>
     </row>
     <row r="165" ht="50" customHeight="1">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>ན</t>
+          <t>བཅུག་</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) to; in; as; at [accusative, dative, locative particle]; (2) if; when [non-case usages]; (3) be sick; be ill; in pain [for the verb, na ba]</t>
+          <t>Hopkins 2015
+1) indicates causative construction; 2) enter; engage; apply; usher into</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིང་གི་མཐའ་སྦྱར་ན་རྣམ་དབྱེ་ལ་འཇུག་པ་ནི། འབྲོག་ན་རྟ་ནོར་ལུག་གསུམ་ཡོད་ལྟ་བུ། རྒྱས་པར་ལ་ལ་ལྟོས། ༢.ལས་ཚིག་གི་མཐར་སྦྱར་ན་དོན་ཕྱི་མ་འདྲེན། ༼ཀ༽ ༼༡༽ མིང་གཞིའི་ཤིན་ཏུ་མོའི་ཡི་གེ་ཞིག ༼༢༽ རྗེས་འཇུག་གི་མ་ནིང་ཡི་གེ་ཞིག ༼ཁ༽ ༼༡༽ མིའི་ལོ་གྲངས་ཀྱི་ཚོད། ལོ་ན་མཐོན་པོ། ཕྲུ་གུ་ནར་མ་སོན་པ། ༼༢༽ ལོ་ལྔ་ལོན་པའི་རྟ་དྲེལ་གྱི་ལོ། ༼༣༽ ཆུ་རླན་ཆེ་བའམ་ཆུ་འཁྱིལ་མང་བོ་ཡོད་པའི་སྤང་ལྗོངས་ཀྱི་མིང་སྟེ། ན་ཐང་། ན་རྩྭ། ན་ཆུ། རྐྱང་ཁ་དཀར་རྨིག་བཞི་ན་ལ་ཟུག་ལྟ་བུ། ༣.ཚིག་ཕྲད་ན་ཡིག ༼༡༽ དམིགས་ཀྱིས་དབྱེ་བ། དངོས་སུ་ན། མདོར་བསྡུས་ན། ཡིན་གྲང་ན། ༼༢༽ རྒྱུ་མཚན་སྟོན་པ། མེ་ཡོད་ན་དུ་བ་འབྱུང་། ས་བོན་བཏབ་ན་འབྲས་བུ་སྐྱེ། ༼༣༽ རྒྱུ་མཚན་དོན་གྱིས་སྟོན་པ། ནད་མེད་ན་སྨན་པ་ཅིའི་ཕྱིར་བསྟེན། ཆང་མ་བཏུངས་ན་ར་བཟི་དོན་མེད། ཆུ་མེད་ན་ཉ་ག་ལ་ཡོང་། ༼༤༽ ཚིག་འགལ་བར་སྟོན་པ། ཁོ་རང་མཁས་པ་ཡིན་པར་གྲགས་ནའང་བཟང་ངན་གྱི་དབྱེ་བ་འབྱེད་མི་ཤེས་པའི་རྨོངས་པ་ཞིག་རེད་འདུག ༼༥༽ འོས་པར་དཀའ་བ། ཁྱི་ལའང་འཇིགས་ན་སེང་གེ་ལ་བཤད་མི་དགོས། མི་རྒན་པས་འཁུར་མི་ཐུབ་ན་ཕྲུ་གུས་ལྟ་ཅི་སྨོས། ནད་པ་དེ་ཕར་ཚུར་འགྲོ་ཐུབ་ན་ཡར་ལང་ཐུབ་པ་སྨོས་ཅི་འཚལ། ༼༦༽ ཕྱི་ཚིག་ངེས་པར་བྱེད་པ། དུད་འགྲོ་རྣམས་ཤིན་ཏུ་རྨོངས་ན་མིའང་དེ་ལྟར་འདུག་འབྲོག་པས་ཞིང་འདེབས་མི་ཤེས་ན་སོ་ནམ་པས་ཞིང་ཁ་འདེབས་མི་ཤེས་པའང་འདུག་ཅེས་པ་ལྟ་བུ། ༼༧༽ སྨོན་པ། ང་ཡ་ང་ཚན་རིག་པ་ཞིག་བྱེད་རྒྱུ་བྱུང་ན་ཅི་མ་རུང་ཞེས་པ་ལྟ་བུ། ༼༨༽ ཐེ་ཚོམ་སྟོན་པ། ས་བོན་ནི་བཏབ་ཟིན་ན་འདི་ལས་མྱུ་གུ་འབྱུང་ངམ་མི་འབྱུང། སྨན་བཏང་ཡོད་ན་ནད་ཨེ་སོས་མི་སོས། གདན་འདྲེན་ཞུས་ཟིན་ན་ཁོ་ཡ་འོང་ངམ་མི་ཡོང་། ༼ན་རམ༽ ན་གཞུང་དུ་སྐྱེ་བའི་རྩྭ་ལྡུམ་རིགས་ཤིག་གི་མིང་། ལོ་མའི་དབྱིབས་ཐ་རམ་དང་འདྲ་ལ་ཕྱུགས་ཀྱི་གཟན་རྩྭ་བཟང་བོ་ཞིག་ཡིན། ༤.ན་ཚོད་ཀྱི་ཚིག་བསྡུས་པ། ༥.ན་སོ་ལ་ལྟོས། ༦.ན་བ་ཡི་ཚིག་བསྡུས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+འཇུག་གི་འདས་པ།</t>
         </is>
       </c>
     </row>
     <row r="166" ht="50" customHeight="1">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ཐུབ་</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="167" ht="50" customHeight="1">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>ཁྱེད་རང་</t>
+          <t>ན</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-you (hon.)</t>
+          <t>Hopkins 2015
+(1) to; in; as; at [accusative, dative, locative particle]; (2) if; when [non-case usages]; (3) be sick; be ill; in pain [for the verb, na ba]</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་གི་མཐའ་སྦྱར་ན་རྣམ་དབྱེ་ལ་འཇུག་པ་ནི། འབྲོག་ན་རྟ་ནོར་ལུག་གསུམ་ཡོད་ལྟ་བུ། རྒྱས་པར་ལ་ལ་ལྟོས། ༢.ལས་ཚིག་གི་མཐར་སྦྱར་ན་དོན་ཕྱི་མ་འདྲེན། ༼ཀ༽ ༼༡༽ མིང་གཞིའི་ཤིན་ཏུ་མོའི་ཡི་གེ་ཞིག ༼༢༽ རྗེས་འཇུག་གི་མ་ནིང་ཡི་གེ་ཞིག ༼ཁ༽ ༼༡༽ མིའི་ལོ་གྲངས་ཀྱི་ཚོད། ལོ་ན་མཐོན་པོ། ཕྲུ་གུ་ནར་མ་སོན་པ། ༼༢༽ ལོ་ལྔ་ལོན་པའི་རྟ་དྲེལ་གྱི་ལོ། ༼༣༽ ཆུ་རླན་ཆེ་བའམ་ཆུ་འཁྱིལ་མང་བོ་ཡོད་པའི་སྤང་ལྗོངས་ཀྱི་མིང་སྟེ། ན་ཐང་། ན་རྩྭ། ན་ཆུ། རྐྱང་ཁ་དཀར་རྨིག་བཞི་ན་ལ་ཟུག་ལྟ་བུ། ༣.ཚིག་ཕྲད་ན་ཡིག ༼༡༽ དམིགས་ཀྱིས་དབྱེ་བ། དངོས་སུ་ན། མདོར་བསྡུས་ན། ཡིན་གྲང་ན། ༼༢༽ རྒྱུ་མཚན་སྟོན་པ། མེ་ཡོད་ན་དུ་བ་འབྱུང་། ས་བོན་བཏབ་ན་འབྲས་བུ་སྐྱེ། ༼༣༽ རྒྱུ་མཚན་དོན་གྱིས་སྟོན་པ། ནད་མེད་ན་སྨན་པ་ཅིའི་ཕྱིར་བསྟེན། ཆང་མ་བཏུངས་ན་ར་བཟི་དོན་མེད། ཆུ་མེད་ན་ཉ་ག་ལ་ཡོང་། ༼༤༽ ཚིག་འགལ་བར་སྟོན་པ། ཁོ་རང་མཁས་པ་ཡིན་པར་གྲགས་ནའང་བཟང་ངན་གྱི་དབྱེ་བ་འབྱེད་མི་ཤེས་པའི་རྨོངས་པ་ཞིག་རེད་འདུག ༼༥༽ འོས་པར་དཀའ་བ། ཁྱི་ལའང་འཇིགས་ན་སེང་གེ་ལ་བཤད་མི་དགོས། མི་རྒན་པས་འཁུར་མི་ཐུབ་ན་ཕྲུ་གུས་ལྟ་ཅི་སྨོས། ནད་པ་དེ་ཕར་ཚུར་འགྲོ་ཐུབ་ན་ཡར་ལང་ཐུབ་པ་སྨོས་ཅི་འཚལ། ༼༦༽ ཕྱི་ཚིག་ངེས་པར་བྱེད་པ། དུད་འགྲོ་རྣམས་ཤིན་ཏུ་རྨོངས་ན་མིའང་དེ་ལྟར་འདུག་འབྲོག་པས་ཞིང་འདེབས་མི་ཤེས་ན་སོ་ནམ་པས་ཞིང་ཁ་འདེབས་མི་ཤེས་པའང་འདུག་ཅེས་པ་ལྟ་བུ། ༼༧༽ སྨོན་པ། ང་ཡ་ང་ཚན་རིག་པ་ཞིག་བྱེད་རྒྱུ་བྱུང་ན་ཅི་མ་རུང་ཞེས་པ་ལྟ་བུ། ༼༨༽ ཐེ་ཚོམ་སྟོན་པ། ས་བོན་ནི་བཏབ་ཟིན་ན་འདི་ལས་མྱུ་གུ་འབྱུང་ངམ་མི་འབྱུང། སྨན་བཏང་ཡོད་ན་ནད་ཨེ་སོས་མི་སོས། གདན་འདྲེན་ཞུས་ཟིན་ན་ཁོ་ཡ་འོང་ངམ་མི་ཡོང་། ༼ན་རམ༽ ན་གཞུང་དུ་སྐྱེ་བའི་རྩྭ་ལྡུམ་རིགས་ཤིག་གི་མིང་། ལོ་མའི་དབྱིབས་ཐ་རམ་དང་འདྲ་ལ་ཕྱུགས་ཀྱི་གཟན་རྩྭ་བཟང་བོ་ཞིག་ཡིན། ༤.ན་ཚོད་ཀྱི་ཚིག་བསྡུས་པ། ༥.ན་སོ་ལ་ལྟོས། ༦.ན་བ་ཡི་ཚིག་བསྡུས་པ།</t>
         </is>
       </c>
     </row>
     <row r="168" ht="50" customHeight="1">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>གི་</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="169" ht="50" customHeight="1">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>མིག་</t>
+          <t>ཁྱེད་རང་</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-eye</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་གཟུགས་མཐོང་བྱེད་ཀྱི་དབང་བོ་འི་མིང་། ༼མིག་དམར༽ ༼༡༽ རེས་གཟའ་བདུན་གྱི་གཉིས་པ། ༼༢༽ མིག་མདོག་དམར་པོ་། ༼མིག་འབྲས༽ ཕལ་སྐད་དུ་མིག་རིལ་ཟེར་བ་དེ་ཡིན། ༼མིག་སྐྱག༽ མིག་གྲུ་ལ་ཆགས་པའི་དྲི་མ། ༼མིག་ལྟོས༽ མི་རྣམས་ཀྱིས་ལེགས་པའི་དཔེ་ཚད་དུ་བྱེད་འོས་པའི་བྱ་སྤྱོད་དང་བྱ་སྤྱོད་དེ་ལྟ་བུ་ལྡན་པའི་མི་སྟེ། མིག་ལྟོས་བྱེད་འོས་པའི་བྱ་བ། མི་གཞུང་དྲང་ཤེས་ཅན་ནི་ང་ཚོས་མིག་ལྟོས་བྱེད་ས་ཡིན་ལྟ་བུ། ༼མིག་སྐྱི༽ མིག་འབྲས་ཀྱི་ཕྱི་ངོས་ཀྱི་སྐྱི་མོ་སྲབ་ཅིང་དྭངས་པའི་མིང་། ༼མིག་ལྕིབས༽ མིག་འབྲས་འགེབ་ཐུབ་པའི་མིག་མཐའི་སྐྱི་མོའི་མིང་། ༼མིག་ཚག༽ མིག་ནད་ཅིག་གི་མིང་སྟེ། ཚབས་ཆེན་དུ་གྱུར་ན་མིག་རལ་འགྲོ། ༼མིག་ཡོར༽ མིག་འཁྲུལ་བར་བྱེད་པའི་གཟུགས་བརྙན་ལྟ་བུའི་མིང་། ༼མིག་ལོག༽ ཁྲོ་བའམ་མི་དགའ་བའི་ལྟ་སྟངས་ཏེ། མིག་ལོག་གིས་བལྟས་ཟེར་བ་ལྟ་བུ། ༢.བུ་ག་ཆུང་ངུའི་མིང་སྟེ། མིག་བུ། ཁབ་མིག་དྲ་མིག་འཇུར་མིག་ཅེས་པ་སོགས་ལྟ་བུ། ༼མིག་མང༽ ༼༡༽ རྩེད་མོ་ཞིག་སྟེ། ཕལ་སྐད་དུ་འཇིག་ཟེར། ༢.འབྲུ་རིགས་ཚགས་བྱེད་ཀྱི་ཡོ་བྱད་ཅིག་སྟེ། ཁྲོལ་མ་ཡང་ཟེར། ༼མིག་དར་བསལ་བ༽ ནང་འཇུག་གི་ནང་གསེས་ཏེ། སློབ་མ་རྣམས་མ་རིག་གཉིས་འཛིན་གྱིས་ལྡོངས་པའི་མཚོན་བྱེད་མིག་དར་ཏེ་གདོང་གཡོགས་བསལ་བ་དང་མཉམ་དུ་མ་རིག་པ་བསལ་ནས། རིག་པ་ཡེ་ཤེས་ལྷའི་ངོ་བོ་ཇི་ལྟ་བར་གསལ་བ་ལ་མིག་དར་བསལ་བ་ཞེས་བྱའོ། །</t>
+          <t>Hopkins 2015
+you (hon.)</t>
         </is>
       </c>
     </row>
     <row r="170" ht="50" customHeight="1">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>གཉིས་</t>
+          <t>གི་</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-two</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-གྲངས་ཀ་སྟེ། ཕ་མ་གཉིས་ཞེས་པ་ལྟ་བུ། ༼གཉིས་པ༽ ༡་རིམ་པ་གཉིས་པ་སྟེ། དེབ་གཉིས་པ། ཐེངས་གཉིས་པ། བུ་གཉིས་པ་ཞེས་པ་ལྟ་བུ། ༢.གཙོ་ཕལ་གཉིས་ཀྱི་ནང་གི་ཕལ་པའི་དོན་ཏེ། དཔོན་པོ་གཉིས་པ། ཕ་མ་གཉིས་པ་ཞེས་པ་ལྟ་བུ། ༼གཉིས་པོ༽ གཉིས་ཙམ་དུ་ཚད་བཟུང་བར་འཇུག་པ་སྟེ། ལག་པ་འདི་གཉིས་པོར་བརྟེན་ནས་རང་ཁ་གསོས་ལྟ་བུ། ༼གཉིས་སྣང༽ ༼༡༽ ཕྱི་གཟུང་བ་དང། ནང་འཛིན་པ་གཉིས་སུ་སྣང་བ། ༼༢༽ ཉི་ཟླ་དང་སྐྲ་ཤད་སོགས་མང་བོ་ར་སྣང་བ་རབ་རིབ་ཅན་གྱི་གཉིས་སྣང།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="171" ht="50" customHeight="1">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>ཀྱིས་</t>
+          <t>མིག་</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-[as instrumental particle] by; by means of; with; because; through\n [as non-case particle corruptly used in place of the non-case usage of genitive particles] but; and; (semi-colon)</t>
+          <t>Hopkins 2015
+eye</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀྱིས་གྱིས་གིས་འིས་ཡིས་ལྔ་ལ་བརྡ་སྤྲོད་དུ་བྱེད་སྒྲ་ཟེར། ༡.བྱེད་པ་པོ་སྟོན་པའི་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱེད་སྒྲ་ཡིན་ཏེ། ཁྱོད་ཀྱིས་ལྟོས། ཐབས་ཀྱིས་རྟ་རྒོད་འདུལ། དགེ་རྒན་གྱིས་སློབ་མར་དཔེ་ཆ་ཁྲིད། དམག་གིས་དམག་རྩལ་སྦྱང་། ཞིང་པ་ཡིས་ཞིང་འདེབས། འབྲོག་པས་ཕྱུགས་འཚོས་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པའི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བ་སྟེ། ཡིན་གྱིས་མིན། ཡོད་ཀྱིས་མེད། ཆོག་གིས་མི་ཆོག་ལྟ་བུ། ༣.འགའ་རེ་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་ཚིག་ཕྱི་མའི་རྣམ་པ་སོགས་སྟོན་པར་མཚོན་བྱེད་དེ། རྒྱལ་ཁབ་རིམ་གྱིས་དར། མི་རྣམས་ཁད་ཀྱིས་འདུས། བྱ་བ་ལྷུན་གྱིས་གྲུབ་ལྟ་བུ། ༤.འཇུག་ཚུལ་ནི་འབྲེལ་སྒྲ་གི་ཀྱི་གྱི་ཡི་འི་ལྔ་དང་མཚུངས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་གཟུགས་མཐོང་བྱེད་ཀྱི་དབང་བོ་འི་མིང་། ༼མིག་དམར༽ ༼༡༽ རེས་གཟའ་བདུན་གྱི་གཉིས་པ། ༼༢༽ མིག་མདོག་དམར་པོ་། ༼མིག་འབྲས༽ ཕལ་སྐད་དུ་མིག་རིལ་ཟེར་བ་དེ་ཡིན། ༼མིག་སྐྱག༽ མིག་གྲུ་ལ་ཆགས་པའི་དྲི་མ། ༼མིག་ལྟོས༽ མི་རྣམས་ཀྱིས་ལེགས་པའི་དཔེ་ཚད་དུ་བྱེད་འོས་པའི་བྱ་སྤྱོད་དང་བྱ་སྤྱོད་དེ་ལྟ་བུ་ལྡན་པའི་མི་སྟེ། མིག་ལྟོས་བྱེད་འོས་པའི་བྱ་བ། མི་གཞུང་དྲང་ཤེས་ཅན་ནི་ང་ཚོས་མིག་ལྟོས་བྱེད་ས་ཡིན་ལྟ་བུ། ༼མིག་སྐྱི༽ མིག་འབྲས་ཀྱི་ཕྱི་ངོས་ཀྱི་སྐྱི་མོ་སྲབ་ཅིང་དྭངས་པའི་མིང་། ༼མིག་ལྕིབས༽ མིག་འབྲས་འགེབ་ཐུབ་པའི་མིག་མཐའི་སྐྱི་མོའི་མིང་། ༼མིག་ཚག༽ མིག་ནད་ཅིག་གི་མིང་སྟེ། ཚབས་ཆེན་དུ་གྱུར་ན་མིག་རལ་འགྲོ། ༼མིག་ཡོར༽ མིག་འཁྲུལ་བར་བྱེད་པའི་གཟུགས་བརྙན་ལྟ་བུའི་མིང་། ༼མིག་ལོག༽ ཁྲོ་བའམ་མི་དགའ་བའི་ལྟ་སྟངས་ཏེ། མིག་ལོག་གིས་བལྟས་ཟེར་བ་ལྟ་བུ། ༢.བུ་ག་ཆུང་ངུའི་མིང་སྟེ། མིག་བུ། ཁབ་མིག་དྲ་མིག་འཇུར་མིག་ཅེས་པ་སོགས་ལྟ་བུ། ༼མིག་མང༽ ༼༡༽ རྩེད་མོ་ཞིག་སྟེ། ཕལ་སྐད་དུ་འཇིག་ཟེར། ༢.འབྲུ་རིགས་ཚགས་བྱེད་ཀྱི་ཡོ་བྱད་ཅིག་སྟེ། ཁྲོལ་མ་ཡང་ཟེར། ༼མིག་དར་བསལ་བ༽ ནང་འཇུག་གི་ནང་གསེས་ཏེ། སློབ་མ་རྣམས་མ་རིག་གཉིས་འཛིན་གྱིས་ལྡོངས་པའི་མཚོན་བྱེད་མིག་དར་ཏེ་གདོང་གཡོགས་བསལ་བ་དང་མཉམ་དུ་མ་རིག་པ་བསལ་ནས། རིག་པ་ཡེ་ཤེས་ལྷའི་ངོ་བོ་ཇི་ལྟ་བར་གསལ་བ་ལ་མིག་དར་བསལ་བ་ཞེས་བྱའོ། །</t>
         </is>
       </c>
     </row>
     <row r="172" ht="50" customHeight="1">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>མཐོང་</t>
+          <t>གཉིས་</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-to see; to perceive</t>
+          <t>Hopkins 2015
+two</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༼བྱེད་འབྲེལ་ལས་ཚིག༽ ༡་མི་ག་གིས་རིག་པ་སྟེ། མིག་གིས་མངོན་སུམ་དུ་མཐོང་། མཐོང་རྒྱ་ཆེ་བའི་མི་ཞེས་པ་ལྟ་བུ། ༢.མྱོང་བ་སྟེ། སྡུག་བསྔལ་མཐོང་། སྡུག་མཐོང་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+གྲངས་ཀ་སྟེ། ཕ་མ་གཉིས་ཞེས་པ་ལྟ་བུ། ༼གཉིས་པ༽ ༡་རིམ་པ་གཉིས་པ་སྟེ། དེབ་གཉིས་པ། ཐེངས་གཉིས་པ། བུ་གཉིས་པ་ཞེས་པ་ལྟ་བུ། ༢.གཙོ་ཕལ་གཉིས་ཀྱི་ནང་གི་ཕལ་པའི་དོན་ཏེ། དཔོན་པོ་གཉིས་པ། ཕ་མ་གཉིས་པ་ཞེས་པ་ལྟ་བུ། ༼གཉིས་པོ༽ གཉིས་ཙམ་དུ་ཚད་བཟུང་བར་འཇུག་པ་སྟེ། ལག་པ་འདི་གཉིས་པོར་བརྟེན་ནས་རང་ཁ་གསོས་ལྟ་བུ། ༼གཉིས་སྣང༽ ༼༡༽ ཕྱི་གཟུང་བ་དང། ནང་འཛིན་པ་གཉིས་སུ་སྣང་བ། ༼༢༽ ཉི་ཟླ་དང་སྐྲ་ཤད་སོགས་མང་བོ་ར་སྣང་བ་རབ་རིབ་ཅན་གྱི་གཉིས་སྣང།</t>
         </is>
       </c>
     </row>
     <row r="173" ht="50" customHeight="1">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>ཐུབ་</t>
+          <t>ཀྱིས་</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
+          <t>Hopkins 2015
+[as instrumental particle] by; by means of; with; because; through\n [as non-case particle corruptly used in place of the non-case usage of genitive particles] but; and; (semi-colon)</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱིས་གྱིས་གིས་འིས་ཡིས་ལྔ་ལ་བརྡ་སྤྲོད་དུ་བྱེད་སྒྲ་ཟེར། ༡.བྱེད་པ་པོ་སྟོན་པའི་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱེད་སྒྲ་ཡིན་ཏེ། ཁྱོད་ཀྱིས་ལྟོས། ཐབས་ཀྱིས་རྟ་རྒོད་འདུལ། དགེ་རྒན་གྱིས་སློབ་མར་དཔེ་ཆ་ཁྲིད། དམག་གིས་དམག་རྩལ་སྦྱང་། ཞིང་པ་ཡིས་ཞིང་འདེབས། འབྲོག་པས་ཕྱུགས་འཚོས་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པའི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བ་སྟེ། ཡིན་གྱིས་མིན། ཡོད་ཀྱིས་མེད། ཆོག་གིས་མི་ཆོག་ལྟ་བུ། ༣.འགའ་རེ་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་ཚིག་ཕྱི་མའི་རྣམ་པ་སོགས་སྟོན་པར་མཚོན་བྱེད་དེ། རྒྱལ་ཁབ་རིམ་གྱིས་དར། མི་རྣམས་ཁད་ཀྱིས་འདུས། བྱ་བ་ལྷུན་གྱིས་གྲུབ་ལྟ་བུ། ༤.འཇུག་ཚུལ་ནི་འབྲེལ་སྒྲ་གི་ཀྱི་གྱི་ཡི་འི་ལྔ་དང་མཚུངས།</t>
         </is>
       </c>
     </row>
     <row r="174" ht="50" customHeight="1">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>ཀྱི་རེད་</t>
+          <t>མཐོང་</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Valby
-SA gi red</t>
+          <t>Hopkins 2015
+to see; to perceive</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་འབྲེལ་ལས་ཚིག༽ ༡་མི་ག་གིས་རིག་པ་སྟེ། མིག་གིས་མངོན་སུམ་དུ་མཐོང་། མཐོང་རྒྱ་ཆེ་བའི་མི་ཞེས་པ་ལྟ་བུ། ༢.མྱོང་བ་སྟེ། སྡུག་བསྔལ་མཐོང་། སྡུག་མཐོང་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="175" ht="50" customHeight="1">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>ཅེས་</t>
+          <t>ཐུབ་</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-particle indicating quotation; thus</t>
+          <t>Ives Waldo
+1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཅེས་ཞེས་གཉིས་ནི་མིང་ཚིག་ལ་ལའི་མཐར་སྦྱར་ན་མིང་དེ་ལྟར་ཟེར་བའི་དོན་ཏེ། ༼མིའི་བསམ་བློ་ཡང་དག་པ་དེ་གང་ནས་བྱུང་བ་རེད༽ ཅེས་པའི་གསུང་རྩོམ་དེ་བློ་ལ་བཟུང་། ༼མི་དམངས་ལ་ཞབས་འདེགས་ཞུ་དགོས༽ ཞེས་པའི་གསུང་རྩོམ་སློབ་སྦྱོང་བྱས་ལྟ་བུ། ༢.ཅེས་ཞེས་གཉིས་ལས་ཚིག་གི་མཐར་སྦྱར་ན་མཚམས་སྦྱོར་བའི་ཚིག་ཕྲད་དེ། ཡོད་ཅེས་བཤད། ཡིན་ཞེས་ཟེར། བསྒྲུབས་ཞེས་བརྗོད་ལྟ་བུ། ཅེས་ཞེས་གཉིས་པོ་འཇུག་ཚུལ་ནི། ག་ད་བ་དང་ད་དྲག་ཅེས། ། ང་ན་མ་འ་ར་ལ་དང་། ། ས་དང་མཐའ་རྟེན་མེད་མཐར་ཞེས་ཞེས་པ་ལྟར་རོ། །</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="176" ht="50" customHeight="1">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>གསུངས་</t>
+          <t>ཀྱི་རེད་</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-said; mentioned; spoken; speak; say; talk; speech</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-གསུང་ལ་ལྟོས།</t>
+          <t>Jim Valby
+SA gi red</t>
         </is>
       </c>
     </row>
     <row r="177" ht="50" customHeight="1">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>པ་རེད</t>
+          <t>ཅེས་</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>Valby
-past complement</t>
+          <t>Hopkins 2015
+particle indicating quotation; thus</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཅེས་ཞེས་གཉིས་ནི་མིང་ཚིག་ལ་ལའི་མཐར་སྦྱར་ན་མིང་དེ་ལྟར་ཟེར་བའི་དོན་ཏེ། ༼མིའི་བསམ་བློ་ཡང་དག་པ་དེ་གང་ནས་བྱུང་བ་རེད༽ ཅེས་པའི་གསུང་རྩོམ་དེ་བློ་ལ་བཟུང་། ༼མི་དམངས་ལ་ཞབས་འདེགས་ཞུ་དགོས༽ ཞེས་པའི་གསུང་རྩོམ་སློབ་སྦྱོང་བྱས་ལྟ་བུ། ༢.ཅེས་ཞེས་གཉིས་ལས་ཚིག་གི་མཐར་སྦྱར་ན་མཚམས་སྦྱོར་བའི་ཚིག་ཕྲད་དེ། ཡོད་ཅེས་བཤད། ཡིན་ཞེས་ཟེར། བསྒྲུབས་ཞེས་བརྗོད་ལྟ་བུ། ཅེས་ཞེས་གཉིས་པོ་འཇུག་ཚུལ་ནི། ག་ད་བ་དང་ད་དྲག་ཅེས། ། ང་ན་མ་འ་ར་ལ་དང་། ། ས་དང་མཐའ་རྟེན་མེད་མཐར་ཞེས་ཞེས་པ་ལྟར་རོ། །</t>
         </is>
       </c>
     </row>
     <row r="178" ht="50" customHeight="1">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>གསུངས་</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+said; mentioned; spoken; speak; say; talk; speech</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+གསུང་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="179" ht="50" customHeight="1">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>རུས་སྦལ་</t>
+          <t>པ་རེད</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
+          <t>Jim Valby
+past complement</t>
         </is>
       </c>
     </row>
     <row r="180" ht="50" customHeight="1">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>གྱི་</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="181" ht="50" customHeight="1">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>སེམས་</t>
+          <t>རུས་སྦལ་</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>Gateway
-cognitive acts</t>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མྱོང་ཚོར་གྱི་ནུས་པ་ཞིག་སྟེ། སེམས་ལྡན། སེམས་མེད། སེམས་ཅན་ཞེས་པ་ལྟ་བུ། ༢.ནང་གི་དབང་བོར་བརྟེན་ནས་ཕྱིའི་ཡུལ་ཤེས་པ་དང་རྟོགས་པ་འཛིན་པ་སོགས་ཀྱི་བྱ་རིམ་རིལ་བོའི་སྤྱི་འདུས་ཀྱི་མིང་སྟེ། སེམས་ལ་ཤར། སེམས་ནས་མ་བརྗེད། སེམས་ལ་དྲན་ལྟ་བུ། ༣.ཆགས་སྡང་བརྩེ་དུང་སོགས་སྐྱེ་བའི་བྱ་རིམ་གྱི་སྤྱི་འདུས་ཏེ། སེམས་ཚིག་སེམས་སྡུག་སེམས་སྐྱིད་ལྟ་བུ། ༼སེམས་ཁུར༽ ༼༡༽ ལས་ཀ་སོགས་རང་འགན་དུ་བརྩི་བའི་བསམ་པའི་མིང་སྟེ། དགེ་རྒན་གྱིས་སློབ་མར་སེམས་ཁུར་བྱེད་ཀྱིན་འདུག་ལྟ་བུ། ༼༢༽ སེམས་སྐྱོ་བའམ་སེམས་མི་བདེ་བའི་ལས་དོན་གྱི་མིང་སྟེ། སྤྱི་ཚོགས་རྙིང་བར་ཟ་རྒྱུ་མེད་པ་ཙམ་ལ་སེམས་ཁུར་བྱས་སྟབས་ཡི་གེ་སློབ་རྒྱུ་ཞིག་ཡིད་ལའང་མ་དྲན་ལྟ་བུ། ༼སེམས་འཁྲལ༽ སེམས་ཀྱི་སྐྱོ་དོན་དང་སྡུག་བསྔལ་གྱི་མིང་། ༼སེམས་ངན༽ བསམ་པ་ངན་པ་དང་རེ་འདུན་ངན་པ་སོགས་ཀྱི་མིང་སྟེ། མི་ལ་སེམས་ངན་མ་བསགས་ལྟ་བུ། ༼སེམས་རྒྱུད༽ ༼༡༽ སེམས་ཀྱི་རང་བཞིན། ༼༢༽ སེམས་ཀྱི་རྒྱུན། ༼སེམས་ཅན༽ ༼༡༽ མི་དང་དུད་འགྲོ་སོགས་སྲོག་ཆགས་སྤྱིའི་མིང་། ༼༢༽ ཡུལ་སྐད་ལ་ལར་སྒོ་ཕྱུགས་ལ་སེམས་ཅན་ཟེར། ༼སེམས་ཉི་ད༽ སེམས་ཀྱི་རང་གཤིས་ཀྱི་མིང་། ༼སེམས་ཆུང་༽ ༼༡༽ འཛེམ་དོགས་ཀྱི་དོན་ཏེ། གློག་སྐུད་ལ་སེམས་ཆུང་མ་བྱས་ན་གློག་ཕོག་ཉེན་ཆེ་ལྟ་བུ། ༼༢༽ སྤོབས་པ་ཆུང་བའི་དོན་ཏེ། ཁོ་ནི་མི་སེམས་ཆུང་ཞིག་ཡིན་པས། མི་ཚོགས་ཀྱི་དབུས་སུ་གཏམ་བཤད་མི་ཕོད་ལྟ་བུ། ༼༡༽ མི་བརྗེད་པའི་དྲན་གསོའི་རྟེན་དུ་གོ ༼༢༽ སེམས་གནས་པའི་རྟེན་ཏེ་ཀླད་པ་དང་སྙིང་ཡིན་པར་གྲགས། ༼སེམས་དྲུག༽ མིག་དང། རྣ་བ། སྣ། ལྕེ། ལུས། ཡིད་བཅས་ཀྱི་རྣམ་ཤེས་དྲུག ༼སེམས་སྡེ༽ རྫོགས་ཆེན་ཨ་ཏི་ཡོ་གའི་ནང་གསེས་གནས་པ་སེམས་ཀྱི་སྡེ་སྟེ། སློབ་དཔོན་ཤྲཱི་སེངྷ་དང་ལོ་ཆེན་བཻ་རོ་ཙ་ན་ལས་རིམ་པར་བརྒྱུད་པ་ཡིན་ལ། འདིའི་ལྟ་བའམ་གྲུབ་མཐའ་ནི། སེམས་ཉིད་རང་བྱུང་གི་ཡེ་ཤེས་ཀྱིས་འཁོར་འདས་ཀུན་ལ་ཁྱབ་ཀྱང། སྣང་བ་དངོས་པོར་རྒྱ་མ་ཆད། སྟོང་པ་དངོས་མེད་དུ་རྒྱ་མ་ཆད། གཉིས་ཀ་མ་ཡིན་པ་ཟུང་འཇུག་གི་ཕྱོགས་སུའང་མ་ལྷུང་ལ། ངོ་བོ་སྟོང་པས་རྟག་པའི་མཐའ་ལས་གྲོལ་ཞིང། རང་རྩལ་མ་འགག་པས་ཆད་པའི་མཐའ་ལས་གྲོལ་བས་བྱ་བྲལ་བདེ་སྡུག་ལས་འདས་པའི་ལྟ་བ་གཏན་ལ་འབེབས་པར་བྱེད་པའོ། ༼སེམས་པ༽ ༼༡༽ བསམས་པའམ་བསམ་པ། སོམས། རྟོག་དཔྱོད་བྱེད་པ་དང་ཡིད་ལ་སྐོར་བ། ཇི་ལྟར་བསམ་པ་ལྟར་ཁ་ནས་ཤོད། གང་བརྩམས་ལམ་ཏུ་འགྲོ་བ་ཞིག་བྱུང་ན་སེམས། བདེ་སྐྱིད་འཐོབ་པར་སེམས་པ་ལྟ་བུ ༼༢༽ ཀུན་འགྲོ་ལྔའི་ཡ་གྱལ་རང་ཡུལ་ལ་གཡོ་ཞིང་འཇུག་པའི་ཆ་ནས་ཡུལ་དེ་ཡིད་ལ་འཇགས་པར་བྱེད་པའི་ཤེས་པ། སེམས་པ་རྒྱ་ཆེ་བ། སེམས་པ་བཟང་བོ་ཞེས་པ་ལྟ་བུའོ། ༼སེམས་བྱུང་༽ ༼༡༽ སེམས་ཁམས་ཀྱི་འགྱུར་བ་སྣ་ཚོགས་ཀྱི་མིང་། ༼༢༽ ཆོས་མངོན་པར་བཤད་པའི་སེམས་བྱུང་ང་གཅིག་ལྟ་བུའི་སྤྱི་མིང་། ༼སེམས་ལས༽ ཀླད་པའི་ངལ་རྩོལ་གྱི་དོན་ཏེ། སེམས་ལས་ཆེ། སྲོག་རླུང་ཅན་གྱི་ནད་པ་སེམས་ལས་ཆེ་མི་རུང་ལྟ་བུ། ༤.བསམ་གྱི་ད་ལྟ་བ། ༼སེམས་བ་སྐྱེ་ད༽ རང་རྒྱུ་གཞན་ཕན་དོན་གཉེར་གྱི་འདུན་པར་དྲངས་ཤིང་། གྲོགས་བྱང་ཆུབ་འདོད་པ་དང་མཚུངས་ལྡན་གྱི་ཐེག་ཆེན་ལམ་གྱི་འཇུག་སྒོར་གྱུར་པའི་ལམ་གྱི་རིགས་སུ་གནས་པས་རབ་ཏུ་ཕྱེ་བའི་ཐེག་ཆེན་གཙོ་བོའི་ཡིད་ཀྱི་རྣམ་རིག་ཁྱད་པར་ཅན་ནོ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
     </row>
     <row r="182" ht="50" customHeight="1">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>ལ་</t>
+          <t>གྱི་</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="183" ht="50" customHeight="1">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>ཡང་</t>
+          <t>སེམས་</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) but; even; also; again; and; (2) light [as in not heavy](D1)</t>
+          <t>Gateway To Knowledge
+cognitive acts</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཀྱང་ལ་ལྟོས། ༢.༼ཀ༽ ལྗིད་ཚད་ཆུང་བ ༼ལྕི་བའི་ལྡོག་ཟླ༽ སྟེ། སྣུམ་ནི་ཆུ་ལས་ཡང་བས། སྣུམ་ཆུའི་ཁར་གཡེང་། ཧ་ཅང་ཡང་བའི་ཁུར་བོ། ཁུར་བོ་ཡང་མོ་ལྟ་བུ། ༼ཡང་ཟོར༽ ཡར་མཆོང་བའི་རྩལ་དང་ནུས་པའི་མིང་སྟེ། གཞོན་དུས་ལུས་པོ་ཡང་ཟོར་ཆེ། མི་ཡང་ཟོར་ཅན་ཞེས་པ་ལྟ་བུ། ༼ཁ༽ ཚད་ཆུང་བའམ་གྲངས་ཉུང་བ་སྟེ། རྨས་ཡང་མོ། ནད་ཡང་བ། ལས་ཀ་ཧ་ཅང་ཡང་ཞེས་པ་ལྟ་བུ། ༣.བསྐྱར་ཟློས་ལ་འཇུག་པའི་ཕྲད་རང་དབང་ཅན་ཏེ། ད་ལོ་ཡང་ལོ་ཡག་བྱུང་། དེ་རིང་ཡང་ཆར་བ་བབས་ཞེས་པ་ལྟ་བུ། ༼ཡང་བསྐྱར༽ ལན་གྲངས་གཉིས་པ་ཡན་ཏེ། ཡང་བསྐྱར་སློབ་གསོ་བཏང་། ཡང་བསྐྱར་ཐེངས་གཅིག་བཤད་ལྟ་བུ། ༼ཡང་རྒོད༽ རྒོད་པ་ལས་ཀྱང་རྒོད་པ་སྟེ། རྟ་རྒོད་པོ་ཡང་རྒོད། བློ་རྒོད་པོ་ཡང་རྒོད་ཅེས་པ་ལྟ་བུ། ༼ཡང་འཇུག༽ བོད་ཡིག་གི་རྗེས་འཇུག་བཅུའི་ནང་གི་ད་ས་གཉིས་ལ་ཟེར། ༼ཡང་ཕྱི༽ རང་གི་མེས་པོའི་ས་ཡིན། ༼ཡང་མེས༽ མེས་པོའི་ཕ། ༼ཡང་རྩལ༽ ཡང་མཆོང་བའི་རྩལ་ཁྱད་པར་བའི་མིང་སྟེ། བྱ་དང་བྱིའུས་གཤོག་རྩལ་བསྒྱུར། སྤྲ་དང་སྤེའུས་ཡང་རྩལ་སྟོན་ལྟ་བུ། ༼ཡང་རྩེ༽ རྩེ་མོ་ལས་ཀྱང་རྩེ་མོའི་མིང་། ༼ཡང་ཚ༽ ཚ་བོའི་བུ་སོགས། ༼ཡང་ཟབ༽ ཟབ་པ་ལས་ཀྱང་ཟབ་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མྱོང་ཚོར་གྱི་ནུས་པ་ཞིག་སྟེ། སེམས་ལྡན། སེམས་མེད། སེམས་ཅན་ཞེས་པ་ལྟ་བུ། ༢.ནང་གི་དབང་བོར་བརྟེན་ནས་ཕྱིའི་ཡུལ་ཤེས་པ་དང་རྟོགས་པ་འཛིན་པ་སོགས་ཀྱི་བྱ་རིམ་རིལ་བོའི་སྤྱི་འདུས་ཀྱི་མིང་སྟེ། སེམས་ལ་ཤར། སེམས་ནས་མ་བརྗེད། སེམས་ལ་དྲན་ལྟ་བུ། ༣.ཆགས་སྡང་བརྩེ་དུང་སོགས་སྐྱེ་བའི་བྱ་རིམ་གྱི་སྤྱི་འདུས་ཏེ། སེམས་ཚིག་སེམས་སྡུག་སེམས་སྐྱིད་ལྟ་བུ། ༼སེམས་ཁུར༽ ༼༡༽ ལས་ཀ་སོགས་རང་འགན་དུ་བརྩི་བའི་བསམ་པའི་མིང་སྟེ། དགེ་རྒན་གྱིས་སློབ་མར་སེམས་ཁུར་བྱེད་ཀྱིན་འདུག་ལྟ་བུ། ༼༢༽ སེམས་སྐྱོ་བའམ་སེམས་མི་བདེ་བའི་ལས་དོན་གྱི་མིང་སྟེ། སྤྱི་ཚོགས་རྙིང་བར་ཟ་རྒྱུ་མེད་པ་ཙམ་ལ་སེམས་ཁུར་བྱས་སྟབས་ཡི་གེ་སློབ་རྒྱུ་ཞིག་ཡིད་ལའང་མ་དྲན་ལྟ་བུ། ༼སེམས་འཁྲལ༽ སེམས་ཀྱི་སྐྱོ་དོན་དང་སྡུག་བསྔལ་གྱི་མིང་། ༼སེམས་ངན༽ བསམ་པ་ངན་པ་དང་རེ་འདུན་ངན་པ་སོགས་ཀྱི་མིང་སྟེ། མི་ལ་སེམས་ངན་མ་བསགས་ལྟ་བུ། ༼སེམས་རྒྱུད༽ ༼༡༽ སེམས་ཀྱི་རང་བཞིན། ༼༢༽ སེམས་ཀྱི་རྒྱུན། ༼སེམས་ཅན༽ ༼༡༽ མི་དང་དུད་འགྲོ་སོགས་སྲོག་ཆགས་སྤྱིའི་མིང་། ༼༢༽ ཡུལ་སྐད་ལ་ལར་སྒོ་ཕྱུགས་ལ་སེམས་ཅན་ཟེར། ༼སེམས་ཉི་ད༽ སེམས་ཀྱི་རང་གཤིས་ཀྱི་མིང་། ༼སེམས་ཆུང་༽ ༼༡༽ འཛེམ་དོགས་ཀྱི་དོན་ཏེ། གློག་སྐུད་ལ་སེམས་ཆུང་མ་བྱས་ན་གློག་ཕོག་ཉེན་ཆེ་ལྟ་བུ། ༼༢༽ སྤོབས་པ་ཆུང་བའི་དོན་ཏེ། ཁོ་ནི་མི་སེམས་ཆུང་ཞིག་ཡིན་པས། མི་ཚོགས་ཀྱི་དབུས་སུ་གཏམ་བཤད་མི་ཕོད་ལྟ་བུ། ༼༡༽ མི་བརྗེད་པའི་དྲན་གསོའི་རྟེན་དུ་གོ ༼༢༽ སེམས་གནས་པའི་རྟེན་ཏེ་ཀླད་པ་དང་སྙིང་ཡིན་པར་གྲགས། ༼སེམས་དྲུག༽ མིག་དང། རྣ་བ། སྣ། ལྕེ། ལུས། ཡིད་བཅས་ཀྱི་རྣམ་ཤེས་དྲུག ༼སེམས་སྡེ༽ རྫོགས་ཆེན་ཨ་ཏི་ཡོ་གའི་ནང་གསེས་གནས་པ་སེམས་ཀྱི་སྡེ་སྟེ། སློབ་དཔོན་ཤྲཱི་སེངྷ་དང་ལོ་ཆེན་བཻ་རོ་ཙ་ན་ལས་རིམ་པར་བརྒྱུད་པ་ཡིན་ལ། འདིའི་ལྟ་བའམ་གྲུབ་མཐའ་ནི། སེམས་ཉིད་རང་བྱུང་གི་ཡེ་ཤེས་ཀྱིས་འཁོར་འདས་ཀུན་ལ་ཁྱབ་ཀྱང། སྣང་བ་དངོས་པོར་རྒྱ་མ་ཆད། སྟོང་པ་དངོས་མེད་དུ་རྒྱ་མ་ཆད། གཉིས་ཀ་མ་ཡིན་པ་ཟུང་འཇུག་གི་ཕྱོགས་སུའང་མ་ལྷུང་ལ། ངོ་བོ་སྟོང་པས་རྟག་པའི་མཐའ་ལས་གྲོལ་ཞིང། རང་རྩལ་མ་འགག་པས་ཆད་པའི་མཐའ་ལས་གྲོལ་བས་བྱ་བྲལ་བདེ་སྡུག་ལས་འདས་པའི་ལྟ་བ་གཏན་ལ་འབེབས་པར་བྱེད་པའོ། ༼སེམས་པ༽ ༼༡༽ བསམས་པའམ་བསམ་པ། སོམས། རྟོག་དཔྱོད་བྱེད་པ་དང་ཡིད་ལ་སྐོར་བ། ཇི་ལྟར་བསམ་པ་ལྟར་ཁ་ནས་ཤོད། གང་བརྩམས་ལམ་ཏུ་འགྲོ་བ་ཞིག་བྱུང་ན་སེམས། བདེ་སྐྱིད་འཐོབ་པར་སེམས་པ་ལྟ་བུ ༼༢༽ ཀུན་འགྲོ་ལྔའི་ཡ་གྱལ་རང་ཡུལ་ལ་གཡོ་ཞིང་འཇུག་པའི་ཆ་ནས་ཡུལ་དེ་ཡིད་ལ་འཇགས་པར་བྱེད་པའི་ཤེས་པ། སེམས་པ་རྒྱ་ཆེ་བ། སེམས་པ་བཟང་བོ་ཞེས་པ་ལྟ་བུའོ། ༼སེམས་བྱུང་༽ ༼༡༽ སེམས་ཁམས་ཀྱི་འགྱུར་བ་སྣ་ཚོགས་ཀྱི་མིང་། ༼༢༽ ཆོས་མངོན་པར་བཤད་པའི་སེམས་བྱུང་ང་གཅིག་ལྟ་བུའི་སྤྱི་མིང་། ༼སེམས་ལས༽ ཀླད་པའི་ངལ་རྩོལ་གྱི་དོན་ཏེ། སེམས་ལས་ཆེ། སྲོག་རླུང་ཅན་གྱི་ནད་པ་སེམས་ལས་ཆེ་མི་རུང་ལྟ་བུ། ༤.བསམ་གྱི་ད་ལྟ་བ། ༼སེམས་བ་སྐྱེ་ད༽ རང་རྒྱུ་གཞན་ཕན་དོན་གཉེར་གྱི་འདུན་པར་དྲངས་ཤིང་། གྲོགས་བྱང་ཆུབ་འདོད་པ་དང་མཚུངས་ལྡན་གྱི་ཐེག་ཆེན་ལམ་གྱི་འཇུག་སྒོར་གྱུར་པའི་ལམ་གྱི་རིགས་སུ་གནས་པས་རབ་ཏུ་ཕྱེ་བའི་ཐེག་ཆེན་གཙོ་བོའི་ཡིད་ཀྱི་རྣམ་རིག་ཁྱད་པར་ཅན་ནོ།</t>
         </is>
       </c>
     </row>
     <row r="184" ht="50" customHeight="1">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ལ་</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="185" ht="50" customHeight="1">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>ང</t>
+          <t>ཡང་</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-I</t>
+          <t>Hopkins 2015
+(1) but; even; also; again; and; (2) light [as in not heavy](D1)</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་བོད་ཡིག་གི་གསལ་བྱེད་བཞི་པ། ༼ང་པ༽ ཀ་ཁའི་རིམ་པ་ལྟར་དཀར་ཆག་བསྒྲིགས་པའི་བཞི་པའི་དོན། ༢.རང་གིས་རང་ལ་ང་ཟེར་ཏེ། ང་ཚོ། ང་ཅག་ངས་བཤད། ང་ཡི་ལྭ་བ། ངའི་དཔེ་ཆ། མི་རྒན་ང་། ཞིང་པ་རྒན་པོ་ང་ཞེས་པ་ལྟ་བུ། ༼ང་རྒྱལ༽ རང་ཉིད་ཁྱད་པར་དུ་འཕགས་པར་རློམ་ཞིང་གཞན་ལ་མཐོང་ཆུང་བྱེད་པའི་བསམ་པ་དང་སྤྱོད་པའི་མིང་སྟེ། ཁེངས་སྐྱུངས་བྱས་ན་ཡར་ཐོན་ཡོང་། ང་རྒྱལ་སྐྱེས་ན་རྗེས་སུ་ལུས་ལྟ་བུ། ༣.ལྔ་བཅུའི་དོན་ཏེ། ལྔ་བཅུ་ང་གཅིག་ང་གཉིས། ང་དགུ་ཞེས་པ་ལྟ་བུ། ༤.མིང་མཐའ་ལ་འཇུག་པ་ནི་སྒོ་ང་། བུས་མོའི་སླ་ང་། ཟངས་ང་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཀྱང་ལ་ལྟོས། ༢.༼ཀ༽ ལྗིད་ཚད་ཆུང་བ ༼ལྕི་བའི་ལྡོག་ཟླ༽ སྟེ། སྣུམ་ནི་ཆུ་ལས་ཡང་བས། སྣུམ་ཆུའི་ཁར་གཡེང་། ཧ་ཅང་ཡང་བའི་ཁུར་བོ། ཁུར་བོ་ཡང་མོ་ལྟ་བུ། ༼ཡང་ཟོར༽ ཡར་མཆོང་བའི་རྩལ་དང་ནུས་པའི་མིང་སྟེ། གཞོན་དུས་ལུས་པོ་ཡང་ཟོར་ཆེ། མི་ཡང་ཟོར་ཅན་ཞེས་པ་ལྟ་བུ། ༼ཁ༽ ཚད་ཆུང་བའམ་གྲངས་ཉུང་བ་སྟེ། རྨས་ཡང་མོ། ནད་ཡང་བ། ལས་ཀ་ཧ་ཅང་ཡང་ཞེས་པ་ལྟ་བུ། ༣.བསྐྱར་ཟློས་ལ་འཇུག་པའི་ཕྲད་རང་དབང་ཅན་ཏེ། ད་ལོ་ཡང་ལོ་ཡག་བྱུང་། དེ་རིང་ཡང་ཆར་བ་བབས་ཞེས་པ་ལྟ་བུ། ༼ཡང་བསྐྱར༽ ལན་གྲངས་གཉིས་པ་ཡན་ཏེ། ཡང་བསྐྱར་སློབ་གསོ་བཏང་། ཡང་བསྐྱར་ཐེངས་གཅིག་བཤད་ལྟ་བུ། ༼ཡང་རྒོད༽ རྒོད་པ་ལས་ཀྱང་རྒོད་པ་སྟེ། རྟ་རྒོད་པོ་ཡང་རྒོད། བློ་རྒོད་པོ་ཡང་རྒོད་ཅེས་པ་ལྟ་བུ། ༼ཡང་འཇུག༽ བོད་ཡིག་གི་རྗེས་འཇུག་བཅུའི་ནང་གི་ད་ས་གཉིས་ལ་ཟེར། ༼ཡང་ཕྱི༽ རང་གི་མེས་པོའི་ས་ཡིན། ༼ཡང་མེས༽ མེས་པོའི་ཕ། ༼ཡང་རྩལ༽ ཡང་མཆོང་བའི་རྩལ་ཁྱད་པར་བའི་མིང་སྟེ། བྱ་དང་བྱིའུས་གཤོག་རྩལ་བསྒྱུར། སྤྲ་དང་སྤེའུས་ཡང་རྩལ་སྟོན་ལྟ་བུ། ༼ཡང་རྩེ༽ རྩེ་མོ་ལས་ཀྱང་རྩེ་མོའི་མིང་། ༼ཡང་ཚ༽ ཚ་བོའི་བུ་སོགས། ༼ཡང་ཟབ༽ ཟབ་པ་ལས་ཀྱང་ཟབ་པ།</t>
         </is>
       </c>
     </row>
     <row r="186" ht="50" customHeight="1">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="187" ht="50" customHeight="1">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>མགོ་</t>
+          <t>ང</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-head; top; beginning</t>
+          <t>Hopkins 2015
+I</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་བོད་ཡིག་གི་གསལ་བྱེད་བཞི་པ། ༼ང་པ༽ ཀ་ཁའི་རིམ་པ་ལྟར་དཀར་ཆག་བསྒྲིགས་པའི་བཞི་པའི་དོན། ༢.རང་གིས་རང་ལ་ང་ཟེར་ཏེ། ང་ཚོ། ང་ཅག་ངས་བཤད། ང་ཡི་ལྭ་བ། ངའི་དཔེ་ཆ། མི་རྒན་ང་། ཞིང་པ་རྒན་པོ་ང་ཞེས་པ་ལྟ་བུ། ༼ང་རྒྱལ༽ རང་ཉིད་ཁྱད་པར་དུ་འཕགས་པར་རློམ་ཞིང་གཞན་ལ་མཐོང་ཆུང་བྱེད་པའི་བསམ་པ་དང་སྤྱོད་པའི་མིང་སྟེ། ཁེངས་སྐྱུངས་བྱས་ན་ཡར་ཐོན་ཡོང་། ང་རྒྱལ་སྐྱེས་ན་རྗེས་སུ་ལུས་ལྟ་བུ། ༣.ལྔ་བཅུའི་དོན་ཏེ། ལྔ་བཅུ་ང་གཅིག་ང་གཉིས། ང་དགུ་ཞེས་པ་ལྟ་བུ། ༤.མིང་མཐའ་ལ་འཇུག་པ་ནི་སྒོ་ང་། བུས་མོའི་སླ་ང་། ཟངས་ང་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="188" ht="50" customHeight="1">
       <c r="A188" s="1" t="inlineStr">
         <is>
+          <t>འི་</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="50" customHeight="1">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>མགོ་</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+head; top; beginning</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="50" customHeight="1">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="189" ht="50" customHeight="1">
-      <c r="A189" s="1" t="inlineStr">
+    <row r="191" ht="50" customHeight="1">
+      <c r="A191" s="1" t="inlineStr">
         <is>
           <t>ཀྱི་</t>
         </is>
       </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 [as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
         </is>
       </c>
     </row>
-    <row r="190" ht="50" customHeight="1">
-      <c r="A190" s="1" t="inlineStr">
+    <row r="192" ht="50" customHeight="1">
+      <c r="A192" s="1" t="inlineStr">
         <is>
           <t>ཨི་ཁུང་</t>
         </is>
       </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 hole</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C192" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 བུག་པ། ཨི་ཁུང་རྒྱག་པ།</t>
         </is>
       </c>
     </row>
-    <row r="191" ht="50" customHeight="1">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>ནང་</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-in; internal; inside; interior; house</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
-        </is>
-      </c>
-    </row>
-    <row r="192" ht="50" customHeight="1">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>བཅུག་</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-1) indicates causative construction; 2) enter; engage; apply; usher into</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-འཇུག་གི་འདས་པ།</t>
-        </is>
-      </c>
-    </row>
     <row r="193" ht="50" customHeight="1">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>ཐུབ་</t>
+          <t>ནང་</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
+          <t>Hopkins 2015
+in; internal; inside; interior; house</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
         </is>
       </c>
     </row>
     <row r="194" ht="50" customHeight="1">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>ན་</t>
+          <t>བཅུག་</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) to; in; as; at [accusative, dative, locative particle]; (2) if; when [non-case usages]; (3) be sick; be ill; in pain [for the verb, na ba]</t>
+          <t>Hopkins 2015
+1) indicates causative construction; 2) enter; engage; apply; usher into</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིང་གི་མཐའ་སྦྱར་ན་རྣམ་དབྱེ་ལ་འཇུག་པ་ནི། འབྲོག་ན་རྟ་ནོར་ལུག་གསུམ་ཡོད་ལྟ་བུ། རྒྱས་པར་ལ་ལ་ལྟོས། ༢.ལས་ཚིག་གི་མཐར་སྦྱར་ན་དོན་ཕྱི་མ་འདྲེན། ༼ཀ༽ ༼༡༽ མིང་གཞིའི་ཤིན་ཏུ་མོའི་ཡི་གེ་ཞིག ༼༢༽ རྗེས་འཇུག་གི་མ་ནིང་ཡི་གེ་ཞིག ༼ཁ༽ ༼༡༽ མིའི་ལོ་གྲངས་ཀྱི་ཚོད། ལོ་ན་མཐོན་པོ། ཕྲུ་གུ་ནར་མ་སོན་པ། ༼༢༽ ལོ་ལྔ་ལོན་པའི་རྟ་དྲེལ་གྱི་ལོ། ༼༣༽ ཆུ་རླན་ཆེ་བའམ་ཆུ་འཁྱིལ་མང་བོ་ཡོད་པའི་སྤང་ལྗོངས་ཀྱི་མིང་སྟེ། ན་ཐང་། ན་རྩྭ། ན་ཆུ། རྐྱང་ཁ་དཀར་རྨིག་བཞི་ན་ལ་ཟུག་ལྟ་བུ། ༣.ཚིག་ཕྲད་ན་ཡིག ༼༡༽ དམིགས་ཀྱིས་དབྱེ་བ། དངོས་སུ་ན། མདོར་བསྡུས་ན། ཡིན་གྲང་ན། ༼༢༽ རྒྱུ་མཚན་སྟོན་པ། མེ་ཡོད་ན་དུ་བ་འབྱུང་། ས་བོན་བཏབ་ན་འབྲས་བུ་སྐྱེ། ༼༣༽ རྒྱུ་མཚན་དོན་གྱིས་སྟོན་པ། ནད་མེད་ན་སྨན་པ་ཅིའི་ཕྱིར་བསྟེན། ཆང་མ་བཏུངས་ན་ར་བཟི་དོན་མེད། ཆུ་མེད་ན་ཉ་ག་ལ་ཡོང་། ༼༤༽ ཚིག་འགལ་བར་སྟོན་པ། ཁོ་རང་མཁས་པ་ཡིན་པར་གྲགས་ནའང་བཟང་ངན་གྱི་དབྱེ་བ་འབྱེད་མི་ཤེས་པའི་རྨོངས་པ་ཞིག་རེད་འདུག ༼༥༽ འོས་པར་དཀའ་བ། ཁྱི་ལའང་འཇིགས་ན་སེང་གེ་ལ་བཤད་མི་དགོས། མི་རྒན་པས་འཁུར་མི་ཐུབ་ན་ཕྲུ་གུས་ལྟ་ཅི་སྨོས། ནད་པ་དེ་ཕར་ཚུར་འགྲོ་ཐུབ་ན་ཡར་ལང་ཐུབ་པ་སྨོས་ཅི་འཚལ། ༼༦༽ ཕྱི་ཚིག་ངེས་པར་བྱེད་པ། དུད་འགྲོ་རྣམས་ཤིན་ཏུ་རྨོངས་ན་མིའང་དེ་ལྟར་འདུག་འབྲོག་པས་ཞིང་འདེབས་མི་ཤེས་ན་སོ་ནམ་པས་ཞིང་ཁ་འདེབས་མི་ཤེས་པའང་འདུག་ཅེས་པ་ལྟ་བུ། ༼༧༽ སྨོན་པ། ང་ཡ་ང་ཚན་རིག་པ་ཞིག་བྱེད་རྒྱུ་བྱུང་ན་ཅི་མ་རུང་ཞེས་པ་ལྟ་བུ། ༼༨༽ ཐེ་ཚོམ་སྟོན་པ། ས་བོན་ནི་བཏབ་ཟིན་ན་འདི་ལས་མྱུ་གུ་འབྱུང་ངམ་མི་འབྱུང། སྨན་བཏང་ཡོད་ན་ནད་ཨེ་སོས་མི་སོས། གདན་འདྲེན་ཞུས་ཟིན་ན་ཁོ་ཡ་འོང་ངམ་མི་ཡོང་། ༼ན་རམ༽ ན་གཞུང་དུ་སྐྱེ་བའི་རྩྭ་ལྡུམ་རིགས་ཤིག་གི་མིང་། ལོ་མའི་དབྱིབས་ཐ་རམ་དང་འདྲ་ལ་ཕྱུགས་ཀྱི་གཟན་རྩྭ་བཟང་བོ་ཞིག་ཡིན། ༤.ན་ཚོད་ཀྱི་ཚིག་བསྡུས་པ། ༥.ན་སོ་ལ་ལྟོས། ༦.ན་བ་ཡི་ཚིག་བསྡུས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+འཇུག་གི་འདས་པ།</t>
         </is>
       </c>
     </row>
     <row r="195" ht="50" customHeight="1">
       <c r="A195" s="1" t="inlineStr">
         <is>
+          <t>ཐུབ་</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="50" customHeight="1">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>ན་</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) to; in; as; at [accusative, dative, locative particle]; (2) if; when [non-case usages]; (3) be sick; be ill; in pain [for the verb, na ba]</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་གི་མཐའ་སྦྱར་ན་རྣམ་དབྱེ་ལ་འཇུག་པ་ནི། འབྲོག་ན་རྟ་ནོར་ལུག་གསུམ་ཡོད་ལྟ་བུ། རྒྱས་པར་ལ་ལ་ལྟོས། ༢.ལས་ཚིག་གི་མཐར་སྦྱར་ན་དོན་ཕྱི་མ་འདྲེན། ༼ཀ༽ ༼༡༽ མིང་གཞིའི་ཤིན་ཏུ་མོའི་ཡི་གེ་ཞིག ༼༢༽ རྗེས་འཇུག་གི་མ་ནིང་ཡི་གེ་ཞིག ༼ཁ༽ ༼༡༽ མིའི་ལོ་གྲངས་ཀྱི་ཚོད། ལོ་ན་མཐོན་པོ། ཕྲུ་གུ་ནར་མ་སོན་པ། ༼༢༽ ལོ་ལྔ་ལོན་པའི་རྟ་དྲེལ་གྱི་ལོ། ༼༣༽ ཆུ་རླན་ཆེ་བའམ་ཆུ་འཁྱིལ་མང་བོ་ཡོད་པའི་སྤང་ལྗོངས་ཀྱི་མིང་སྟེ། ན་ཐང་། ན་རྩྭ། ན་ཆུ། རྐྱང་ཁ་དཀར་རྨིག་བཞི་ན་ལ་ཟུག་ལྟ་བུ། ༣.ཚིག་ཕྲད་ན་ཡིག ༼༡༽ དམིགས་ཀྱིས་དབྱེ་བ། དངོས་སུ་ན། མདོར་བསྡུས་ན། ཡིན་གྲང་ན། ༼༢༽ རྒྱུ་མཚན་སྟོན་པ། མེ་ཡོད་ན་དུ་བ་འབྱུང་། ས་བོན་བཏབ་ན་འབྲས་བུ་སྐྱེ། ༼༣༽ རྒྱུ་མཚན་དོན་གྱིས་སྟོན་པ། ནད་མེད་ན་སྨན་པ་ཅིའི་ཕྱིར་བསྟེན། ཆང་མ་བཏུངས་ན་ར་བཟི་དོན་མེད། ཆུ་མེད་ན་ཉ་ག་ལ་ཡོང་། ༼༤༽ ཚིག་འགལ་བར་སྟོན་པ། ཁོ་རང་མཁས་པ་ཡིན་པར་གྲགས་ནའང་བཟང་ངན་གྱི་དབྱེ་བ་འབྱེད་མི་ཤེས་པའི་རྨོངས་པ་ཞིག་རེད་འདུག ༼༥༽ འོས་པར་དཀའ་བ། ཁྱི་ལའང་འཇིགས་ན་སེང་གེ་ལ་བཤད་མི་དགོས། མི་རྒན་པས་འཁུར་མི་ཐུབ་ན་ཕྲུ་གུས་ལྟ་ཅི་སྨོས། ནད་པ་དེ་ཕར་ཚུར་འགྲོ་ཐུབ་ན་ཡར་ལང་ཐུབ་པ་སྨོས་ཅི་འཚལ། ༼༦༽ ཕྱི་ཚིག་ངེས་པར་བྱེད་པ། དུད་འགྲོ་རྣམས་ཤིན་ཏུ་རྨོངས་ན་མིའང་དེ་ལྟར་འདུག་འབྲོག་པས་ཞིང་འདེབས་མི་ཤེས་ན་སོ་ནམ་པས་ཞིང་ཁ་འདེབས་མི་ཤེས་པའང་འདུག་ཅེས་པ་ལྟ་བུ། ༼༧༽ སྨོན་པ། ང་ཡ་ང་ཚན་རིག་པ་ཞིག་བྱེད་རྒྱུ་བྱུང་ན་ཅི་མ་རུང་ཞེས་པ་ལྟ་བུ། ༼༨༽ ཐེ་ཚོམ་སྟོན་པ། ས་བོན་ནི་བཏབ་ཟིན་ན་འདི་ལས་མྱུ་གུ་འབྱུང་ངམ་མི་འབྱུང། སྨན་བཏང་ཡོད་ན་ནད་ཨེ་སོས་མི་སོས། གདན་འདྲེན་ཞུས་ཟིན་ན་ཁོ་ཡ་འོང་ངམ་མི་ཡོང་། ༼ན་རམ༽ ན་གཞུང་དུ་སྐྱེ་བའི་རྩྭ་ལྡུམ་རིགས་ཤིག་གི་མིང་། ལོ་མའི་དབྱིབས་ཐ་རམ་དང་འདྲ་ལ་ཕྱུགས་ཀྱི་གཟན་རྩྭ་བཟང་བོ་ཞིག་ཡིན། ༤.ན་ཚོད་ཀྱི་ཚིག་བསྡུས་པ། ༥.ན་སོ་ལ་ལྟོས། ༦.ན་བ་ཡི་ཚིག་བསྡུས་པ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="50" customHeight="1">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
           <t>ཡག་པོ་</t>
         </is>
       </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 good</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ལེགས་པོའམ་བཟང་པོ། སྤུས་ཀ་ཡག་པོ། འཚོ་བ་ཡག་པོ། གནམ་གཤིས་ཡག་པོ། ཚོང་ཟོག་ཡག་པོ། རྩིས་ཡག་པོ་རྒྱག་པ། སྤྱོད་པ་ཡག་པོར་བརྩིས་པ།</t>
         </is>
       </c>
     </row>
-    <row r="196" ht="50" customHeight="1">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>འདུག་</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-is; are; there is; a verb meaning to exist in a place</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡. ༼བྱེད་མེད་ལས་ཚིག༽ ༼ཀ༽ སྡོད་པའི་དོན་ཏེ། འགྲོ་འཆག་ཉལ་འདུག་འདུག་གནས། དོ་དགོང་མགྲོན་ཁང་དུ་འདུག་ལྟ་བུ། ༼འདུག་སྟེགས༽ ཁྲི་དང་ཁྲིའུ་སོགས་ཀྱི་སྤྱི་མིང་། ༼ཁ༽ གནས་པའམ་ཡོད་པའི་དོན་ཏེ། མི་མང་བོ་འདུག་དཔེ་ཆ་མང་བོ་འདུག་ལྟ་བུ། ༢.ལས་ཚིག་ད་ལྟ་བའི་ཚིག་གྲོགས་ཏེ། སློབ་གྲྭ་པ་ཚོས་སློབ་སྦྱོང་བྱེད་ཀྱིན་འདུག་ཞིང་པ་ཚོས་ཞིང་འབྲེག་གིན་འདུག་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="197" ht="50" customHeight="1">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>བསམ་</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-verb: think; contemplate\n noun: thought</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༼བྱེད་འབྲེལ་ལས་ཚིག་མ་འོངས་པ༽ བསམ་བློ་གཏོང་བའི་དོན་ཏེ། བསམ་བྱའི་དོན་རྣམས་བསམ་དགོས་ལྟ་བུ། ༼སེམས༽ ནི་ད་ལྟ་བ་སྟེ། གཞུང་དོ་ན་སེམས་མཁན། དོན་གལ་ཆེན་ཡིད་ལ་སེམས་ཀྱིན་འདུག་ལྟ་བུ། ༼བསམས༽ ནི་འདས་པ་སྟེ། མི་དམངས་ཀྱི་དོན་བསམས་ནས་རང་དོན་ཡལ་བར་དོར་ལྟ་བུ། ༼སོམས༽ ནི་སྐུལ་ཚིག་སྟེ། སྔར་གྱི་སྡུག་བསྔལ་སོམས། ད་ལྟའི་བདེ་སྐྱིད་སོམས་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
     <row r="198" ht="50" customHeight="1">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>པ་རེད</t>
+          <t>འདུག་</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Valby
-past complement</t>
+          <t>Hopkins 2015
+is; are; there is; a verb meaning to exist in a place</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་མེད་ལས་ཚིག༽ ༼ཀ༽ སྡོད་པའི་དོན་ཏེ། འགྲོ་འཆག་ཉལ་འདུག་འདུག་གནས། དོ་དགོང་མགྲོན་ཁང་དུ་འདུག་ལྟ་བུ། ༼འདུག་སྟེགས༽ ཁྲི་དང་ཁྲིའུ་སོགས་ཀྱི་སྤྱི་མིང་། ༼ཁ༽ གནས་པའམ་ཡོད་པའི་དོན་ཏེ། མི་མང་བོ་འདུག་དཔེ་ཆ་མང་བོ་འདུག་ལྟ་བུ། ༢.ལས་ཚིག་ད་ལྟ་བའི་ཚིག་གྲོགས་ཏེ། སློབ་གྲྭ་པ་ཚོས་སློབ་སྦྱོང་བྱེད་ཀྱིན་འདུག་ཞིང་པ་ཚོས་ཞིང་འབྲེག་གིན་འདུག་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="199" ht="50" customHeight="1">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>བསམ་</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+verb: think; contemplate\n noun: thought</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་འབྲེལ་ལས་ཚིག་མ་འོངས་པ༽ བསམ་བློ་གཏོང་བའི་དོན་ཏེ། བསམ་བྱའི་དོན་རྣམས་བསམ་དགོས་ལྟ་བུ། ༼སེམས༽ ནི་ད་ལྟ་བ་སྟེ། གཞུང་དོ་ན་སེམས་མཁན། དོན་གལ་ཆེན་ཡིད་ལ་སེམས་ཀྱིན་འདུག་ལྟ་བུ། ༼བསམས༽ ནི་འདས་པ་སྟེ། མི་དམངས་ཀྱི་དོན་བསམས་ནས་རང་དོན་ཡལ་བར་དོར་ལྟ་བུ། ༼སོམས༽ ནི་སྐུལ་ཚིག་སྟེ། སྔར་གྱི་སྡུག་བསྔལ་སོམས། ད་ལྟའི་བདེ་སྐྱིད་སོམས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="200" ht="50" customHeight="1">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>ཡིན་ན་ཡང་</t>
+          <t>པ་རེད</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-but, however, nevertheless, even though</t>
+          <t>Jim Valby
+past complement</t>
         </is>
       </c>
     </row>
@@ -3758,2913 +3788,2983 @@
     <row r="202" ht="50" customHeight="1">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>རུས་སྦལ་</t>
+          <t>ཡིན་ན་ཡང་</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
+          <t>Ives Waldo
+but, however, nevertheless, even though</t>
         </is>
       </c>
     </row>
     <row r="203" ht="50" customHeight="1">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>གྱི་</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="204" ht="50" customHeight="1">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>མིག་</t>
+          <t>རུས་སྦལ་</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-eye</t>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་གཟུགས་མཐོང་བྱེད་ཀྱི་དབང་བོ་འི་མིང་། ༼མིག་དམར༽ ༼༡༽ རེས་གཟའ་བདུན་གྱི་གཉིས་པ། ༼༢༽ མིག་མདོག་དམར་པོ་། ༼མིག་འབྲས༽ ཕལ་སྐད་དུ་མིག་རིལ་ཟེར་བ་དེ་ཡིན། ༼མིག་སྐྱག༽ མིག་གྲུ་ལ་ཆགས་པའི་དྲི་མ། ༼མིག་ལྟོས༽ མི་རྣམས་ཀྱིས་ལེགས་པའི་དཔེ་ཚད་དུ་བྱེད་འོས་པའི་བྱ་སྤྱོད་དང་བྱ་སྤྱོད་དེ་ལྟ་བུ་ལྡན་པའི་མི་སྟེ། མིག་ལྟོས་བྱེད་འོས་པའི་བྱ་བ། མི་གཞུང་དྲང་ཤེས་ཅན་ནི་ང་ཚོས་མིག་ལྟོས་བྱེད་ས་ཡིན་ལྟ་བུ། ༼མིག་སྐྱི༽ མིག་འབྲས་ཀྱི་ཕྱི་ངོས་ཀྱི་སྐྱི་མོ་སྲབ་ཅིང་དྭངས་པའི་མིང་། ༼མིག་ལྕིབས༽ མིག་འབྲས་འགེབ་ཐུབ་པའི་མིག་མཐའི་སྐྱི་མོའི་མིང་། ༼མིག་ཚག༽ མིག་ནད་ཅིག་གི་མིང་སྟེ། ཚབས་ཆེན་དུ་གྱུར་ན་མིག་རལ་འགྲོ། ༼མིག་ཡོར༽ མིག་འཁྲུལ་བར་བྱེད་པའི་གཟུགས་བརྙན་ལྟ་བུའི་མིང་། ༼མིག་ལོག༽ ཁྲོ་བའམ་མི་དགའ་བའི་ལྟ་སྟངས་ཏེ། མིག་ལོག་གིས་བལྟས་ཟེར་བ་ལྟ་བུ། ༢.བུ་ག་ཆུང་ངུའི་མིང་སྟེ། མིག་བུ། ཁབ་མིག་དྲ་མིག་འཇུར་མིག་ཅེས་པ་སོགས་ལྟ་བུ། ༼མིག་མང༽ ༼༡༽ རྩེད་མོ་ཞིག་སྟེ། ཕལ་སྐད་དུ་འཇིག་ཟེར། ༢.འབྲུ་རིགས་ཚགས་བྱེད་ཀྱི་ཡོ་བྱད་ཅིག་སྟེ། ཁྲོལ་མ་ཡང་ཟེར། ༼མིག་དར་བསལ་བ༽ ནང་འཇུག་གི་ནང་གསེས་ཏེ། སློབ་མ་རྣམས་མ་རིག་གཉིས་འཛིན་གྱིས་ལྡོངས་པའི་མཚོན་བྱེད་མིག་དར་ཏེ་གདོང་གཡོགས་བསལ་བ་དང་མཉམ་དུ་མ་རིག་པ་བསལ་ནས། རིག་པ་ཡེ་ཤེས་ལྷའི་ངོ་བོ་ཇི་ལྟ་བར་གསལ་བ་ལ་མིག་དར་བསལ་བ་ཞེས་བྱའོ། །</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
     </row>
     <row r="205" ht="50" customHeight="1">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>གིས་</t>
+          <t>གྱི་</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(as instrumental particle) by; by means of; with; because. (as non-case particle corruptly used in place of the non-case usage of genitive particles) but; and; (semi-colon)</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀྱིས་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="206" ht="50" customHeight="1">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>མཐོང་</t>
+          <t>མིག་</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-to see; to perceive</t>
+          <t>Hopkins 2015
+eye</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༼བྱེད་འབྲེལ་ལས་ཚིག༽ ༡་མི་ག་གིས་རིག་པ་སྟེ། མིག་གིས་མངོན་སུམ་དུ་མཐོང་། མཐོང་རྒྱ་ཆེ་བའི་མི་ཞེས་པ་ལྟ་བུ། ༢.མྱོང་བ་སྟེ། སྡུག་བསྔལ་མཐོང་། སྡུག་མཐོང་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་གཟུགས་མཐོང་བྱེད་ཀྱི་དབང་བོ་འི་མིང་། ༼མིག་དམར༽ ༼༡༽ རེས་གཟའ་བདུན་གྱི་གཉིས་པ། ༼༢༽ མིག་མདོག་དམར་པོ་། ༼མིག་འབྲས༽ ཕལ་སྐད་དུ་མིག་རིལ་ཟེར་བ་དེ་ཡིན། ༼མིག་སྐྱག༽ མིག་གྲུ་ལ་ཆགས་པའི་དྲི་མ། ༼མིག་ལྟོས༽ མི་རྣམས་ཀྱིས་ལེགས་པའི་དཔེ་ཚད་དུ་བྱེད་འོས་པའི་བྱ་སྤྱོད་དང་བྱ་སྤྱོད་དེ་ལྟ་བུ་ལྡན་པའི་མི་སྟེ། མིག་ལྟོས་བྱེད་འོས་པའི་བྱ་བ། མི་གཞུང་དྲང་ཤེས་ཅན་ནི་ང་ཚོས་མིག་ལྟོས་བྱེད་ས་ཡིན་ལྟ་བུ། ༼མིག་སྐྱི༽ མིག་འབྲས་ཀྱི་ཕྱི་ངོས་ཀྱི་སྐྱི་མོ་སྲབ་ཅིང་དྭངས་པའི་མིང་། ༼མིག་ལྕིབས༽ མིག་འབྲས་འགེབ་ཐུབ་པའི་མིག་མཐའི་སྐྱི་མོའི་མིང་། ༼མིག་ཚག༽ མིག་ནད་ཅིག་གི་མིང་སྟེ། ཚབས་ཆེན་དུ་གྱུར་ན་མིག་རལ་འགྲོ། ༼མིག་ཡོར༽ མིག་འཁྲུལ་བར་བྱེད་པའི་གཟུགས་བརྙན་ལྟ་བུའི་མིང་། ༼མིག་ལོག༽ ཁྲོ་བའམ་མི་དགའ་བའི་ལྟ་སྟངས་ཏེ། མིག་ལོག་གིས་བལྟས་ཟེར་བ་ལྟ་བུ། ༢.བུ་ག་ཆུང་ངུའི་མིང་སྟེ། མིག་བུ། ཁབ་མིག་དྲ་མིག་འཇུར་མིག་ཅེས་པ་སོགས་ལྟ་བུ། ༼མིག་མང༽ ༼༡༽ རྩེད་མོ་ཞིག་སྟེ། ཕལ་སྐད་དུ་འཇིག་ཟེར། ༢.འབྲུ་རིགས་ཚགས་བྱེད་ཀྱི་ཡོ་བྱད་ཅིག་སྟེ། ཁྲོལ་མ་ཡང་ཟེར། ༼མིག་དར་བསལ་བ༽ ནང་འཇུག་གི་ནང་གསེས་ཏེ། སློབ་མ་རྣམས་མ་རིག་གཉིས་འཛིན་གྱིས་ལྡོངས་པའི་མཚོན་བྱེད་མིག་དར་ཏེ་གདོང་གཡོགས་བསལ་བ་དང་མཉམ་དུ་མ་རིག་པ་བསལ་ནས། རིག་པ་ཡེ་ཤེས་ལྷའི་ངོ་བོ་ཇི་ལྟ་བར་གསལ་བ་ལ་མིག་དར་བསལ་བ་ཞེས་བྱའོ། །</t>
         </is>
       </c>
     </row>
     <row r="207" ht="50" customHeight="1">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>ཐུབ་</t>
+          <t>གིས་</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
+          <t>Hopkins 2015
+(as instrumental particle) by; by means of; with; because. (as non-case particle corruptly used in place of the non-case usage of genitive particles) but; and; (semi-colon)</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱིས་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="208" ht="50" customHeight="1">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>ཀྱི་ཡོད་མ་རེད</t>
+          <t>མཐོང་</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+to see; to perceive</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་འབྲེལ་ལས་ཚིག༽ ༡་མི་ག་གིས་རིག་པ་སྟེ། མིག་གིས་མངོན་སུམ་དུ་མཐོང་། མཐོང་རྒྱ་ཆེ་བའི་མི་ཞེས་པ་ལྟ་བུ། ༢.མྱོང་བ་སྟེ། སྡུག་བསྔལ་མཐོང་། སྡུག་མཐོང་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="209" ht="50" customHeight="1">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ཐུབ་</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="210" ht="50" customHeight="1">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>ཁ་ལག་</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-food</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཁ་དང་ལག་པའི་ཚིག་བསྡུས་པ་སྟེ། ཁ་ལག་དམ་མེད་དུ་བྱ་བ་བྱས་ལྟ་བུ། ༢.ལྷ་སའི་གྲོང་ཁྱེར་གྱི་ཕལ་སྐད་དུ་ཟས་ཐུན་ལ་ཁ་ལག་ཟེར་སྲོལ་ཡོད་པར་བཤད།</t>
+          <t>ཀྱི་ཡོད་མ་རེད</t>
         </is>
       </c>
     </row>
     <row r="211" ht="50" customHeight="1">
       <c r="A211" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="50" customHeight="1">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>ཁ་ལག་</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+food</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཁ་དང་ལག་པའི་ཚིག་བསྡུས་པ་སྟེ། ཁ་ལག་དམ་མེད་དུ་བྱ་བ་བྱས་ལྟ་བུ། ༢.ལྷ་སའི་གྲོང་ཁྱེར་གྱི་ཕལ་སྐད་དུ་ཟས་ཐུན་ལ་ཁ་ལག་ཟེར་སྲོལ་ཡོད་པར་བཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="50" customHeight="1">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
           <t>རྒྱགས་</t>
         </is>
       </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>Hackett
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>Hackett Def. 2015
 (PH) haughtiness</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 བཟའ་བཅའི་རིགས། ལམ་རྒྱགས། ཕུགས་རྒྱགས། དབྱར་རྒྱད། དགུན་རྒྱགས། འཚོ་བའི་རྒྱད། རྒྱགས་རང་འཁུར། རྡོག་ཐོན་གོང་ནས་བཟའ་བཅའི་གྲ་སྒྲིག་འཐུས་ཚང་ཞིག་མ་བྱས་ན་ལམ་རྒྱགས་འཆད་ཡོང།</t>
         </is>
       </c>
     </row>
-    <row r="212" ht="50" customHeight="1">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>ཚད་</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-size; measure</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ལས་ཚིག་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ཚད་གྲངས་ངེས་ཅན་གྱི་མིང་སྟེ། འཐུང་ཚད། ཟ་ཚད། རྒྱུག་ཚད་ཅེས་པ་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་གཅིག་ཀྱང་མ་ལུས་པའི་དོན་ཏེ། ཆེ་ཕྱུགས་ཡོད་ཚད་ལ་འགོག་སྨན་བརྒྱབ་ལྟ་བུ། ༣.ཚད་གཞིའི་མིང་སྟེ། གཟུགས་ཁྲུ་ཚད་ལོངས། རིང་ཚད་ཁྲུ་གསུམ། ཡོན་ཚད་ཧ་ཅང་མཐོ། འཕྲུལ་འཁོར་གྱི་ལྷུ་ཚད་ལྡན་ཞེས་པ་ལྟ་བུ། ༤.ཚད་པ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༥.ཚད་མ་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="213" ht="50" customHeight="1">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>ཟོས་</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-eat [imperfect stem]; food</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཟ་ཡི་འདས་པ། ༢.འཛའ་ཡི་འདས་པ། ༣.ཟ་ཡི་འདས་པ།</t>
-        </is>
-      </c>
-    </row>
     <row r="214" ht="50" customHeight="1">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>རྗེས་</t>
+          <t>ཚད་</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-after; subsequent to</t>
+          <t>Hopkins 2015
+size; measure</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མི་དང་སྲོག་ཆགས་ཀྱི་རྐང་ལག་ས་ལ་སྤོས་པའི་ཤུལ་གྱི་མིང་སྟེ། མིའི་རྐང་རྗེས། རྟའི་རྨིག་རྗེས། རྗེས་ཤུལ་ཞེས་པ་ལྟ་བུ། ༢.སྔོན་གྱི་ལྡོག་ཟླ་སྟེ། རྗེས་སུ་འབྲངས། རྗེས་ལ་སྙེགས། མི་རབས་རྗེས་མ། དུས་རྗེས་མ། རྗེས་སུ་ལུས་ཞེས་པ་ལྟ་བུ། ༼རྗེས་གྲུབ་ཀྱི་མིང༽ འདོད་རྒྱལ་གྱི་ཐ་སྙད་གཉིས་ཡན་མཉམ་དུ་སྦྱར་ནས་གྲུབ་པའི་ཐ་སྙད་ཀྱི་མིང་སྟེ། དཔེར་ན་ཤིང་ལོ། གྲོ་ཕྱེ། ཤིང་ཁང་ཞེས་པའི་ཐ་སྙད་འདི་རྣམས་ནི་རྗེས་གྲུབ་ཀྱི་ཐ་སྙད་ཡིན་ཞིང་། ཤིང་། གྲོ་ཁང་བ་ཞེས་པ་སོགས་ནི་འདོད་རྒྱལ་གྱི་ཐ་སྙད་ཡིན་པ་ལྟ་བུ། ༼རྗེས་དྲན༽ མི་དང་བྱ་བ་སོགས་རྗེས་སུ་དྲན་པའི་བྱ་བའི་མིང་སྟེ། དཔའ་བོ་ལ་རྗེས་དྲན་བྱེད་པ། རྗེས་དྲན་རྡོ་རིང་། རྗེས་དྲན་ཚོགས་འདུ་ཞེས་པ་ལྟ་བུ། ༼རྗེས་དཔག༽ རྟགས་མཐོང་ཞིང་འབྲེལ་བ་ངེས་པའི་རྗེས་སུ་སྒྲུབ་བྱ་དཔོག་པའམ་གཞལ་བྱ་ལྐོག་གྱུར་འཇལ་བ་སྟེ། དུ་བ་དང་ཆུ་སྐྱར་གྱི་རྟགས་ལས་མེ་དང་ཆུ་ཡོད་པར་དཔོག་པ་ལྟ་བུའོ། ། ༼རྗེས་འཇུག་གི་ཡི་གེ༽ བོད་ཡིག་ག་ང་ད་ན་བ་མ་འ་ར་ལ་ས་བཅུའི་སྤྱི་མིང་། ༣.བརྗེ་ཡི་སྐུལ་ཚིག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལས་ཚིག་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ཚད་གྲངས་ངེས་ཅན་གྱི་མིང་སྟེ། འཐུང་ཚད། ཟ་ཚད། རྒྱུག་ཚད་ཅེས་པ་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་གཅིག་ཀྱང་མ་ལུས་པའི་དོན་ཏེ། ཆེ་ཕྱུགས་ཡོད་ཚད་ལ་འགོག་སྨན་བརྒྱབ་ལྟ་བུ། ༣.ཚད་གཞིའི་མིང་སྟེ། གཟུགས་ཁྲུ་ཚད་ལོངས། རིང་ཚད་ཁྲུ་གསུམ། ཡོན་ཚད་ཧ་ཅང་མཐོ། འཕྲུལ་འཁོར་གྱི་ལྷུ་ཚད་ལྡན་ཞེས་པ་ལྟ་བུ། ༤.ཚད་པ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༥.ཚད་མ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="215" ht="50" customHeight="1">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>གཉིད་ཁུག་</t>
+          <t>ཟོས་</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>Valby
-to fall asleep</t>
+          <t>Hopkins 2015
+eat [imperfect stem]; food</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཟ་ཡི་འདས་པ། ༢.འཛའ་ཡི་འདས་པ། ༣.ཟ་ཡི་འདས་པ།</t>
         </is>
       </c>
     </row>
     <row r="216" ht="50" customHeight="1">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>གི་ཡོད་རེད</t>
+          <t>རྗེས་</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+after; subsequent to</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མི་དང་སྲོག་ཆགས་ཀྱི་རྐང་ལག་ས་ལ་སྤོས་པའི་ཤུལ་གྱི་མིང་སྟེ། མིའི་རྐང་རྗེས། རྟའི་རྨིག་རྗེས། རྗེས་ཤུལ་ཞེས་པ་ལྟ་བུ། ༢.སྔོན་གྱི་ལྡོག་ཟླ་སྟེ། རྗེས་སུ་འབྲངས། རྗེས་ལ་སྙེགས། མི་རབས་རྗེས་མ། དུས་རྗེས་མ། རྗེས་སུ་ལུས་ཞེས་པ་ལྟ་བུ། ༼རྗེས་གྲུབ་ཀྱི་མིང༽ འདོད་རྒྱལ་གྱི་ཐ་སྙད་གཉིས་ཡན་མཉམ་དུ་སྦྱར་ནས་གྲུབ་པའི་ཐ་སྙད་ཀྱི་མིང་སྟེ། དཔེར་ན་ཤིང་ལོ། གྲོ་ཕྱེ། ཤིང་ཁང་ཞེས་པའི་ཐ་སྙད་འདི་རྣམས་ནི་རྗེས་གྲུབ་ཀྱི་ཐ་སྙད་ཡིན་ཞིང་། ཤིང་། གྲོ་ཁང་བ་ཞེས་པ་སོགས་ནི་འདོད་རྒྱལ་གྱི་ཐ་སྙད་ཡིན་པ་ལྟ་བུ། ༼རྗེས་དྲན༽ མི་དང་བྱ་བ་སོགས་རྗེས་སུ་དྲན་པའི་བྱ་བའི་མིང་སྟེ། དཔའ་བོ་ལ་རྗེས་དྲན་བྱེད་པ། རྗེས་དྲན་རྡོ་རིང་། རྗེས་དྲན་ཚོགས་འདུ་ཞེས་པ་ལྟ་བུ། ༼རྗེས་དཔག༽ རྟགས་མཐོང་ཞིང་འབྲེལ་བ་ངེས་པའི་རྗེས་སུ་སྒྲུབ་བྱ་དཔོག་པའམ་གཞལ་བྱ་ལྐོག་གྱུར་འཇལ་བ་སྟེ། དུ་བ་དང་ཆུ་སྐྱར་གྱི་རྟགས་ལས་མེ་དང་ཆུ་ཡོད་པར་དཔོག་པ་ལྟ་བུའོ། ། ༼རྗེས་འཇུག་གི་ཡི་གེ༽ བོད་ཡིག་ག་ང་ད་ན་བ་མ་འ་ར་ལ་ས་བཅུའི་སྤྱི་མིང་། ༣.བརྗེ་ཡི་སྐུལ་ཚིག</t>
         </is>
       </c>
     </row>
     <row r="217" ht="50" customHeight="1">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>གཉིད་</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>Gaeng, Wetzel
+sleepiness\nSanskrit: middham\nPali: middham</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཀླད་ཆེན་གྱི་པགས་རིམ་ངལ་གསོ་བའི་ངང་ལ་གནས་པའི་རྣམ་འགྱུར་གྱི་མིང་སྟེ། གཉིད་ལོག་ནས་རྨི་ལམ་རྨིས། གཉིད་སད། གཉིད་སངས། གཉིད་འབབ། གཉིད་བབས། གཉིད་ཡེར། གཉིད་མཐུག་པོ་ལོག་གཉིད་དུ་ཡུར་ལྟ་བུ། ༢.བྱེད་མེད་ལས་ཚིག་གཉིད་འབབ་པ་སྟེ། གཉིད་རྒྱུ་རེད། གཉིད་ཀྱིན་འདུག་གཉིད་སོང་སོགས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="218" ht="50" customHeight="1">
       <c r="A218" s="1" t="inlineStr">
         <is>
+          <t>ཁུག་</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+1) ['Gugs pa!] [past: 'gugs] be drawn/_attracted, seduce, bow!; 2) solitary place; 3) nook, corner, ཁོ་སིམ་བུ, creek, inlet, bay, gulf</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་འབྲེལ་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བ༽ ཚོང་རྫས་སོགས་ཉོ་བྱེད་ཀྱི་དངུལ་འདང་བའི་དོན་ཏེ། སྒོར་མོ་གཅིག་གིས་ཀ་ར་རྒྱ་མ་གང་ཁུག་ལྟ་བུ། ༼ཁུགས༽ ནི་འདས་པ་སྟེ། སྒོར་མོ་སུམ་ཅུས་ལྭ་བ་ཆ་ཚང་ཞིག་ཁུགས་ནས་ད་དུང་ལྷག་མ་ཡོད་ལྟ་བུ། ༢.བཀུག་གི་སྐུལ་ཚིག ༣་ཁུག་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.ཁུགས་ལ་ལྟོས།</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="50" customHeight="1">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>གི་ཡོད་རེད</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="50" customHeight="1">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="221" ht="50" customHeight="1">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="219" ht="50" customHeight="1">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>དེ་</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
-        </is>
-      </c>
-      <c r="C219" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="220" ht="50" customHeight="1">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>འཚོལ་</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-seek; seek out; investigate; examine; research; look for</t>
-        </is>
-      </c>
-      <c r="C220" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་བཙལ་ལ་ལྟོས། ༢.འཚལ་གྱི་སྐུལ་ཚིག</t>
-        </is>
-      </c>
-    </row>
-    <row r="221" ht="50" customHeight="1">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>དུ་</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-accusative, adverbial accusative, dative, and locative particle: to; in; as; -ly; at; many; plural</t>
-        </is>
-      </c>
-      <c r="C221" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་གྲངས་ཅི་ཙམ་གྱི་དོན་དྲིས་པ་སྟེ། རྟ་དུ་ཡོད། ལུག་དུ་འཚོས། མི་དུ་འོངས་ལྟ་བུ་། ༢.དུ་བ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༣.ལ་དོན་ལ་འཇུག་པ་ནི་ལ་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
     <row r="222" ht="50" customHeight="1">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>འགྲོ་</t>
+          <t>དེ་</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-verb: go; become; serve (as in "serving as vitality and exertion"); act\n noun: transmigrator; goer</t>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༼བྱེད་མེད་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བ༽ ༡་རྐང་པ་སྤོས་ནས་ཕར་སྐྱོད་པའི་དོན་ཏེ། མགྱོགས་པར་འགྲོ། ལམ་ལ་འགྲོ་ལྟ་བུ། ༼སོང༽ ནི་འདས་པ་དང་སྐུལ་ཚིག་སྟེ། སོང་ནས་ཡུལ་དུ་བསླེབས། སོང་ཞིག་ལྟ་བུ། ༢.རང་གནས་དང་བྲལ་ནས་ཡུལ་གཞན་ལ་ཕྱིན་པའི་དོན་ཏེ། ང་བཟོ་གྲྭ་ལ་འགྲོ་དགོས། བྱིས་པ་སློབ་གྲྭ་ར་སོང་ལྟ་བུ། ༣.འགྱུར་བའི་དོན་ཏེ། དཔལ་འབྱོར་གོང་འཕེལ་དུ་འགྲོ་བཞིན་ཡོད། ཕྱུགས་ཟོག་ཇེ་མང་དུ་སོང་ལྟ་བུ། ༤.ཤོར་བའི་དོན་ཏེ། མི་དམངས་ཀྱི་དོན་དུ་སྲོག་སོང་ཡང་འགྱོད་པ་མེད་ལྟ་བུ། ༼འགྲོ་བ༽ ཕྱིན་པ་དང་འགྲོ་བ་སོང་བ་སོགས་དང་སེམས་ཅན་ལ་གོ</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="223" ht="50" customHeight="1">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>ཤེས་</t>
+          <t>འཚོལ་</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-to know; cognition; consciousness (=shes pa); knowledge; quote indicator (=shes bya ba) [follows question; see also zhes and ces]</t>
+          <t>Hopkins 2015
+seek; seek out; investigate; examine; research; look for</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༼བྱེད་འབྲེལ་ལས་ཚིག༽ ༡་ཁྱད་པར་འབྱེད་ཐུབ་པ་དང་ཁོང་དུ་ཆུད་པའི་དོན་ཏེ། བོད་ཡིག་ཤེས། ནམ་མཁའི་བྱའི་ཕོ་མོ་མི་ཤེས་ཀྱང་། མགོ་ནག་མིའི་རྣམ་འགྱུར་ལོས་ཤེས། རླངས་འཁོར་གཏོང་ཤེས། བྱིས་པས་སྐད་ཆ་བཤད་ཤེས། ཕྱུགས་འཚོ་ཤེས་ལྟ་བུ། ༼ཤེས་རྒྱ༽ ཡོན་ཏན་ཁོང་དུ་ཆུད་པའི་ཚད་ཀྱི་མིང་སྟེ། ཤེས་རྒྱ་ཆེ་བ། སློབ་སྦྱོང་བྱས་ནས་ཤེས་རྒྱ་བསྐྱེད་ལྟ་བུ། ༢.སེམས་ཀྱི་འཁྱེར་སོའི་མིང་སྟེ། ལུས་ཆུང་ཡང་ཤེས་རྒྱ་ཆེ། སྨན་བུ་མོ་ཤེས་རྒྱ་ཅན་ཞེས་པ་ལྟ་བུ། ༼ཤེས་སྒོ༽ ཡོན་ཏན་ནམ་ཤེས་ཡོན་གྱི་མིང་སྟེ། ཤེས་སྒོ་མང་ཡང་ལེགས་པར་ཤེས་པ་དཀོན། ཤེས་སྒོ་གཅིག་ལ་མཁས་ན་མཁས་པ་ཡིན་ལྟ་བུ། ༼ཤེས་བྱ༽ ༼༡༽ བསླབ་བྱའི་ཡོན་ཏན་དང་རིག་པའི་གནས་ཐམས་ཅད་ཀྱི་སྤྱི་མིང་སྟེ། རང་བློ་ཤེས་བྱའི་གནས་ལ་མ་སྦྱངས་ན། མཁས་པའི་གོ་འཕང་ནམ་མཁའི་མཐའ་ལྟར་རིང་ལྟ་བུ། ༼༢༽ ཆོས་མངོན་པར་བཤད་པའི་ཤེས་བྱ་སྟེ། བྱ་དངོས་ཐམས་ཅད་ཤེས་ཐུབ་པ་ཡིན་པས་ཤེས་བྱ་ཟེར། ༢.མྱོང་ཚོར་ཡོད་པ་སྟེ། ལུས་སྦྲིད་ནས་ཟུག་གཟེར་མི་ཤེས། ལྕེ་སྦྲིད་ནས་བྲོ་བ་ཤེས་དཀའ་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་བཙལ་ལ་ལྟོས། ༢.འཚལ་གྱི་སྐུལ་ཚིག</t>
         </is>
       </c>
     </row>
     <row r="224" ht="50" customHeight="1">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>ཀྱི་མེད་པ་</t>
+          <t>དུ་</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+accusative, adverbial accusative, dative, and locative particle: to; in; as; -ly; at; many; plural</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་གྲངས་ཅི་ཙམ་གྱི་དོན་དྲིས་པ་སྟེ། རྟ་དུ་ཡོད། ལུག་དུ་འཚོས། མི་དུ་འོངས་ལྟ་བུ་། ༢.དུ་བ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༣.ལ་དོན་ལ་འཇུག་པ་ནི་ལ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="225" ht="50" customHeight="1">
       <c r="A225" s="1" t="inlineStr">
         <is>
+          <t>འགྲོ་</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+verb: go; become; serve (as in "serving as vitality and exertion"); act\n noun: transmigrator; goer</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་མེད་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བ༽ ༡་རྐང་པ་སྤོས་ནས་ཕར་སྐྱོད་པའི་དོན་ཏེ། མགྱོགས་པར་འགྲོ། ལམ་ལ་འགྲོ་ལྟ་བུ། ༼སོང༽ ནི་འདས་པ་དང་སྐུལ་ཚིག་སྟེ། སོང་ནས་ཡུལ་དུ་བསླེབས། སོང་ཞིག་ལྟ་བུ། ༢.རང་གནས་དང་བྲལ་ནས་ཡུལ་གཞན་ལ་ཕྱིན་པའི་དོན་ཏེ། ང་བཟོ་གྲྭ་ལ་འགྲོ་དགོས། བྱིས་པ་སློབ་གྲྭ་ར་སོང་ལྟ་བུ། ༣.འགྱུར་བའི་དོན་ཏེ། དཔལ་འབྱོར་གོང་འཕེལ་དུ་འགྲོ་བཞིན་ཡོད། ཕྱུགས་ཟོག་ཇེ་མང་དུ་སོང་ལྟ་བུ། ༤.ཤོར་བའི་དོན་ཏེ། མི་དམངས་ཀྱི་དོན་དུ་སྲོག་སོང་ཡང་འགྱོད་པ་མེད་ལྟ་བུ། ༼འགྲོ་བ༽ ཕྱིན་པ་དང་འགྲོ་བ་སོང་བ་སོགས་དང་སེམས་ཅན་ལ་གོ</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="50" customHeight="1">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>ཤེས་</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+to know; cognition; consciousness (=shes pa); knowledge; quote indicator (=shes bya ba) [follows question; see also zhes and ces]</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་འབྲེལ་ལས་ཚིག༽ ༡་ཁྱད་པར་འབྱེད་ཐུབ་པ་དང་ཁོང་དུ་ཆུད་པའི་དོན་ཏེ། བོད་ཡིག་ཤེས། ནམ་མཁའི་བྱའི་ཕོ་མོ་མི་ཤེས་ཀྱང་། མགོ་ནག་མིའི་རྣམ་འགྱུར་ལོས་ཤེས། རླངས་འཁོར་གཏོང་ཤེས། བྱིས་པས་སྐད་ཆ་བཤད་ཤེས། ཕྱུགས་འཚོ་ཤེས་ལྟ་བུ། ༼ཤེས་རྒྱ༽ ཡོན་ཏན་ཁོང་དུ་ཆུད་པའི་ཚད་ཀྱི་མིང་སྟེ། ཤེས་རྒྱ་ཆེ་བ། སློབ་སྦྱོང་བྱས་ནས་ཤེས་རྒྱ་བསྐྱེད་ལྟ་བུ། ༢.སེམས་ཀྱི་འཁྱེར་སོའི་མིང་སྟེ། ལུས་ཆུང་ཡང་ཤེས་རྒྱ་ཆེ། སྨན་བུ་མོ་ཤེས་རྒྱ་ཅན་ཞེས་པ་ལྟ་བུ། ༼ཤེས་སྒོ༽ ཡོན་ཏན་ནམ་ཤེས་ཡོན་གྱི་མིང་སྟེ། ཤེས་སྒོ་མང་ཡང་ལེགས་པར་ཤེས་པ་དཀོན། ཤེས་སྒོ་གཅིག་ལ་མཁས་ན་མཁས་པ་ཡིན་ལྟ་བུ། ༼ཤེས་བྱ༽ ༼༡༽ བསླབ་བྱའི་ཡོན་ཏན་དང་རིག་པའི་གནས་ཐམས་ཅད་ཀྱི་སྤྱི་མིང་སྟེ། རང་བློ་ཤེས་བྱའི་གནས་ལ་མ་སྦྱངས་ན། མཁས་པའི་གོ་འཕང་ནམ་མཁའི་མཐའ་ལྟར་རིང་ལྟ་བུ། ༼༢༽ ཆོས་མངོན་པར་བཤད་པའི་ཤེས་བྱ་སྟེ། བྱ་དངོས་ཐམས་ཅད་ཤེས་ཐུབ་པ་ཡིན་པས་ཤེས་བྱ་ཟེར། ༢.མྱོང་ཚོར་ཡོད་པ་སྟེ། ལུས་སྦྲིད་ནས་ཟུག་གཟེར་མི་ཤེས། ལྕེ་སྦྲིད་ནས་བྲོ་བ་ཤེས་དཀའ་ཞེས་པ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="50" customHeight="1">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>ཀྱི་མེད་པ་</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="50" customHeight="1">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
           <t>མ་ཟད</t>
         </is>
       </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 [not-exhausted]; not only; not just; not cut (off)</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 མ་རྫོགས་སམ་མ་ཚད། སྔ་དུས་ཞིང་པ་དབུལ་ཕོངས་ལ་ལར་ས་ཞིང་གཏན་ནས་མེད་པར་མ་ཟད། ཞིང་ལས་ཡོ་བྱད་ཆ་ལག་ཚང་བ་ཞིག་ཀྱང་མེད།</t>
         </is>
       </c>
     </row>
-    <row r="226" ht="50" customHeight="1">
-      <c r="A226" s="1" t="inlineStr">
+    <row r="229" ht="50" customHeight="1">
+      <c r="A229" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
-    <row r="227" ht="50" customHeight="1">
-      <c r="A227" s="1" t="inlineStr">
+    <row r="230" ht="50" customHeight="1">
+      <c r="A230" s="1" t="inlineStr">
         <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="228" ht="50" customHeight="1">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>དེ་</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="229" ht="50" customHeight="1">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>ག་པ</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>84000
-Citrā</t>
-        </is>
-      </c>
-    </row>
-    <row r="230" ht="50" customHeight="1">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>ར་</t>
-        </is>
-      </c>
-    </row>
     <row r="231" ht="50" customHeight="1">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>ཡོད་</t>
+          <t>དེ་</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-exist; existence; exists; have</t>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡. ༼ཀ༽ གཏོགས་པ་དང་དབང་བའི་དོན་ཏེ། ང་ལ་ལྕགས་རྟ་གཅིག་ཡོད་ལྟ་བུ། ༼ཁ༽ འཛོམས་པའམ་མང་བའི་དོན་ཏེ། ཞིང་བ་ལ་ཞིང་འདེབས་པའི་ཉམས་མྱོང་ཡོད། ཁོ་ལ་ཡོན་ཏན་ཡོད་ལྟ་བུ། ༼ག༽ གནས་པའི་དོན་ཏེ། ནགས་ན་རི་དྭགས་ཡོད། མཚོ་ན་ཉ་མང་བོ་ཡོད་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་ཚིག་ཐག་བཅད་པའི་དོན་ཏེ། ལག་ལ་མེ་མ་ད་འ་བ་ཟུ་ང་ཡོད། སེམས་ལ་མི་དམངས་བཅངས་ཡོད་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="232" ht="50" customHeight="1">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>མེད་</t>
+          <t>ག་པ</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-does not exist; not exist; not be</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཐ་སྙད་གང་གི་མཐར་སྦྱར་ན་དོན་དང་དངོས་པོ་དེ་མི་གནས་པ་དང་འཇིག་པར་གྱུར་པ་སོགས་ཀྱི་དོན་ཏེ། ནད་མེད་དུག་མེད། འགྱུར་མེད། འཇིགས་མེད། ས་འདིར་ནད་ཡམས་མེད་པར་གྱུར། གར་སོང་ཆ་མེད་དུ་སོང་། མེད་པར་བཏང་། ཟློག་ཏུ་མེད། འགོག་ཏུ་མེད་སོགས་ལྟ་བུ། ༼མེད་པོ༽ མི་དབུལ་བོ་ཞེས་པའི་ཡུལ་སྐད། ༼མེད་དགག༽ དགག་པའི་ནང་གསེས། རང་དངོས་སུ་རྟོགས་པའི་བློའམ་རང་བརྗོད་པའི་སྒྲས་རང་གི་དགག་བྱ་དངོས་སུ་བཅད་ཙམ་གྱིས་རྟོགས་པར་བྱ་བ་གང་ཟག་གི་བདག་མེད་ལྟ་བུ། བདག་བཀག་པའི་ཤུལ་དུ་དོན་གཞན་མི་འཕེན་པའོ། །</t>
+          <t>84000 Dict.
+Citrā</t>
         </is>
       </c>
     </row>
     <row r="233" ht="50" customHeight="1">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>ཀྱང་</t>
-        </is>
-      </c>
-      <c r="B233" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-but; even; also; however; nevertheless; although</t>
-        </is>
-      </c>
-      <c r="C233" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱང་འང་ཡང་གསུམ་ནི་རྒྱན་སྡུད་ཀྱི་ཚིག་ཕྲད་ཡིན་ཞིང་། འཇུག་ཚུལ་ནི་ག་ད་བ་ད་དྲག་ཀྱང་། ང་ན་མ་ར་ལ་མཐར་ཡང་། འ་དང་མཐའ་རྟེན་མེད་མཐར་འང་། རྐང་བ་སྐོང་ཚེ་ཡང་འཐོབ་བོ་ཞེས་པ་ལྟར་ཡིན། ༡.མིང་ཚིག་དང་རྒྱན་ཚིག་གི་བར་ལ་སྦྱར་ན་ཁྱད་ཆོས་སྔ་མའི་སྟེང་དུ་ཕྱི་མ་དེ་ཡང་ཚང་བའི་དོན་ཏེ། རྟ་བོ་འདི་གཟུགས་ཀྱང་ཆེ་ལ་འགྲོས་ཀྱང་མགྱོགས། ལུག་ཀྱང་ཆེ་ལ་བལ་ཡང་བཟང་ལྟ་བུ། ༢.མིང་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱ་བ་སྔ་ཕྱི་གཉིས་ཀ་འདྲ་བའི་དོན་ཏེ། རྩིས་རིག་ཀྱང་བསླབས་ཤིང་སྐད་ཡིག་ཀྱང་སྦྱངས་ལྟ་བུ། ༣.རྒྱན་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཡག་ཀྱང་ཡག་ལ་སྤུས་ཀྱང་ལེགས་ལྟ་བུ། ༼ཁ༽ མི་མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི། མདོག་ཡག་ཀྱང་སྤུས་ཀ་དམན་ལྟ་བུ། ༤.ལས་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མི་མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་མྱངས་ཀྱང་སེམས་མི་སྡུག་དགྲ་མང་སླེབས་ཀྱང་དཔའ་མི་ཞུམ་ལྟ་བུ། ༼ཁ༽ མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་ཀྱང་མྱངས་ལ་གྲུབ་འབྲས་ཀྱང་ཆེན་པོ་ཐོབ་ལྟ་བུ།</t>
+          <t>ར་</t>
         </is>
       </c>
     </row>
     <row r="234" ht="50" customHeight="1">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>ཤེས་</t>
+          <t>ཡོད་</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-to know; cognition; consciousness (=shes pa); knowledge; quote indicator (=shes bya ba) [follows question; see also zhes and ces]</t>
+          <t>Hopkins 2015
+exist; existence; exists; have</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༼བྱེད་འབྲེལ་ལས་ཚིག༽ ༡་ཁྱད་པར་འབྱེད་ཐུབ་པ་དང་ཁོང་དུ་ཆུད་པའི་དོན་ཏེ། བོད་ཡིག་ཤེས། ནམ་མཁའི་བྱའི་ཕོ་མོ་མི་ཤེས་ཀྱང་། མགོ་ནག་མིའི་རྣམ་འགྱུར་ལོས་ཤེས། རླངས་འཁོར་གཏོང་ཤེས། བྱིས་པས་སྐད་ཆ་བཤད་ཤེས། ཕྱུགས་འཚོ་ཤེས་ལྟ་བུ། ༼ཤེས་རྒྱ༽ ཡོན་ཏན་ཁོང་དུ་ཆུད་པའི་ཚད་ཀྱི་མིང་སྟེ། ཤེས་རྒྱ་ཆེ་བ། སློབ་སྦྱོང་བྱས་ནས་ཤེས་རྒྱ་བསྐྱེད་ལྟ་བུ། ༢.སེམས་ཀྱི་འཁྱེར་སོའི་མིང་སྟེ། ལུས་ཆུང་ཡང་ཤེས་རྒྱ་ཆེ། སྨན་བུ་མོ་ཤེས་རྒྱ་ཅན་ཞེས་པ་ལྟ་བུ། ༼ཤེས་སྒོ༽ ཡོན་ཏན་ནམ་ཤེས་ཡོན་གྱི་མིང་སྟེ། ཤེས་སྒོ་མང་ཡང་ལེགས་པར་ཤེས་པ་དཀོན། ཤེས་སྒོ་གཅིག་ལ་མཁས་ན་མཁས་པ་ཡིན་ལྟ་བུ། ༼ཤེས་བྱ༽ ༼༡༽ བསླབ་བྱའི་ཡོན་ཏན་དང་རིག་པའི་གནས་ཐམས་ཅད་ཀྱི་སྤྱི་མིང་སྟེ། རང་བློ་ཤེས་བྱའི་གནས་ལ་མ་སྦྱངས་ན། མཁས་པའི་གོ་འཕང་ནམ་མཁའི་མཐའ་ལྟར་རིང་ལྟ་བུ། ༼༢༽ ཆོས་མངོན་པར་བཤད་པའི་ཤེས་བྱ་སྟེ། བྱ་དངོས་ཐམས་ཅད་ཤེས་ཐུབ་པ་ཡིན་པས་ཤེས་བྱ་ཟེར། ༢.མྱོང་ཚོར་ཡོད་པ་སྟེ། ལུས་སྦྲིད་ནས་ཟུག་གཟེར་མི་ཤེས། ལྕེ་སྦྲིད་ནས་བྲོ་བ་ཤེས་དཀའ་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼ཀ༽ གཏོགས་པ་དང་དབང་བའི་དོན་ཏེ། ང་ལ་ལྕགས་རྟ་གཅིག་ཡོད་ལྟ་བུ། ༼ཁ༽ འཛོམས་པའམ་མང་བའི་དོན་ཏེ། ཞིང་བ་ལ་ཞིང་འདེབས་པའི་ཉམས་མྱོང་ཡོད། ཁོ་ལ་ཡོན་ཏན་ཡོད་ལྟ་བུ། ༼ག༽ གནས་པའི་དོན་ཏེ། ནགས་ན་རི་དྭགས་ཡོད། མཚོ་ན་ཉ་མང་བོ་ཡོད་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་ཚིག་ཐག་བཅད་པའི་དོན་ཏེ། ལག་ལ་མེ་མ་ད་འ་བ་ཟུ་ང་ཡོད། སེམས་ལ་མི་དམངས་བཅངས་ཡོད་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="235" ht="50" customHeight="1">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>ཀྱི་ཡོད་མ་རེད</t>
+          <t>མེད་</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+does not exist; not exist; not be</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཐ་སྙད་གང་གི་མཐར་སྦྱར་ན་དོན་དང་དངོས་པོ་དེ་མི་གནས་པ་དང་འཇིག་པར་གྱུར་པ་སོགས་ཀྱི་དོན་ཏེ། ནད་མེད་དུག་མེད། འགྱུར་མེད། འཇིགས་མེད། ས་འདིར་ནད་ཡམས་མེད་པར་གྱུར། གར་སོང་ཆ་མེད་དུ་སོང་། མེད་པར་བཏང་། ཟློག་ཏུ་མེད། འགོག་ཏུ་མེད་སོགས་ལྟ་བུ། ༼མེད་པོ༽ མི་དབུལ་བོ་ཞེས་པའི་ཡུལ་སྐད། ༼མེད་དགག༽ དགག་པའི་ནང་གསེས། རང་དངོས་སུ་རྟོགས་པའི་བློའམ་རང་བརྗོད་པའི་སྒྲས་རང་གི་དགག་བྱ་དངོས་སུ་བཅད་ཙམ་གྱིས་རྟོགས་པར་བྱ་བ་གང་ཟག་གི་བདག་མེད་ལྟ་བུ། བདག་བཀག་པའི་ཤུལ་དུ་དོན་གཞན་མི་འཕེན་པའོ། །</t>
         </is>
       </c>
     </row>
     <row r="236" ht="50" customHeight="1">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ཀྱང་</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+but; even; also; however; nevertheless; although</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱང་འང་ཡང་གསུམ་ནི་རྒྱན་སྡུད་ཀྱི་ཚིག་ཕྲད་ཡིན་ཞིང་། འཇུག་ཚུལ་ནི་ག་ད་བ་ད་དྲག་ཀྱང་། ང་ན་མ་ར་ལ་མཐར་ཡང་། འ་དང་མཐའ་རྟེན་མེད་མཐར་འང་། རྐང་བ་སྐོང་ཚེ་ཡང་འཐོབ་བོ་ཞེས་པ་ལྟར་ཡིན། ༡.མིང་ཚིག་དང་རྒྱན་ཚིག་གི་བར་ལ་སྦྱར་ན་ཁྱད་ཆོས་སྔ་མའི་སྟེང་དུ་ཕྱི་མ་དེ་ཡང་ཚང་བའི་དོན་ཏེ། རྟ་བོ་འདི་གཟུགས་ཀྱང་ཆེ་ལ་འགྲོས་ཀྱང་མགྱོགས། ལུག་ཀྱང་ཆེ་ལ་བལ་ཡང་བཟང་ལྟ་བུ། ༢.མིང་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱ་བ་སྔ་ཕྱི་གཉིས་ཀ་འདྲ་བའི་དོན་ཏེ། རྩིས་རིག་ཀྱང་བསླབས་ཤིང་སྐད་ཡིག་ཀྱང་སྦྱངས་ལྟ་བུ། ༣.རྒྱན་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཡག་ཀྱང་ཡག་ལ་སྤུས་ཀྱང་ལེགས་ལྟ་བུ། ༼ཁ༽ མི་མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི། མདོག་ཡག་ཀྱང་སྤུས་ཀ་དམན་ལྟ་བུ། ༤.ལས་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མི་མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་མྱངས་ཀྱང་སེམས་མི་སྡུག་དགྲ་མང་སླེབས་ཀྱང་དཔའ་མི་ཞུམ་ལྟ་བུ། ༼ཁ༽ མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་ཀྱང་མྱངས་ལ་གྲུབ་འབྲས་ཀྱང་ཆེན་པོ་ཐོབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="237" ht="50" customHeight="1">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>རུས་སྦལ་</t>
+          <t>ཤེས་</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
+          <t>Hopkins 2015
+to know; cognition; consciousness (=shes pa); knowledge; quote indicator (=shes bya ba) [follows question; see also zhes and ces]</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་འབྲེལ་ལས་ཚིག༽ ༡་ཁྱད་པར་འབྱེད་ཐུབ་པ་དང་ཁོང་དུ་ཆུད་པའི་དོན་ཏེ། བོད་ཡིག་ཤེས། ནམ་མཁའི་བྱའི་ཕོ་མོ་མི་ཤེས་ཀྱང་། མགོ་ནག་མིའི་རྣམ་འགྱུར་ལོས་ཤེས། རླངས་འཁོར་གཏོང་ཤེས། བྱིས་པས་སྐད་ཆ་བཤད་ཤེས། ཕྱུགས་འཚོ་ཤེས་ལྟ་བུ། ༼ཤེས་རྒྱ༽ ཡོན་ཏན་ཁོང་དུ་ཆུད་པའི་ཚད་ཀྱི་མིང་སྟེ། ཤེས་རྒྱ་ཆེ་བ། སློབ་སྦྱོང་བྱས་ནས་ཤེས་རྒྱ་བསྐྱེད་ལྟ་བུ། ༢.སེམས་ཀྱི་འཁྱེར་སོའི་མིང་སྟེ། ལུས་ཆུང་ཡང་ཤེས་རྒྱ་ཆེ། སྨན་བུ་མོ་ཤེས་རྒྱ་ཅན་ཞེས་པ་ལྟ་བུ། ༼ཤེས་སྒོ༽ ཡོན་ཏན་ནམ་ཤེས་ཡོན་གྱི་མིང་སྟེ། ཤེས་སྒོ་མང་ཡང་ལེགས་པར་ཤེས་པ་དཀོན། ཤེས་སྒོ་གཅིག་ལ་མཁས་ན་མཁས་པ་ཡིན་ལྟ་བུ། ༼ཤེས་བྱ༽ ༼༡༽ བསླབ་བྱའི་ཡོན་ཏན་དང་རིག་པའི་གནས་ཐམས་ཅད་ཀྱི་སྤྱི་མིང་སྟེ། རང་བློ་ཤེས་བྱའི་གནས་ལ་མ་སྦྱངས་ན། མཁས་པའི་གོ་འཕང་ནམ་མཁའི་མཐའ་ལྟར་རིང་ལྟ་བུ། ༼༢༽ ཆོས་མངོན་པར་བཤད་པའི་ཤེས་བྱ་སྟེ། བྱ་དངོས་ཐམས་ཅད་ཤེས་ཐུབ་པ་ཡིན་པས་ཤེས་བྱ་ཟེར། ༢.མྱོང་ཚོར་ཡོད་པ་སྟེ། ལུས་སྦྲིད་ནས་ཟུག་གཟེར་མི་ཤེས། ལྕེ་སྦྲིད་ནས་བྲོ་བ་ཤེས་དཀའ་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="238" ht="50" customHeight="1">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>དེ་</t>
-        </is>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
+          <t>ཀྱི་ཡོད་མ་རེད</t>
         </is>
       </c>
     </row>
     <row r="239" ht="50" customHeight="1">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>ལོ་</t>
-        </is>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-year; [particle indicating the end of a statement]; leaf; petal (=lo ma)</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཡུན་ཚད་ཀྱི་སྡེ་ཚན་ཏེ། སའི་གོ་ལས་ཉི་མར་སྐོར་བ་གཅིག་ལོངས་པའི་ཡུན་ཚད་ནི་ལོ་གཅིག་ཡིན། ལོ་གཅིག་ལ་ཟླ་བ་བཅུ་གཉིས་ཡོད། ལུགས་གསར་གྱི་ཟླ་བ་གཅིག་ལ་ཉིན་སུམ་ཅུའམ་སོ་གཅིག་ཡིན། ཟླ་བ་གཉིས་ལ་ཉིན་ཉེར་བརྒྱད་དང་ཉེར་དགུ་ཡིན། ཟླ་ཤོལ་ལམ་ཟླ་ལྷག་ཡོད་པའི་ལོ་ལ་ལོ་གཅིག་ནི་ཟླ་བ་བཅུ་གསུམ་ཡིན། ལུགས་གསར་ལ་རྒྱུན་ལྡན་གྱི་ལོ་གཅིག་ལ་ཉིན་ཞག་སུམ་བརྒྱ་རེ་ལྔ་དང་ཤོལ་ལོ་ལ་ཉིན་ཞག་སུམ་བ་རྒྱ་རེ་དྲུག་ཏུ་གཏན་ཁེལ་བྱས་ཡོད། ༼ལོ་སྐོར་བཅུ་གཉིས༽ ལུགས་རྙིང་གི་ལོ་ཟླ་ཞག་དུས་སོགས་རྩི་བྱེད་ཀྱི་གྲངས་ཀ་མཚོན་བྱེད་ཅིག་སྟེ། བྱི་བ། གླང། སྟག་ཡོས། འབྲུག་སྦྲུལ། རྟ། ལུག་སྤྲེལ། བྱ། ཁྱི། ཕག་རྣམས་ཡིན། ༼ལོ་རྒན་དྲུག་ཅུ༽ ལོ་སྐོར་བཅུ་གཉིས་ལ། ཤིང་ཕོ་ཤིང་མོ། མེ་ཕོ་མེ་མོ། ས་ཕོ་ས་མོ། ལྕགས་ཕོ་ལྕགས་མོ། ཆུ་ཕོ་ཆུ་མོ་བཅས་སྦྱར་ཏེ། ཤིང་ཕོ་བྱི་བ་ནས་ཆུ་མོ་ཕག་གི་བར་དྲུག་ཅུ་ཡིན། ༼ལོ་རྒྱུས༽ ༼༡༽ མིའི་རིགས་ཀྱི་སྤྱི་ཚོགས་དང་རང་བྱུང་ཁམས་ཀྱི་འདས་ཚར་བའི་སྔོན་བྱུང་གི་བྱ་བ་དང་། སྔོན་བྱུང་གི་ལོ་རྒྱུས་བཀོད་པའི་ཡི་གེ་དང་ལོ་རྒྱུས་ལ་བརྟག་དཔྱད་བྱེད་པའི་ཚན་རིག་གཉིས་ཀྱི་མིང་། ༢.མི་རྣམས་ཀྱི་ངག་རྒྱུན་ལ་གྲགས་པའི་གཏམ་རྒྱུད་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། རྒན་པོས་བྱིས་པ་ལ་ལོ་རྒྱུས་བཤད་ལྟ་བུ། ༣.རྒྱུ་མཚན་ནམ་གནས་ཚུལ་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། ཁོས་ཁོ་རང་གི་ལོ་རྒྱུས་རྣམས་བཤད་པས། ཐམས་ཅད་ཡིད་ཆེས་པར་གྱུར་ཅེས་པ་ལྟ་བུ། ༼ལོ་ཐོ༽ ལི་ཐོ་ཡི་མིང་གཞན། ༼ལོ་རེས༽ ལོ་སྐོར་ཟླ་བ་བཅུ་གཉིས་ལྟར་མིའི་ལོ་གྲངས་རྩི་བྱེད་ཅིག་སྟེ། བྱིས་པ་འདིའི་ལོ་རེས་ཕག་ཡིན། ངའི་ལོ་རེས་ལུག་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ལོ་བ༽ ལོ་རེས་དང་དོན་འདྲ་སྟེ། བུ་སྟག་ལོ་བ་ཞེས་པ་ལྟ་བུ། ༢.མིའི་ན་ཚོད་ཀྱི་མིང་སྟེ། ལོ་གཞོན། ལོ་རྒན་པ། དགུང་ལོ་བགྲེས་པ་ཞེས་པ་ལྟ་བུ། ༣.ལོ་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.རྫོགས་ཚིག་ལ་འཇུག་པ་ནི་གོ་ལ་ལྟོས། ༥.བརྡ་རྙིང་དུ་མ་རང་བའམ་མི་འཐད་པ་སྟོན་པའི་ཚིག་གྲོགས་ལ་འཇུག་སྟེ། ནམ་མཁའ་རྟག་པ་ཡིན་ཞེས་གྲགས་སོ་ལོ། ཡིན་ནོ་ལོ་ཞེས་པ་ལྟ་བུ། ༦.ལོ་ཏོག་གི་མིང་བསྡུས་པ།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="240" ht="50" customHeight="1">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>བརྒྱ་</t>
+          <t>རུས་སྦལ་</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-hundred</t>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་གྲངས་ཀ་སྟེ། བཅུ་ཕྲ་ག་བཅུ་ནི་བརྒྱ་ཡིན། དཔེར་ན། བརྒྱ་ཕྲག་གཅིག་བརྒྱ་ཕྲག་གཉིས། ཉིས་བརྒྱ། སུམ་བརྒྱ་ལྟ་བུ། ༢.མང་ཚིག་ལ་འཇུག་པ་ནི། བརྒྱ་བཤད་སྟོང་བཤད། མཁས་བརྒྱས་འགྲན་གླེང་བྱེད་ལྟ་བུ། ༼བརྒྱ་ཆ་བསྡུར་བ༽ བརྒྱ་ཆའི་ཚད་ཀྱི་སྒོ་ནས་ཁ་གྲངས་གཉིས་ཀྱི་འབྲེལ་བ་མཚོན་ཚུལ་ཞིག་ཡིན་ཞིང་། དཔེར་ན་སློབ་གྲྭ་ཞིག་ན་སློབ་གྲྭ་བ་ལྔ་བཅུ་ཡོད་པའི་ནང་གི་མི་ཉི་ཤུ་བུ་མོ་ཡིན་ན། འཛིན་གྲྭ་དེའི་ནང་གི་བུ་མོའི་ཁ་གྲངས་ཀྱིས་བརྒྱ་ཆའི་ཟིན་ཚད་ནི་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ། ༼བརྒྱ་ཆའི་ཚད༽ ཁ་གྲངས་ཀ་པ་ནི་མ་གྲངས་དང་། ཁ་གྲངས་ཁ་པ་ནི་ཆ་གྲངས་བྱས་ན། ཁ་གྲངས་ཁ་པས་ཟིན་པའི་ཁ་གྲངས་ཀ་པའི་བརྒྱ་ཆའི་གྲངས་ཀ་ནི་བརྒྱ་ཆའི་ཚད་ཡིན། དཔེར་ན་ལྔ་ཆ་གཉིས་ཡི་ཆ་གྲངས་ནི་བརྒྱ་ཆའི་ཚད་ཀྱིས་མཚོན་ན་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ་རེད། ༼བརྒྱ་ཆའི་རྟགས༽ རྟགས་འདི་ལ་ཟེར།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
     </row>
     <row r="241" ht="50" customHeight="1">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>རེ</t>
+          <t>དེ་</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-each; every; single; hope</t>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡. ༼བྱེད་འབྲེལ་ལས་ཚིག༽ དོན་བྱ་ཞིག་འགྲུབ་འདོད་པའམ་ལས་དོན་ཞིག་འབྱུང་འདོད་པ་སྟེ། རང་གིས་ངལ་རྩོལ་བྱས་ན། ཟས་གོས་མི་ལ་རེ་མི་དགོས། སྐོམ་པས་ཆུ་ལ་རེ། ལོ་ཡག་བསྐལ་བཟང་འབྱུང་བར་རེ་ལྟ་བུ། ༢.༼ཀ༽ རྐྱང་བ་འམ་སོ་སོ་བའི་དོན་ཏེ། ཁྱིམ་རེ་ནས་མི་རེ་འོངས། མི་རེའི་ཁ་ནས་གཏམ་རེ་བཤད། ལུག་ཁྱུ་གཅིག་རེ་ལ་ལུག་སུམ་བརྒྱ་རེ་ཡོད་ལྟ་བུ། ༼རེ་རེ་གཉིས་རེ༽ གྲངས་ཀ་ཧ་ཅང་ཉུང་བའི་དོན་ཏེ། མི་མང་ཆེ་བ་ནི་བཟང་བོ་ཡིན། ངན་པ་ནི་རེ་རེ་གཉིས་རེ་ཡིན་ལྟ་བུ། ༼ཁ༽ དྲུག་ཅུའི་མཚོན་བྱེད་དེ། རེ་གཅིག་རེ་དགུ་ཞེས་པ་ལྟ་བུ། ༣.གེ་ལ་ལྟོས། ༤.རེ་བ་ཡི་ཚིག་བསྡུས་པ། ༥.རེའུ་ཞེས་པ་བསྡུས་ནས་བྲིས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="242" ht="50" customHeight="1">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t>ལོ་</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+year; [particle indicating the end of a statement]; leaf; petal (=lo ma)</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཡུན་ཚད་ཀྱི་སྡེ་ཚན་ཏེ། སའི་གོ་ལས་ཉི་མར་སྐོར་བ་གཅིག་ལོངས་པའི་ཡུན་ཚད་ནི་ལོ་གཅིག་ཡིན། ལོ་གཅིག་ལ་ཟླ་བ་བཅུ་གཉིས་ཡོད། ལུགས་གསར་གྱི་ཟླ་བ་གཅིག་ལ་ཉིན་སུམ་ཅུའམ་སོ་གཅིག་ཡིན། ཟླ་བ་གཉིས་ལ་ཉིན་ཉེར་བརྒྱད་དང་ཉེར་དགུ་ཡིན། ཟླ་ཤོལ་ལམ་ཟླ་ལྷག་ཡོད་པའི་ལོ་ལ་ལོ་གཅིག་ནི་ཟླ་བ་བཅུ་གསུམ་ཡིན། ལུགས་གསར་ལ་རྒྱུན་ལྡན་གྱི་ལོ་གཅིག་ལ་ཉིན་ཞག་སུམ་བརྒྱ་རེ་ལྔ་དང་ཤོལ་ལོ་ལ་ཉིན་ཞག་སུམ་བ་རྒྱ་རེ་དྲུག་ཏུ་གཏན་ཁེལ་བྱས་ཡོད། ༼ལོ་སྐོར་བཅུ་གཉིས༽ ལུགས་རྙིང་གི་ལོ་ཟླ་ཞག་དུས་སོགས་རྩི་བྱེད་ཀྱི་གྲངས་ཀ་མཚོན་བྱེད་ཅིག་སྟེ། བྱི་བ། གླང། སྟག་ཡོས། འབྲུག་སྦྲུལ། རྟ། ལུག་སྤྲེལ། བྱ། ཁྱི། ཕག་རྣམས་ཡིན། ༼ལོ་རྒན་དྲུག་ཅུ༽ ལོ་སྐོར་བཅུ་གཉིས་ལ། ཤིང་ཕོ་ཤིང་མོ། མེ་ཕོ་མེ་མོ། ས་ཕོ་ས་མོ། ལྕགས་ཕོ་ལྕགས་མོ། ཆུ་ཕོ་ཆུ་མོ་བཅས་སྦྱར་ཏེ། ཤིང་ཕོ་བྱི་བ་ནས་ཆུ་མོ་ཕག་གི་བར་དྲུག་ཅུ་ཡིན། ༼ལོ་རྒྱུས༽ ༼༡༽ མིའི་རིགས་ཀྱི་སྤྱི་ཚོགས་དང་རང་བྱུང་ཁམས་ཀྱི་འདས་ཚར་བའི་སྔོན་བྱུང་གི་བྱ་བ་དང་། སྔོན་བྱུང་གི་ལོ་རྒྱུས་བཀོད་པའི་ཡི་གེ་དང་ལོ་རྒྱུས་ལ་བརྟག་དཔྱད་བྱེད་པའི་ཚན་རིག་གཉིས་ཀྱི་མིང་། ༢.མི་རྣམས་ཀྱི་ངག་རྒྱུན་ལ་གྲགས་པའི་གཏམ་རྒྱུད་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། རྒན་པོས་བྱིས་པ་ལ་ལོ་རྒྱུས་བཤད་ལྟ་བུ། ༣.རྒྱུ་མཚན་ནམ་གནས་ཚུལ་ལའང་ལོ་རྒྱུས་ཟེར་ཏེ། ཁོས་ཁོ་རང་གི་ལོ་རྒྱུས་རྣམས་བཤད་པས། ཐམས་ཅད་ཡིད་ཆེས་པར་གྱུར་ཅེས་པ་ལྟ་བུ། ༼ལོ་ཐོ༽ ལི་ཐོ་ཡི་མིང་གཞན། ༼ལོ་རེས༽ ལོ་སྐོར་ཟླ་བ་བཅུ་གཉིས་ལྟར་མིའི་ལོ་གྲངས་རྩི་བྱེད་ཅིག་སྟེ། བྱིས་པ་འདིའི་ལོ་རེས་ཕག་ཡིན། ངའི་ལོ་རེས་ལུག་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ལོ་བ༽ ལོ་རེས་དང་དོན་འདྲ་སྟེ། བུ་སྟག་ལོ་བ་ཞེས་པ་ལྟ་བུ། ༢.མིའི་ན་ཚོད་ཀྱི་མིང་སྟེ། ལོ་གཞོན། ལོ་རྒན་པ། དགུང་ལོ་བགྲེས་པ་ཞེས་པ་ལྟ་བུ། ༣.ལོ་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.རྫོགས་ཚིག་ལ་འཇུག་པ་ནི་གོ་ལ་ལྟོས། ༥.བརྡ་རྙིང་དུ་མ་རང་བའམ་མི་འཐད་པ་སྟོན་པའི་ཚིག་གྲོགས་ལ་འཇུག་སྟེ། ནམ་མཁའ་རྟག་པ་ཡིན་ཞེས་གྲགས་སོ་ལོ། ཡིན་ནོ་ལོ་ཞེས་པ་ལྟ་བུ། ༦.ལོ་ཏོག་གི་མིང་བསྡུས་པ།</t>
         </is>
       </c>
     </row>
     <row r="243" ht="50" customHeight="1">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>མཚམས་</t>
+          <t>བརྒྱ་</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-intermediate space; border; juncture; limit; gap between lives; intermediate directions</t>
+          <t>Hopkins 2015
+hundred</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་དངོས་པོ་གཉིས་ཐུག་སའི་བར་གྱི་མིང་སྟེ། ཚིགས་མཚམས་བར་མཚམས། རི་ཐང་གཉིས་ཀྱི་མཚམས་ཞེས་པ་ལྟ་བུ། ༼མཚམས་སྤྲིན༽ ནངས་མོ་ཉི་མ་འཆར་ཁའི་སྤྲིན་དམར་སེར་དང་། དགོང་མོ་ཉི་མ་ནུབ་ནས་ས་རུབ་ཁའི་སྤྲིན་ཚོན་མདོག་ཅན་གྱི་མིང་། ༢.བྱ་སྤྱོད་སོགས་སྔ་ཕྱིའི་འབྲེལ་སའི་མིང་སྟེ། ཚིག་མཚམས། ལས་ཀ་ལས་མཚམས། སློབ་སྦྱོང་མཚམས་མ་བཞག་པར་བྱས་ལྟ་བུ། ༼མཚམས་སྦྱོར༽ ༼༡༽ མི་ཕན་ཚུན་ངོ་སྤྲད་པའི་དོན་ཏེ། ངས་བྱིས་པ་དགེ་རྒན་ལ་མཚམས་སྦྱོར་བྱས་ལྟ་བུ། ༼༢༽ ཚིག་དོན་སོགས་སྔ་ཕྱི་འབྲེལ་བར་བྱས་པའི་དོན་ཏེ། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བྱས་ལྟ་བུ། ༼༣༽ ཕན་ཚུན་ངོ་སྤྲད་པ་དང་ཚིག་སྔ་ཕྱི་སོགས་འབྲེལ་བར་བྱེད་པའི་ལས་ཚིག་ལ་འཇུག་པ་ནི། དགེ་རྒན་མཚམས་སྦྱོར་མཁན། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བྱེད་ཀྱི་ཚིག་ཕྲད། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱར་ཏེ་ཞེས་པ་ལྟ་བུ། ༼མཚམས་ཚིག༽ སྔ་ཕྱིའི་རིམ་པའམ་སྐབས་རིམ་གྱི་མིང་སྟེ། རྟས་རྩྭ་མཚམས་ཚིགས་མེད་པར་ཟ་ལྟ་བུ། ༣.ཕྱོགས་བཞིའི་མཚམས་ཀྱི་མིང་སྟེ། ཕྱོགས་བཞི་མཚམས་བརྒྱད། ཤར་ལྷོའི་མཚམས་ཞེས་པ་ལྟ་བུ། ༤.སྔ་ཕྱི་འབྲེལ་བའི་རྒྱུན་གྱི་མིང་སྟེ། ནད་ཡམས་མཚམས་ཆད། བྱ་ངན་མཚམས་ཆད། མཚམས་མེད་པར་སློབ་སྦྱོང་བྱས་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་གྲངས་ཀ་སྟེ། བཅུ་ཕྲ་ག་བཅུ་ནི་བརྒྱ་ཡིན། དཔེར་ན། བརྒྱ་ཕྲག་གཅིག་བརྒྱ་ཕྲག་གཉིས། ཉིས་བརྒྱ། སུམ་བརྒྱ་ལྟ་བུ། ༢.མང་ཚིག་ལ་འཇུག་པ་ནི། བརྒྱ་བཤད་སྟོང་བཤད། མཁས་བརྒྱས་འགྲན་གླེང་བྱེད་ལྟ་བུ། ༼བརྒྱ་ཆ་བསྡུར་བ༽ བརྒྱ་ཆའི་ཚད་ཀྱི་སྒོ་ནས་ཁ་གྲངས་གཉིས་ཀྱི་འབྲེལ་བ་མཚོན་ཚུལ་ཞིག་ཡིན་ཞིང་། དཔེར་ན་སློབ་གྲྭ་ཞིག་ན་སློབ་གྲྭ་བ་ལྔ་བཅུ་ཡོད་པའི་ནང་གི་མི་ཉི་ཤུ་བུ་མོ་ཡིན་ན། འཛིན་གྲྭ་དེའི་ནང་གི་བུ་མོའི་ཁ་གྲངས་ཀྱིས་བརྒྱ་ཆའི་ཟིན་ཚད་ནི་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ། ༼བརྒྱ་ཆའི་ཚད༽ ཁ་གྲངས་ཀ་པ་ནི་མ་གྲངས་དང་། ཁ་གྲངས་ཁ་པ་ནི་ཆ་གྲངས་བྱས་ན། ཁ་གྲངས་ཁ་པས་ཟིན་པའི་ཁ་གྲངས་ཀ་པའི་བརྒྱ་ཆའི་གྲངས་ཀ་ནི་བརྒྱ་ཆའི་ཚད་ཡིན། དཔེར་ན་ལྔ་ཆ་གཉིས་ཡི་ཆ་གྲངས་ནི་བརྒྱ་ཆའི་ཚད་ཀྱིས་མཚོན་ན་བརྒྱ་ཆའི་བཞི་བཅུ་ཡིན་པ་ལྟ་བུ་རེད། ༼བརྒྱ་ཆའི་རྟགས༽ རྟགས་འདི་ལ་ཟེར།</t>
         </is>
       </c>
     </row>
     <row r="244" ht="50" customHeight="1">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>སུ་</t>
+          <t>རེ</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-[accusative, adverbial accusative, dative, and locative particle:] to; in; as; -ly; at; who?</t>
+          <t>Hopkins 2015
+each; every; single; hope</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིའི་ཚབ་ཚིག་སྟེ། སུ་འོངས་སམ། སུས་བཤད་དམ། སུའི་དཔེ་ཆ་རེད་དམ་ལྟ་བུ། ༢.ལ་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་འབྲེལ་ལས་ཚིག༽ དོན་བྱ་ཞིག་འགྲུབ་འདོད་པའམ་ལས་དོན་ཞིག་འབྱུང་འདོད་པ་སྟེ། རང་གིས་ངལ་རྩོལ་བྱས་ན། ཟས་གོས་མི་ལ་རེ་མི་དགོས། སྐོམ་པས་ཆུ་ལ་རེ། ལོ་ཡག་བསྐལ་བཟང་འབྱུང་བར་རེ་ལྟ་བུ། ༢.༼ཀ༽ རྐྱང་བ་འམ་སོ་སོ་བའི་དོན་ཏེ། ཁྱིམ་རེ་ནས་མི་རེ་འོངས། མི་རེའི་ཁ་ནས་གཏམ་རེ་བཤད། ལུག་ཁྱུ་གཅིག་རེ་ལ་ལུག་སུམ་བརྒྱ་རེ་ཡོད་ལྟ་བུ། ༼རེ་རེ་གཉིས་རེ༽ གྲངས་ཀ་ཧ་ཅང་ཉུང་བའི་དོན་ཏེ། མི་མང་ཆེ་བ་ནི་བཟང་བོ་ཡིན། ངན་པ་ནི་རེ་རེ་གཉིས་རེ་ཡིན་ལྟ་བུ། ༼ཁ༽ དྲུག་ཅུའི་མཚོན་བྱེད་དེ། རེ་གཅིག་རེ་དགུ་ཞེས་པ་ལྟ་བུ། ༣.གེ་ལ་ལྟོས། ༤.རེ་བ་ཡི་ཚིག་བསྡུས་པ། ༥.རེའུ་ཞེས་པ་བསྡུས་ནས་བྲིས་པ།</t>
         </is>
       </c>
     </row>
     <row r="245" ht="50" customHeight="1">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>རྒྱ་མཚོ</t>
-        </is>
-      </c>
-      <c r="B245" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[vast-lake]; ocean; large lake</t>
-        </is>
-      </c>
-      <c r="C245" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
+          <t>འི་</t>
         </is>
       </c>
     </row>
     <row r="246" ht="50" customHeight="1">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t>མཚམས་</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+intermediate space; border; juncture; limit; gap between lives; intermediate directions</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དངོས་པོ་གཉིས་ཐུག་སའི་བར་གྱི་མིང་སྟེ། ཚིགས་མཚམས་བར་མཚམས། རི་ཐང་གཉིས་ཀྱི་མཚམས་ཞེས་པ་ལྟ་བུ། ༼མཚམས་སྤྲིན༽ ནངས་མོ་ཉི་མ་འཆར་ཁའི་སྤྲིན་དམར་སེར་དང་། དགོང་མོ་ཉི་མ་ནུབ་ནས་ས་རུབ་ཁའི་སྤྲིན་ཚོན་མདོག་ཅན་གྱི་མིང་། ༢.བྱ་སྤྱོད་སོགས་སྔ་ཕྱིའི་འབྲེལ་སའི་མིང་སྟེ། ཚིག་མཚམས། ལས་ཀ་ལས་མཚམས། སློབ་སྦྱོང་མཚམས་མ་བཞག་པར་བྱས་ལྟ་བུ། ༼མཚམས་སྦྱོར༽ ༼༡༽ མི་ཕན་ཚུན་ངོ་སྤྲད་པའི་དོན་ཏེ། ངས་བྱིས་པ་དགེ་རྒན་ལ་མཚམས་སྦྱོར་བྱས་ལྟ་བུ། ༼༢༽ ཚིག་དོན་སོགས་སྔ་ཕྱི་འབྲེལ་བར་བྱས་པའི་དོན་ཏེ། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བྱས་ལྟ་བུ། ༼༣༽ ཕན་ཚུན་ངོ་སྤྲད་པ་དང་ཚིག་སྔ་ཕྱི་སོགས་འབྲེལ་བར་བྱེད་པའི་ལས་ཚིག་ལ་འཇུག་པ་ནི། དགེ་རྒན་མཚམས་སྦྱོར་མཁན། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བྱེད་ཀྱི་ཚིག་ཕྲད། ཚིག་སྔ་ཕྱི་མཚམས་སྦྱར་ཏེ་ཞེས་པ་ལྟ་བུ། ༼མཚམས་ཚིག༽ སྔ་ཕྱིའི་རིམ་པའམ་སྐབས་རིམ་གྱི་མིང་སྟེ། རྟས་རྩྭ་མཚམས་ཚིགས་མེད་པར་ཟ་ལྟ་བུ། ༣.ཕྱོགས་བཞིའི་མཚམས་ཀྱི་མིང་སྟེ། ཕྱོགས་བཞི་མཚམས་བརྒྱད། ཤར་ལྷོའི་མཚམས་ཞེས་པ་ལྟ་བུ། ༤.སྔ་ཕྱི་འབྲེལ་བའི་རྒྱུན་གྱི་མིང་སྟེ། ནད་ཡམས་མཚམས་ཆད། བྱ་ངན་མཚམས་ཆད། མཚམས་མེད་པར་སློབ་སྦྱོང་བྱས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="247" ht="50" customHeight="1">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>སྒང་</t>
+          <t>སུ་</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>Hackett
-(PH) period</t>
+          <t>Hopkins 2015
+[accusative, adverbial accusative, dative, and locative particle:] to; in; as; -ly; at; who?</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ལས་ཚིག་ད་ལྟ་བའི་མཐར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་དུས་ད་ལྟ་བ་སྟེ། ཞིང་འདེབས་པའི་སྒང་། ལོ་ཏོག་འབྲེག་པའི་སྒང་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིའི་ཚབ་ཚིག་སྟེ། སུ་འོངས་སམ། སུས་བཤད་དམ། སུའི་དཔེ་ཆ་རེད་དམ་ལྟ་བུ། ༢.ལ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="248" ht="50" customHeight="1">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>ལ་</t>
+          <t>རྒྱ་མཚོ</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+          <t>Hopkins 2015
+[vast-lake]; ocean; large lake</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
         </is>
       </c>
     </row>
     <row r="249" ht="50" customHeight="1">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>ཐེངས་</t>
-        </is>
-      </c>
-      <c r="B249" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
-time[s], occasion, occurrence [Dbugs rngubs gtong thengs gcig la rtsa 'phar thengs lnga re tsam. Tsod 'du thengs dang po]</t>
-        </is>
-      </c>
-      <c r="C249" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ལན་གྲངས་ཀྱི་མིང་སྟེ། ཚོགས་ཆེན་ཐེངས་དང་པོ། ད་ཐེངས། ཐེངས་རྗེས་མ། ཐེངས་གསུམ་ཞེས་པ་སོགས་ལྟ་བུ། ༢.ཐིངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
+          <t>འི་</t>
         </is>
       </c>
     </row>
     <row r="250" ht="50" customHeight="1">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>མ་</t>
+          <t>སྒང་</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) mother ; (2) particle indicating negative: not; non-; un-</t>
+          <t>Hackett Def. 2015
+(PH) period</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ལུས་བསྐྱེད་པའི་ཨ་མ་སྟེ། ཕ་མ། མ་གཅིག་བུ་གཅིག་ཅེས་པ་ལྟ་བུ། ༼མ་སྨད༽ ༼༡༽ མ་དང་བུ་མོ་ཞེས་པའི་ཚིག་བསྡུས་པ་སྟེ། ངེད་མ་སྨད་གཉིས་ཞེས་པ་ལྟ་བུ། ༼༢༽ བཟང་བ་དང་མཆོག་གི་དོན་ཏེ། མ་སྨད་ཡོན་ཏན་དུ་མས་ཤེས་རྒྱུད་བལྟམས་ལྟ་བུ། ༼མ་ཡར༽ བྱིས་པ་ཆུང་དུས་མ་ངོ་མ་ཤི་བའམ་གཉེན་ཐོར་རྗེས་ཕ་དང་གཉེན་སྒྲིག་བྱས་པའི་བུད་མེད་ནི་བྱིས་པ་དེའི་མ་ཡར་ཡིན། ༼མ་ཕྱི༽ ༼༡༽ མའི་མ་ནི་རང་གི་མ་ཕྱི་ཡིན། ༼༢༽ གཞིའམ་རྩ་བའི་མིང་སྟེ། ཡི་གེའི་མ་ཕྱི་ཞེས་པ་ལྟ་བུ། ༼མ་མ༽ བྱིས་པ་སྙོད་མཁན་གྱི་བུད་མེད་ཀྱི་མིང་སྟེ། བྱིས་པ་སྐྱེས་ནས་རིང་བོ་མ་ལོན་པར་མ་མ་ལ་གཏད་ནས་སྙོད་སྐྱོང་བྱས་ལྟ་བུ། ༼མ་མེས༽ མའི་མ་དང་མའི་སྤུན་གྱི་ཆུང་མའི་འབོད་མིང་། ༢.སྲོག་ཆགས་ཀྱི་ཕྲུ་གུའི་མ་སྟེ། འབྲི་མ་བརྒྱ་བུ་བརྒྱ། མཛོ་མོ་མ་བུ་གཉིས་ཞེས་པ་ལྟ་བུ། ༣.དགག་སྒྲ་ལ་འཇུག་ཚུལ་ནི། ༼ཀ༽ བྱེད་འབྲེལ་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་ཕལ་ཆེ་བ་ནི་ལས་དོན་དེ་བྱེད་མི་ཆོག་པར་སྟོན་ཏེ། ཆུ་འཁྱགས་མ་འཐུང་། ཤ་རྗེན་མ་བཟའ། ཆང་མ་ལྡུད། ཕར་ལ་མ་འགྲོ་སོགས་ལྟ་བུ། ༼ཁ༽ བྱེད་འབྲེལ་ལས་ཚིག་འདས་པའི་མགོར་སྦྱར་ན་ཕལ་ཆེ་བ་ལས་ཀ་དེ་རང་གིས་མ་བྱས་པར་སྟོན་ཏེ། གྲོས་བསྡུར་མ་བྱས། རི་མོ་མ་བྲིས། ཆང་མ་བླུད། ཆུད་ཟས་སུ་མ་བཏང་སོགས་ལྟ་བུ། ༼མ་རྨོས་ལོ་ཏོག༽ ཞིང་སྐྱེ་ལོ་ཏོག་ཅིག་གི་མིང་། ༼ག༽ བྱེད་མེད་ལས་ཚིག་འདས་པའི་མགོར་སྦྱར་ན་ཕལ་ཆེ་བ་བྱ་བ་དེ་མ་བྱུང་བ་ཙམ་སྟོན་ཏེ། ཕྱུགས་མ་ཤི་ན་ཚ་མ་བྱུང་། ཁ་མཆུ་མ་བྱུང་སོགས་ལྟ་བུ། ༼ང༽ རྒྱན་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་རྣམ་པ་དེ་འདྲ་བྱེད་མི་རུང་བའི་དོན་ཏེ། མགོ་འཕངས་མ་མཐོ། ང་རྒྱལ་མ་ཆེ། ངང་མ་རིང་སོགས་ལྟ་བུ། ༼ཅ༽ ཐ་སྙད་རིགས་འདྲ་བ་ལ་ལའི་བར་དུ་སྦྱར་ན་དེ་གཉིས་ཀའི་ཁྱད་ཆོས་ལྡན་པའི་དོན་ཏེ། བྱ་མ་བྱིའུ། རོང་མ་འབྲོག་ཤི་མ་གསོན། འཕུར་མ་ལྡིང་། གཉིད་མ་སད། བརྒྱུགས་མ་འདུར་སོགས་ལྟ་བུ། ༤.མིང་ཁ་ཤས་ཀྱི་མཐར་སྦྱར་ན་དེ་དང་འབྲེལ་བ་ཡོད་པའི་མིའི་དོན་ཏེ། ཇ་མ། ཆང་མ་ཞེས་པ་ལྟ་བུ། ༥.ལས་ཚིག་འདས་པ་ལ་ལའི་མཐར་སྦྱར་ན་ལས་སྣོན་བྱས་པའི་དངོས་པོ་དང་བྱ་བ་དེ་བྱས་པ་ལས་ཐོབ་པའི་དངོས་པོའི་མིང་སྟེ། དཔེ་ཆ་བྲིས་མ་ནི་མིས་དངོས་སུ་བྲིས་པའི་དཔེ་ཆ། རི་མོ་བརྐོས་མ་ནི་མིས་བརྐོས་པའི་རི་མོ། གསེར་བཏུལ་མ་ནི་ལས་སྣོན་བྱས་པའི་གསེར། འོ་མ་བསྐོལ་མ། ཆུ་ཁོལ་མ། ཟངས་ང་བླུགས་མ། དཔེ་ཆ་གཡར་མ། རྟ་བཅོལ་མ་སོགས་ལྟ་བུ། ༦.གཞིའམ་འབྱུང་ཁུངས་ཀྱི་དོན་ལ་འཇུག་པ་ནི། མ་དཔེ། མ་ཡིག་མ་གཞི། མ་སྡོང་ཞེས་པ་ལྟ་བུ། ༧.ཐ་སྙད་ལ་ལའི་མཐར་སྦྱར་ན་མོ་ཡིན་པ་སྟོན་ཏེ། མཁས་མ། བཙུན་མ། ཁྱིམ་བདག་མ་ཞེས་པ་དང་། ཕག་མ། བོང་མ། རྒོད་མ་ཞེས་པ་སོགས་ལྟ་བུ། ༨.དམའ་ཕྱོགས་དང་དམའ་སའི་དོན་ལ་འཇུག་སྟེ། མ་སྣེ། མ་མཐའ། མ་མཆུ་ཞེས་པ་ལྟ་བུ། ༼མ་མགལ༽ ཁའི་མ་མཆུའི་རུས་པའམ་མ་ནེའི་མིང་། འདི་ལ་མ་མཁལ་ཞེས་འབྲི་བའང་ཡོད། ༼མ་གི༽ རང་ལས་རྒྱང་རིང་བའི་ས་ཕྱོགས་དམའ་སའི་མིང་སྟེ། ས་མ་གི་ལ་སོང་། ཐང་མ་གི་ན་རྟ་རྒྱུག་གིན་འདུག་ལྟ་བུ། ༩.མིང་ལ་ལའི་མཐར་སྦྱར་ན་དངོས་པོ་དེའི་དབྱིབས་དང་ཁྱད་ཆོས་སྟོན་ཏེ། དངུལ་ལྔ་བཅུ་མ། གོས་གཡུང་རིས་མ། དུང་རྟ་རྨིག་མ། དཀར་ཡོལ་འབྲུག་མ་སོགས་ལྟ་བུ། ༡༠.མིང་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ཉི་མ། རྒྱ་མ། ར་མ། རུལ་མ། བ་མ། རིལ་མ་ཞེས་པ་སོགས་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ལས་ཚིག་ད་ལྟ་བའི་མཐར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་དུས་ད་ལྟ་བ་སྟེ། ཞིང་འདེབས་པའི་སྒང་། ལོ་ཏོག་འབྲེག་པའི་སྒང་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="251" ht="50" customHeight="1">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>གཅིག་</t>
+          <t>ལ་</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-one; same; oneness; unitary; single; singular phenomenon</t>
+          <t>Hopkins 2015
+(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་གྲངས་ཀ་རིལ་བོ་འི་ཉུང་མཐའ། ༼གཅིག་པ༽ འདྲ་བ་དང་མཚུངས་པ་མཐུན་པ་སོགས་ཀྱི་དོན་ཏེ། ཁྱི་དང་བྱི་ལ་ནི་སྲོག་ཆགས་རིགས་མི་གཅིག་པ་རེད། འབྲོང་དང་གཡག་ནི་རིགས་གཅིག་པ་རེད། ངེད་གཉིས་ཀྱི་དྲན་ཚུལ་གཅིག་པ་རེད་ལྟ་བུ། ༢.ཡོངས་སུ་རྫོགས་པ་དང་ཚད་ལོངས་པའི་དོན་ཏེ། ཚེ་གཅིག་ལུས་གཅིག་ཅེས་པ་ལྟ་བུ། ༣.བློ་ཐག་ཆོད་པོའི་དོན་ཏེ། མགྲིན་གཅིག་དབྱངས་གཅིག་བློ་གཅིག་སེམས་གཅིག་སེམས་བསམ་པ་རྩེ་གཅིག་ཅེས་པ་ལྟ་བུ། ༤.ཁེར་རྐྱང་གི་དོན་ཏེ། རང་གཅིག་པུ། ཁོ་གཅིག་པུས་དཔེ་ཆར་བལྟས་ལྟ་བུ། ༥.ལས་ཚིག་གི་མགོར་སྦྱར་ན་ལན་གྲངས་དང་ཡུན་ཐུང་བ་སོགས་ཀྱི་དོན་ཏེ། ཁོས་ང་ལ་གཅིག་བལྟས་ནས་ངོ་ཤེས་སོང་། ངས་རྐུན་ཇག་དེ་ལ་དབྱུག་པས་གཅིག་བརྒྱབ་ནས་ས་ལ་བསྒྱེལ། ཁྱོད་ཀྱིས་གཅིག་ལྟོས་དང་། ངས་གཅིག་བཤད། ཁྱོད་གཅིག་རྒྱུགས་དང་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="252" ht="50" customHeight="1">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>མགོ་</t>
+          <t>ཐེངས་</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-head; top; beginning</t>
+          <t>Ives Waldo
+time[s], occasion, occurrence [Dbugs rngubs gtong thengs gcig la rtsa 'phar thengs lnga re tsam. Tsod 'du thengs dang po]</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལན་གྲངས་ཀྱི་མིང་སྟེ། ཚོགས་ཆེན་ཐེངས་དང་པོ། ད་ཐེངས། ཐེངས་རྗེས་མ། ཐེངས་གསུམ་ཞེས་པ་སོགས་ལྟ་བུ། ༢.ཐིངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
         </is>
       </c>
     </row>
     <row r="253" ht="50" customHeight="1">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>ཡར་</t>
+          <t>མ་</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>Hackett
-(PH) upper; upward</t>
+          <t>Hopkins 2015
+(1) mother ; (2) particle indicating negative: not; non-; un-</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་རིམ་པ་གོང་མའམ་ཐོག་ཕྱོགས་ཏེ། ཡར་ཞུ། ཡར་འབུལ། གནམ་ལ་ཡར་བལྟས། ཡར་འགྲོ་ཞེས་པ་ལྟ་བུ། ༼ཡར་སྐྱེད༽ གཟུགས་དང་ཡོན་ཏན་དང་བློ་ཁ་སོགས་དམའ་བ་ལས་མཐོ་བར་སོང་བ་སྟེ། བྱིས་པ་ཡར་སྐྱེད་བྱུང་། ཡོན་ཏན་ཡར་སྐྱེད་བྱུང་། བློ་ཁ་ཡར་སྐྱེད་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ག༽ གནས་མཐོ་སའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཡར་གའི་རི། ཁྱིམ་ཡར་ག་མར་ག་ཞེས་པ་ལྟ་བུ། ༼ཡར་རྒྱས༽ ཉུང་བ་ནས་མང་བར་འཕར་བའི་ཆ་སྟེ། སྟོབས་འབྱོར་ཡར་རྒྱས་སུ་སོང་། བཟོ་ལས་ཡར་རྒྱས་སུ་བཏང་། ཡར་རྒྱས་གོང་འཕེལ་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ངོ༽ ཟླ་ཁ་ཡར་གང་བའི་དུས་ཏེ། ལོ་རྩིས་ཀྱི་ཚེས་གཅིག་ནས་བཅོ་ལྔའི་བར། ༼ཡར་དར༽ གོང་ནས་གོང་དུ་འཕེལ་བཞིན་པའི་དུས་ཏེ། ཡར་དར་མར་འགྲིབ་ཅེས་པ་ལྟ་བུ། ༼ཡར་ཐོན༽ སྔོན་ལས་གོང་དུ་འཕགས་པའི་ཆ་སྟེ། ལག་རྩལ་ཡར་ཐོན་བྱུང་། ཡར་ཐོན་པ་ཞེས་པ་ལྟ་བུ། ༢.ལེགས་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཁ་མིག་ཡར་ལྟ། ཡར་འགོ་ཡར་འཐེན། བསམ་པ་ཡར་སེམས། སྤྱི་དོན་ལ་ཡར་གཏོག་ཅེས་པ་ལྟ་བུ། ༼ཡར་འགོ༽ ལས་དོན་ལེགས་པའི་རིགས་ཀྱི་སྣ་འདྲེན་པ་སྟེ། སྡེ་བའི་ནང་དུ་རྒན་པོ་ཚོས་ཡར་འགོ་ཡར་འཐེན་བྱས་ནས་ན་གཞོན་ཚོར་སློབ་སྦྱོང་བྱེད་དུ་བཅུག ༼ཡར་གཏོག༽ ཡུལ་སྐད་ལ་ལར་ལེགས་པའི་རིགས་བྱེད་པར་སྐུལ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། རང་ཉིད་ལོ་རྒས་ཀྱང་ན་གཞོན་ཚོར་རིག་གནས་སློབ་པར་ཡར་གཏོག་བརྒྱབ་པ་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ཡར་ལྟ༽ ལེགས་པའི་ཕྱོགས་ལ་སློབ་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། མི་བཟང་བོ་ར་ཁ་མིག་ཡར་ལྟ་གྱིས་ཞེས་པ་ལྟ་བུ། ༼ཡར་སེམས༽ ལེགས་པའི་ཕྱོགས་ལ་བརྩོན་པའི་སེམས་ཏེ། བསམ་པ་ཡར་སེམས་དྲན། མི་ཡར་སེམས་ཅན་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལུས་བསྐྱེད་པའི་ཨ་མ་སྟེ། ཕ་མ། མ་གཅིག་བུ་གཅིག་ཅེས་པ་ལྟ་བུ། ༼མ་སྨད༽ ༼༡༽ མ་དང་བུ་མོ་ཞེས་པའི་ཚིག་བསྡུས་པ་སྟེ། ངེད་མ་སྨད་གཉིས་ཞེས་པ་ལྟ་བུ། ༼༢༽ བཟང་བ་དང་མཆོག་གི་དོན་ཏེ། མ་སྨད་ཡོན་ཏན་དུ་མས་ཤེས་རྒྱུད་བལྟམས་ལྟ་བུ། ༼མ་ཡར༽ བྱིས་པ་ཆུང་དུས་མ་ངོ་མ་ཤི་བའམ་གཉེན་ཐོར་རྗེས་ཕ་དང་གཉེན་སྒྲིག་བྱས་པའི་བུད་མེད་ནི་བྱིས་པ་དེའི་མ་ཡར་ཡིན། ༼མ་ཕྱི༽ ༼༡༽ མའི་མ་ནི་རང་གི་མ་ཕྱི་ཡིན། ༼༢༽ གཞིའམ་རྩ་བའི་མིང་སྟེ། ཡི་གེའི་མ་ཕྱི་ཞེས་པ་ལྟ་བུ། ༼མ་མ༽ བྱིས་པ་སྙོད་མཁན་གྱི་བུད་མེད་ཀྱི་མིང་སྟེ། བྱིས་པ་སྐྱེས་ནས་རིང་བོ་མ་ལོན་པར་མ་མ་ལ་གཏད་ནས་སྙོད་སྐྱོང་བྱས་ལྟ་བུ། ༼མ་མེས༽ མའི་མ་དང་མའི་སྤུན་གྱི་ཆུང་མའི་འབོད་མིང་། ༢.སྲོག་ཆགས་ཀྱི་ཕྲུ་གུའི་མ་སྟེ། འབྲི་མ་བརྒྱ་བུ་བརྒྱ། མཛོ་མོ་མ་བུ་གཉིས་ཞེས་པ་ལྟ་བུ། ༣.དགག་སྒྲ་ལ་འཇུག་ཚུལ་ནི། ༼ཀ༽ བྱེད་འབྲེལ་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་ཕལ་ཆེ་བ་ནི་ལས་དོན་དེ་བྱེད་མི་ཆོག་པར་སྟོན་ཏེ། ཆུ་འཁྱགས་མ་འཐུང་། ཤ་རྗེན་མ་བཟའ། ཆང་མ་ལྡུད། ཕར་ལ་མ་འགྲོ་སོགས་ལྟ་བུ། ༼ཁ༽ བྱེད་འབྲེལ་ལས་ཚིག་འདས་པའི་མགོར་སྦྱར་ན་ཕལ་ཆེ་བ་ལས་ཀ་དེ་རང་གིས་མ་བྱས་པར་སྟོན་ཏེ། གྲོས་བསྡུར་མ་བྱས། རི་མོ་མ་བྲིས། ཆང་མ་བླུད། ཆུད་ཟས་སུ་མ་བཏང་སོགས་ལྟ་བུ། ༼མ་རྨོས་ལོ་ཏོག༽ ཞིང་སྐྱེ་ལོ་ཏོག་ཅིག་གི་མིང་། ༼ག༽ བྱེད་མེད་ལས་ཚིག་འདས་པའི་མགོར་སྦྱར་ན་ཕལ་ཆེ་བ་བྱ་བ་དེ་མ་བྱུང་བ་ཙམ་སྟོན་ཏེ། ཕྱུགས་མ་ཤི་ན་ཚ་མ་བྱུང་། ཁ་མཆུ་མ་བྱུང་སོགས་ལྟ་བུ། ༼ང༽ རྒྱན་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་རྣམ་པ་དེ་འདྲ་བྱེད་མི་རུང་བའི་དོན་ཏེ། མགོ་འཕངས་མ་མཐོ། ང་རྒྱལ་མ་ཆེ། ངང་མ་རིང་སོགས་ལྟ་བུ། ༼ཅ༽ ཐ་སྙད་རིགས་འདྲ་བ་ལ་ལའི་བར་དུ་སྦྱར་ན་དེ་གཉིས་ཀའི་ཁྱད་ཆོས་ལྡན་པའི་དོན་ཏེ། བྱ་མ་བྱིའུ། རོང་མ་འབྲོག་ཤི་མ་གསོན། འཕུར་མ་ལྡིང་། གཉིད་མ་སད། བརྒྱུགས་མ་འདུར་སོགས་ལྟ་བུ། ༤.མིང་ཁ་ཤས་ཀྱི་མཐར་སྦྱར་ན་དེ་དང་འབྲེལ་བ་ཡོད་པའི་མིའི་དོན་ཏེ། ཇ་མ། ཆང་མ་ཞེས་པ་ལྟ་བུ། ༥.ལས་ཚིག་འདས་པ་ལ་ལའི་མཐར་སྦྱར་ན་ལས་སྣོན་བྱས་པའི་དངོས་པོ་དང་བྱ་བ་དེ་བྱས་པ་ལས་ཐོབ་པའི་དངོས་པོའི་མིང་སྟེ། དཔེ་ཆ་བྲིས་མ་ནི་མིས་དངོས་སུ་བྲིས་པའི་དཔེ་ཆ། རི་མོ་བརྐོས་མ་ནི་མིས་བརྐོས་པའི་རི་མོ། གསེར་བཏུལ་མ་ནི་ལས་སྣོན་བྱས་པའི་གསེར། འོ་མ་བསྐོལ་མ། ཆུ་ཁོལ་མ། ཟངས་ང་བླུགས་མ། དཔེ་ཆ་གཡར་མ། རྟ་བཅོལ་མ་སོགས་ལྟ་བུ། ༦.གཞིའམ་འབྱུང་ཁུངས་ཀྱི་དོན་ལ་འཇུག་པ་ནི། མ་དཔེ། མ་ཡིག་མ་གཞི། མ་སྡོང་ཞེས་པ་ལྟ་བུ། ༧.ཐ་སྙད་ལ་ལའི་མཐར་སྦྱར་ན་མོ་ཡིན་པ་སྟོན་ཏེ། མཁས་མ། བཙུན་མ། ཁྱིམ་བདག་མ་ཞེས་པ་དང་། ཕག་མ། བོང་མ། རྒོད་མ་ཞེས་པ་སོགས་ལྟ་བུ། ༨.དམའ་ཕྱོགས་དང་དམའ་སའི་དོན་ལ་འཇུག་སྟེ། མ་སྣེ། མ་མཐའ། མ་མཆུ་ཞེས་པ་ལྟ་བུ། ༼མ་མགལ༽ ཁའི་མ་མཆུའི་རུས་པའམ་མ་ནེའི་མིང་། འདི་ལ་མ་མཁལ་ཞེས་འབྲི་བའང་ཡོད། ༼མ་གི༽ རང་ལས་རྒྱང་རིང་བའི་ས་ཕྱོགས་དམའ་སའི་མིང་སྟེ། ས་མ་གི་ལ་སོང་། ཐང་མ་གི་ན་རྟ་རྒྱུག་གིན་འདུག་ལྟ་བུ། ༩.མིང་ལ་ལའི་མཐར་སྦྱར་ན་དངོས་པོ་དེའི་དབྱིབས་དང་ཁྱད་ཆོས་སྟོན་ཏེ། དངུལ་ལྔ་བཅུ་མ། གོས་གཡུང་རིས་མ། དུང་རྟ་རྨིག་མ། དཀར་ཡོལ་འབྲུག་མ་སོགས་ལྟ་བུ། ༡༠.མིང་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ཉི་མ། རྒྱ་མ། ར་མ། རུལ་མ། བ་མ། རིལ་མ་ཞེས་པ་སོགས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="254" ht="50" customHeight="1">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>བཀྱགས་</t>
+          <t>གཅིག་</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-འགྱོག་གི་འདས་པ།</t>
+          <t>Hopkins 2015
+one; same; oneness; unitary; single; singular phenomenon</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་གྲངས་ཀ་རིལ་བོ་འི་ཉུང་མཐའ། ༼གཅིག་པ༽ འདྲ་བ་དང་མཚུངས་པ་མཐུན་པ་སོགས་ཀྱི་དོན་ཏེ། ཁྱི་དང་བྱི་ལ་ནི་སྲོག་ཆགས་རིགས་མི་གཅིག་པ་རེད། འབྲོང་དང་གཡག་ནི་རིགས་གཅིག་པ་རེད། ངེད་གཉིས་ཀྱི་དྲན་ཚུལ་གཅིག་པ་རེད་ལྟ་བུ། ༢.ཡོངས་སུ་རྫོགས་པ་དང་ཚད་ལོངས་པའི་དོན་ཏེ། ཚེ་གཅིག་ལུས་གཅིག་ཅེས་པ་ལྟ་བུ། ༣.བློ་ཐག་ཆོད་པོའི་དོན་ཏེ། མགྲིན་གཅིག་དབྱངས་གཅིག་བློ་གཅིག་སེམས་གཅིག་སེམས་བསམ་པ་རྩེ་གཅིག་ཅེས་པ་ལྟ་བུ། ༤.ཁེར་རྐྱང་གི་དོན་ཏེ། རང་གཅིག་པུ། ཁོ་གཅིག་པུས་དཔེ་ཆར་བལྟས་ལྟ་བུ། ༥.ལས་ཚིག་གི་མགོར་སྦྱར་ན་ལན་གྲངས་དང་ཡུན་ཐུང་བ་སོགས་ཀྱི་དོན་ཏེ། ཁོས་ང་ལ་གཅིག་བལྟས་ནས་ངོ་ཤེས་སོང་། ངས་རྐུན་ཇག་དེ་ལ་དབྱུག་པས་གཅིག་བརྒྱབ་ནས་ས་ལ་བསྒྱེལ། ཁྱོད་ཀྱིས་གཅིག་ལྟོས་དང་། ངས་གཅིག་བཤད། ཁྱོད་གཅིག་རྒྱུགས་དང་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="255" ht="50" customHeight="1">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>དུས</t>
+          <t>མགོ་</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>Gateway
-Time, as one of the ten non-concurrent formations</t>
+          <t>Hopkins 2015
+head; top; beginning</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་བྱ་དངོས་ཐམས་ཅད་འགྱུར་ལྡོག་གི་ཡུན་ཚད་ཀྱི་མིང་སྟེ། སྔོན་དུས། དེང་དུས། མ་འོངས་པའི་དུས་ཞེས་པ་ལྟ་བུ། ༼དུས་སྐབས༽ དུས་ཡུན་ཚད་ཡོད་པ་ཞིག་གི་མིང་སྟེ། དུས་སྐབས་སྔོན་མ། དུས་སྐབས་རྗེས་མ་ཞེས་པ་ལྟ་བུ། ༼དུས་འཁྲུགས༽ ལོ་རྒྱུས་ཀྱི་ནང་དུ་འབངས་ཀྱིས་གྱེན་ལྡོག་བྱས་པའི་འཁྲུག་སློང་གི་མིང། ༼དུས་རྒྱུན༽ བྱ་ལས་སོགས་མུ་མཐུད་བྱེད་པའི་དུས་ཡུན་ཏེ། དུས་རྒྱུན་པར་སློབ་སྦྱོང་བྱེད། དུས་རྒྱུན་གྱི་ལས་ཀ་ཞེས་པ་ལྟ་བུ། ༼དུས་ཆེན༽ རྗེས་དྲན་དུས་ཚིགས་ཀྱི་མིང་སྟེ། རྒྱལ་ཚུགས་དུས་ཆེན། ངལ་རྩོལ་དུས་ཆེན་ཞེས་པ་ལྟ་བུ། ༼དུས་ཆུང༽ ཉིན་ཞག་གཅིག་གི་ཡུན་ཚད་ལ་ཆ་མཉམ་ཉེར་བཞི་བགོས་པའི་ཆ་གཅིག་གི་དུས་ཡུན་གྱི་མིང་། ༼དུས་བཏབ༽ མི་དང་མིའི་བར་དུ་བྱ་བ་ཞིག་བྱེད་པའི་ཆེད་དུལྷན་དུ་འཛོམས་པའི་དུས་ངེས་ཅན་ཞིག་གཏན་ཁེལ་བྱས་པའི་དོན། ༼དུས་དུས་སུ༽ དུས་དང་མཐུན་པའམ་དུས་དང་འཚམས་པའི་དོན་ཏེ། དུས་དུས་སུ་ཞིང་ལ་ཆུ་གཏོང་དགོསལྟ་བུ། ༼དུས་བབ༽ དུས་སྐབས་ངེས་ཅན་ཞིག་གི་ཆ་རྐྱེན་དང་གནས་ཚུལ་གྱི་མིང་སྟེ། དུས་བབ་བཟང་བོ་ཞེས་པ་ལྟ་བུ། ༼དུས་ལ་བབ་པ༽ བྱ་དངོས་རྣམས་འབྱུང་བར་འཚམ་པའི་རྐྱེན་རྣམས་ཚང་བའི་དོན་ཏེ། ཚོགས་ཤིང་དུས་ལ་བབ་པ་ན། འབྲས་བུ་སྨིན་པ་ཉིད་དུ་འགྱུར་ཞེས་པ་ལྟ་བུ། ཚིག་བསྡུས་ན་དུས་བབ་ཞེས་འབྲི་ཆོག ༢་ལོ་གཅིག་གི་ནམ་ཟླའི་འགྱུར་ལྡོག་ངེས་ཅན་གྱི་མིང་སྟེ། དུས་བཞི། དཔྱིད་དུས་ཞེས་པ་ལྟ་བུ། ༼དུས་ཚིགས༽ ༼༡༽ ལོ་གཅིག་ལ་དཔྱིད་དབྱར་སྟོན་དགུན་གྱི་དུས་ཚིགས་བཞི་དང་། དུས་ཚིགས་རེ་ལ་ཟླ་བ་གསུམ་རེ་ཡོད། ༼༢༽ ལོ་གཅིག་ནང་གི་ཁྱད་ཆོས་ཁྱད་པར་བ་རེ་ཡོད་པའི་དུས་ཀྱི་མིང་སྟེ། ཞིང་ལས་བྲེལ་བ་ཆེ་བའི་དུས་ཚིགས། བལ་འབྲེག་པའི་དུས་ཚིགས་ཞེས་པ་ལྟ་བུ། ༼དུས་ཚོད༽ མི་རྣམས་ཀྱིས་གཏན་ཁེལ་བྱས་པའི་དུས་ཡུན་ངེས་ཅན་ཞིག་གི་མིང་སྟེ། སློབ་སྦྱོང་གི་དུས་ཚོད། དྲོས་ཇ་འཐུང་བའི་དུས་ཚོད་ཅེས་པ་ལྟ་བུ། ༼དུས་ཚོད་འཁོར་ལོ༽ དུས་ཚོད་ངོས་འཛིན་བྱེད་ཀྱི་དཔྱད་ཆས་རིགས་སྣ་ཚོགས་ཀྱི་སྤྱི་མིང་། ༼དུས་གཟེར༽ ཉིན་མཚན་གྱི་རིང་ཐུང་དང་། ཉིན་གུང་གི་གྲིབ་གཟུགས་ཀྱི་མཐོ་དམའ། ནམ་ཟླའི་འགྱུར་ལྡོག་རྣམས་ལ་བརྟེན་ནས་ལོ་གཅིག་གི་ཡུན་ལ་དུས་གཟེར་འགའ་ཞིག་གཏན་ཁེལ་བྱས་ཤིང་། དུས་གཟེར་དེ་རྣམས་ཀྱིས་སའི་གོ་ལ་སྤྱི་འགྲོས་བྱེད་པའི་གནས་གང་ན་ཡོད་པ་སྟོན་པར་བྱེད། དུས་གཟེར་ལ་བསྡོམས་པའི་ཉེར་བཞི་ཡོད་དེ། དཔྱིད་ཚུགས། ཆར་འབབ། སྲིན་བུ་འགུལ། དཔྱིད་མཉམ། དྭངས་གསལ། འབྲུ་ཆར། དབྱར་ཚུགས། བྲི་བ་གང་། མྱུར་འདེབས། དབྱར་ཉི་ལྡོག་ཚ་བ་ཆུང་། ཚ་བ་ཆེ། སྟོན་ཚུགས། བསིལ་འགུག་བད་དཀར། སྟོན་མཉམ། བད་ནག་བ་མོ་འབབ། དགུན་ཚུགས། ཁ་བ་ཆེ། ཁ་བ་ཆུང་། དགུན་ཉི་ལྡོག་གྲང་ངར་ཆུང་། གྲང་ངར་ཆེ་བཅས་ཡིན། ༼དུས་རབས༽ སྤྱི་ལོའི་མགོ་ཚུགས་པའི་ལོ་དེ་ནས་བཟུང་ལོ་བརྒྱ་རེའི་ཡུན་ལ་དུས་རབས་ཟེར། ༼དུས་གསུམ༽ ༼༡༽ འདས་པ་དང་ད་ལྟ་བ་མ་འོངས་པ་གསུམ་ལ་དུས་གསུམ་ཟེར། ༼༢༽ ལས་ཚིག་གམ་བྱ་ཚིག་གི་དུས་གསུམ་སྟོན་པའི་སྒྲའི་འགྱུར་བ་དང་ཡིག་གཟུགས་ཀྱི་འགྱུར་བ་ལའང་དུས་གསུམ་ཟེར་བའི་སྐབས་ཡོད།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
         </is>
       </c>
     </row>
     <row r="256" ht="50" customHeight="1">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ཡར་</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>Hackett Def. 2015
+(PH) upper; upward</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་རིམ་པ་གོང་མའམ་ཐོག་ཕྱོགས་ཏེ། ཡར་ཞུ། ཡར་འབུལ། གནམ་ལ་ཡར་བལྟས། ཡར་འགྲོ་ཞེས་པ་ལྟ་བུ། ༼ཡར་སྐྱེད༽ གཟུགས་དང་ཡོན་ཏན་དང་བློ་ཁ་སོགས་དམའ་བ་ལས་མཐོ་བར་སོང་བ་སྟེ། བྱིས་པ་ཡར་སྐྱེད་བྱུང་། ཡོན་ཏན་ཡར་སྐྱེད་བྱུང་། བློ་ཁ་ཡར་སྐྱེད་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ག༽ གནས་མཐོ་སའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཡར་གའི་རི། ཁྱིམ་ཡར་ག་མར་ག་ཞེས་པ་ལྟ་བུ། ༼ཡར་རྒྱས༽ ཉུང་བ་ནས་མང་བར་འཕར་བའི་ཆ་སྟེ། སྟོབས་འབྱོར་ཡར་རྒྱས་སུ་སོང་། བཟོ་ལས་ཡར་རྒྱས་སུ་བཏང་། ཡར་རྒྱས་གོང་འཕེལ་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ངོ༽ ཟླ་ཁ་ཡར་གང་བའི་དུས་ཏེ། ལོ་རྩིས་ཀྱི་ཚེས་གཅིག་ནས་བཅོ་ལྔའི་བར། ༼ཡར་དར༽ གོང་ནས་གོང་དུ་འཕེལ་བཞིན་པའི་དུས་ཏེ། ཡར་དར་མར་འགྲིབ་ཅེས་པ་ལྟ་བུ། ༼ཡར་ཐོན༽ སྔོན་ལས་གོང་དུ་འཕགས་པའི་ཆ་སྟེ། ལག་རྩལ་ཡར་ཐོན་བྱུང་། ཡར་ཐོན་པ་ཞེས་པ་ལྟ་བུ། ༢.ལེགས་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཁ་མིག་ཡར་ལྟ། ཡར་འགོ་ཡར་འཐེན། བསམ་པ་ཡར་སེམས། སྤྱི་དོན་ལ་ཡར་གཏོག་ཅེས་པ་ལྟ་བུ། ༼ཡར་འགོ༽ ལས་དོན་ལེགས་པའི་རིགས་ཀྱི་སྣ་འདྲེན་པ་སྟེ། སྡེ་བའི་ནང་དུ་རྒན་པོ་ཚོས་ཡར་འགོ་ཡར་འཐེན་བྱས་ནས་ན་གཞོན་ཚོར་སློབ་སྦྱོང་བྱེད་དུ་བཅུག ༼ཡར་གཏོག༽ ཡུལ་སྐད་ལ་ལར་ལེགས་པའི་རིགས་བྱེད་པར་སྐུལ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། རང་ཉིད་ལོ་རྒས་ཀྱང་ན་གཞོན་ཚོར་རིག་གནས་སློབ་པར་ཡར་གཏོག་བརྒྱབ་པ་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ཡར་ལྟ༽ ལེགས་པའི་ཕྱོགས་ལ་སློབ་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། མི་བཟང་བོ་ར་ཁ་མིག་ཡར་ལྟ་གྱིས་ཞེས་པ་ལྟ་བུ། ༼ཡར་སེམས༽ ལེགས་པའི་ཕྱོགས་ལ་བརྩོན་པའི་སེམས་ཏེ། བསམ་པ་ཡར་སེམས་དྲན། མི་ཡར་སེམས་ཅན་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="257" ht="50" customHeight="1">
       <c r="A257" s="1" t="inlineStr">
         <is>
+          <t>བཀྱགས་</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+འགྱོག་གི་འདས་པ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="258" ht="50" customHeight="1">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>དུས</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>Gateway To Knowledge
+Time, as one of the ten non-concurrent formations</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་བྱ་དངོས་ཐམས་ཅད་འགྱུར་ལྡོག་གི་ཡུན་ཚད་ཀྱི་མིང་སྟེ། སྔོན་དུས། དེང་དུས། མ་འོངས་པའི་དུས་ཞེས་པ་ལྟ་བུ། ༼དུས་སྐབས༽ དུས་ཡུན་ཚད་ཡོད་པ་ཞིག་གི་མིང་སྟེ། དུས་སྐབས་སྔོན་མ། དུས་སྐབས་རྗེས་མ་ཞེས་པ་ལྟ་བུ། ༼དུས་འཁྲུགས༽ ལོ་རྒྱུས་ཀྱི་ནང་དུ་འབངས་ཀྱིས་གྱེན་ལྡོག་བྱས་པའི་འཁྲུག་སློང་གི་མིང། ༼དུས་རྒྱུན༽ བྱ་ལས་སོགས་མུ་མཐུད་བྱེད་པའི་དུས་ཡུན་ཏེ། དུས་རྒྱུན་པར་སློབ་སྦྱོང་བྱེད། དུས་རྒྱུན་གྱི་ལས་ཀ་ཞེས་པ་ལྟ་བུ། ༼དུས་ཆེན༽ རྗེས་དྲན་དུས་ཚིགས་ཀྱི་མིང་སྟེ། རྒྱལ་ཚུགས་དུས་ཆེན། ངལ་རྩོལ་དུས་ཆེན་ཞེས་པ་ལྟ་བུ། ༼དུས་ཆུང༽ ཉིན་ཞག་གཅིག་གི་ཡུན་ཚད་ལ་ཆ་མཉམ་ཉེར་བཞི་བགོས་པའི་ཆ་གཅིག་གི་དུས་ཡུན་གྱི་མིང་། ༼དུས་བཏབ༽ མི་དང་མིའི་བར་དུ་བྱ་བ་ཞིག་བྱེད་པའི་ཆེད་དུལྷན་དུ་འཛོམས་པའི་དུས་ངེས་ཅན་ཞིག་གཏན་ཁེལ་བྱས་པའི་དོན། ༼དུས་དུས་སུ༽ དུས་དང་མཐུན་པའམ་དུས་དང་འཚམས་པའི་དོན་ཏེ། དུས་དུས་སུ་ཞིང་ལ་ཆུ་གཏོང་དགོསལྟ་བུ། ༼དུས་བབ༽ དུས་སྐབས་ངེས་ཅན་ཞིག་གི་ཆ་རྐྱེན་དང་གནས་ཚུལ་གྱི་མིང་སྟེ། དུས་བབ་བཟང་བོ་ཞེས་པ་ལྟ་བུ། ༼དུས་ལ་བབ་པ༽ བྱ་དངོས་རྣམས་འབྱུང་བར་འཚམ་པའི་རྐྱེན་རྣམས་ཚང་བའི་དོན་ཏེ། ཚོགས་ཤིང་དུས་ལ་བབ་པ་ན། འབྲས་བུ་སྨིན་པ་ཉིད་དུ་འགྱུར་ཞེས་པ་ལྟ་བུ། ཚིག་བསྡུས་ན་དུས་བབ་ཞེས་འབྲི་ཆོག ༢་ལོ་གཅིག་གི་ནམ་ཟླའི་འགྱུར་ལྡོག་ངེས་ཅན་གྱི་མིང་སྟེ། དུས་བཞི། དཔྱིད་དུས་ཞེས་པ་ལྟ་བུ། ༼དུས་ཚིགས༽ ༼༡༽ ལོ་གཅིག་ལ་དཔྱིད་དབྱར་སྟོན་དགུན་གྱི་དུས་ཚིགས་བཞི་དང་། དུས་ཚིགས་རེ་ལ་ཟླ་བ་གསུམ་རེ་ཡོད། ༼༢༽ ལོ་གཅིག་ནང་གི་ཁྱད་ཆོས་ཁྱད་པར་བ་རེ་ཡོད་པའི་དུས་ཀྱི་མིང་སྟེ། ཞིང་ལས་བྲེལ་བ་ཆེ་བའི་དུས་ཚིགས། བལ་འབྲེག་པའི་དུས་ཚིགས་ཞེས་པ་ལྟ་བུ། ༼དུས་ཚོད༽ མི་རྣམས་ཀྱིས་གཏན་ཁེལ་བྱས་པའི་དུས་ཡུན་ངེས་ཅན་ཞིག་གི་མིང་སྟེ། སློབ་སྦྱོང་གི་དུས་ཚོད། དྲོས་ཇ་འཐུང་བའི་དུས་ཚོད་ཅེས་པ་ལྟ་བུ། ༼དུས་ཚོད་འཁོར་ལོ༽ དུས་ཚོད་ངོས་འཛིན་བྱེད་ཀྱི་དཔྱད་ཆས་རིགས་སྣ་ཚོགས་ཀྱི་སྤྱི་མིང་། ༼དུས་གཟེར༽ ཉིན་མཚན་གྱི་རིང་ཐུང་དང་། ཉིན་གུང་གི་གྲིབ་གཟུགས་ཀྱི་མཐོ་དམའ། ནམ་ཟླའི་འགྱུར་ལྡོག་རྣམས་ལ་བརྟེན་ནས་ལོ་གཅིག་གི་ཡུན་ལ་དུས་གཟེར་འགའ་ཞིག་གཏན་ཁེལ་བྱས་ཤིང་། དུས་གཟེར་དེ་རྣམས་ཀྱིས་སའི་གོ་ལ་སྤྱི་འགྲོས་བྱེད་པའི་གནས་གང་ན་ཡོད་པ་སྟོན་པར་བྱེད། དུས་གཟེར་ལ་བསྡོམས་པའི་ཉེར་བཞི་ཡོད་དེ། དཔྱིད་ཚུགས། ཆར་འབབ། སྲིན་བུ་འགུལ། དཔྱིད་མཉམ། དྭངས་གསལ། འབྲུ་ཆར། དབྱར་ཚུགས། བྲི་བ་གང་། མྱུར་འདེབས། དབྱར་ཉི་ལྡོག་ཚ་བ་ཆུང་། ཚ་བ་ཆེ། སྟོན་ཚུགས། བསིལ་འགུག་བད་དཀར། སྟོན་མཉམ། བད་ནག་བ་མོ་འབབ། དགུན་ཚུགས། ཁ་བ་ཆེ། ཁ་བ་ཆུང་། དགུན་ཉི་ལྡོག་གྲང་ངར་ཆུང་། གྲང་ངར་ཆེ་བཅས་ཡིན། ༼དུས་རབས༽ སྤྱི་ལོའི་མགོ་ཚུགས་པའི་ལོ་དེ་ནས་བཟུང་ལོ་བརྒྱ་རེའི་ཡུན་ལ་དུས་རབས་ཟེར། ༼དུས་གསུམ༽ ༼༡༽ འདས་པ་དང་ད་ལྟ་བ་མ་འོངས་པ་གསུམ་ལ་དུས་གསུམ་ཟེར། ༼༢༽ ལས་ཚིག་གམ་བྱ་ཚིག་གི་དུས་གསུམ་སྟོན་པའི་སྒྲའི་འགྱུར་བ་དང་ཡིག་གཟུགས་ཀྱི་འགྱུར་བ་ལའང་དུས་གསུམ་ཟེར་བའི་སྐབས་ཡོད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="259" ht="50" customHeight="1">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="260" ht="50" customHeight="1">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
           <t>རྦ་རླབས་</t>
         </is>
       </c>
-      <c r="B257" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 wave</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཆུ་གཡོས་པའི་རླབས། དབྱར་དུས་ཀྱི་གཙང་པོའི་ནང་རྦ་རླབས་དྲག་པོ་འཕྱུར་བ། རྒྱ་མཚོའི་རྦ་རླབས་རི་ལྟར་མཐོ་བ། གསར་བརྗེའི་རྦ་རླབས་མཐོན་པོར་སློང་བ། ཆུ་ཀླུང་ཐམས་ཅད་རྦ་རླབས་འཕྱོ་ཞིང་གནམ་དུ་འཕྱུར་བ་སྙམ་བྱེད། རི་ཐམས་ཅད་ནི་གྲོག་པོར་བཏང། ཐང་ཐམས་ཅད་ནི་གྲམ་པར་བརྡལ། མིང་གི་རྣམ་གྲངས་ལ་ཆུ་འཁྲུག་དང། ཆུ་རྔམས་པ། ཆུ་རླབས། ཆུའི་འཁྲི་ཤིང། ཆུའི་སྒྲེ་ལོག་སྟེང་འཕར། དབའ་ཀློང། དབའ་རླབས། རླབས་ཕྲེང་བཅས་སོ།</t>
         </is>
       </c>
     </row>
-    <row r="258" ht="50" customHeight="1">
-      <c r="A258" s="1" t="inlineStr">
-        <is>
-          <t>ཀྱིས་</t>
-        </is>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[as instrumental particle] by; by means of; with; because; through\n [as non-case particle corruptly used in place of the non-case usage of genitive particles] but; and; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱིས་གྱིས་གིས་འིས་ཡིས་ལྔ་ལ་བརྡ་སྤྲོད་དུ་བྱེད་སྒྲ་ཟེར། ༡.བྱེད་པ་པོ་སྟོན་པའི་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱེད་སྒྲ་ཡིན་ཏེ། ཁྱོད་ཀྱིས་ལྟོས། ཐབས་ཀྱིས་རྟ་རྒོད་འདུལ། དགེ་རྒན་གྱིས་སློབ་མར་དཔེ་ཆ་ཁྲིད། དམག་གིས་དམག་རྩལ་སྦྱང་། ཞིང་པ་ཡིས་ཞིང་འདེབས། འབྲོག་པས་ཕྱུགས་འཚོས་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པའི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བ་སྟེ། ཡིན་གྱིས་མིན། ཡོད་ཀྱིས་མེད། ཆོག་གིས་མི་ཆོག་ལྟ་བུ། ༣.འགའ་རེ་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་ཚིག་ཕྱི་མའི་རྣམ་པ་སོགས་སྟོན་པར་མཚོན་བྱེད་དེ། རྒྱལ་ཁབ་རིམ་གྱིས་དར། མི་རྣམས་ཁད་ཀྱིས་འདུས། བྱ་བ་ལྷུན་གྱིས་གྲུབ་ལྟ་བུ། ༤.འཇུག་ཚུལ་ནི་འབྲེལ་སྒྲ་གི་ཀྱི་གྱི་ཡི་འི་ལྔ་དང་མཚུངས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="259" ht="50" customHeight="1">
-      <c r="A259" s="1" t="inlineStr">
-        <is>
-          <t>ཡར་</t>
-        </is>
-      </c>
-      <c r="B259" s="2" t="inlineStr">
-        <is>
-          <t>Hackett
-(PH) upper; upward</t>
-        </is>
-      </c>
-      <c r="C259" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་རིམ་པ་གོང་མའམ་ཐོག་ཕྱོགས་ཏེ། ཡར་ཞུ། ཡར་འབུལ། གནམ་ལ་ཡར་བལྟས། ཡར་འགྲོ་ཞེས་པ་ལྟ་བུ། ༼ཡར་སྐྱེད༽ གཟུགས་དང་ཡོན་ཏན་དང་བློ་ཁ་སོགས་དམའ་བ་ལས་མཐོ་བར་སོང་བ་སྟེ། བྱིས་པ་ཡར་སྐྱེད་བྱུང་། ཡོན་ཏན་ཡར་སྐྱེད་བྱུང་། བློ་ཁ་ཡར་སྐྱེད་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ག༽ གནས་མཐོ་སའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཡར་གའི་རི། ཁྱིམ་ཡར་ག་མར་ག་ཞེས་པ་ལྟ་བུ། ༼ཡར་རྒྱས༽ ཉུང་བ་ནས་མང་བར་འཕར་བའི་ཆ་སྟེ། སྟོབས་འབྱོར་ཡར་རྒྱས་སུ་སོང་། བཟོ་ལས་ཡར་རྒྱས་སུ་བཏང་། ཡར་རྒྱས་གོང་འཕེལ་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ངོ༽ ཟླ་ཁ་ཡར་གང་བའི་དུས་ཏེ། ལོ་རྩིས་ཀྱི་ཚེས་གཅིག་ནས་བཅོ་ལྔའི་བར། ༼ཡར་དར༽ གོང་ནས་གོང་དུ་འཕེལ་བཞིན་པའི་དུས་ཏེ། ཡར་དར་མར་འགྲིབ་ཅེས་པ་ལྟ་བུ། ༼ཡར་ཐོན༽ སྔོན་ལས་གོང་དུ་འཕགས་པའི་ཆ་སྟེ། ལག་རྩལ་ཡར་ཐོན་བྱུང་། ཡར་ཐོན་པ་ཞེས་པ་ལྟ་བུ། ༢.ལེགས་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཁ་མིག་ཡར་ལྟ། ཡར་འགོ་ཡར་འཐེན། བསམ་པ་ཡར་སེམས། སྤྱི་དོན་ལ་ཡར་གཏོག་ཅེས་པ་ལྟ་བུ། ༼ཡར་འགོ༽ ལས་དོན་ལེགས་པའི་རིགས་ཀྱི་སྣ་འདྲེན་པ་སྟེ། སྡེ་བའི་ནང་དུ་རྒན་པོ་ཚོས་ཡར་འགོ་ཡར་འཐེན་བྱས་ནས་ན་གཞོན་ཚོར་སློབ་སྦྱོང་བྱེད་དུ་བཅུག ༼ཡར་གཏོག༽ ཡུལ་སྐད་ལ་ལར་ལེགས་པའི་རིགས་བྱེད་པར་སྐུལ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། རང་ཉིད་ལོ་རྒས་ཀྱང་ན་གཞོན་ཚོར་རིག་གནས་སློབ་པར་ཡར་གཏོག་བརྒྱབ་པ་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ཡར་ལྟ༽ ལེགས་པའི་ཕྱོགས་ལ་སློབ་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། མི་བཟང་བོ་ར་ཁ་མིག་ཡར་ལྟ་གྱིས་ཞེས་པ་ལྟ་བུ། ༼ཡར་སེམས༽ ལེགས་པའི་ཕྱོགས་ལ་བརྩོན་པའི་སེམས་ཏེ། བསམ་པ་ཡར་སེམས་དྲན། མི་ཡར་སེམས་ཅན་ཞེས་པ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="260" ht="50" customHeight="1">
-      <c r="A260" s="1" t="inlineStr">
-        <is>
-          <t>མར་</t>
-        </is>
-      </c>
-      <c r="B260" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) butter; ghee; (2) as (one's) mother</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཕྱུགས་ཀྱི་འོ་མ་ལས་བླངས་པའི་སྣུམ་གྱི་མིང་སྟེ། འོ་མ་དཀྲུགས་ནས་མར་བླངས། མར་ཁུ་ཞེས་པ་ལྟ་བུ། ༢.འབྲུ་སྣུམ་གྱི་མིང་སྟེ། འབྲུ་མར་ནི་གཡིས། ཏིལ་མར་ནི་ཏིལ་གྱི་སྣུམ་ཞེས་པ་ལྟ་བུ། ༼མར་མེ༽ སྣུམ་གྱི་སྒྲོན་མེའི་མིང་། ༣.ཡར་གྱི་ལྡོག་ཟླ། ༼ཀ༽ དམའ་ཕྱོགས་ཀྱི་དོན་ཏེ། ལ་སྟེང་ནས་མར་ལ་འོངས། ཆུ་མར་ལ་འབབས། རི་མགོ་ནས་མར་ལ་ལྟོས་ལྟ་བུ། ༼ཁ༽ གྲངས་དང་ཚད་སོགས་ཇེ་ཉུང་དང་ཇེ་ཆུང་དུ་སོང་བ་སྟེ། ཟླ་བ་མར་ལ་འགྲིབ། ནོམ་པའི་རིན་གོང་མར་ལ་བབས་ལྟ་བུ། ༼མར་ངོ༽ ལུགས་རྙིང་གི་ཟླ་རེའི་ཚེས་བཅུ་དྲུག་ནས་ཉེར་དགུའམ་སུམ་ཅུའི་བར་གྱི་མིང་།</t>
-        </is>
-      </c>
-    </row>
     <row r="261" ht="50" customHeight="1">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>འཁྱེར་</t>
+          <t>ཀྱིས་</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-carry; bear; bring</t>
+          <t>Hopkins 2015
+[as instrumental particle] by; by means of; with; because; through\n [as non-case particle corruptly used in place of the non-case usage of genitive particles] but; and; (semi-colon)</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཁྱེར་གྱི་མ་འོངས་པ་དང་ད་ལྟ་བ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱིས་གྱིས་གིས་འིས་ཡིས་ལྔ་ལ་བརྡ་སྤྲོད་དུ་བྱེད་སྒྲ་ཟེར། ༡.བྱེད་པ་པོ་སྟོན་པའི་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱེད་སྒྲ་ཡིན་ཏེ། ཁྱོད་ཀྱིས་ལྟོས། ཐབས་ཀྱིས་རྟ་རྒོད་འདུལ། དགེ་རྒན་གྱིས་སློབ་མར་དཔེ་ཆ་ཁྲིད། དམག་གིས་དམག་རྩལ་སྦྱང་། ཞིང་པ་ཡིས་ཞིང་འདེབས། འབྲོག་པས་ཕྱུགས་འཚོས་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པའི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བ་སྟེ། ཡིན་གྱིས་མིན། ཡོད་ཀྱིས་མེད། ཆོག་གིས་མི་ཆོག་ལྟ་བུ། ༣.འགའ་རེ་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་ཚིག་ཕྱི་མའི་རྣམ་པ་སོགས་སྟོན་པར་མཚོན་བྱེད་དེ། རྒྱལ་ཁབ་རིམ་གྱིས་དར། མི་རྣམས་ཁད་ཀྱིས་འདུས། བྱ་བ་ལྷུན་གྱིས་གྲུབ་ལྟ་བུ། ༤.འཇུག་ཚུལ་ནི་འབྲེལ་སྒྲ་གི་ཀྱི་གྱི་ཡི་འི་ལྔ་དང་མཚུངས།</t>
         </is>
       </c>
     </row>
     <row r="262" ht="50" customHeight="1">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>བཞིན་པ</t>
+          <t>ཡར་</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-like; particle indicating present continuous; similarly; while; in accordance with</t>
+          <t>Hackett Def. 2015
+(PH) upper; upward</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་རིམ་པ་གོང་མའམ་ཐོག་ཕྱོགས་ཏེ། ཡར་ཞུ། ཡར་འབུལ། གནམ་ལ་ཡར་བལྟས། ཡར་འགྲོ་ཞེས་པ་ལྟ་བུ། ༼ཡར་སྐྱེད༽ གཟུགས་དང་ཡོན་ཏན་དང་བློ་ཁ་སོགས་དམའ་བ་ལས་མཐོ་བར་སོང་བ་སྟེ། བྱིས་པ་ཡར་སྐྱེད་བྱུང་། ཡོན་ཏན་ཡར་སྐྱེད་བྱུང་། བློ་ཁ་ཡར་སྐྱེད་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ག༽ གནས་མཐོ་སའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཡར་གའི་རི། ཁྱིམ་ཡར་ག་མར་ག་ཞེས་པ་ལྟ་བུ། ༼ཡར་རྒྱས༽ ཉུང་བ་ནས་མང་བར་འཕར་བའི་ཆ་སྟེ། སྟོབས་འབྱོར་ཡར་རྒྱས་སུ་སོང་། བཟོ་ལས་ཡར་རྒྱས་སུ་བཏང་། ཡར་རྒྱས་གོང་འཕེལ་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ངོ༽ ཟླ་ཁ་ཡར་གང་བའི་དུས་ཏེ། ལོ་རྩིས་ཀྱི་ཚེས་གཅིག་ནས་བཅོ་ལྔའི་བར། ༼ཡར་དར༽ གོང་ནས་གོང་དུ་འཕེལ་བཞིན་པའི་དུས་ཏེ། ཡར་དར་མར་འགྲིབ་ཅེས་པ་ལྟ་བུ། ༼ཡར་ཐོན༽ སྔོན་ལས་གོང་དུ་འཕགས་པའི་ཆ་སྟེ། ལག་རྩལ་ཡར་ཐོན་བྱུང་། ཡར་ཐོན་པ་ཞེས་པ་ལྟ་བུ། ༢.ལེགས་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཁ་མིག་ཡར་ལྟ། ཡར་འགོ་ཡར་འཐེན། བསམ་པ་ཡར་སེམས། སྤྱི་དོན་ལ་ཡར་གཏོག་ཅེས་པ་ལྟ་བུ། ༼ཡར་འགོ༽ ལས་དོན་ལེགས་པའི་རིགས་ཀྱི་སྣ་འདྲེན་པ་སྟེ། སྡེ་བའི་ནང་དུ་རྒན་པོ་ཚོས་ཡར་འགོ་ཡར་འཐེན་བྱས་ནས་ན་གཞོན་ཚོར་སློབ་སྦྱོང་བྱེད་དུ་བཅུག ༼ཡར་གཏོག༽ ཡུལ་སྐད་ལ་ལར་ལེགས་པའི་རིགས་བྱེད་པར་སྐུལ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། རང་ཉིད་ལོ་རྒས་ཀྱང་ན་གཞོན་ཚོར་རིག་གནས་སློབ་པར་ཡར་གཏོག་བརྒྱབ་པ་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ཡར་ལྟ༽ ལེགས་པའི་ཕྱོགས་ལ་སློབ་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། མི་བཟང་བོ་ར་ཁ་མིག་ཡར་ལྟ་གྱིས་ཞེས་པ་ལྟ་བུ། ༼ཡར་སེམས༽ ལེགས་པའི་ཕྱོགས་ལ་བརྩོན་པའི་སེམས་ཏེ། བསམ་པ་ཡར་སེམས་དྲན། མི་ཡར་སེམས་ཅན་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="263" ht="50" customHeight="1">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t>མར་</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) butter; ghee; (2) as (one's) mother</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཕྱུགས་ཀྱི་འོ་མ་ལས་བླངས་པའི་སྣུམ་གྱི་མིང་སྟེ། འོ་མ་དཀྲུགས་ནས་མར་བླངས། མར་ཁུ་ཞེས་པ་ལྟ་བུ། ༢.འབྲུ་སྣུམ་གྱི་མིང་སྟེ། འབྲུ་མར་ནི་གཡིས། ཏིལ་མར་ནི་ཏིལ་གྱི་སྣུམ་ཞེས་པ་ལྟ་བུ། ༼མར་མེ༽ སྣུམ་གྱི་སྒྲོན་མེའི་མིང་། ༣.ཡར་གྱི་ལྡོག་ཟླ། ༼ཀ༽ དམའ་ཕྱོགས་ཀྱི་དོན་ཏེ། ལ་སྟེང་ནས་མར་ལ་འོངས། ཆུ་མར་ལ་འབབས། རི་མགོ་ནས་མར་ལ་ལྟོས་ལྟ་བུ། ༼ཁ༽ གྲངས་དང་ཚད་སོགས་ཇེ་ཉུང་དང་ཇེ་ཆུང་དུ་སོང་བ་སྟེ། ཟླ་བ་མར་ལ་འགྲིབ། ནོམ་པའི་རིན་གོང་མར་ལ་བབས་ལྟ་བུ། ༼མར་ངོ༽ ལུགས་རྙིང་གི་ཟླ་རེའི་ཚེས་བཅུ་དྲུག་ནས་ཉེར་དགུའམ་སུམ་ཅུའི་བར་གྱི་མིང་།</t>
         </is>
       </c>
     </row>
     <row r="264" ht="50" customHeight="1">
       <c r="A264" s="1" t="inlineStr">
         <is>
+          <t>འཁྱེར་</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+carry; bear; bring</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཁྱེར་གྱི་མ་འོངས་པ་དང་ད་ལྟ་བ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="265" ht="50" customHeight="1">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>བཞིན་པ</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+like; particle indicating present continuous; similarly; while; in accordance with</t>
+        </is>
+      </c>
+    </row>
+    <row r="266" ht="50" customHeight="1">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>འི་</t>
+        </is>
+      </c>
+    </row>
+    <row r="267" ht="50" customHeight="1">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B264" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="265" ht="50" customHeight="1">
-      <c r="A265" s="1" t="inlineStr">
+    <row r="268" ht="50" customHeight="1">
+      <c r="A268" s="1" t="inlineStr">
         <is>
           <t>ཀྱི་</t>
         </is>
       </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 [as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
         </is>
       </c>
     </row>
-    <row r="266" ht="50" customHeight="1">
-      <c r="A266" s="1" t="inlineStr">
+    <row r="269" ht="50" customHeight="1">
+      <c r="A269" s="1" t="inlineStr">
         <is>
           <t>ཨི་ཁུང་</t>
         </is>
       </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 hole</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 བུག་པ། ཨི་ཁུང་རྒྱག་པ།</t>
         </is>
       </c>
     </row>
-    <row r="267" ht="50" customHeight="1">
-      <c r="A267" s="1" t="inlineStr">
-        <is>
-          <t>ནང་</t>
-        </is>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-in; internal; inside; interior; house</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
-        </is>
-      </c>
-    </row>
-    <row r="268" ht="50" customHeight="1">
-      <c r="A268" s="1" t="inlineStr">
-        <is>
-          <t>བཅུག་</t>
-        </is>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-1) indicates causative construction; 2) enter; engage; apply; usher into</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-འཇུག་གི་འདས་པ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="269" ht="50" customHeight="1">
-      <c r="A269" s="1" t="inlineStr">
-        <is>
-          <t>ཐུབ་</t>
-        </is>
-      </c>
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
-1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
     <row r="270" ht="50" customHeight="1">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>ཡ་</t>
+          <t>ནང་</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-one of a pair; (T) an odd number</t>
+          <t>Hopkins 2015
+in; internal; inside; interior; house</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་བོད་ཡིག་གི་གསལ་བྱེད་ཉེར་བཞི་པ། ༼ཡ་བཏགས༽ བོད་ཡིག་གི་འདོགས་ཅན་བཞིའི་ནང་གི་ཡ་བཏགས་ཀྱི་མིང་སྟེ། ཀྱ་ཁྱ་གྱ་པྱ་ཕྱ་བྱ་མྱ་བཅས་བདུན་ནི་ཡ་བཏགས་ཅན་གྱི་ཡི་གེ་ཡིན། ༢.གཉིས་སམ་ཟུང་གི་ཆ་ཤས་གཅིག་གི་མིང་སྟེ། རྐང་བ་ཡ་གཅིག་ལྷམ་ཡ་གཅིག་ཁལ་དོ་ཡ་གཅིག་རྨོད་ཕྱུགས་ཀྱི་དོར་ལ། ཁ་ཡ་ངོ་ཡ་ཞེས་པ་ལྟ་བུ། ༼ཡ་གྱལ༽ ཁོངས་གཅིག་གི་ནང་ཚན་གྱི་ཁག་གཅིག་གི་མིང་སྟེ། དམག་དཔུང་གི་ཡ་གྱལ་ལྟ་བུ། ༼ཡ་གྲངས༽ གཅིག་དང་གསུམ་སོགས་ཆ་མི་མཉམ་པའི་གྲངས་ཀྱི་མིང་། ༼ཡ་མ་ཟུང༽ ཕན་ཚུན་ཆ་མི་སྙོམ་པའམ་རྒྱུན་དང་མི་མཐུན་པའི་དོན་ཏེ། སྒྱུ་མ་མཁན་གྱི་རྩེད་མོ་ཡ་མ་ཟུང་སྣ་ཚོགས་བསྟན་ཞེས་པ་ལྟ་བུ། ༣.ཐོག་གམ་མཐོ་ས་སྟེ། ཡ་སོ། ཡ་མཆུ། རི་རྩེ་ཡ་གི་ལ་དར་ཆ་བཙུགས་ལྟ་བུ། ༼ཡ་རྐན༽ ཁའི་ཡ་མཁ་ལ་གྱི་ནང་ངོས་ཀྱི་མིང་། ༼ཡ་མཁལ༽ མི་ཕྱུགས་ཀྱི་ཡ་སོ་སྐྱེ་སའི་རུས་པའི་མིང་སྟེ། ཡ་མགལ་ཡང་ཟེར། ༼ཡ་གི༽ རང་སྡོད་གནས་ལས་མཐོ་བའི་ས་སྟེ། ཡ་གི་རི། མི་ཡ་གི་ཞེས་པ་ལྟ་བུ། ༼ཡ་ཐོད༽ མིའི་གདོང་གི་མིག་ཡན་དང་སྐྲ་མཚམས་མན་གྱི་ཁག་གི་མིང་། ༤.དུས་སྔ་བ་སྟེ། ལོ་མགའི་ཡ་སྔོན་ཞེས་པ་ལྟ་བུ། ༼ཡ་ཐོག༽ ཧ་ཅང་སྔ་བའི་དུས་སྐབས་ཤིག་གི་མིང་སྟེ། བསྐལ་བ་ཡ་ཐོག་རིང་མོ་ཞེས་པ་ལྟ་བུ། ༼ཡ་མཐའ༽ མཐོ་བའི་མཐར་ཐུག་པའི་གནས་ཏེ། དེ་རིང་ཉི་མའི་ཡ་མཐའ་ནས་མ་མཐའི་བར་ཞེས་པ་ལྟ་བུ། ༥.འབོད་སྒྲ་སྟེ། ཡ། ཁྱོད་གང་ལ་འགྲོ། ཡ་ལགས། འོ་ཡ་ལྟ་བུ། ༦.ལས་ཚིག་ལ་ལའི་མཐར་སྦྱར་བས་ལས་ཀ་དེ་བྱེད་པར་སྐུལ་བ་བྱེད་པ་སྟེ། ད་འགྲོ་ཡ། སོང་ཡ། རྐོས་ཡ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
         </is>
       </c>
     </row>
     <row r="271" ht="50" customHeight="1">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>དཔེ་</t>
+          <t>བཅུག་</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-example</t>
+          <t>Hopkins 2015
+1) indicates causative construction; 2) enter; engage; apply; usher into</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཚད་དབྱིབས་སོགས་མཚོན་བྱེད་ཀྱི་རི་མོ་དང་གཟུགས་དབྱིབས་སོགས་ཀྱི་མིང་སྟེ། དཔེ་རིས། དཔེ་མཚོན། དཔེ་ཟླ་ཞེས་པ་ལྟ་བུ། ༢.མཚོན་བྱེད་ཀྱི་མིང་སྟེ། གཞན་དཔེ་རང་སྦྱོར། རང་དཔེ་གཞན་སྟོན། དཔེ་མེད་པ་ཞེས་པ་ལྟ་བུ། ༼དཔེ་བརྗོད༽ ཡང་དག་པའི་ཚད་ཐིག་བྱེད་ཆོག་པའི་ཚིག་སྦྱོར་སོགས་ཀྱི་མིང་སྟེ། སྙན་ངག་གི་དཔེ་བརྗོད། བརྡ་སྤྲོད་ཀྱི་དཔེ་བརྗོད་ཅེས་པ་ལྟ་བུ། ༣.གོམས་སྲོལ་དང་བཤད་སྲོལ་གྱི་མིང་སྟེ། ཁ་དཔེ། གཏམ་དཔེ། དཔེ་སྲོལ། འཇིག་རྟེན་དཔེ་མི་སྲིད་པ་ཞེས་པ་ལྟ་བུ། ༤.དཔེ་ཆ་ཞེས་པའི་ཚིག་བསྡུས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+འཇུག་གི་འདས་པ།</t>
         </is>
       </c>
     </row>
     <row r="272" ht="50" customHeight="1">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>ཁག་པོ་</t>
+          <t>ཐུབ་</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-difficult, hard</t>
+          <t>Ives Waldo
+1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-དཀའ་བའི་དོན་ཏེ། ལས་ཀ་ཧ་ཅང་ཁག་པོ་ལས། ལམ་ཁག་པོར་སོང་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="273" ht="50" customHeight="1">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>རེད</t>
+          <t>ཡ་</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-is</t>
+          <t>Hopkins 2015
+one of a pair; (T) an odd number</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་བོད་ཡིག་གི་གསལ་བྱེད་ཉེར་བཞི་པ། ༼ཡ་བཏགས༽ བོད་ཡིག་གི་འདོགས་ཅན་བཞིའི་ནང་གི་ཡ་བཏགས་ཀྱི་མིང་སྟེ། ཀྱ་ཁྱ་གྱ་པྱ་ཕྱ་བྱ་མྱ་བཅས་བདུན་ནི་ཡ་བཏགས་ཅན་གྱི་ཡི་གེ་ཡིན། ༢.གཉིས་སམ་ཟུང་གི་ཆ་ཤས་གཅིག་གི་མིང་སྟེ། རྐང་བ་ཡ་གཅིག་ལྷམ་ཡ་གཅིག་ཁལ་དོ་ཡ་གཅིག་རྨོད་ཕྱུགས་ཀྱི་དོར་ལ། ཁ་ཡ་ངོ་ཡ་ཞེས་པ་ལྟ་བུ། ༼ཡ་གྱལ༽ ཁོངས་གཅིག་གི་ནང་ཚན་གྱི་ཁག་གཅིག་གི་མིང་སྟེ། དམག་དཔུང་གི་ཡ་གྱལ་ལྟ་བུ། ༼ཡ་གྲངས༽ གཅིག་དང་གསུམ་སོགས་ཆ་མི་མཉམ་པའི་གྲངས་ཀྱི་མིང་། ༼ཡ་མ་ཟུང༽ ཕན་ཚུན་ཆ་མི་སྙོམ་པའམ་རྒྱུན་དང་མི་མཐུན་པའི་དོན་ཏེ། སྒྱུ་མ་མཁན་གྱི་རྩེད་མོ་ཡ་མ་ཟུང་སྣ་ཚོགས་བསྟན་ཞེས་པ་ལྟ་བུ། ༣.ཐོག་གམ་མཐོ་ས་སྟེ། ཡ་སོ། ཡ་མཆུ། རི་རྩེ་ཡ་གི་ལ་དར་ཆ་བཙུགས་ལྟ་བུ། ༼ཡ་རྐན༽ ཁའི་ཡ་མཁ་ལ་གྱི་ནང་ངོས་ཀྱི་མིང་། ༼ཡ་མཁལ༽ མི་ཕྱུགས་ཀྱི་ཡ་སོ་སྐྱེ་སའི་རུས་པའི་མིང་སྟེ། ཡ་མགལ་ཡང་ཟེར། ༼ཡ་གི༽ རང་སྡོད་གནས་ལས་མཐོ་བའི་ས་སྟེ། ཡ་གི་རི། མི་ཡ་གི་ཞེས་པ་ལྟ་བུ། ༼ཡ་ཐོད༽ མིའི་གདོང་གི་མིག་ཡན་དང་སྐྲ་མཚམས་མན་གྱི་ཁག་གི་མིང་། ༤.དུས་སྔ་བ་སྟེ། ལོ་མགའི་ཡ་སྔོན་ཞེས་པ་ལྟ་བུ། ༼ཡ་ཐོག༽ ཧ་ཅང་སྔ་བའི་དུས་སྐབས་ཤིག་གི་མིང་སྟེ། བསྐལ་བ་ཡ་ཐོག་རིང་མོ་ཞེས་པ་ལྟ་བུ། ༼ཡ་མཐའ༽ མཐོ་བའི་མཐར་ཐུག་པའི་གནས་ཏེ། དེ་རིང་ཉི་མའི་ཡ་མཐའ་ནས་མ་མཐའི་བར་ཞེས་པ་ལྟ་བུ། ༥.འབོད་སྒྲ་སྟེ། ཡ། ཁྱོད་གང་ལ་འགྲོ། ཡ་ལགས། འོ་ཡ་ལྟ་བུ། ༦.ལས་ཚིག་ལ་ལའི་མཐར་སྦྱར་བས་ལས་ཀ་དེ་བྱེད་པར་སྐུལ་བ་བྱེད་པ་སྟེ། ད་འགྲོ་ཡ། སོང་ཡ། རྐོས་ཡ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="274" ht="50" customHeight="1">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>དཔེ་</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+example</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཚད་དབྱིབས་སོགས་མཚོན་བྱེད་ཀྱི་རི་མོ་དང་གཟུགས་དབྱིབས་སོགས་ཀྱི་མིང་སྟེ། དཔེ་རིས། དཔེ་མཚོན། དཔེ་ཟླ་ཞེས་པ་ལྟ་བུ། ༢.མཚོན་བྱེད་ཀྱི་མིང་སྟེ། གཞན་དཔེ་རང་སྦྱོར། རང་དཔེ་གཞན་སྟོན། དཔེ་མེད་པ་ཞེས་པ་ལྟ་བུ། ༼དཔེ་བརྗོད༽ ཡང་དག་པའི་ཚད་ཐིག་བྱེད་ཆོག་པའི་ཚིག་སྦྱོར་སོགས་ཀྱི་མིང་སྟེ། སྙན་ངག་གི་དཔེ་བརྗོད། བརྡ་སྤྲོད་ཀྱི་དཔེ་བརྗོད་ཅེས་པ་ལྟ་བུ། ༣.གོམས་སྲོལ་དང་བཤད་སྲོལ་གྱི་མིང་སྟེ། ཁ་དཔེ། གཏམ་དཔེ། དཔེ་སྲོལ། འཇིག་རྟེན་དཔེ་མི་སྲིད་པ་ཞེས་པ་ལྟ་བུ། ༤.དཔེ་ཆ་ཞེས་པའི་ཚིག་བསྡུས་པ།</t>
         </is>
       </c>
     </row>
     <row r="275" ht="50" customHeight="1">
       <c r="A275" s="1" t="inlineStr">
         <is>
+          <t>ཁག་པོ་</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+difficult, hard</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+དཀའ་བའི་དོན་ཏེ། ལས་ཀ་ཧ་ཅང་ཁག་པོ་ལས། ལམ་ཁག་པོར་སོང་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="276" ht="50" customHeight="1">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>རེད</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+is</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="277" ht="50" customHeight="1">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="278" ht="50" customHeight="1">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
           <t>གང་ཡིན་</t>
         </is>
       </c>
-      <c r="B275" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 what is?; which is</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C278" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ༡༽ གང་འདྲའམ་ཅི་འདྲ་ཡིན། ༢༽ ཡིན་པ་ཐམས་ཅད།</t>
         </is>
       </c>
     </row>
-    <row r="276" ht="50" customHeight="1">
-      <c r="A276" s="1" t="inlineStr">
-        <is>
-          <t>ཟེར་</t>
-        </is>
-      </c>
-      <c r="B276" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-say; ray; beam; shaft of light</t>
-        </is>
-      </c>
-      <c r="C276" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡. ༼བྱེད་འབྲེལ་ལས་ཚིག༽ ཟེར་བ་སྟེ། སྐད་ཆ་བཤད་པའི་དོན། ཞིང་པས་ལོ་ཡག་བྱུང་ཟེར། སློབ་མས་སློབ་སྦྱོང་བྱས་ཟེར། ང་སློབ་གྲྭར་འགྲོ་ཞེས་ཟེར། རི་བོ་འདིར་གཏེར་ཁ་ཡོད་ཅེས་ཟེར་ལྟ་བུ། ༢.༼བྱེད་མེད་ལས་ཚིག༽ མིང་ལ་དེ་སྐད་ཅེས་བྱ་བའི་དོན་ཏེ། ངའི་མིང་ལ་རྡོ་རྗེ་ཟེར། ཁྱོད་ཀྱི་མིང་ལ་ཅི་ཟེར་ལྟ་བུ། ༼ཟེར་སྒྲོས༽ གོམས་འདྲིས་སུ་གྱུར་པའི་བཤད་སྲོལ་གྱི་མིང་། ༣.འོད་ཟེར་གྱི་མིང་སྟེ། ཉི་མའི་འོད་ཟེར་ལ་ཉི་ཟེར་དང་ཟླ་བའི་འོད་ཟེར་ལ་ཟླ་ཟེར་ཟེར་བ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="277" ht="50" customHeight="1">
-      <c r="A277" s="1" t="inlineStr">
-        <is>
-          <t>ན</t>
-        </is>
-      </c>
-      <c r="B277" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) to; in; as; at [accusative, dative, locative particle]; (2) if; when [non-case usages]; (3) be sick; be ill; in pain [for the verb, na ba]</t>
-        </is>
-      </c>
-      <c r="C277" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་མིང་གི་མཐའ་སྦྱར་ན་རྣམ་དབྱེ་ལ་འཇུག་པ་ནི། འབྲོག་ན་རྟ་ནོར་ལུག་གསུམ་ཡོད་ལྟ་བུ། རྒྱས་པར་ལ་ལ་ལྟོས། ༢.ལས་ཚིག་གི་མཐར་སྦྱར་ན་དོན་ཕྱི་མ་འདྲེན། ༼ཀ༽ ༼༡༽ མིང་གཞིའི་ཤིན་ཏུ་མོའི་ཡི་གེ་ཞིག ༼༢༽ རྗེས་འཇུག་གི་མ་ནིང་ཡི་གེ་ཞིག ༼ཁ༽ ༼༡༽ མིའི་ལོ་གྲངས་ཀྱི་ཚོད། ལོ་ན་མཐོན་པོ། ཕྲུ་གུ་ནར་མ་སོན་པ། ༼༢༽ ལོ་ལྔ་ལོན་པའི་རྟ་དྲེལ་གྱི་ལོ། ༼༣༽ ཆུ་རླན་ཆེ་བའམ་ཆུ་འཁྱིལ་མང་བོ་ཡོད་པའི་སྤང་ལྗོངས་ཀྱི་མིང་སྟེ། ན་ཐང་། ན་རྩྭ། ན་ཆུ། རྐྱང་ཁ་དཀར་རྨིག་བཞི་ན་ལ་ཟུག་ལྟ་བུ། ༣.ཚིག་ཕྲད་ན་ཡིག ༼༡༽ དམིགས་ཀྱིས་དབྱེ་བ། དངོས་སུ་ན། མདོར་བསྡུས་ན། ཡིན་གྲང་ན། ༼༢༽ རྒྱུ་མཚན་སྟོན་པ། མེ་ཡོད་ན་དུ་བ་འབྱུང་། ས་བོན་བཏབ་ན་འབྲས་བུ་སྐྱེ། ༼༣༽ རྒྱུ་མཚན་དོན་གྱིས་སྟོན་པ། ནད་མེད་ན་སྨན་པ་ཅིའི་ཕྱིར་བསྟེན། ཆང་མ་བཏུངས་ན་ར་བཟི་དོན་མེད། ཆུ་མེད་ན་ཉ་ག་ལ་ཡོང་། ༼༤༽ ཚིག་འགལ་བར་སྟོན་པ། ཁོ་རང་མཁས་པ་ཡིན་པར་གྲགས་ནའང་བཟང་ངན་གྱི་དབྱེ་བ་འབྱེད་མི་ཤེས་པའི་རྨོངས་པ་ཞིག་རེད་འདུག ༼༥༽ འོས་པར་དཀའ་བ། ཁྱི་ལའང་འཇིགས་ན་སེང་གེ་ལ་བཤད་མི་དགོས། མི་རྒན་པས་འཁུར་མི་ཐུབ་ན་ཕྲུ་གུས་ལྟ་ཅི་སྨོས། ནད་པ་དེ་ཕར་ཚུར་འགྲོ་ཐུབ་ན་ཡར་ལང་ཐུབ་པ་སྨོས་ཅི་འཚལ། ༼༦༽ ཕྱི་ཚིག་ངེས་པར་བྱེད་པ། དུད་འགྲོ་རྣམས་ཤིན་ཏུ་རྨོངས་ན་མིའང་དེ་ལྟར་འདུག་འབྲོག་པས་ཞིང་འདེབས་མི་ཤེས་ན་སོ་ནམ་པས་ཞིང་ཁ་འདེབས་མི་ཤེས་པའང་འདུག་ཅེས་པ་ལྟ་བུ། ༼༧༽ སྨོན་པ། ང་ཡ་ང་ཚན་རིག་པ་ཞིག་བྱེད་རྒྱུ་བྱུང་ན་ཅི་མ་རུང་ཞེས་པ་ལྟ་བུ། ༼༨༽ ཐེ་ཚོམ་སྟོན་པ། ས་བོན་ནི་བཏབ་ཟིན་ན་འདི་ལས་མྱུ་གུ་འབྱུང་ངམ་མི་འབྱུང། སྨན་བཏང་ཡོད་ན་ནད་ཨེ་སོས་མི་སོས། གདན་འདྲེན་ཞུས་ཟིན་ན་ཁོ་ཡ་འོང་ངམ་མི་ཡོང་། ༼ན་རམ༽ ན་གཞུང་དུ་སྐྱེ་བའི་རྩྭ་ལྡུམ་རིགས་ཤིག་གི་མིང་། ལོ་མའི་དབྱིབས་ཐ་རམ་དང་འདྲ་ལ་ཕྱུགས་ཀྱི་གཟན་རྩྭ་བཟང་བོ་ཞིག་ཡིན། ༤.ན་ཚོད་ཀྱི་ཚིག་བསྡུས་པ། ༥.ན་སོ་ལ་ལྟོས། ༦.ན་བ་ཡི་ཚིག་བསྡུས་པ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="278" ht="50" customHeight="1">
-      <c r="A278" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">། </t>
-        </is>
-      </c>
-    </row>
     <row r="279" ht="50" customHeight="1">
       <c r="A279" s="1" t="inlineStr">
         <is>
+          <t>ཟེར་</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+say; ray; beam; shaft of light</t>
+        </is>
+      </c>
+      <c r="C279" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་འབྲེལ་ལས་ཚིག༽ ཟེར་བ་སྟེ། སྐད་ཆ་བཤད་པའི་དོན། ཞིང་པས་ལོ་ཡག་བྱུང་ཟེར། སློབ་མས་སློབ་སྦྱོང་བྱས་ཟེར། ང་སློབ་གྲྭར་འགྲོ་ཞེས་ཟེར། རི་བོ་འདིར་གཏེར་ཁ་ཡོད་ཅེས་ཟེར་ལྟ་བུ། ༢.༼བྱེད་མེད་ལས་ཚིག༽ མིང་ལ་དེ་སྐད་ཅེས་བྱ་བའི་དོན་ཏེ། ངའི་མིང་ལ་རྡོ་རྗེ་ཟེར། ཁྱོད་ཀྱི་མིང་ལ་ཅི་ཟེར་ལྟ་བུ། ༼ཟེར་སྒྲོས༽ གོམས་འདྲིས་སུ་གྱུར་པའི་བཤད་སྲོལ་གྱི་མིང་། ༣.འོད་ཟེར་གྱི་མིང་སྟེ། ཉི་མའི་འོད་ཟེར་ལ་ཉི་ཟེར་དང་ཟླ་བའི་འོད་ཟེར་ལ་ཟླ་ཟེར་ཟེར་བ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="280" ht="50" customHeight="1">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>ན</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) to; in; as; at [accusative, dative, locative particle]; (2) if; when [non-case usages]; (3) be sick; be ill; in pain [for the verb, na ba]</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་གི་མཐའ་སྦྱར་ན་རྣམ་དབྱེ་ལ་འཇུག་པ་ནི། འབྲོག་ན་རྟ་ནོར་ལུག་གསུམ་ཡོད་ལྟ་བུ། རྒྱས་པར་ལ་ལ་ལྟོས། ༢.ལས་ཚིག་གི་མཐར་སྦྱར་ན་དོན་ཕྱི་མ་འདྲེན། ༼ཀ༽ ༼༡༽ མིང་གཞིའི་ཤིན་ཏུ་མོའི་ཡི་གེ་ཞིག ༼༢༽ རྗེས་འཇུག་གི་མ་ནིང་ཡི་གེ་ཞིག ༼ཁ༽ ༼༡༽ མིའི་ལོ་གྲངས་ཀྱི་ཚོད། ལོ་ན་མཐོན་པོ། ཕྲུ་གུ་ནར་མ་སོན་པ། ༼༢༽ ལོ་ལྔ་ལོན་པའི་རྟ་དྲེལ་གྱི་ལོ། ༼༣༽ ཆུ་རླན་ཆེ་བའམ་ཆུ་འཁྱིལ་མང་བོ་ཡོད་པའི་སྤང་ལྗོངས་ཀྱི་མིང་སྟེ། ན་ཐང་། ན་རྩྭ། ན་ཆུ། རྐྱང་ཁ་དཀར་རྨིག་བཞི་ན་ལ་ཟུག་ལྟ་བུ། ༣.ཚིག་ཕྲད་ན་ཡིག ༼༡༽ དམིགས་ཀྱིས་དབྱེ་བ། དངོས་སུ་ན། མདོར་བསྡུས་ན། ཡིན་གྲང་ན། ༼༢༽ རྒྱུ་མཚན་སྟོན་པ། མེ་ཡོད་ན་དུ་བ་འབྱུང་། ས་བོན་བཏབ་ན་འབྲས་བུ་སྐྱེ། ༼༣༽ རྒྱུ་མཚན་དོན་གྱིས་སྟོན་པ། ནད་མེད་ན་སྨན་པ་ཅིའི་ཕྱིར་བསྟེན། ཆང་མ་བཏུངས་ན་ར་བཟི་དོན་མེད། ཆུ་མེད་ན་ཉ་ག་ལ་ཡོང་། ༼༤༽ ཚིག་འགལ་བར་སྟོན་པ། ཁོ་རང་མཁས་པ་ཡིན་པར་གྲགས་ནའང་བཟང་ངན་གྱི་དབྱེ་བ་འབྱེད་མི་ཤེས་པའི་རྨོངས་པ་ཞིག་རེད་འདུག ༼༥༽ འོས་པར་དཀའ་བ། ཁྱི་ལའང་འཇིགས་ན་སེང་གེ་ལ་བཤད་མི་དགོས། མི་རྒན་པས་འཁུར་མི་ཐུབ་ན་ཕྲུ་གུས་ལྟ་ཅི་སྨོས། ནད་པ་དེ་ཕར་ཚུར་འགྲོ་ཐུབ་ན་ཡར་ལང་ཐུབ་པ་སྨོས་ཅི་འཚལ། ༼༦༽ ཕྱི་ཚིག་ངེས་པར་བྱེད་པ། དུད་འགྲོ་རྣམས་ཤིན་ཏུ་རྨོངས་ན་མིའང་དེ་ལྟར་འདུག་འབྲོག་པས་ཞིང་འདེབས་མི་ཤེས་ན་སོ་ནམ་པས་ཞིང་ཁ་འདེབས་མི་ཤེས་པའང་འདུག་ཅེས་པ་ལྟ་བུ། ༼༧༽ སྨོན་པ། ང་ཡ་ང་ཚན་རིག་པ་ཞིག་བྱེད་རྒྱུ་བྱུང་ན་ཅི་མ་རུང་ཞེས་པ་ལྟ་བུ། ༼༨༽ ཐེ་ཚོམ་སྟོན་པ། ས་བོན་ནི་བཏབ་ཟིན་ན་འདི་ལས་མྱུ་གུ་འབྱུང་ངམ་མི་འབྱུང། སྨན་བཏང་ཡོད་ན་ནད་ཨེ་སོས་མི་སོས། གདན་འདྲེན་ཞུས་ཟིན་ན་ཁོ་ཡ་འོང་ངམ་མི་ཡོང་། ༼ན་རམ༽ ན་གཞུང་དུ་སྐྱེ་བའི་རྩྭ་ལྡུམ་རིགས་ཤིག་གི་མིང་། ལོ་མའི་དབྱིབས་ཐ་རམ་དང་འདྲ་ལ་ཕྱུགས་ཀྱི་གཟན་རྩྭ་བཟང་བོ་ཞིག་ཡིན། ༤.ན་ཚོད་ཀྱི་ཚིག་བསྡུས་པ། ༥.ན་སོ་ལ་ལྟོས། ༦.ན་བ་ཡི་ཚིག་བསྡུས་པ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="281" ht="50" customHeight="1">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="282" ht="50" customHeight="1">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
           <t>དང་པོ</t>
         </is>
       </c>
-      <c r="B279" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 first</t>
         </is>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ༡.་འགོ་མ་དང། ཐོག་མ་དང། སྔ་མ། ངས་དང་པོ་ནས་གསལ་པོར་བཤད་ཡོད། ཁོས་དང་པོ་ཉིད་ནས་ཁས་བླངས་པ། ཡིན་ནའང་ཕྱིས་སུ་ལག་ལེན་བྱས་མ་སོང། དང་པོ་དང་ཐ་མ་ཚང་མར་འགྱུར་བ་མེད་པ། ༢.་ཨང་གྲངས་དང་པོ། ཐེངས་དང་པོ། ལེའུ་དང་པོ། ཨང་དང་པོ།</t>
         </is>
       </c>
     </row>
-    <row r="280" ht="50" customHeight="1">
-      <c r="A280" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">། </t>
-        </is>
-      </c>
-    </row>
-    <row r="281" ht="50" customHeight="1">
-      <c r="A281" s="1" t="inlineStr">
-        <is>
-          <t>རུས་སྦལ་</t>
-        </is>
-      </c>
-      <c r="B281" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
-        </is>
-      </c>
-      <c r="C281" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
-        </is>
-      </c>
-    </row>
-    <row r="282" ht="50" customHeight="1">
-      <c r="A282" s="1" t="inlineStr">
-        <is>
-          <t>ནི་</t>
-        </is>
-      </c>
-      <c r="B282" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[a separative particle; non-case particle sets off subject or topic]</t>
-        </is>
-      </c>
-      <c r="C282" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དགར་བ་སྟེ། ཚིག་སྔ་ཕྱི་གཉིས་ཀྱི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་གཙོ་ཚིག་དང་ཕྱི་མ་ནི་རྗོད་ཚིག་ཡིན་པར་སྟོན་ཏེ། རྟ་ནོར་ལུག་གསུམ་ནི་བོད་རིགས་མི་དམངས་ཀྱི་སྒོ་ཕྱུགས་གཙོ་བོ་ཡིན། བ་ལང་ནི་སྒོ་ཕྱུགས་བཟང་བོ་ཞིག་ཡིན་ཞེས་པ་ལྟ་བུ། ༢.ངེས་བཟུང་ངམ་བརྣན་པ་སྟེ། ནན་ཏན་བྱེད་པའི་དོན་ལ་འཇུག་པ་ནི། སྒྲིག་ཁྲིམས་ནི་ངེས་པར་དུ་བསྲུང་དགོས། སློབ་གྲྭར་ནི་ཞུགས། འགོ་འདྲེན་ནི་བཟང་། ཆ་རྐྱེན་ནི་འཛོམས། བདག་གིས་ནི་ཁྲིམས་འགལ་གཏན་ནས་མི་བྱེད། ཁྱོད་རང་གིས་ནི་སློབ་སྦྱོང་ནན་ཏན་བྱོས་ལྟ་བུ། ༣.ཚིག་ཕྱི་མ་འདྲེན་པའི་དོན་ལ་འཇུག་པ་ནི། རྟ་ནོར་ལུག་གསུམ་གྱི་ཤེད་བཟང་བ་ནི་འཚོ་སྐྱོང་ལེགས་པས་བྱས་པའི་རྐྱེན་གྱིས་ཡིན་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
     <row r="283" ht="50" customHeight="1">
       <c r="A283" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="284" ht="50" customHeight="1">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>རུས་སྦལ་</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
+        </is>
+      </c>
+    </row>
+    <row r="285" ht="50" customHeight="1">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>ནི་</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[a separative particle; non-case particle sets off subject or topic]</t>
+        </is>
+      </c>
+      <c r="C285" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དགར་བ་སྟེ། ཚིག་སྔ་ཕྱི་གཉིས་ཀྱི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་གཙོ་ཚིག་དང་ཕྱི་མ་ནི་རྗོད་ཚིག་ཡིན་པར་སྟོན་ཏེ། རྟ་ནོར་ལུག་གསུམ་ནི་བོད་རིགས་མི་དམངས་ཀྱི་སྒོ་ཕྱུགས་གཙོ་བོ་ཡིན། བ་ལང་ནི་སྒོ་ཕྱུགས་བཟང་བོ་ཞིག་ཡིན་ཞེས་པ་ལྟ་བུ། ༢.ངེས་བཟུང་ངམ་བརྣན་པ་སྟེ། ནན་ཏན་བྱེད་པའི་དོན་ལ་འཇུག་པ་ནི། སྒྲིག་ཁྲིམས་ནི་ངེས་པར་དུ་བསྲུང་དགོས། སློབ་གྲྭར་ནི་ཞུགས། འགོ་འདྲེན་ནི་བཟང་། ཆ་རྐྱེན་ནི་འཛོམས། བདག་གིས་ནི་ཁྲིམས་འགལ་གཏན་ནས་མི་བྱེད། ཁྱོད་རང་གིས་ནི་སློབ་སྦྱོང་ནན་ཏན་བྱོས་ལྟ་བུ། ༣.ཚིག་ཕྱི་མ་འདྲེན་པའི་དོན་ལ་འཇུག་པ་ནི། རྟ་ནོར་ལུག་གསུམ་གྱི་ཤེད་བཟང་བ་ནི་འཚོ་སྐྱོང་ལེགས་པས་བྱས་པའི་རྐྱེན་གྱིས་ཡིན་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="286" ht="50" customHeight="1">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
           <t>མང་ཆེ་བ་</t>
         </is>
       </c>
-      <c r="B283" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 majority; majority, mostly, most/_greatest part</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C286" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཕལ་ཆེ་བའམ་བྱིངས་ཆེ་བ། ལས་དོན་ཅི་ཞིག་བྱེད་ཀྱང་མི་མང་ཆེ་བའི་ཁེ་ཕན་དང་བསྟུན་པ་གལ་ཆེ། མང་ཇ། དགེ་འདུན་པ་རྣམས་ལ་འདྲེན་རྒྱུའི་འཐུང་ཇ།</t>
         </is>
       </c>
     </row>
-    <row r="284" ht="50" customHeight="1">
-      <c r="A284" s="1" t="inlineStr">
-        <is>
-          <t>གཉིད་ཁུག་</t>
-        </is>
-      </c>
-      <c r="B284" s="2" t="inlineStr">
-        <is>
-          <t>Valby
-to fall asleep</t>
-        </is>
-      </c>
-    </row>
-    <row r="285" ht="50" customHeight="1">
-      <c r="A285" s="1" t="inlineStr">
-        <is>
-          <t>ནས་</t>
-        </is>
-      </c>
-      <c r="B285" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) ablative particle: from; than; (2) barley</t>
-        </is>
-      </c>
-      <c r="C285" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="286" ht="50" customHeight="1">
-      <c r="A286" s="1" t="inlineStr">
-        <is>
-          <t>སྡོད་</t>
-        </is>
-      </c>
-      <c r="B286" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-to subsist; abide; stay; reside; sit; stop; dwell</t>
-        </is>
-      </c>
-      <c r="C286" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༼བྱེད་མེད་ལས་ཚིག་ད་ལྟ་བ་དང་མ་འོངས་པ་སྐུལ་ཚིག༽ ༡་འགྲོ་མཚམས་དང་གཡོ་འགུལ་མཚམས་བཞག་པ་སྟེ། གཏན་སྡོད། སྡོད་ཅིག་ལྟ་བུ། ༼བསྡད༽ ནི་འདས་པ་སྟེ། རྐུ་སྟེགས་ལ་བསྡད་ནས་གློག་བཪྙན་ལ་བལྟས་ལྟ་བུ། ༢.གནས་པ་སྟེ། ཁང་བ་འདིར་སུ་བསྡད་ཡོད། ཁང་བ་འདིར་སྡོད་ཅིག་གྲོང་ཁྱེར་འདིར་སྡོད་པའི་མི་ཞེས་པ་ལྟ་བུ། ༣.གོ་གནས་སུ་གནས་པའམ་འགན་འཁུར་པ་སྟེ། དཔོན་པོར་སྡོད་མཁན། སྡེ་དཔོན་ལ་བསྡད་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
     <row r="287" ht="50" customHeight="1">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>ཀྱི་</t>
+          <t>གཉིད་</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-[as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
+          <t>Gaeng, Wetzel
+sleepiness\nSanskrit: middham\nPali: middham</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཀླད་ཆེན་གྱི་པགས་རིམ་ངལ་གསོ་བའི་ངང་ལ་གནས་པའི་རྣམ་འགྱུར་གྱི་མིང་སྟེ། གཉིད་ལོག་ནས་རྨི་ལམ་རྨིས། གཉིད་སད། གཉིད་སངས། གཉིད་འབབ། གཉིད་བབས། གཉིད་ཡེར། གཉིད་མཐུག་པོ་ལོག་གཉིད་དུ་ཡུར་ལྟ་བུ། ༢.བྱེད་མེད་ལས་ཚིག་གཉིད་འབབ་པ་སྟེ། གཉིད་རྒྱུ་རེད། གཉིད་ཀྱིན་འདུག་གཉིད་སོང་སོགས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="288" ht="50" customHeight="1">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>ཡོད་རེད</t>
+          <t>ཁུག་</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-there are --</t>
+          <t>Ives Waldo
+1) ['Gugs pa!] [past: 'gugs] be drawn/_attracted, seduce, bow!; 2) solitary place; 3) nook, corner, ཁོ་སིམ་བུ, creek, inlet, bay, gulf</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡. ༼བྱེད་འབྲེལ་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བ༽ ཚོང་རྫས་སོགས་ཉོ་བྱེད་ཀྱི་དངུལ་འདང་བའི་དོན་ཏེ། སྒོར་མོ་གཅིག་གིས་ཀ་ར་རྒྱ་མ་གང་ཁུག་ལྟ་བུ། ༼ཁུགས༽ ནི་འདས་པ་སྟེ། སྒོར་མོ་སུམ་ཅུས་ལྭ་བ་ཆ་ཚང་ཞིག་ཁུགས་ནས་ད་དུང་ལྷག་མ་ཡོད་ལྟ་བུ། ༢.བཀུག་གི་སྐུལ་ཚིག ༣་ཁུག་མ་ཞེས་པའི་ཚིག་བསྡུས་པ། ༤.ཁུགས་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="289" ht="50" customHeight="1">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ནས་</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) ablative particle: from; than; (2) barley</t>
+        </is>
+      </c>
+      <c r="C289" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིང་ཚིག་གི་མཐར་སྦྱར་ན་མགོ་རྩོམ་སའི་གནས་སམ་འབྱུང་ཁུངས་སྟོན་པ་སྟེ། མགོ་ནས་མཇུག་བར། ལྷ་ས་ནས་རྒྱ་གར་བར། ཤར་ཕྱོགས་ནས་ཉི་མ་ཤར། ས་སྟེང་ནས་རྩི་ཤིང་སྐྱེས་ལྟ་བུ། ༢.ལས་ཚིག་འདས་པའི་མཐར་སྦྱར་ན་སྔ་ཕྱིའི་རིམ་པ་སྟོན་ཏེ། ཞིང་རྨོས་ནས་ལོ་ཏོག་བཏབ། ཞིང་ཁར་སོང་ནས་ཡུར་མ་ཡུར་ལྟ་བུ། ༣.ལོ་ཏོག་ནས་ཀྱི་མིང་སྟེ། ནས་འབྲུ། ནས་ཆང་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="290" ht="50" customHeight="1">
       <c r="A290" s="1" t="inlineStr">
         <is>
+          <t>སྡོད་</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+to subsist; abide; stay; reside; sit; stop; dwell</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་མེད་ལས་ཚིག་ད་ལྟ་བ་དང་མ་འོངས་པ་སྐུལ་ཚིག༽ ༡་འགྲོ་མཚམས་དང་གཡོ་འགུལ་མཚམས་བཞག་པ་སྟེ། གཏན་སྡོད། སྡོད་ཅིག་ལྟ་བུ། ༼བསྡད༽ ནི་འདས་པ་སྟེ། རྐུ་སྟེགས་ལ་བསྡད་ནས་གློག་བཪྙན་ལ་བལྟས་ལྟ་བུ། ༢.གནས་པ་སྟེ། ཁང་བ་འདིར་སུ་བསྡད་ཡོད། ཁང་བ་འདིར་སྡོད་ཅིག་གྲོང་ཁྱེར་འདིར་སྡོད་པའི་མི་ཞེས་པ་ལྟ་བུ། ༣.གོ་གནས་སུ་གནས་པའམ་འགན་འཁུར་པ་སྟེ། དཔོན་པོར་སྡོད་མཁན། སྡེ་དཔོན་ལ་བསྡད་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="291" ht="50" customHeight="1">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>ཀྱི་</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
+        </is>
+      </c>
+      <c r="C291" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
+        </is>
+      </c>
+    </row>
+    <row r="292" ht="50" customHeight="1">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>ཡོད་རེད</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+there are --</t>
+        </is>
+      </c>
+    </row>
+    <row r="293" ht="50" customHeight="1">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="294" ht="50" customHeight="1">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
           <t>གཉིས་པ</t>
         </is>
       </c>
-      <c r="B290" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 second; in texts: second part</t>
         </is>
       </c>
-      <c r="C290" s="2" t="inlineStr">
+      <c r="C294" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ༡༽ གྲངས་རིམ་ཞིག ༢༽ ༼མངོན༽ ཁྱིམ་བདག་མོ།</t>
         </is>
       </c>
     </row>
-    <row r="291" ht="50" customHeight="1">
-      <c r="A291" s="1" t="inlineStr">
+    <row r="295" ht="50" customHeight="1">
+      <c r="A295" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
-    <row r="292" ht="50" customHeight="1">
-      <c r="A292" s="1" t="inlineStr">
+    <row r="296" ht="50" customHeight="1">
+      <c r="A296" s="1" t="inlineStr">
         <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B292" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C292" s="2" t="inlineStr">
+      <c r="C296" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="293" ht="50" customHeight="1">
-      <c r="A293" s="1" t="inlineStr">
+    <row r="297" ht="50" customHeight="1">
+      <c r="A297" s="1" t="inlineStr">
         <is>
           <t>ནི་</t>
         </is>
       </c>
-      <c r="B293" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B297" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 [a separative particle; non-case particle sets off subject or topic]</t>
         </is>
       </c>
-      <c r="C293" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C297" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་དགར་བ་སྟེ། ཚིག་སྔ་ཕྱི་གཉིས་ཀྱི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་གཙོ་ཚིག་དང་ཕྱི་མ་ནི་རྗོད་ཚིག་ཡིན་པར་སྟོན་ཏེ། རྟ་ནོར་ལུག་གསུམ་ནི་བོད་རིགས་མི་དམངས་ཀྱི་སྒོ་ཕྱུགས་གཙོ་བོ་ཡིན། བ་ལང་ནི་སྒོ་ཕྱུགས་བཟང་བོ་ཞིག་ཡིན་ཞེས་པ་ལྟ་བུ། ༢.ངེས་བཟུང་ངམ་བརྣན་པ་སྟེ། ནན་ཏན་བྱེད་པའི་དོན་ལ་འཇུག་པ་ནི། སྒྲིག་ཁྲིམས་ནི་ངེས་པར་དུ་བསྲུང་དགོས། སློབ་གྲྭར་ནི་ཞུགས། འགོ་འདྲེན་ནི་བཟང་། ཆ་རྐྱེན་ནི་འཛོམས། བདག་གིས་ནི་ཁྲིམས་འགལ་གཏན་ནས་མི་བྱེད། ཁྱོད་རང་གིས་ནི་སློབ་སྦྱོང་ནན་ཏན་བྱོས་ལྟ་བུ། ༣.ཚིག་ཕྱི་མ་འདྲེན་པའི་དོན་ལ་འཇུག་པ་ནི། རྟ་ནོར་ལུག་གསུམ་གྱི་ཤེད་བཟང་བ་ནི་འཚོ་སྐྱོང་ལེགས་པས་བྱས་པའི་རྐྱེན་གྱིས་ཡིན་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
-    <row r="294" ht="50" customHeight="1">
-      <c r="A294" s="1" t="inlineStr">
+    <row r="298" ht="50" customHeight="1">
+      <c r="A298" s="1" t="inlineStr">
         <is>
           <t>ག་དུས་</t>
         </is>
       </c>
-      <c r="B294" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 when?; at what time?</t>
         </is>
       </c>
     </row>
-    <row r="295" ht="50" customHeight="1">
-      <c r="A295" s="1" t="inlineStr">
+    <row r="299" ht="50" customHeight="1">
+      <c r="A299" s="1" t="inlineStr">
         <is>
           <t>ཡིན་ན་ཡང་</t>
         </is>
       </c>
-      <c r="B295" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B299" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 but, however, nevertheless, even though</t>
         </is>
       </c>
     </row>
-    <row r="296" ht="50" customHeight="1">
-      <c r="A296" s="1" t="inlineStr">
+    <row r="300" ht="50" customHeight="1">
+      <c r="A300" s="1" t="inlineStr">
         <is>
           <t>རྦ་རླབས་</t>
         </is>
       </c>
-      <c r="B296" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 wave</t>
         </is>
       </c>
-      <c r="C296" s="2" t="inlineStr">
+      <c r="C300" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཆུ་གཡོས་པའི་རླབས། དབྱར་དུས་ཀྱི་གཙང་པོའི་ནང་རྦ་རླབས་དྲག་པོ་འཕྱུར་བ། རྒྱ་མཚོའི་རྦ་རླབས་རི་ལྟར་མཐོ་བ། གསར་བརྗེའི་རྦ་རླབས་མཐོན་པོར་སློང་བ། ཆུ་ཀླུང་ཐམས་ཅད་རྦ་རླབས་འཕྱོ་ཞིང་གནམ་དུ་འཕྱུར་བ་སྙམ་བྱེད། རི་ཐམས་ཅད་ནི་གྲོག་པོར་བཏང། ཐང་ཐམས་ཅད་ནི་གྲམ་པར་བརྡལ། མིང་གི་རྣམ་གྲངས་ལ་ཆུ་འཁྲུག་དང། ཆུ་རྔམས་པ། ཆུ་རླབས། ཆུའི་འཁྲི་ཤིང། ཆུའི་སྒྲེ་ལོག་སྟེང་འཕར། དབའ་ཀློང། དབའ་རླབས། རླབས་ཕྲེང་བཅས་སོ།</t>
         </is>
       </c>
     </row>
-    <row r="297" ht="50" customHeight="1">
-      <c r="A297" s="1" t="inlineStr">
-        <is>
-          <t>ཀྱིས་</t>
-        </is>
-      </c>
-      <c r="B297" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[as instrumental particle] by; by means of; with; because; through\n [as non-case particle corruptly used in place of the non-case usage of genitive particles] but; and; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C297" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱིས་གྱིས་གིས་འིས་ཡིས་ལྔ་ལ་བརྡ་སྤྲོད་དུ་བྱེད་སྒྲ་ཟེར། ༡.བྱེད་པ་པོ་སྟོན་པའི་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱེད་སྒྲ་ཡིན་ཏེ། ཁྱོད་ཀྱིས་ལྟོས། ཐབས་ཀྱིས་རྟ་རྒོད་འདུལ། དགེ་རྒན་གྱིས་སློབ་མར་དཔེ་ཆ་ཁྲིད། དམག་གིས་དམག་རྩལ་སྦྱང་། ཞིང་པ་ཡིས་ཞིང་འདེབས། འབྲོག་པས་ཕྱུགས་འཚོས་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པའི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བ་སྟེ། ཡིན་གྱིས་མིན། ཡོད་ཀྱིས་མེད། ཆོག་གིས་མི་ཆོག་ལྟ་བུ། ༣.འགའ་རེ་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་ཚིག་ཕྱི་མའི་རྣམ་པ་སོགས་སྟོན་པར་མཚོན་བྱེད་དེ། རྒྱལ་ཁབ་རིམ་གྱིས་དར། མི་རྣམས་ཁད་ཀྱིས་འདུས། བྱ་བ་ལྷུན་གྱིས་གྲུབ་ལྟ་བུ། ༤.འཇུག་ཚུལ་ནི་འབྲེལ་སྒྲ་གི་ཀྱི་གྱི་ཡི་འི་ལྔ་དང་མཚུངས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="298" ht="50" customHeight="1">
-      <c r="A298" s="1" t="inlineStr">
-        <is>
-          <t>ཡར་</t>
-        </is>
-      </c>
-      <c r="B298" s="2" t="inlineStr">
-        <is>
-          <t>Hackett
-(PH) upper; upward</t>
-        </is>
-      </c>
-      <c r="C298" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་རིམ་པ་གོང་མའམ་ཐོག་ཕྱོགས་ཏེ། ཡར་ཞུ། ཡར་འབུལ། གནམ་ལ་ཡར་བལྟས། ཡར་འགྲོ་ཞེས་པ་ལྟ་བུ། ༼ཡར་སྐྱེད༽ གཟུགས་དང་ཡོན་ཏན་དང་བློ་ཁ་སོགས་དམའ་བ་ལས་མཐོ་བར་སོང་བ་སྟེ། བྱིས་པ་ཡར་སྐྱེད་བྱུང་། ཡོན་ཏན་ཡར་སྐྱེད་བྱུང་། བློ་ཁ་ཡར་སྐྱེད་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ག༽ གནས་མཐོ་སའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཡར་གའི་རི། ཁྱིམ་ཡར་ག་མར་ག་ཞེས་པ་ལྟ་བུ། ༼ཡར་རྒྱས༽ ཉུང་བ་ནས་མང་བར་འཕར་བའི་ཆ་སྟེ། སྟོབས་འབྱོར་ཡར་རྒྱས་སུ་སོང་། བཟོ་ལས་ཡར་རྒྱས་སུ་བཏང་། ཡར་རྒྱས་གོང་འཕེལ་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ངོ༽ ཟླ་ཁ་ཡར་གང་བའི་དུས་ཏེ། ལོ་རྩིས་ཀྱི་ཚེས་གཅིག་ནས་བཅོ་ལྔའི་བར། ༼ཡར་དར༽ གོང་ནས་གོང་དུ་འཕེལ་བཞིན་པའི་དུས་ཏེ། ཡར་དར་མར་འགྲིབ་ཅེས་པ་ལྟ་བུ། ༼ཡར་ཐོན༽ སྔོན་ལས་གོང་དུ་འཕགས་པའི་ཆ་སྟེ། ལག་རྩལ་ཡར་ཐོན་བྱུང་། ཡར་ཐོན་པ་ཞེས་པ་ལྟ་བུ། ༢.ལེགས་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཁ་མིག་ཡར་ལྟ། ཡར་འགོ་ཡར་འཐེན། བསམ་པ་ཡར་སེམས། སྤྱི་དོན་ལ་ཡར་གཏོག་ཅེས་པ་ལྟ་བུ། ༼ཡར་འགོ༽ ལས་དོན་ལེགས་པའི་རིགས་ཀྱི་སྣ་འདྲེན་པ་སྟེ། སྡེ་བའི་ནང་དུ་རྒན་པོ་ཚོས་ཡར་འགོ་ཡར་འཐེན་བྱས་ནས་ན་གཞོན་ཚོར་སློབ་སྦྱོང་བྱེད་དུ་བཅུག ༼ཡར་གཏོག༽ ཡུལ་སྐད་ལ་ལར་ལེགས་པའི་རིགས་བྱེད་པར་སྐུལ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། རང་ཉིད་ལོ་རྒས་ཀྱང་ན་གཞོན་ཚོར་རིག་གནས་སློབ་པར་ཡར་གཏོག་བརྒྱབ་པ་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ཡར་ལྟ༽ ལེགས་པའི་ཕྱོགས་ལ་སློབ་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། མི་བཟང་བོ་ར་ཁ་མིག་ཡར་ལྟ་གྱིས་ཞེས་པ་ལྟ་བུ། ༼ཡར་སེམས༽ ལེགས་པའི་ཕྱོགས་ལ་བརྩོན་པའི་སེམས་ཏེ། བསམ་པ་ཡར་སེམས་དྲན། མི་ཡར་སེམས་ཅན་ཞེས་པ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="299" ht="50" customHeight="1">
-      <c r="A299" s="1" t="inlineStr">
-        <is>
-          <t>མར་</t>
-        </is>
-      </c>
-      <c r="B299" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) butter; ghee; (2) as (one's) mother</t>
-        </is>
-      </c>
-      <c r="C299" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཕྱུགས་ཀྱི་འོ་མ་ལས་བླངས་པའི་སྣུམ་གྱི་མིང་སྟེ། འོ་མ་དཀྲུགས་ནས་མར་བླངས། མར་ཁུ་ཞེས་པ་ལྟ་བུ། ༢.འབྲུ་སྣུམ་གྱི་མིང་སྟེ། འབྲུ་མར་ནི་གཡིས། ཏིལ་མར་ནི་ཏིལ་གྱི་སྣུམ་ཞེས་པ་ལྟ་བུ། ༼མར་མེ༽ སྣུམ་གྱི་སྒྲོན་མེའི་མིང་། ༣.ཡར་གྱི་ལྡོག་ཟླ། ༼ཀ༽ དམའ་ཕྱོགས་ཀྱི་དོན་ཏེ། ལ་སྟེང་ནས་མར་ལ་འོངས། ཆུ་མར་ལ་འབབས། རི་མགོ་ནས་མར་ལ་ལྟོས་ལྟ་བུ། ༼ཁ༽ གྲངས་དང་ཚད་སོགས་ཇེ་ཉུང་དང་ཇེ་ཆུང་དུ་སོང་བ་སྟེ། ཟླ་བ་མར་ལ་འགྲིབ། ནོམ་པའི་རིན་གོང་མར་ལ་བབས་ལྟ་བུ། ༼མར་ངོ༽ ལུགས་རྙིང་གི་ཟླ་རེའི་ཚེས་བཅུ་དྲུག་ནས་ཉེར་དགུའམ་སུམ་ཅུའི་བར་གྱི་མིང་།</t>
-        </is>
-      </c>
-    </row>
-    <row r="300" ht="50" customHeight="1">
-      <c r="A300" s="1" t="inlineStr">
-        <is>
-          <t>འཁྱེར་</t>
-        </is>
-      </c>
-      <c r="B300" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-carry; bear; bring</t>
-        </is>
-      </c>
-      <c r="C300" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཁྱེར་གྱི་མ་འོངས་པ་དང་ད་ལྟ་བ།</t>
-        </is>
-      </c>
-    </row>
     <row r="301" ht="50" customHeight="1">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>བསྡད་</t>
+          <t>ཀྱིས་</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-to subsist; abide; stay; reside; sit; stop; dwell</t>
+          <t>Hopkins 2015
+[as instrumental particle] by; by means of; with; because; through\n [as non-case particle corruptly used in place of the non-case usage of genitive particles] but; and; (semi-colon)</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-སྡོད་ཀྱི་འདས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱིས་གྱིས་གིས་འིས་ཡིས་ལྔ་ལ་བརྡ་སྤྲོད་དུ་བྱེད་སྒྲ་ཟེར། ༡.བྱེད་པ་པོ་སྟོན་པའི་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱེད་སྒྲ་ཡིན་ཏེ། ཁྱོད་ཀྱིས་ལྟོས། ཐབས་ཀྱིས་རྟ་རྒོད་འདུལ། དགེ་རྒན་གྱིས་སློབ་མར་དཔེ་ཆ་ཁྲིད། དམག་གིས་དམག་རྩལ་སྦྱང་། ཞིང་པ་ཡིས་ཞིང་འདེབས། འབྲོག་པས་ཕྱུགས་འཚོས་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པའི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་ཕྱི་མཚམས་སྦྱོར་བ་སྟེ། ཡིན་གྱིས་མིན། ཡོད་ཀྱིས་མེད། ཆོག་གིས་མི་ཆོག་ལྟ་བུ། ༣.འགའ་རེ་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་ཚིག་ཕྱི་མའི་རྣམ་པ་སོགས་སྟོན་པར་མཚོན་བྱེད་དེ། རྒྱལ་ཁབ་རིམ་གྱིས་དར། མི་རྣམས་ཁད་ཀྱིས་འདུས། བྱ་བ་ལྷུན་གྱིས་གྲུབ་ལྟ་བུ། ༤.འཇུག་ཚུལ་ནི་འབྲེལ་སྒྲ་གི་ཀྱི་གྱི་ཡི་འི་ལྔ་དང་མཚུངས།</t>
         </is>
       </c>
     </row>
     <row r="302" ht="50" customHeight="1">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>ཡོད་རེད</t>
+          <t>ཡར་</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-there are --</t>
+          <t>Hackett Def. 2015
+(PH) upper; upward</t>
+        </is>
+      </c>
+      <c r="C302" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་རིམ་པ་གོང་མའམ་ཐོག་ཕྱོགས་ཏེ། ཡར་ཞུ། ཡར་འབུལ། གནམ་ལ་ཡར་བལྟས། ཡར་འགྲོ་ཞེས་པ་ལྟ་བུ། ༼ཡར་སྐྱེད༽ གཟུགས་དང་ཡོན་ཏན་དང་བློ་ཁ་སོགས་དམའ་བ་ལས་མཐོ་བར་སོང་བ་སྟེ། བྱིས་པ་ཡར་སྐྱེད་བྱུང་། ཡོན་ཏན་ཡར་སྐྱེད་བྱུང་། བློ་ཁ་ཡར་སྐྱེད་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ག༽ གནས་མཐོ་སའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཡར་གའི་རི། ཁྱིམ་ཡར་ག་མར་ག་ཞེས་པ་ལྟ་བུ། ༼ཡར་རྒྱས༽ ཉུང་བ་ནས་མང་བར་འཕར་བའི་ཆ་སྟེ། སྟོབས་འབྱོར་ཡར་རྒྱས་སུ་སོང་། བཟོ་ལས་ཡར་རྒྱས་སུ་བཏང་། ཡར་རྒྱས་གོང་འཕེལ་བྱུང་ཞེས་པ་ལྟ་བུ། ༼ཡར་ངོ༽ ཟླ་ཁ་ཡར་གང་བའི་དུས་ཏེ། ལོ་རྩིས་ཀྱི་ཚེས་གཅིག་ནས་བཅོ་ལྔའི་བར། ༼ཡར་དར༽ གོང་ནས་གོང་དུ་འཕེལ་བཞིན་པའི་དུས་ཏེ། ཡར་དར་མར་འགྲིབ་ཅེས་པ་ལྟ་བུ། ༼ཡར་ཐོན༽ སྔོན་ལས་གོང་དུ་འཕགས་པའི་ཆ་སྟེ། ལག་རྩལ་ཡར་ཐོན་བྱུང་། ཡར་ཐོན་པ་ཞེས་པ་ལྟ་བུ། ༢.ལེགས་པའི་ཕྱོགས་ཀྱི་མིང་སྟེ། ཁ་མིག་ཡར་ལྟ། ཡར་འགོ་ཡར་འཐེན། བསམ་པ་ཡར་སེམས། སྤྱི་དོན་ལ་ཡར་གཏོག་ཅེས་པ་ལྟ་བུ། ༼ཡར་འགོ༽ ལས་དོན་ལེགས་པའི་རིགས་ཀྱི་སྣ་འདྲེན་པ་སྟེ། སྡེ་བའི་ནང་དུ་རྒན་པོ་ཚོས་ཡར་འགོ་ཡར་འཐེན་བྱས་ནས་ན་གཞོན་ཚོར་སློབ་སྦྱོང་བྱེད་དུ་བཅུག ༼ཡར་གཏོག༽ ཡུལ་སྐད་ལ་ལར་ལེགས་པའི་རིགས་བྱེད་པར་སྐུལ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། རང་ཉིད་ལོ་རྒས་ཀྱང་ན་གཞོན་ཚོར་རིག་གནས་སློབ་པར་ཡར་གཏོག་བརྒྱབ་པ་ཡིན་ཞེས་པ་ལྟ་བུ། ༼ཡར་ལྟ༽ ལེགས་པའི་ཕྱོགས་ལ་སློབ་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། མི་བཟང་བོ་ར་ཁ་མིག་ཡར་ལྟ་གྱིས་ཞེས་པ་ལྟ་བུ། ༼ཡར་སེམས༽ ལེགས་པའི་ཕྱོགས་ལ་བརྩོན་པའི་སེམས་ཏེ། བསམ་པ་ཡར་སེམས་དྲན། མི་ཡར་སེམས་ཅན་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="303" ht="50" customHeight="1">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>མར་</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) butter; ghee; (2) as (one's) mother</t>
+        </is>
+      </c>
+      <c r="C303" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཕྱུགས་ཀྱི་འོ་མ་ལས་བླངས་པའི་སྣུམ་གྱི་མིང་སྟེ། འོ་མ་དཀྲུགས་ནས་མར་བླངས། མར་ཁུ་ཞེས་པ་ལྟ་བུ། ༢.འབྲུ་སྣུམ་གྱི་མིང་སྟེ། འབྲུ་མར་ནི་གཡིས། ཏིལ་མར་ནི་ཏིལ་གྱི་སྣུམ་ཞེས་པ་ལྟ་བུ། ༼མར་མེ༽ སྣུམ་གྱི་སྒྲོན་མེའི་མིང་། ༣.ཡར་གྱི་ལྡོག་ཟླ། ༼ཀ༽ དམའ་ཕྱོགས་ཀྱི་དོན་ཏེ། ལ་སྟེང་ནས་མར་ལ་འོངས། ཆུ་མར་ལ་འབབས། རི་མགོ་ནས་མར་ལ་ལྟོས་ལྟ་བུ། ༼ཁ༽ གྲངས་དང་ཚད་སོགས་ཇེ་ཉུང་དང་ཇེ་ཆུང་དུ་སོང་བ་སྟེ། ཟླ་བ་མར་ལ་འགྲིབ། ནོམ་པའི་རིན་གོང་མར་ལ་བབས་ལྟ་བུ། ༼མར་ངོ༽ ལུགས་རྙིང་གི་ཟླ་རེའི་ཚེས་བཅུ་དྲུག་ནས་ཉེར་དགུའམ་སུམ་ཅུའི་བར་གྱི་མིང་།</t>
         </is>
       </c>
     </row>
     <row r="304" ht="50" customHeight="1">
       <c r="A304" s="1" t="inlineStr">
         <is>
+          <t>འཁྱེར་</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+carry; bear; bring</t>
+        </is>
+      </c>
+      <c r="C304" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཁྱེར་གྱི་མ་འོངས་པ་དང་ད་ལྟ་བ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="305" ht="50" customHeight="1">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>བསྡད་</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+to subsist; abide; stay; reside; sit; stop; dwell</t>
+        </is>
+      </c>
+      <c r="C305" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+སྡོད་ཀྱི་འདས་པ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="306" ht="50" customHeight="1">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>ཡོད་རེད</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+there are --</t>
+        </is>
+      </c>
+    </row>
+    <row r="307" ht="50" customHeight="1">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="308" ht="50" customHeight="1">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
           <t>གསུམ་པ</t>
         </is>
       </c>
-      <c r="B304" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B308" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 the third</t>
         </is>
       </c>
-      <c r="C304" s="2" t="inlineStr">
+      <c r="C308" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 གྲངས་རིམ་ཞིག</t>
         </is>
       </c>
     </row>
-    <row r="305" ht="50" customHeight="1">
-      <c r="A305" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">། </t>
-        </is>
-      </c>
-    </row>
-    <row r="306" ht="50" customHeight="1">
-      <c r="A306" s="1" t="inlineStr">
-        <is>
-          <t>རུས་སྦལ་</t>
-        </is>
-      </c>
-      <c r="B306" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
-        </is>
-      </c>
-      <c r="C306" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
-        </is>
-      </c>
-    </row>
-    <row r="307" ht="50" customHeight="1">
-      <c r="A307" s="1" t="inlineStr">
-        <is>
-          <t>གྱི་</t>
-        </is>
-      </c>
-      <c r="B307" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C307" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="308" ht="50" customHeight="1">
-      <c r="A308" s="1" t="inlineStr">
-        <is>
-          <t>མགོ་</t>
-        </is>
-      </c>
-      <c r="B308" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-head; top; beginning</t>
-        </is>
-      </c>
-      <c r="C308" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
-        </is>
-      </c>
-    </row>
     <row r="309" ht="50" customHeight="1">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>རྒྱ་མཚོ</t>
-        </is>
-      </c>
-      <c r="B309" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[vast-lake]; ocean; large lake</t>
-        </is>
-      </c>
-      <c r="C309" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="310" ht="50" customHeight="1">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>འི་</t>
+          <t>རུས་སྦལ་</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
     </row>
     <row r="311" ht="50" customHeight="1">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>སྒང་</t>
+          <t>གྱི་</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>Hackett
-(PH) period</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ལས་ཚིག་ད་ལྟ་བའི་མཐར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་དུས་ད་ལྟ་བ་སྟེ། ཞིང་འདེབས་པའི་སྒང་། ལོ་ཏོག་འབྲེག་པའི་སྒང་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="312" ht="50" customHeight="1">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>ལ་</t>
+          <t>མགོ་</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+          <t>Hopkins 2015
+head; top; beginning</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
         </is>
       </c>
     </row>
     <row r="313" ht="50" customHeight="1">
       <c r="A313" s="1" t="inlineStr">
         <is>
+          <t>རྒྱ་མཚོ</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[vast-lake]; ocean; large lake</t>
+        </is>
+      </c>
+      <c r="C313" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ས་གཞི་ཆེན་པོར་ཆུས་ཁྱབ་པའི་ས་ཁྱོན་རྒྱ་ཆེན་པོའི་མིང་སྟེ། སའི་གོ་ལའི་ཕྱི་ངོས་བཅུ་ཆ་བདུན་ཙམ་ཆུས་ཁྱབ་ཡོད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="314" ht="50" customHeight="1">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>འི་</t>
+        </is>
+      </c>
+    </row>
+    <row r="315" ht="50" customHeight="1">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>སྒང་</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="inlineStr">
+        <is>
+          <t>Hackett Def. 2015
+(PH) period</t>
+        </is>
+      </c>
+      <c r="C315" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ལས་ཚིག་ད་ལྟ་བའི་མཐར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་དུས་ད་ལྟ་བ་སྟེ། ཞིང་འདེབས་པའི་སྒང་། ལོ་ཏོག་འབྲེག་པའི་སྒང་ཞེས་པ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="316" ht="50" customHeight="1">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>ལ་</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) [accusative, adverbial accusative, dative, and locative particle:] to; as; -ly; in; at; conjunction: and; but; (2) mountain pass</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀོག་མངོན་གསལ་མིན་པའི་གནས་དང་བྱ་སྤྱོད་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ལྐོག་ཤོམ་མ་བྱེད། ལྐོག་གནོད་མ་བྱེད། མངོན་ལྐོག་མི་མཐུན་པ་བྱེད་མི་རུང་ལྟ་བུ། ༼ལྐོག་གྱུར༽ གཏན་ཚིགས་རིག་པའི་ཐ་སྙད་ཅིག་སྟེ། དབང་པོ་ལྔ་ཙམ་ལ་བརྟེན་ནས་དངོས་སུ་ཤེས་ཐུབ་པ་ལ་མངོན་གྱུར་དང་དེ་ལྟར་ཤེས་མི་ཐུབ་པར་རྗེས་དཔག་ལ་བརྟེན་ནས་ཤེས་དགོས་པའི་བྱ་དངོས་ལ་ལྐོག་གྱུར་ཟེར་ཏེ་། མིག་གིས་ལྐོག་གྱུར་རིག་མི་ཐུབ་ཀྱང་དཔྱད་པ་བཏང་ན་ལྐོག་གྱུར་ཤེས་ཐུབ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="317" ht="50" customHeight="1">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
           <t>ཏོག་ཙམ་</t>
         </is>
       </c>
-      <c r="B313" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B317" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 a little; a little, some, slightly; a little. phran bu'am, yud tsam.Da dung tog tsam sgugs dang kho rang</t>
         </is>
       </c>
-      <c r="C313" s="2" t="inlineStr">
+      <c r="C317" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཕྲན་བུའམ། ཡུད་ཙམ། ད་དུང་ཏོག་ཙམ་སྒུགས་དང་ཁོ་རང་སླེབས་ཡོང། ཁ་སྣོན་ཏོག་ཙམ་བརྒྱབ་ན་ཚད་ལོང་ཡོང།</t>
         </is>
       </c>
     </row>
-    <row r="314" ht="50" customHeight="1">
-      <c r="A314" s="1" t="inlineStr">
-        <is>
-          <t>མ་གཏོགས་</t>
-        </is>
-      </c>
-      <c r="B314" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-[not-include]; not including; not included within; not included among; except</t>
-        </is>
-      </c>
-      <c r="C314" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཁོངས་སུ་འདུས་མེད་པའི་དོན་ཏེ། དེ་མ་གཏོགས་མ་མཐོང་། གཅིག་མ་གཏོགས་མེད། ཁོ་མ་གཏོགས་ཐམས་ཅད་ངལ་རྩོལ་བྱེད་དུ་སོང་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="315" ht="50" customHeight="1">
-      <c r="A315" s="1" t="inlineStr">
-        <is>
-          <t>སྡོད་</t>
-        </is>
-      </c>
-      <c r="B315" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-to subsist; abide; stay; reside; sit; stop; dwell</t>
-        </is>
-      </c>
-      <c r="C315" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༼བྱེད་མེད་ལས་ཚིག་ད་ལྟ་བ་དང་མ་འོངས་པ་སྐུལ་ཚིག༽ ༡་འགྲོ་མཚམས་དང་གཡོ་འགུལ་མཚམས་བཞག་པ་སྟེ། གཏན་སྡོད། སྡོད་ཅིག་ལྟ་བུ། ༼བསྡད༽ ནི་འདས་པ་སྟེ། རྐུ་སྟེགས་ལ་བསྡད་ནས་གློག་བཪྙན་ལ་བལྟས་ལྟ་བུ། ༢.གནས་པ་སྟེ། ཁང་བ་འདིར་སུ་བསྡད་ཡོད། ཁང་བ་འདིར་སྡོད་ཅིག་གྲོང་ཁྱེར་འདིར་སྡོད་པའི་མི་ཞེས་པ་ལྟ་བུ། ༣.གོ་གནས་སུ་གནས་པའམ་འགན་འཁུར་པ་སྟེ། དཔོན་པོར་སྡོད་མཁན། སྡེ་དཔོན་ལ་བསྡད་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="316" ht="50" customHeight="1">
-      <c r="A316" s="1" t="inlineStr">
-        <is>
-          <t>ཀྱི་ཡོད་མ་རེད</t>
-        </is>
-      </c>
-    </row>
-    <row r="317" ht="50" customHeight="1">
-      <c r="A317" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">། </t>
-        </is>
-      </c>
-    </row>
     <row r="318" ht="50" customHeight="1">
       <c r="A318" s="1" t="inlineStr">
         <is>
+          <t>མ་གཏོགས་</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[not-include]; not including; not included within; not included among; except</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཁོངས་སུ་འདུས་མེད་པའི་དོན་ཏེ། དེ་མ་གཏོགས་མ་མཐོང་། གཅིག་མ་གཏོགས་མེད། ཁོ་མ་གཏོགས་ཐམས་ཅད་ངལ་རྩོལ་བྱེད་དུ་སོང་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="319" ht="50" customHeight="1">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>སྡོད་</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+to subsist; abide; stay; reside; sit; stop; dwell</t>
+        </is>
+      </c>
+      <c r="C319" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་མེད་ལས་ཚིག་ད་ལྟ་བ་དང་མ་འོངས་པ་སྐུལ་ཚིག༽ ༡་འགྲོ་མཚམས་དང་གཡོ་འགུལ་མཚམས་བཞག་པ་སྟེ། གཏན་སྡོད། སྡོད་ཅིག་ལྟ་བུ། ༼བསྡད༽ ནི་འདས་པ་སྟེ། རྐུ་སྟེགས་ལ་བསྡད་ནས་གློག་བཪྙན་ལ་བལྟས་ལྟ་བུ། ༢.གནས་པ་སྟེ། ཁང་བ་འདིར་སུ་བསྡད་ཡོད། ཁང་བ་འདིར་སྡོད་ཅིག་གྲོང་ཁྱེར་འདིར་སྡོད་པའི་མི་ཞེས་པ་ལྟ་བུ། ༣.གོ་གནས་སུ་གནས་པའམ་འགན་འཁུར་པ་སྟེ། དཔོན་པོར་སྡོད་མཁན། སྡེ་དཔོན་ལ་བསྡད་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="320" ht="50" customHeight="1">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>ཀྱི་ཡོད་མ་རེད</t>
+        </is>
+      </c>
+    </row>
+    <row r="321" ht="50" customHeight="1">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="322" ht="50" customHeight="1">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
           <t>བཞི་པ</t>
         </is>
       </c>
-      <c r="B318" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 fourth; four</t>
         </is>
       </c>
-      <c r="C318" s="2" t="inlineStr">
+      <c r="C322" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ༡.གྲངས་རིམ་ཞིག ༢.༼ཡུལ༽ ཆུ་འཁོར་ནང་གྲོ་ཐེངས་བཞི་པ་བཏགས་པའི་མིང།</t>
         </is>
       </c>
     </row>
-    <row r="319" ht="50" customHeight="1">
-      <c r="A319" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">། </t>
-        </is>
-      </c>
-    </row>
-    <row r="320" ht="50" customHeight="1">
-      <c r="A320" s="1" t="inlineStr">
-        <is>
-          <t>རུས་སྦལ་</t>
-        </is>
-      </c>
-      <c r="B320" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
-        </is>
-      </c>
-      <c r="C320" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
-        </is>
-      </c>
-    </row>
-    <row r="321" ht="50" customHeight="1">
-      <c r="A321" s="1" t="inlineStr">
-        <is>
-          <t>གྱི་</t>
-        </is>
-      </c>
-      <c r="B321" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C321" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="322" ht="50" customHeight="1">
-      <c r="A322" s="1" t="inlineStr">
-        <is>
-          <t>མིག་</t>
-        </is>
-      </c>
-      <c r="B322" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-eye</t>
-        </is>
-      </c>
-      <c r="C322" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་གཟུགས་མཐོང་བྱེད་ཀྱི་དབང་བོ་འི་མིང་། ༼མིག་དམར༽ ༼༡༽ རེས་གཟའ་བདུན་གྱི་གཉིས་པ། ༼༢༽ མིག་མདོག་དམར་པོ་། ༼མིག་འབྲས༽ ཕལ་སྐད་དུ་མིག་རིལ་ཟེར་བ་དེ་ཡིན། ༼མིག་སྐྱག༽ མིག་གྲུ་ལ་ཆགས་པའི་དྲི་མ། ༼མིག་ལྟོས༽ མི་རྣམས་ཀྱིས་ལེགས་པའི་དཔེ་ཚད་དུ་བྱེད་འོས་པའི་བྱ་སྤྱོད་དང་བྱ་སྤྱོད་དེ་ལྟ་བུ་ལྡན་པའི་མི་སྟེ། མིག་ལྟོས་བྱེད་འོས་པའི་བྱ་བ། མི་གཞུང་དྲང་ཤེས་ཅན་ནི་ང་ཚོས་མིག་ལྟོས་བྱེད་ས་ཡིན་ལྟ་བུ། ༼མིག་སྐྱི༽ མིག་འབྲས་ཀྱི་ཕྱི་ངོས་ཀྱི་སྐྱི་མོ་སྲབ་ཅིང་དྭངས་པའི་མིང་། ༼མིག་ལྕིབས༽ མིག་འབྲས་འགེབ་ཐུབ་པའི་མིག་མཐའི་སྐྱི་མོའི་མིང་། ༼མིག་ཚག༽ མིག་ནད་ཅིག་གི་མིང་སྟེ། ཚབས་ཆེན་དུ་གྱུར་ན་མིག་རལ་འགྲོ། ༼མིག་ཡོར༽ མིག་འཁྲུལ་བར་བྱེད་པའི་གཟུགས་བརྙན་ལྟ་བུའི་མིང་། ༼མིག་ལོག༽ ཁྲོ་བའམ་མི་དགའ་བའི་ལྟ་སྟངས་ཏེ། མིག་ལོག་གིས་བལྟས་ཟེར་བ་ལྟ་བུ། ༢.བུ་ག་ཆུང་ངུའི་མིང་སྟེ། མིག་བུ། ཁབ་མིག་དྲ་མིག་འཇུར་མིག་ཅེས་པ་སོགས་ལྟ་བུ། ༼མིག་མང༽ ༼༡༽ རྩེད་མོ་ཞིག་སྟེ། ཕལ་སྐད་དུ་འཇིག་ཟེར། ༢.འབྲུ་རིགས་ཚགས་བྱེད་ཀྱི་ཡོ་བྱད་ཅིག་སྟེ། ཁྲོལ་མ་ཡང་ཟེར། ༼མིག་དར་བསལ་བ༽ ནང་འཇུག་གི་ནང་གསེས་ཏེ། སློབ་མ་རྣམས་མ་རིག་གཉིས་འཛིན་གྱིས་ལྡོངས་པའི་མཚོན་བྱེད་མིག་དར་ཏེ་གདོང་གཡོགས་བསལ་བ་དང་མཉམ་དུ་མ་རིག་པ་བསལ་ནས། རིག་པ་ཡེ་ཤེས་ལྷའི་ངོ་བོ་ཇི་ལྟ་བར་གསལ་བ་ལ་མིག་དར་བསལ་བ་ཞེས་བྱའོ། །</t>
-        </is>
-      </c>
-    </row>
     <row r="323" ht="50" customHeight="1">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>གཉིས་</t>
-        </is>
-      </c>
-      <c r="B323" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-two</t>
-        </is>
-      </c>
-      <c r="C323" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-གྲངས་ཀ་སྟེ། ཕ་མ་གཉིས་ཞེས་པ་ལྟ་བུ། ༼གཉིས་པ༽ ༡་རིམ་པ་གཉིས་པ་སྟེ། དེབ་གཉིས་པ། ཐེངས་གཉིས་པ། བུ་གཉིས་པ་ཞེས་པ་ལྟ་བུ། ༢.གཙོ་ཕལ་གཉིས་ཀྱི་ནང་གི་ཕལ་པའི་དོན་ཏེ། དཔོན་པོ་གཉིས་པ། ཕ་མ་གཉིས་པ་ཞེས་པ་ལྟ་བུ། ༼གཉིས་པོ༽ གཉིས་ཙམ་དུ་ཚད་བཟུང་བར་འཇུག་པ་སྟེ། ལག་པ་འདི་གཉིས་པོར་བརྟེན་ནས་རང་ཁ་གསོས་ལྟ་བུ། ༼གཉིས་སྣང༽ ༼༡༽ ཕྱི་གཟུང་བ་དང། ནང་འཛིན་པ་གཉིས་སུ་སྣང་བ། ༼༢༽ ཉི་ཟླ་དང་སྐྲ་ཤད་སོགས་མང་བོ་ར་སྣང་བ་རབ་རིབ་ཅན་གྱི་གཉིས་སྣང།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="324" ht="50" customHeight="1">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>ཀྱང་</t>
+          <t>རུས་སྦལ་</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-but; even; also; however; nevertheless; although</t>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀྱང་འང་ཡང་གསུམ་ནི་རྒྱན་སྡུད་ཀྱི་ཚིག་ཕྲད་ཡིན་ཞིང་། འཇུག་ཚུལ་ནི་ག་ད་བ་ད་དྲག་ཀྱང་། ང་ན་མ་ར་ལ་མཐར་ཡང་། འ་དང་མཐའ་རྟེན་མེད་མཐར་འང་། རྐང་བ་སྐོང་ཚེ་ཡང་འཐོབ་བོ་ཞེས་པ་ལྟར་ཡིན། ༡.མིང་ཚིག་དང་རྒྱན་ཚིག་གི་བར་ལ་སྦྱར་ན་ཁྱད་ཆོས་སྔ་མའི་སྟེང་དུ་ཕྱི་མ་དེ་ཡང་ཚང་བའི་དོན་ཏེ། རྟ་བོ་འདི་གཟུགས་ཀྱང་ཆེ་ལ་འགྲོས་ཀྱང་མགྱོགས། ལུག་ཀྱང་ཆེ་ལ་བལ་ཡང་བཟང་ལྟ་བུ། ༢.མིང་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱ་བ་སྔ་ཕྱི་གཉིས་ཀ་འདྲ་བའི་དོན་ཏེ། རྩིས་རིག་ཀྱང་བསླབས་ཤིང་སྐད་ཡིག་ཀྱང་སྦྱངས་ལྟ་བུ། ༣.རྒྱན་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཡག་ཀྱང་ཡག་ལ་སྤུས་ཀྱང་ལེགས་ལྟ་བུ། ༼ཁ༽ མི་མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི། མདོག་ཡག་ཀྱང་སྤུས་ཀ་དམན་ལྟ་བུ། ༤.ལས་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མི་མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་མྱངས་ཀྱང་སེམས་མི་སྡུག་དགྲ་མང་སླེབས་ཀྱང་དཔའ་མི་ཞུམ་ལྟ་བུ། ༼ཁ༽ མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་ཀྱང་མྱངས་ལ་གྲུབ་འབྲས་ཀྱང་ཆེན་པོ་ཐོབ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
         </is>
       </c>
     </row>
     <row r="325" ht="50" customHeight="1">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>ལོང་བ་</t>
+          <t>གྱི་</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>Barron
-blind; མིག་ལོང་བ blind</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-མིག་དབང་ཉམས་པའི་མི་མིང་བསྡུས་ན་ལོང་ཞེས་འབྲི་ཆོག་སྟེ། དམུས་ལོང་། སྲོད་ལོང་ཞེས་པ་ལྟ་བུ། ༼ལོང་ཁྲིད༽ ༼༡༽ ལོང་བའི་ལག་རྟེན་དབྱུ་གུའི་མིང་། ༼༢༽ ལོང་བ་འཁྲིད་མཁན་གྱི་མི།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="326" ht="50" customHeight="1">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>རེད</t>
+          <t>མིག་</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-is</t>
+          <t>Hopkins 2015
+eye</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་གཟུགས་མཐོང་བྱེད་ཀྱི་དབང་བོ་འི་མིང་། ༼མིག་དམར༽ ༼༡༽ རེས་གཟའ་བདུན་གྱི་གཉིས་པ། ༼༢༽ མིག་མདོག་དམར་པོ་། ༼མིག་འབྲས༽ ཕལ་སྐད་དུ་མིག་རིལ་ཟེར་བ་དེ་ཡིན། ༼མིག་སྐྱག༽ མིག་གྲུ་ལ་ཆགས་པའི་དྲི་མ། ༼མིག་ལྟོས༽ མི་རྣམས་ཀྱིས་ལེགས་པའི་དཔེ་ཚད་དུ་བྱེད་འོས་པའི་བྱ་སྤྱོད་དང་བྱ་སྤྱོད་དེ་ལྟ་བུ་ལྡན་པའི་མི་སྟེ། མིག་ལྟོས་བྱེད་འོས་པའི་བྱ་བ། མི་གཞུང་དྲང་ཤེས་ཅན་ནི་ང་ཚོས་མིག་ལྟོས་བྱེད་ས་ཡིན་ལྟ་བུ། ༼མིག་སྐྱི༽ མིག་འབྲས་ཀྱི་ཕྱི་ངོས་ཀྱི་སྐྱི་མོ་སྲབ་ཅིང་དྭངས་པའི་མིང་། ༼མིག་ལྕིབས༽ མིག་འབྲས་འགེབ་ཐུབ་པའི་མིག་མཐའི་སྐྱི་མོའི་མིང་། ༼མིག་ཚག༽ མིག་ནད་ཅིག་གི་མིང་སྟེ། ཚབས་ཆེན་དུ་གྱུར་ན་མིག་རལ་འགྲོ། ༼མིག་ཡོར༽ མིག་འཁྲུལ་བར་བྱེད་པའི་གཟུགས་བརྙན་ལྟ་བུའི་མིང་། ༼མིག་ལོག༽ ཁྲོ་བའམ་མི་དགའ་བའི་ལྟ་སྟངས་ཏེ། མིག་ལོག་གིས་བལྟས་ཟེར་བ་ལྟ་བུ། ༢.བུ་ག་ཆུང་ངུའི་མིང་སྟེ། མིག་བུ། ཁབ་མིག་དྲ་མིག་འཇུར་མིག་ཅེས་པ་སོགས་ལྟ་བུ། ༼མིག་མང༽ ༼༡༽ རྩེད་མོ་ཞིག་སྟེ། ཕལ་སྐད་དུ་འཇིག་ཟེར། ༢.འབྲུ་རིགས་ཚགས་བྱེད་ཀྱི་ཡོ་བྱད་ཅིག་སྟེ། ཁྲོལ་མ་ཡང་ཟེར། ༼མིག་དར་བསལ་བ༽ ནང་འཇུག་གི་ནང་གསེས་ཏེ། སློབ་མ་རྣམས་མ་རིག་གཉིས་འཛིན་གྱིས་ལྡོངས་པའི་མཚོན་བྱེད་མིག་དར་ཏེ་གདོང་གཡོགས་བསལ་བ་དང་མཉམ་དུ་མ་རིག་པ་བསལ་ནས། རིག་པ་ཡེ་ཤེས་ལྷའི་ངོ་བོ་ཇི་ལྟ་བར་གསལ་བ་ལ་མིག་དར་བསལ་བ་ཞེས་བྱའོ། །</t>
         </is>
       </c>
     </row>
     <row r="327" ht="50" customHeight="1">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>གཉིས་</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+two</t>
+        </is>
+      </c>
+      <c r="C327" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+གྲངས་ཀ་སྟེ། ཕ་མ་གཉིས་ཞེས་པ་ལྟ་བུ། ༼གཉིས་པ༽ ༡་རིམ་པ་གཉིས་པ་སྟེ། དེབ་གཉིས་པ། ཐེངས་གཉིས་པ། བུ་གཉིས་པ་ཞེས་པ་ལྟ་བུ། ༢.གཙོ་ཕལ་གཉིས་ཀྱི་ནང་གི་ཕལ་པའི་དོན་ཏེ། དཔོན་པོ་གཉིས་པ། ཕ་མ་གཉིས་པ་ཞེས་པ་ལྟ་བུ། ༼གཉིས་པོ༽ གཉིས་ཙམ་དུ་ཚད་བཟུང་བར་འཇུག་པ་སྟེ། ལག་པ་འདི་གཉིས་པོར་བརྟེན་ནས་རང་ཁ་གསོས་ལྟ་བུ། ༼གཉིས་སྣང༽ ༼༡༽ ཕྱི་གཟུང་བ་དང། ནང་འཛིན་པ་གཉིས་སུ་སྣང་བ། ༼༢༽ ཉི་ཟླ་དང་སྐྲ་ཤད་སོགས་མང་བོ་ར་སྣང་བ་རབ་རིབ་ཅན་གྱི་གཉིས་སྣང།</t>
         </is>
       </c>
     </row>
     <row r="328" ht="50" customHeight="1">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>བྱས་ཙང་</t>
+          <t>ཀྱང་</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>Waldo
-therefore</t>
+          <t>Hopkins 2015
+but; even; also; however; nevertheless; although</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱང་འང་ཡང་གསུམ་ནི་རྒྱན་སྡུད་ཀྱི་ཚིག་ཕྲད་ཡིན་ཞིང་། འཇུག་ཚུལ་ནི་ག་ད་བ་ད་དྲག་ཀྱང་། ང་ན་མ་ར་ལ་མཐར་ཡང་། འ་དང་མཐའ་རྟེན་མེད་མཐར་འང་། རྐང་བ་སྐོང་ཚེ་ཡང་འཐོབ་བོ་ཞེས་པ་ལྟར་ཡིན། ༡.མིང་ཚིག་དང་རྒྱན་ཚིག་གི་བར་ལ་སྦྱར་ན་ཁྱད་ཆོས་སྔ་མའི་སྟེང་དུ་ཕྱི་མ་དེ་ཡང་ཚང་བའི་དོན་ཏེ། རྟ་བོ་འདི་གཟུགས་ཀྱང་ཆེ་ལ་འགྲོས་ཀྱང་མགྱོགས། ལུག་ཀྱང་ཆེ་ལ་བལ་ཡང་བཟང་ལྟ་བུ། ༢.མིང་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱ་བ་སྔ་ཕྱི་གཉིས་ཀ་འདྲ་བའི་དོན་ཏེ། རྩིས་རིག་ཀྱང་བསླབས་ཤིང་སྐད་ཡིག་ཀྱང་སྦྱངས་ལྟ་བུ། ༣.རྒྱན་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཡག་ཀྱང་ཡག་ལ་སྤུས་ཀྱང་ལེགས་ལྟ་བུ། ༼ཁ༽ མི་མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི། མདོག་ཡག་ཀྱང་སྤུས་ཀ་དམན་ལྟ་བུ། ༤.ལས་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མི་མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་མྱངས་ཀྱང་སེམས་མི་སྡུག་དགྲ་མང་སླེབས་ཀྱང་དཔའ་མི་ཞུམ་ལྟ་བུ། ༼ཁ༽ མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་ཀྱང་མྱངས་ལ་གྲུབ་འབྲས་ཀྱང་ཆེན་པོ་ཐོབ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="329" ht="50" customHeight="1">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ལོང་བ་</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="inlineStr">
+        <is>
+          <t>Richard Barron
+blind; མིག་ལོང་བ blind</t>
+        </is>
+      </c>
+      <c r="C329" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+མིག་དབང་ཉམས་པའི་མི་མིང་བསྡུས་ན་ལོང་ཞེས་འབྲི་ཆོག་སྟེ། དམུས་ལོང་། སྲོད་ལོང་ཞེས་པ་ལྟ་བུ། ༼ལོང་ཁྲིད༽ ༼༡༽ ལོང་བའི་ལག་རྟེན་དབྱུ་གུའི་མིང་། ༼༢༽ ལོང་བ་འཁྲིད་མཁན་གྱི་མི།</t>
         </is>
       </c>
     </row>
     <row r="330" ht="50" customHeight="1">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>རུས་སྦལ་</t>
+          <t>རེད</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-tortoise; turtle; tortise</t>
+          <t>Hopkins 2015
+is</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="331" ht="50" customHeight="1">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>གྱི་</t>
-        </is>
-      </c>
-      <c r="B331" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C331" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="332" ht="50" customHeight="1">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>མགོ་</t>
+          <t>བྱས་ཙང་</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-head; top; beginning</t>
-        </is>
-      </c>
-      <c r="C332" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+          <t>Ives Waldo
+therefore</t>
         </is>
       </c>
     </row>
     <row r="333" ht="50" customHeight="1">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>དེ་</t>
-        </is>
-      </c>
-      <c r="B333" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
-        </is>
-      </c>
-      <c r="C333" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="334" ht="50" customHeight="1">
       <c r="A334" s="1" t="inlineStr">
         <is>
+          <t>རུས་སྦལ་</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+tortoise; turtle; tortise</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+རྒྱབ་ངོས་དང་ལྟོ་ངོས་གཉིས་ཀར་སྐོགས་ཤུན་ཡོད་ཅིང་། མགོ་རྔ་རྐང་ལག་བཅས་སྐོགས་ཤུན་ནང་ལ་བསྐུམ་ཐུབ་པའི་སྲོག་ཆགས་ཤིག་ཡིན། ལྟོགས་སྐོམ་ལ་བཟོད་བསྲན་ཆེ་ཞིང་། ཚེ་ཐག་ཧ་ཅང་རིང་། སྐོགས་ཤུན་སྨན་བྱེད་ཆོག</t>
+        </is>
+      </c>
+    </row>
+    <row r="335" ht="50" customHeight="1">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>གྱི་</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
+        </is>
+      </c>
+      <c r="C335" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
+        </is>
+      </c>
+    </row>
+    <row r="336" ht="50" customHeight="1">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>མགོ་</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+head; top; beginning</t>
+        </is>
+      </c>
+      <c r="C336" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མགོ་བོ་སྟེ། མི་དང་སྲོག་ཆགས་ཀྱི་ཀླད་པ་དང་དབང་བོ་ལྔ་གནས་སའི་ཡན་ལག་གི་མིང་། ༼མགོ་སྐོར༽ གཡོ་ཐབས་ཀྱིས་གཞན་བསླུ་བའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་མགོ་སྐོར་མ་གཏོང་ལྟ་བུ། ༼མགོ་མཚུངས༽ རྩ་བའི་རིགས་པ་ཆ་མཚུངས་པའི་དོན་ཏེ། རིགས་པ་མགོ་མཚུངས། མགོ་མཚུངས་ཀྱི་རིགས་པ་ཞེས་པ་ལྟ་བུ། ༼མགོ་སྟོང༽ སེམས་ན་དམིགས་ཡུལ་ངེས་ཅན་ཞིག་མེད་པའི་དོན་ཏེ། མི་མགོ་སྟོང་ཞེས་པ་ལྟ་བུ། ༢.སྣེའ་མ་རྩེ་མོའི་མིང་སྟེ། རི་མགོ་རྫ་མགོ་གྲལ་མགོ་ཞེས་པ་ལྟ་བུ། ༣.སྐར་ཚོགས་ཤིག་གི་མིང་། སྐར་ཚོགས་དེ་ནི་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པའི་ཚེས་བཅོ་ལྔའི་ཟླ་བ་དང་མཉམ་དུ་འཆར་ནུབ་བྱེད་པས་ན་བོད་ལུགས་ཀྱི་ཟླ་བ་བཅུ་གཅིག་པ་ལ་མགོ་ཟླ་བ་ཟེར།</t>
+        </is>
+      </c>
+    </row>
+    <row r="337" ht="50" customHeight="1">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>དེ་</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
+        </is>
+      </c>
+      <c r="C337" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
+        </is>
+      </c>
+    </row>
+    <row r="338" ht="50" customHeight="1">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
           <t>ཤིང་ལེབ་</t>
         </is>
       </c>
-      <c r="B334" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B338" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 board, plank; wooden shield, board, plank</t>
         </is>
       </c>
-      <c r="C334" s="2" t="inlineStr">
+      <c r="C338" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ཤིང་གི་སྤང་ལེབ།</t>
         </is>
       </c>
     </row>
-    <row r="335" ht="50" customHeight="1">
-      <c r="A335" s="1" t="inlineStr">
+    <row r="339" ht="50" customHeight="1">
+      <c r="A339" s="1" t="inlineStr">
         <is>
           <t>ཀྱི་</t>
         </is>
       </c>
-      <c r="B335" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B339" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 [as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
         </is>
       </c>
-      <c r="C335" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C339" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
         </is>
       </c>
     </row>
-    <row r="336" ht="50" customHeight="1">
-      <c r="A336" s="1" t="inlineStr">
+    <row r="340" ht="50" customHeight="1">
+      <c r="A340" s="1" t="inlineStr">
         <is>
           <t>ཨི་ཁུང་</t>
         </is>
       </c>
-      <c r="B336" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B340" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 hole</t>
         </is>
       </c>
-      <c r="C336" s="2" t="inlineStr">
+      <c r="C340" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 བུག་པ། ཨི་ཁུང་རྒྱག་པ།</t>
         </is>
       </c>
     </row>
-    <row r="337" ht="50" customHeight="1">
-      <c r="A337" s="1" t="inlineStr">
-        <is>
-          <t>ནང་</t>
-        </is>
-      </c>
-      <c r="B337" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-in; internal; inside; interior; house</t>
-        </is>
-      </c>
-      <c r="C337" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
-        </is>
-      </c>
-    </row>
-    <row r="338" ht="50" customHeight="1">
-      <c r="A338" s="1" t="inlineStr">
-        <is>
-          <t>ག་དུས་</t>
-        </is>
-      </c>
-      <c r="B338" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-when?; at what time?</t>
-        </is>
-      </c>
-    </row>
-    <row r="339" ht="50" customHeight="1">
-      <c r="A339" s="1" t="inlineStr">
-        <is>
-          <t>བཅུག་</t>
-        </is>
-      </c>
-      <c r="B339" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-1) indicates causative construction; 2) enter; engage; apply; usher into</t>
-        </is>
-      </c>
-      <c r="C339" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-འཇུག་གི་འདས་པ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="340" ht="50" customHeight="1">
-      <c r="A340" s="1" t="inlineStr">
-        <is>
-          <t>ཐུབ་</t>
-        </is>
-      </c>
-      <c r="B340" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
-1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
-        </is>
-      </c>
-      <c r="C340" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
     <row r="341" ht="50" customHeight="1">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>ཀྱི་</t>
+          <t>ནང་</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-[as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
+          <t>Hopkins 2015
+in; internal; inside; interior; house</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཕྱིའི་ལྡོག་ཟླ་སྟེ། ཁང་བའི་ནང་། སྦྲ་ནང་། སྒམ་ནང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཁྲོལ༽ སྲོག་ཆགས་ཀྱི་ཁོག་པའི་ནང་གི་སྙིང་དང་གློ་བ་རྒྱུ་མ་སོགས་ཀྱི་སྤྱི་མིང་སྟེ། ནང་ཆ་ཡང་ཟེར། ༼ནང་སྙིང༽ ༼༡༽ ཤིང་ཏོག་གི་ཚི་གུའི་མིང་། ༼༢༽ སྐྱེ་དངོས་ཀྱི་སྙིང་བོའི་ཁག་གི་མིང་སྟེ། ལ་ཕུག་གི་ནང་སྙིང་། སྟར་ཀའི་ནང་སྙིང་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚངས༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ཕྱི་མ་དང་ནང་མའི་བར་རིམ་ལ་བརྫངས་བའི་དངོས་རྫས་བལ་དང་ཤིང་བལ་སོགས་ཀྱི་མིང་སྟེ། དགུན་ལྭ་བར་ཚངས་ཅན་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚན༽ དང ༼ནང་གསེས༽ ཁོངས་གཅིག་གམ་རིགས་གཅིག་ཏུ་གཏོགས་པའི་བྱ་དངོས་སོ་སོར་དགར་བའི་ཁག་གི་མིང་། བོད་སྐད་ལ་ཡང་ནང་གསེས་ཀྱི་དབྱེ་ན་ཡུལ་སྐད་དུ་མ་ཡོད། མི་རིགས་ནང་གསེས་ཞེས་པ་ལྟ་བུ། ནང་མ། ༼ནང་འཇུག༽ སློབ་མ་རྣམས་ལྷ་དང་སྐལ་བ་མཉམ་པར་གཞུག་པའི་ཕྱིར་ཡོལ་བ་ནང་འཇུག་བྱ་བ་ཤར་སྒོ་ནས་གཞལ་ཡས་ཁང་གི་ནང་དུ་ཞུགས་ཏེ་ལྷ་རྣམས་ལ་བསྐོར་ནས་ཕྱག་བྱ་བ་དང། དམ་ཚིག་བསྲུང་དགོས་པར་དམ་བཞག་བྱེད་པ་དང། ཡེ་ཤེས་པ་ཕབ་སྟེ་དམ་ཡེ་དབྱེར་མེད་དུ་བརྟན་པར་བྱེད་པ་དང། བདེན་སྟོབས་བརྗོད་དེ་མེ་ཏོག་དོར་བ་དང། རིགས་བདག་གི་རྗེས་སུ་འཛིན་པའི་རྟེན་འབྲེལ་དུ་མེ་ཏོག་ཕྲེང་བའི་དབང་བསྐུར་བ་རྣམས་སོ། ། ༼ནང་མཛོད༽ ༼༡༽ ཁ་བཏགས་ལེགས་གྲས་ཤིག ༼༢༽ ཁང་བའི་ནང་གི་བང་མཛོད། ༼ནང་མ༽ ༼༡༽ དངོས་རྫས་རིམ་པ་དུ་མ་ཡོད་པའི་ནང་ཕྱོགས་ཀྱི་དངོས་པོའི་མིང་སྟེ། ཤིང་ཤུན་ནང་མ། སྒོ་རིམ་པ་གསུམ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༢༽ བློ་གཏད་བྱེད་སའི་གྲོགས་པོ་དང་ཉེ་དུ་སོགས་ཀྱི་མིང་སྟེ། གྲོགས་ནང་མ། མི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༼༣༽ ལྭ་བ་དང་ཉལ་གོས་སོགས་ཀྱི་ནང་ངོས་ཀྱི་རས་སོགས་ཀྱི་མིང་སྟེ། ལྭ་བའི་ནང་མ། ཉལ་ཐུལ་གྱི་ནང་མ་ཞེས་པ་ལྟ་བུ། ༢.ཁོངས་གཏོགས་ངེས་པ་ཅན་ཞིག་གི་མིང་སྟེ། རྒྱལ་ཁབ་ཀྱི་ནང་། མི་རིགས་ནང་གི་མཐུན་སྒྲིལ་ཞེས་པ་ལྟ་བུ། ༼ནང་རོལ༽ ཕྱི་རོལ་གྱི་ལྡོག་ཟླ། ༼ནང་ལོགས༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ཆབ་སྲིད་རིག་གནས་དར་རྒྱས་ཆེ་བའི་གནས་ཀྱི་མིང་སྟེ། ནང་ལོགས་ཀྱི་བཟོ་པས་མཐའ་ཁུལ་གྱི་འཛུགས་སྐྲུན་ལ་རྒྱབ་སྐྱོར་བྱས་ལྟ་བུ། རྒྱལ་ཁབ་ཅིག་གི་མངའ་ཁོངས་ཀྱི་དབུས་ཁུལ་གྱི་མིང་། ༼ནང་འཁྲུག༽ ༼༡༽ རྒྱལ་ཁབ་ཅིག་གི་ནང་ཁུལ་གྱི་དམག་འཁྲུག་གི་མིང་། ༼༢༽ ཚོགས་པ་གཅིག་གམ་སྡེ་པ་གཅིག་སོགས་ཀྱི་ནང་ཁུལ་གྱི་འཁྲུག་སློང་གི་མིང་། ༣.གནས་ཀྱི་དཀྱིལ་དང་ཁྲོད་དང་ཁོངས་དང་གསེབ་སོགས་ཀྱི་མིང་སྟེ། མཚོ་ནང་། ནགས་ནང་། ཆུ་ནང་། དཔེ་ཆའི་ནང་ན། སྐད་ཆའི་ནང་ན་ཞེས་པ་ལྟ་བུ། ༼ནང་དོན༽ ཚིག་དང་གཞུང་གི་བརྗོད་བྱའི་མིང་སྟེ། དཔེ་ཆའི་ནང་དོན། སྐད་ཆའི་ནང་དོན་ཞེས་པ་ལྟ་བུ། ༼ནང་བྱན་ཆུད་པ༽ ཤེས་པར་བྱ་བའི་གནས་གང་ཞིག་ལ་བྱང་ཆ་ཆེ་བའི་དོན་ཏེ། གསོ་བ་རིག་པའི་དོན་ལ་ནང་བྱན་ཆུད་པའི་སྨན་པ་ལྟ་བུ། ༤.ཁྱིམ་གྱི་མིང་། ༼ནང་གཞིས༽ ཁྱིམ་གྱི་རྒྱུ་ནོར་གྱི་མིང་། ༼ནང་ནོར༽ ཁྱིམ་གྱི་ནོར་རྫས་ཀྱི་མིང་། ༼ནང་བཟན༽ སྤྱི་ཚོགས་རྙིང་བར་ཞིང་བདག་འབྱོར་ལྡན་གྲལ་རིམ་གྱི་ཁྱིམ་དུ་ལས་ཀ་ལས་མཁན་གྱི་གླ་པའམ་གཡོག་པོའི་མིང་། ༥.སྙིང་ཉེ་བའམ་གསང་བའི་དོན་གྱི་མིང་སྟེ། ནང་གཏམ། ནང་གྲོས་ཞེས་པ་ལྟ་བུ། ༼ནང་ཚགས༽ ཕན་ཚུན་བློ་ཁེལ་བ་དང་དུང་བ་ཆེ་བའི་དོན་ཏེ། ནང་ཚགས་ཀྱི་གཏམ། གྲོགས་པོ་ནང་ཚགས་ཀྱི་བར། བཟའ་བ་ནང་ཚགས་ཞེས་པ་ལྟ་བུ། ༦.ནངས་ཀྱི་འབྲི་ཚུལ་གཞན།</t>
         </is>
       </c>
     </row>
     <row r="342" ht="50" customHeight="1">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>རེད</t>
+          <t>ག་དུས་</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-is</t>
-        </is>
-      </c>
-      <c r="C342" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
+          <t>Hopkins 2015
+when?; at what time?</t>
         </is>
       </c>
     </row>
     <row r="343" ht="50" customHeight="1">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>བཅུག་</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+1) indicates causative construction; 2) enter; engage; apply; usher into</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+འཇུག་གི་འདས་པ།</t>
         </is>
       </c>
     </row>
     <row r="344" ht="50" customHeight="1">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>འདི་</t>
+          <t>ཐུབ་</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-this</t>
+          <t>Ives Waldo
+1) Buddha; 2) be able to, can, may, maybe, last, withstand, be possible, suffice to བསོད་ནམས་ཀྱི་མ་ཐུབ. = the merit was insufficient]</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཉེ་བ་དང་བདག་དང་བདག་གེ་བ་སོགས་ལ་འཇུག་སྟེ། ས་འདི་དང་ས་ཕ་ཀི་རི་འདི་དང་རི་ཀན། དེ་རིང་གི་ཉི་མ་འདི་དང་ཁ་སང་གི་ཉི་མ་དེ། ངའི་དཔེ་ཆ་འདི་དང་ཁྱོད་ཀྱི་དཔེ་ཆ་དེ་ཞེས་པ་སོགས་ལྟ་བུ། ༼འདི་ག༽ དུས་ད་ལྟ་བ་དང་ཉེ་བའི་དངོས་པོ་ངེས་ཅན་ལ་འཇུག་སྟེ། ས་འདི་གར་ལྕགས་ཀྱི་གཏེར་ཁ་ཡོད། དུས་འདི་གར་ཆར་བ་འབབ་ལྟ་བུ། ༼འདི་སྐད༽ འདི་ལྟར་བཤད་ཅེས་པ་སྟེ། འདི་སྐད་དུ་ཐོས་ཞེས་པ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ལས་ཚིག་མ་འོངས་པ་དང་ད་ལྟ་བའི་མཐར་སྦྱར་ན་ལས་དེ་ཉིད་འགྲུབ་པའི་གདེང་ཚོད་ཡོད་པའི་དོན་ཏེ། ང་ཚོས་ལས་འགན་ལེགས་པར་འགྲུབ་ཐུབ། དཔེ་ཆ་འདི་དུས་ནམ་ཞིག་པར་སྐྲུན་བྱེད་ཐུབ། ལྕི་འདེགས་རྩལ་སྦྱང་པས་ལྕགས་གཏུན་རྒྱ་མ་སུམ་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ། རྒྱ་མ་བཞི་བརྒྱ་ལྷག་ཡར་འགྱོག་ཐུབ་པའི་རྩལ་སྦྱང་པ་ཞེས་པ་ལྟ་བུ། ༢.༼བྱེད་འབྲེལ་ལས་ཚིག༽ མིང་རྐྱང་གི་མཐར་སྦྱར་ན་དེ་ལས་རྒྱལ་བའམ་བཟོད་བསྲན་ཡོད་པའི་དོན་ཏེ། གླང་བོ་ཆེ་ཡིས་སྟག་ཀྱང་ཐུབ། བུ་དཔའ་བོས་ནགས་རྫོངས་སྟག་ཀྱང་ཐུབ། སྣོད་འདིས་ཚེ་ཐུབ། དཀའ་སྡུག་ཐུབ་པའི་མི། མི་དཀའ་ཐུབ་ཅན། ས་མཐོ་སའི་མིས་གྲང་ངར་ཐུབ་ལྟ་བུ། ༼ཐུབ་ཚོད༽ ཉམ་ཐག་ལ་བརྙས་སྨོད་བྱེད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་སྟེ། གཞན་ལ་ཐུབ་ཚོད་མ་བྱེད་ལྟ་བུ། འདི་ལ་ཐུབ་ཆོད་ཅེས་འབྲི་བའང་ཡོད། ༣.ཐུབ་པ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="345" ht="50" customHeight="1">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>སུ</t>
+          <t>ཀྱི་</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-[accusative, adverbial accusative, dative, and locative particle:] to; in; as; -ly; at; who?</t>
+          <t>Hopkins 2015
+[as genitive particle] of; by; in; which\n [as non-case particle] and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིའི་ཚབ་ཚིག་སྟེ། སུ་འོངས་སམ། སུས་བཤད་དམ། སུའི་དཔེ་ཆ་རེད་དམ་ལྟ་བུ། ༢.ལ་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཀྱི་གྱི་གི་འི་ཡི་ལྔ་ནི་རྣམ་དབྱེ་དྲུག་པ་འབྲེལ་སྒྲ་ཟེར། ཐོབ་ཐོང་ནི་རྗེས་འཇུག་ད་བ་ས་གསུམ་དང་ད་དྲག་གི་རྗེས་སུ་ཀྱི་འཐོབ་སྟེ། ཁྱོད་ཀྱི་དཔེ་ཆ། རྒྱལ་ཁབ་ཀྱི་བདག་པོ། ཟས་ཀྱི་ཞིམ་མངར། ཕ་རོལ་ཀྱི་རི་བོ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ག་ང་གཉིས་ཀྱི་རྗེས་སུ་གི་འཐོབ་སྟེ། དམག་གི་མེ་མདའ། མདུང་གི་རྣོ་དཔལ་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་ན་མ་ར་ལ་བཞིའི་རྗེས་སུ་གྱི་འཐོབ་སྟེ། སྟོན་གྱི་ལོ་ཏོག་སྒམ་གྱི་ནང་། གར་གྱི་ཉམས། ཁལ་གྱི་ཆེ་ཆུང་ཞེས་པ་ལྟ་བུ། རྗེས་འཇུག་འ་དང་རྗེས་འཇུག་དངོས་སུ་མེད་པའི་མཐར་འི་འཐོབ་ཅིང་། ཚིགས་བཅད་ཀྱི་ཁ་སྐོང་དགོས་ཚེ་ཡི་འཐོབ་སྟེ། ནམ་མཁའི་དབྱིངས། སའི་གོ་ལ། ས་ཡི་གོ་ལ་ཞེས་པ་ལྟ་བུ། ༢.ཚིག་སྔ་ཕྱི་མི་མཐུན་པ་སྟོན་པའི་རྒྱན་ལ་ཡང་འཇུག</t>
         </is>
       </c>
     </row>
     <row r="346" ht="50" customHeight="1">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>ས་</t>
+          <t>རེད</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+is</t>
+        </is>
+      </c>
+      <c r="C346" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="347" ht="50" customHeight="1">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>ཀྱང་</t>
-        </is>
-      </c>
-      <c r="B347" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-but; even; also; however; nevertheless; although</t>
-        </is>
-      </c>
-      <c r="C347" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱང་འང་ཡང་གསུམ་ནི་རྒྱན་སྡུད་ཀྱི་ཚིག་ཕྲད་ཡིན་ཞིང་། འཇུག་ཚུལ་ནི་ག་ད་བ་ད་དྲག་ཀྱང་། ང་ན་མ་ར་ལ་མཐར་ཡང་། འ་དང་མཐའ་རྟེན་མེད་མཐར་འང་། རྐང་བ་སྐོང་ཚེ་ཡང་འཐོབ་བོ་ཞེས་པ་ལྟར་ཡིན། ༡.མིང་ཚིག་དང་རྒྱན་ཚིག་གི་བར་ལ་སྦྱར་ན་ཁྱད་ཆོས་སྔ་མའི་སྟེང་དུ་ཕྱི་མ་དེ་ཡང་ཚང་བའི་དོན་ཏེ། རྟ་བོ་འདི་གཟུགས་ཀྱང་ཆེ་ལ་འགྲོས་ཀྱང་མགྱོགས། ལུག་ཀྱང་ཆེ་ལ་བལ་ཡང་བཟང་ལྟ་བུ། ༢.མིང་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱ་བ་སྔ་ཕྱི་གཉིས་ཀ་འདྲ་བའི་དོན་ཏེ། རྩིས་རིག་ཀྱང་བསླབས་ཤིང་སྐད་ཡིག་ཀྱང་སྦྱངས་ལྟ་བུ། ༣.རྒྱན་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཡག་ཀྱང་ཡག་ལ་སྤུས་ཀྱང་ལེགས་ལྟ་བུ། ༼ཁ༽ མི་མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི། མདོག་ཡག་ཀྱང་སྤུས་ཀ་དམན་ལྟ་བུ། ༤.ལས་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མི་མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་མྱངས་ཀྱང་སེམས་མི་སྡུག་དགྲ་མང་སླེབས་ཀྱང་དཔའ་མི་ཞུམ་ལྟ་བུ། ༼ཁ༽ མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་ཀྱང་མྱངས་ལ་གྲུབ་འབྲས་ཀྱང་ཆེན་པོ་ཐོབ་ལྟ་བུ།</t>
+          <t xml:space="preserve">། </t>
         </is>
       </c>
     </row>
     <row r="348" ht="50" customHeight="1">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>ཧ་གོ་ཡ་</t>
+          <t>འདི་</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+this</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཉེ་བ་དང་བདག་དང་བདག་གེ་བ་སོགས་ལ་འཇུག་སྟེ། ས་འདི་དང་ས་ཕ་ཀི་རི་འདི་དང་རི་ཀན། དེ་རིང་གི་ཉི་མ་འདི་དང་ཁ་སང་གི་ཉི་མ་དེ། ངའི་དཔེ་ཆ་འདི་དང་ཁྱོད་ཀྱི་དཔེ་ཆ་དེ་ཞེས་པ་སོགས་ལྟ་བུ། ༼འདི་ག༽ དུས་ད་ལྟ་བ་དང་ཉེ་བའི་དངོས་པོ་ངེས་ཅན་ལ་འཇུག་སྟེ། ས་འདི་གར་ལྕགས་ཀྱི་གཏེར་ཁ་ཡོད། དུས་འདི་གར་ཆར་བ་འབབ་ལྟ་བུ། ༼འདི་སྐད༽ འདི་ལྟར་བཤད་ཅེས་པ་སྟེ། འདི་སྐད་དུ་ཐོས་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="349" ht="50" customHeight="1">
       <c r="A349" s="1" t="inlineStr">
         <is>
+          <t>སུ</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+[accusative, adverbial accusative, dative, and locative particle:] to; in; as; -ly; at; who?</t>
+        </is>
+      </c>
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིའི་ཚབ་ཚིག་སྟེ། སུ་འོངས་སམ། སུས་བཤད་དམ། སུའི་དཔེ་ཆ་རེད་དམ་ལྟ་བུ། ༢.ལ་ལ་ལྟོས།</t>
+        </is>
+      </c>
+    </row>
+    <row r="350" ht="50" customHeight="1">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>ས་</t>
+        </is>
+      </c>
+    </row>
+    <row r="351" ht="50" customHeight="1">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>ཀྱང་</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+but; even; also; however; nevertheless; although</t>
+        </is>
+      </c>
+      <c r="C351" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱང་འང་ཡང་གསུམ་ནི་རྒྱན་སྡུད་ཀྱི་ཚིག་ཕྲད་ཡིན་ཞིང་། འཇུག་ཚུལ་ནི་ག་ད་བ་ད་དྲག་ཀྱང་། ང་ན་མ་ར་ལ་མཐར་ཡང་། འ་དང་མཐའ་རྟེན་མེད་མཐར་འང་། རྐང་བ་སྐོང་ཚེ་ཡང་འཐོབ་བོ་ཞེས་པ་ལྟར་ཡིན། ༡.མིང་ཚིག་དང་རྒྱན་ཚིག་གི་བར་ལ་སྦྱར་ན་ཁྱད་ཆོས་སྔ་མའི་སྟེང་དུ་ཕྱི་མ་དེ་ཡང་ཚང་བའི་དོན་ཏེ། རྟ་བོ་འདི་གཟུགས་ཀྱང་ཆེ་ལ་འགྲོས་ཀྱང་མགྱོགས། ལུག་ཀྱང་ཆེ་ལ་བལ་ཡང་བཟང་ལྟ་བུ། ༢.མིང་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱ་བ་སྔ་ཕྱི་གཉིས་ཀ་འདྲ་བའི་དོན་ཏེ། རྩིས་རིག་ཀྱང་བསླབས་ཤིང་སྐད་ཡིག་ཀྱང་སྦྱངས་ལྟ་བུ། ༣.རྒྱན་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཡག་ཀྱང་ཡག་ལ་སྤུས་ཀྱང་ལེགས་ལྟ་བུ། ༼ཁ༽ མི་མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི། མདོག་ཡག་ཀྱང་སྤུས་ཀ་དམན་ལྟ་བུ། ༤.ལས་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མི་མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་མྱངས་ཀྱང་སེམས་མི་སྡུག་དགྲ་མང་སླེབས་ཀྱང་དཔའ་མི་ཞུམ་ལྟ་བུ། ༼ཁ༽ མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་ཀྱང་མྱངས་ལ་གྲུབ་འབྲས་ཀྱང་ཆེན་པོ་ཐོབ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="352" ht="50" customHeight="1">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>ཧ་གོ་ཡ་</t>
+        </is>
+      </c>
+    </row>
+    <row r="353" ht="50" customHeight="1">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
           <t>དཀའ་ལས་</t>
         </is>
       </c>
-      <c r="B349" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B353" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 1) hard/_difficult work; 2) exhaustion, toil; 3) difficulty, trouble, problem, hardship</t>
         </is>
       </c>
-      <c r="C349" s="2" t="inlineStr">
+      <c r="C353" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ༡༽ ཁག་པོའི་ལས་ཀ། ༢༽ ངལ་དུབ། དཀའ་ལས་མ་བརྒྱབ་པར་ལོངས་སུ་སྤྱོད་པ། དཀའ་ལས་ཆེ་ལ་འབྲས་བུ་ཆུང་བ། དཀའ་ལས་ཁག་པོ།</t>
         </is>
       </c>
     </row>
-    <row r="350" ht="50" customHeight="1">
-      <c r="A350" s="1" t="inlineStr">
-        <is>
-          <t>ཁག་པོ་</t>
-        </is>
-      </c>
-      <c r="B350" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
-difficult, hard</t>
-        </is>
-      </c>
-      <c r="C350" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-དཀའ་བའི་དོན་ཏེ། ལས་ཀ་ཧ་ཅང་ཁག་པོ་ལས། ལམ་ཁག་པོར་སོང་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="351" ht="50" customHeight="1">
-      <c r="A351" s="1" t="inlineStr">
-        <is>
-          <t>རེད</t>
-        </is>
-      </c>
-      <c r="B351" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-is</t>
-        </is>
-      </c>
-      <c r="C351" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="352" ht="50" customHeight="1">
-      <c r="A352" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">། </t>
-        </is>
-      </c>
-    </row>
-    <row r="353" ht="50" customHeight="1">
-      <c r="A353" s="1" t="inlineStr">
-        <is>
-          <t>འདི་</t>
-        </is>
-      </c>
-      <c r="B353" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-this</t>
-        </is>
-      </c>
-      <c r="C353" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཉེ་བ་དང་བདག་དང་བདག་གེ་བ་སོགས་ལ་འཇུག་སྟེ། ས་འདི་དང་ས་ཕ་ཀི་རི་འདི་དང་རི་ཀན། དེ་རིང་གི་ཉི་མ་འདི་དང་ཁ་སང་གི་ཉི་མ་དེ། ངའི་དཔེ་ཆ་འདི་དང་ཁྱོད་ཀྱི་དཔེ་ཆ་དེ་ཞེས་པ་སོགས་ལྟ་བུ། ༼འདི་ག༽ དུས་ད་ལྟ་བ་དང་ཉེ་བའི་དངོས་པོ་ངེས་ཅན་ལ་འཇུག་སྟེ། ས་འདི་གར་ལྕགས་ཀྱི་གཏེར་ཁ་ཡོད། དུས་འདི་གར་ཆར་བ་འབབ་ལྟ་བུ། ༼འདི་སྐད༽ འདི་ལྟར་བཤད་ཅེས་པ་སྟེ། འདི་སྐད་དུ་ཐོས་ཞེས་པ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
     <row r="354" ht="50" customHeight="1">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>ལས་</t>
+          <t>ཁག་པོ་</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-action; act; deed; predisposition (established by a deed); work; [ablative particle:] from; by reason of; having [done something]; activities</t>
+          <t>Ives Waldo
+difficult, hard</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་མིའི་རིགས་ཀྱི་དམིགས་ཡུལ་ཡོད་པའི་ལུས་ཤུགས་དང་ཀླ་ད་པའི་ནུས་ཤུགས་ཀྱི་ལས་ཀ་མཐའ་དག་གི་མིང་སྟེ། ཟ་འདོད་ན་ལས་འདོད་དགོས། ཟ་འདོད་པ་མ་གཏོགས་ལས་མི་འདོད་པ་ནི་ངོ་ཚ་ཡིན། ཟས་ཟ་ན་ལས་བྱེད་དགོས། ས་ལས་རྡོ་ལས། མར་ལས་ཤ་ལས་ཞེས་པ་ལྟ་བུ། ༼ལས་ཀ༽ ༼༡༽ མིའི་ལུས་སེམས་ཀྱི་རྩོལ་བ། ༼༢༽ གོང་རིམ་ནས་ཆེད་དམིགས་སུ་བགོས་པའི་བྱ་བའི་མིང་། ༼ལས་ཀ་པ༽ ལས་པ་དང་དོན་འདྲ། ༼ལས་སྐར༽ མང་ཚོགས་ཀྱི་ལས་ཀའི་ཚད་དང་ངལ་རྩོལ་གྱི་ཐོབ་ཐང་རྩི་བའི་སྡེ་ཚན་ཞིག་གི་མིང་། ༼ལས་གླ༽ ལས་ཀ་ལས་པའི་གླ་བཙའི་མིང་། ༼ལས་སྒོ༽ ལས་ཀའི་སྡེ་ཚན་ཁག་གི་མིང་སྟེ། ཚོང་གི་ལས་སྒོར་ཞུགས། སློབ་ཁྲིད་ཀྱི་ལས་སྒོར་ཞུགས་ལྟ་བུ། ༼ལས་སྣ༽ གོང་རིམ་གྱིས་དམིགས་སུ་བསྐོས་པའི་ལས་ཀ་བྱེད་མཁན་གྱི་མི། ༼ལས་པ༽ དུས་སྐབས་ཤིག་ལ་ཆེད་དམིགས་ཀྱི་ལས་བྱས་ནས་གླ་ལེན་མཁན་གྱི་མི་སྟེ། ས་ལས་པ། ལམ་ལས་པ་ཞེས་པ་ལྟ་བུ། ༼ལས་དཔོན༽ ༼༡༽ ལས་ཀ་པར་བཀོད་འདོམས་བྱེད་མཁན་གྱི་མི་སྟེ། རྐ་ཆེན་གྱི་ལས་དཔོན། ཆུ་རགས་ཀྱི་ལས་དཔོན་ཞེས་པ་ལྟ་བུ། ༼༢༽ མ་རྩ་ཅན་གྱིས་གླས་ནས་བཟོ་པར་ལྟ་རྟོག་བྱེད་མཁན་གྱི་མི། ༢.བྱ་བའམ་ལས་དོན་གྱི་མིང་སྟེ། ལས་འགན། ལས་བྱ་ཞེས་པ་ལྟ་བུ། ༼ལས་འགན༽ གོང་རིམ་གྱིས་ཁུར་དགོས་པར་གཏན་ཁེལ་བྱས་པའི་ལས་ཀའི་མིང་སྟེ། ལས་འགན་ཡོངས་སུ་གྲུབ། སློབ་ལོ་འདིར་ང་ཚོའི་སློབ་གྲྭར་སློབ་གྲྭ་པ་ལྔ་བཅུ་བསྡུ་རྒྱུའི་ལས་འགན་ཡོད་ལྟ་བུ། ༼ལས་ཁུངས༽ རྒྱལ་ཁབ་ཀྱི་ལས་དོན་སྒྲུབ་པའི་རྩ་འཛུགས་ཀྱི་མིང་སྟེ། སྲིད་འཛིན་ལས་ཁུངས། དམག་གི་ལས་ཁུངས་ཞེས་པ་ལྟ་བུ། ༼ལས་དོན༽ ༼༡༽ མིའི་རིགས་ཀྱི་བྱ་འགུལ་དང་འཇིག་རྟེན་དུ་འཕྲད་པའི་བྱ་དངོས་ཐམས་ཅད་ཀྱི་སྤྱི་མིང་། ༼༢༽ མིས་བསྒྲུབས་པའི་བྱ་བཞག་ནང་གི་ཁོངས་གཏོགས་དང་རྒྱ་ཁྱོན་ངེས་ཅན་ཡོད་ཅིང་སྤྱི་ཚོགས་འཕེལ་རྒྱས་ལ་འབྲེལ་བ་ཡོད་པ་ཞིག་གི་མིང་སྟེ། སློབ་གསོའི་ལས་དོན། ཚན་རིག་གི་ལས་དོན་ཞེས་པ་ལྟ་བུ། ༼ལས་བྱེད་པ༽ ༼༡༽ རྒྱལ་ཁབ་ལས་ཁུངས་དང་དམག་དཔུང་། མི་དམངས་ཚོགས་པ་སོགས་སུ་སྤྱི་དོན་ངེས་ཅན་སྒྲུབ་མཁན་གྱི་མི། ༼༢༽ འགན་འཁུར་ངེས་ཅན་ཁུར་ཡོད་པའི་མི། ༼ལས་ཚན༽ ལས་ཀའི་རྣམས་གྲངས་ཀྱི་མིང་། ༼ལས་ཚན་པ༽ ༼༡༽ གཞུང་སོགས་ཀྱི་ལས་ཀ་ངེས་ཅན་ཞིག་སྒྲུབ་མཁན་གྱི་མི་སྟེ། བཟོ་གྲྭའི་ལས་ཚན་པ་ཞེས་པ་ལྟ་བུ། ༼༢༽ དགོན་པའི་ལས་ཀ་ངེས་ཅན་ཞིག་སྒྲུབ་མཁན་གྱི་མི། ༼ལས་མཚམས༽ ལས་ཀའི་ཁོམ་ལོང་ངམ་ངལ་གསོའི་སྐབས་ཏེ། ལས་མཚམས་བཏང་ནས་ངལ་གསོ་བྱས་ལྟ་བུ། ༼ལས་མཚམས་འཇོག་པ༽ བཟོ་བའི་རེ་འདུན་ཞིག་འགྲུབ་ཆེད་དང་འགོག་རྒོལ་བྱེད་ཆེད་ཐུན་མོང་གིས་ལས་མཚམས་གཅོད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་། ༣.རྒྱལ་འབངས་དཔལ་འབྱོར་གྱི་སྡེ་ཁག་སོ་སོའི་དོན་ཏེ། བཟོ་ལས། ཞིང་ལས། ཕྱུགས་ལས། ལས་རིགས་སོ་སོ་ཞེས་པ་ལྟ་བུ། ༤.བྱ་དངོས་ཀྱི་འགྱུར་ལྡོག་དང་གཡོ་འགུལ་སོགས་ཀྱི་མིང་། ༼ལས་སུ་བྱ་བ༽ ལ་ལ་ལྟོས། ༼ལས་ཚིག་རྗེས་མཐུན་པ༽ ཕལ་ཆེར་ལས་ཚིག་གི་མཐར་སྦྱར་ནས་ཐག་ཆོད་པ་དང་རེ་བ་བྱེད་པའི་མཐུ་ནུས་ཡོད་པ་སོགས་སྟོན་པའི་ཐ་སྙད་ལ་ཟེར་ཏེ། ཡིན། ཡོད། མིན། མེད། དགོས། ཐུབ་སོགས་ལྟ་བུ་ཡིན། དཔེར་ན། ཡི་གེ་འདི་སློབ་དཔོན་གྱི་ཕྱག་བྲིས་ཡིན། སློབ་དགོས། འགྲོ་ཐུབ། བྱ་བ་མང་བོ་བསྒྲུབས་ཡོད། སྤྱོད་ངན་གཅིག་ཀྱང་བྱས་མེད་སོགས་ལྟ་བུ། ༼ལས་ཚིག༽ བྱ་དངོས་ཀྱི་འགྱུར་ལྡོག་སོགས་སྟོན་པའི་ཐ་སྙད་ལ་ལས་ཀྱི་ཚིག་གམ་ལས་ཚིག་ཟེར། དཔེར་ན། གཅད། གཅོད། བཅད། ཆོད་དང་། ཤེས། གླེང་སོགས་ནི་ལས་ཚིག་ཡིན་པ་ལྟ་བུ། ༥.བརྡ་སྤྲོད་ཀྱི་བྱ་བྱེད་ལས་གསུམ་གྱི་ནང་ཚན་གྱི་ལས་ཏེ། བྱ་བའམ་ལས་ཀའི་ཡུལ་གྱི་མིང་། ༦.ལུས་ངག་ཡིད་ཀྱི་བྱ་སྤྱོད་ཐམས་ཅད་ལ་ལས་ཟེར་ཞིང་། སྲོག་གཅོད་པ་དང་མ་བྱིན་པ་ལེན་པ ༼རྐུ་བ༽ ། མི་ཚངས་པར་སྤྱོད་པ ༼ལོག་གཡེམ༽ གསུམ་ལ་ལུས་ཀྱི་ལས་གསུམ་དང་། རྫུན་དང་ཕྲ་མ། ངག་འཆལ་ཚིག་རྩུབ་བཞི་ལ་ངག་གི་ལས་བཞི། བརྣབ་སེམས་དང་གནོད་སེམས་ལོག་ལྟ་གསུམ་ལ་ཡིད་ཀྱི་མི་དགེ་བ་བཅུའམ་ལས་ནག་ཟེར། དེ་ལས་ལྡོག་པའམ་དེ་རྣམས་མི་བྱེད་པ་ལ་དགེ་བ་བཅུའམ་ལས་དཀར་ཟེར། ༼ལས་སྐལ༽ ༼༡༽ སྐྱེ་རྒ་ན་འཆི་དང་ཕྱུག་དབུལ་བདེ་སྡུག་སོགས་ལས་ཀྱི་རྣམ་སྨིན་ཡིན་པས་ལྡོག་ཏུ་མེད་པ་ཞིག་ཡིན་ཞིང་། དེ་དག་ལ་ལས་སྐལ་ཟེར། ༼༢༽ གོང་འཕེལ་དང་འགྱུར་ལྡོག་གི་ཁ་ཕྱོགས་ཀྱི་དཔེ་སྟེ། མི་དམངས་ཀྱིས་རང་གི་ལས་སྐུལ་རང་གིས་ལག་ཏུ་བཟུང་བ་རེད་ལྟ་བུ། ༼ལས་ངན༽ ༼༡༽ མི་དགེ་བའི་ལས་ཀྱི་འབྲས་བུ་སྡུག་བསྔལ་མྱོང་མཁན། ༼༢༽ ལས་སྐལ་དང་ལོངས་སྤྱོད་སོགས་སྡུག་པོ་སྤྱོད་པའི་དཔེ་སྟེ། ༼༢༽ འབུ་ལས་ངན་གྲོག་ཚང་ཁ་ལ་འོངས། མི་ལས་ངན་བདུད་ཚང་ཁ་ལ་འོངས་ཞེས་པ་ལྟ་བུ། ༼ལས་ཅན༽ ༼༡༽ ལས་ཀ་ཡག་པོ་ཐུབ་མཁན་ནམ་བསོད་ནམས་ཡོད་མཁན། ༼༢༽ ལས་སྐལ་ལམ་གོ་སྐབས་ཡག་པོར་ཐུག་པའི་དཔེ་སྟེ། མི་ལས་ཅན་སྟོན་མོ་བྱེད་སར་འཕྲད་ལྟ་བུ། ༼ལས་རྒྱུ་འབྲས༽ ༼༡༽ འབྲུ་སོགས་ཀྱི་ས་བོན་དང་ལོ་ཏོག ༼༢༽ དགེ་སྡིག་གི་ལས་བསགས་པའི་འབྲས་བུ་བདེ་བ་དང་། སྡིག་པའི་ལས་བསགས་པའི་འབྲས་བུ་སྡུག་བསྔལ་ལྟ་བུའོ། ༼ལས་བུམ༽ ཆོས་ལུགས་པའི་དཀྱིལ་འཁོར་དང། མཆོད་རྫས་དང། བདག་དང། གནས་དང། སློབ་མ་ལ་བསང་གཏོར་གཏོང་བྱེད་ཆུ་སྣོད་ཅིག ༼ལས་ཚོགས༽ ཡི་དམ་རང་རང་གི་ཞི་རྒྱས་དབང་དྲག་གི་ལས་སྒྲུབ་སྐོར་ཕྱོགས་གཅིག་ཏུ་བསྡུས་པ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+དཀའ་བའི་དོན་ཏེ། ལས་ཀ་ཧ་ཅང་ཁག་པོ་ལས། ལམ་ཁག་པོར་སོང་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="355" ht="50" customHeight="1">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>ཀྱང་</t>
+          <t>རེད</t>
         </is>
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-but; even; also; however; nevertheless; although</t>
+          <t>Hopkins 2015
+is</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-ཀྱང་འང་ཡང་གསུམ་ནི་རྒྱན་སྡུད་ཀྱི་ཚིག་ཕྲད་ཡིན་ཞིང་། འཇུག་ཚུལ་ནི་ག་ད་བ་ད་དྲག་ཀྱང་། ང་ན་མ་ར་ལ་མཐར་ཡང་། འ་དང་མཐའ་རྟེན་མེད་མཐར་འང་། རྐང་བ་སྐོང་ཚེ་ཡང་འཐོབ་བོ་ཞེས་པ་ལྟར་ཡིན། ༡.མིང་ཚིག་དང་རྒྱན་ཚིག་གི་བར་ལ་སྦྱར་ན་ཁྱད་ཆོས་སྔ་མའི་སྟེང་དུ་ཕྱི་མ་དེ་ཡང་ཚང་བའི་དོན་ཏེ། རྟ་བོ་འདི་གཟུགས་ཀྱང་ཆེ་ལ་འགྲོས་ཀྱང་མགྱོགས། ལུག་ཀྱང་ཆེ་ལ་བལ་ཡང་བཟང་ལྟ་བུ། ༢.མིང་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱ་བ་སྔ་ཕྱི་གཉིས་ཀ་འདྲ་བའི་དོན་ཏེ། རྩིས་རིག་ཀྱང་བསླབས་ཤིང་སྐད་ཡིག་ཀྱང་སྦྱངས་ལྟ་བུ། ༣.རྒྱན་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཡག་ཀྱང་ཡག་ལ་སྤུས་ཀྱང་ལེགས་ལྟ་བུ། ༼ཁ༽ མི་མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི། མདོག་ཡག་ཀྱང་སྤུས་ཀ་དམན་ལྟ་བུ། ༤.ལས་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མི་མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་མྱངས་ཀྱང་སེམས་མི་སྡུག་དགྲ་མང་སླེབས་ཀྱང་དཔའ་མི་ཞུམ་ལྟ་བུ། ༼ཁ༽ མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་ཀྱང་མྱངས་ལ་གྲུབ་འབྲས་ཀྱང་ཆེན་པོ་ཐོབ་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="356" ht="50" customHeight="1">
       <c r="A356" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="357" ht="50" customHeight="1">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>འདི་</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+this</t>
+        </is>
+      </c>
+      <c r="C357" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཉེ་བ་དང་བདག་དང་བདག་གེ་བ་སོགས་ལ་འཇུག་སྟེ། ས་འདི་དང་ས་ཕ་ཀི་རི་འདི་དང་རི་ཀན། དེ་རིང་གི་ཉི་མ་འདི་དང་ཁ་སང་གི་ཉི་མ་དེ། ངའི་དཔེ་ཆ་འདི་དང་ཁྱོད་ཀྱི་དཔེ་ཆ་དེ་ཞེས་པ་སོགས་ལྟ་བུ། ༼འདི་ག༽ དུས་ད་ལྟ་བ་དང་ཉེ་བའི་དངོས་པོ་ངེས་ཅན་ལ་འཇུག་སྟེ། ས་འདི་གར་ལྕགས་ཀྱི་གཏེར་ཁ་ཡོད། དུས་འདི་གར་ཆར་བ་འབབ་ལྟ་བུ། ༼འདི་སྐད༽ འདི་ལྟར་བཤད་ཅེས་པ་སྟེ། འདི་སྐད་དུ་ཐོས་ཞེས་པ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="358" ht="50" customHeight="1">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>ལས་</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+action; act; deed; predisposition (established by a deed); work; [ablative particle:] from; by reason of; having [done something]; activities</t>
+        </is>
+      </c>
+      <c r="C358" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་མིའི་རིགས་ཀྱི་དམིགས་ཡུལ་ཡོད་པའི་ལུས་ཤུགས་དང་ཀླ་ད་པའི་ནུས་ཤུགས་ཀྱི་ལས་ཀ་མཐའ་དག་གི་མིང་སྟེ། ཟ་འདོད་ན་ལས་འདོད་དགོས། ཟ་འདོད་པ་མ་གཏོགས་ལས་མི་འདོད་པ་ནི་ངོ་ཚ་ཡིན། ཟས་ཟ་ན་ལས་བྱེད་དགོས། ས་ལས་རྡོ་ལས། མར་ལས་ཤ་ལས་ཞེས་པ་ལྟ་བུ། ༼ལས་ཀ༽ ༼༡༽ མིའི་ལུས་སེམས་ཀྱི་རྩོལ་བ། ༼༢༽ གོང་རིམ་ནས་ཆེད་དམིགས་སུ་བགོས་པའི་བྱ་བའི་མིང་། ༼ལས་ཀ་པ༽ ལས་པ་དང་དོན་འདྲ། ༼ལས་སྐར༽ མང་ཚོགས་ཀྱི་ལས་ཀའི་ཚད་དང་ངལ་རྩོལ་གྱི་ཐོབ་ཐང་རྩི་བའི་སྡེ་ཚན་ཞིག་གི་མིང་། ༼ལས་གླ༽ ལས་ཀ་ལས་པའི་གླ་བཙའི་མིང་། ༼ལས་སྒོ༽ ལས་ཀའི་སྡེ་ཚན་ཁག་གི་མིང་སྟེ། ཚོང་གི་ལས་སྒོར་ཞུགས། སློབ་ཁྲིད་ཀྱི་ལས་སྒོར་ཞུགས་ལྟ་བུ། ༼ལས་སྣ༽ གོང་རིམ་གྱིས་དམིགས་སུ་བསྐོས་པའི་ལས་ཀ་བྱེད་མཁན་གྱི་མི། ༼ལས་པ༽ དུས་སྐབས་ཤིག་ལ་ཆེད་དམིགས་ཀྱི་ལས་བྱས་ནས་གླ་ལེན་མཁན་གྱི་མི་སྟེ། ས་ལས་པ། ལམ་ལས་པ་ཞེས་པ་ལྟ་བུ། ༼ལས་དཔོན༽ ༼༡༽ ལས་ཀ་པར་བཀོད་འདོམས་བྱེད་མཁན་གྱི་མི་སྟེ། རྐ་ཆེན་གྱི་ལས་དཔོན། ཆུ་རགས་ཀྱི་ལས་དཔོན་ཞེས་པ་ལྟ་བུ། ༼༢༽ མ་རྩ་ཅན་གྱིས་གླས་ནས་བཟོ་པར་ལྟ་རྟོག་བྱེད་མཁན་གྱི་མི། ༢.བྱ་བའམ་ལས་དོན་གྱི་མིང་སྟེ། ལས་འགན། ལས་བྱ་ཞེས་པ་ལྟ་བུ། ༼ལས་འགན༽ གོང་རིམ་གྱིས་ཁུར་དགོས་པར་གཏན་ཁེལ་བྱས་པའི་ལས་ཀའི་མིང་སྟེ། ལས་འགན་ཡོངས་སུ་གྲུབ། སློབ་ལོ་འདིར་ང་ཚོའི་སློབ་གྲྭར་སློབ་གྲྭ་པ་ལྔ་བཅུ་བསྡུ་རྒྱུའི་ལས་འགན་ཡོད་ལྟ་བུ། ༼ལས་ཁུངས༽ རྒྱལ་ཁབ་ཀྱི་ལས་དོན་སྒྲུབ་པའི་རྩ་འཛུགས་ཀྱི་མིང་སྟེ། སྲིད་འཛིན་ལས་ཁུངས། དམག་གི་ལས་ཁུངས་ཞེས་པ་ལྟ་བུ། ༼ལས་དོན༽ ༼༡༽ མིའི་རིགས་ཀྱི་བྱ་འགུལ་དང་འཇིག་རྟེན་དུ་འཕྲད་པའི་བྱ་དངོས་ཐམས་ཅད་ཀྱི་སྤྱི་མིང་། ༼༢༽ མིས་བསྒྲུབས་པའི་བྱ་བཞག་ནང་གི་ཁོངས་གཏོགས་དང་རྒྱ་ཁྱོན་ངེས་ཅན་ཡོད་ཅིང་སྤྱི་ཚོགས་འཕེལ་རྒྱས་ལ་འབྲེལ་བ་ཡོད་པ་ཞིག་གི་མིང་སྟེ། སློབ་གསོའི་ལས་དོན། ཚན་རིག་གི་ལས་དོན་ཞེས་པ་ལྟ་བུ། ༼ལས་བྱེད་པ༽ ༼༡༽ རྒྱལ་ཁབ་ལས་ཁུངས་དང་དམག་དཔུང་། མི་དམངས་ཚོགས་པ་སོགས་སུ་སྤྱི་དོན་ངེས་ཅན་སྒྲུབ་མཁན་གྱི་མི། ༼༢༽ འགན་འཁུར་ངེས་ཅན་ཁུར་ཡོད་པའི་མི། ༼ལས་ཚན༽ ལས་ཀའི་རྣམས་གྲངས་ཀྱི་མིང་། ༼ལས་ཚན་པ༽ ༼༡༽ གཞུང་སོགས་ཀྱི་ལས་ཀ་ངེས་ཅན་ཞིག་སྒྲུབ་མཁན་གྱི་མི་སྟེ། བཟོ་གྲྭའི་ལས་ཚན་པ་ཞེས་པ་ལྟ་བུ། ༼༢༽ དགོན་པའི་ལས་ཀ་ངེས་ཅན་ཞིག་སྒྲུབ་མཁན་གྱི་མི། ༼ལས་མཚམས༽ ལས་ཀའི་ཁོམ་ལོང་ངམ་ངལ་གསོའི་སྐབས་ཏེ། ལས་མཚམས་བཏང་ནས་ངལ་གསོ་བྱས་ལྟ་བུ། ༼ལས་མཚམས་འཇོག་པ༽ བཟོ་བའི་རེ་འདུན་ཞིག་འགྲུབ་ཆེད་དང་འགོག་རྒོལ་བྱེད་ཆེད་ཐུན་མོང་གིས་ལས་མཚམས་གཅོད་པའི་བྱ་སྤྱོད་ཀྱི་མིང་། ༣.རྒྱལ་འབངས་དཔལ་འབྱོར་གྱི་སྡེ་ཁག་སོ་སོའི་དོན་ཏེ། བཟོ་ལས། ཞིང་ལས། ཕྱུགས་ལས། ལས་རིགས་སོ་སོ་ཞེས་པ་ལྟ་བུ། ༤.བྱ་དངོས་ཀྱི་འགྱུར་ལྡོག་དང་གཡོ་འགུལ་སོགས་ཀྱི་མིང་། ༼ལས་སུ་བྱ་བ༽ ལ་ལ་ལྟོས། ༼ལས་ཚིག་རྗེས་མཐུན་པ༽ ཕལ་ཆེར་ལས་ཚིག་གི་མཐར་སྦྱར་ནས་ཐག་ཆོད་པ་དང་རེ་བ་བྱེད་པའི་མཐུ་ནུས་ཡོད་པ་སོགས་སྟོན་པའི་ཐ་སྙད་ལ་ཟེར་ཏེ། ཡིན། ཡོད། མིན། མེད། དགོས། ཐུབ་སོགས་ལྟ་བུ་ཡིན། དཔེར་ན། ཡི་གེ་འདི་སློབ་དཔོན་གྱི་ཕྱག་བྲིས་ཡིན། སློབ་དགོས། འགྲོ་ཐུབ། བྱ་བ་མང་བོ་བསྒྲུབས་ཡོད། སྤྱོད་ངན་གཅིག་ཀྱང་བྱས་མེད་སོགས་ལྟ་བུ། ༼ལས་ཚིག༽ བྱ་དངོས་ཀྱི་འགྱུར་ལྡོག་སོགས་སྟོན་པའི་ཐ་སྙད་ལ་ལས་ཀྱི་ཚིག་གམ་ལས་ཚིག་ཟེར། དཔེར་ན། གཅད། གཅོད། བཅད། ཆོད་དང་། ཤེས། གླེང་སོགས་ནི་ལས་ཚིག་ཡིན་པ་ལྟ་བུ། ༥.བརྡ་སྤྲོད་ཀྱི་བྱ་བྱེད་ལས་གསུམ་གྱི་ནང་ཚན་གྱི་ལས་ཏེ། བྱ་བའམ་ལས་ཀའི་ཡུལ་གྱི་མིང་། ༦.ལུས་ངག་ཡིད་ཀྱི་བྱ་སྤྱོད་ཐམས་ཅད་ལ་ལས་ཟེར་ཞིང་། སྲོག་གཅོད་པ་དང་མ་བྱིན་པ་ལེན་པ ༼རྐུ་བ༽ ། མི་ཚངས་པར་སྤྱོད་པ ༼ལོག་གཡེམ༽ གསུམ་ལ་ལུས་ཀྱི་ལས་གསུམ་དང་། རྫུན་དང་ཕྲ་མ། ངག་འཆལ་ཚིག་རྩུབ་བཞི་ལ་ངག་གི་ལས་བཞི། བརྣབ་སེམས་དང་གནོད་སེམས་ལོག་ལྟ་གསུམ་ལ་ཡིད་ཀྱི་མི་དགེ་བ་བཅུའམ་ལས་ནག་ཟེར། དེ་ལས་ལྡོག་པའམ་དེ་རྣམས་མི་བྱེད་པ་ལ་དགེ་བ་བཅུའམ་ལས་དཀར་ཟེར། ༼ལས་སྐལ༽ ༼༡༽ སྐྱེ་རྒ་ན་འཆི་དང་ཕྱུག་དབུལ་བདེ་སྡུག་སོགས་ལས་ཀྱི་རྣམ་སྨིན་ཡིན་པས་ལྡོག་ཏུ་མེད་པ་ཞིག་ཡིན་ཞིང་། དེ་དག་ལ་ལས་སྐལ་ཟེར། ༼༢༽ གོང་འཕེལ་དང་འགྱུར་ལྡོག་གི་ཁ་ཕྱོགས་ཀྱི་དཔེ་སྟེ། མི་དམངས་ཀྱིས་རང་གི་ལས་སྐུལ་རང་གིས་ལག་ཏུ་བཟུང་བ་རེད་ལྟ་བུ། ༼ལས་ངན༽ ༼༡༽ མི་དགེ་བའི་ལས་ཀྱི་འབྲས་བུ་སྡུག་བསྔལ་མྱོང་མཁན། ༼༢༽ ལས་སྐལ་དང་ལོངས་སྤྱོད་སོགས་སྡུག་པོ་སྤྱོད་པའི་དཔེ་སྟེ། ༼༢༽ འབུ་ལས་ངན་གྲོག་ཚང་ཁ་ལ་འོངས། མི་ལས་ངན་བདུད་ཚང་ཁ་ལ་འོངས་ཞེས་པ་ལྟ་བུ། ༼ལས་ཅན༽ ༼༡༽ ལས་ཀ་ཡག་པོ་ཐུབ་མཁན་ནམ་བསོད་ནམས་ཡོད་མཁན། ༼༢༽ ལས་སྐལ་ལམ་གོ་སྐབས་ཡག་པོར་ཐུག་པའི་དཔེ་སྟེ། མི་ལས་ཅན་སྟོན་མོ་བྱེད་སར་འཕྲད་ལྟ་བུ། ༼ལས་རྒྱུ་འབྲས༽ ༼༡༽ འབྲུ་སོགས་ཀྱི་ས་བོན་དང་ལོ་ཏོག ༼༢༽ དགེ་སྡིག་གི་ལས་བསགས་པའི་འབྲས་བུ་བདེ་བ་དང་། སྡིག་པའི་ལས་བསགས་པའི་འབྲས་བུ་སྡུག་བསྔལ་ལྟ་བུའོ། ༼ལས་བུམ༽ ཆོས་ལུགས་པའི་དཀྱིལ་འཁོར་དང། མཆོད་རྫས་དང། བདག་དང། གནས་དང། སློབ་མ་ལ་བསང་གཏོར་གཏོང་བྱེད་ཆུ་སྣོད་ཅིག ༼ལས་ཚོགས༽ ཡི་དམ་རང་རང་གི་ཞི་རྒྱས་དབང་དྲག་གི་ལས་སྒྲུབ་སྐོར་ཕྱོགས་གཅིག་ཏུ་བསྡུས་པ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="359" ht="50" customHeight="1">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>ཀྱང་</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+but; even; also; however; nevertheless; although</t>
+        </is>
+      </c>
+      <c r="C359" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱང་འང་ཡང་གསུམ་ནི་རྒྱན་སྡུད་ཀྱི་ཚིག་ཕྲད་ཡིན་ཞིང་། འཇུག་ཚུལ་ནི་ག་ད་བ་ད་དྲག་ཀྱང་། ང་ན་མ་ར་ལ་མཐར་ཡང་། འ་དང་མཐའ་རྟེན་མེད་མཐར་འང་། རྐང་བ་སྐོང་ཚེ་ཡང་འཐོབ་བོ་ཞེས་པ་ལྟར་ཡིན། ༡.མིང་ཚིག་དང་རྒྱན་ཚིག་གི་བར་ལ་སྦྱར་ན་ཁྱད་ཆོས་སྔ་མའི་སྟེང་དུ་ཕྱི་མ་དེ་ཡང་ཚང་བའི་དོན་ཏེ། རྟ་བོ་འདི་གཟུགས་ཀྱང་ཆེ་ལ་འགྲོས་ཀྱང་མགྱོགས། ལུག་ཀྱང་ཆེ་ལ་བལ་ཡང་བཟང་ལྟ་བུ། ༢.མིང་ཚིག་དང་ལས་ཚིག་གི་བར་ལ་སྦྱར་ན་བྱ་བ་སྔ་ཕྱི་གཉིས་ཀ་འདྲ་བའི་དོན་ཏེ། རྩིས་རིག་ཀྱང་བསླབས་ཤིང་སྐད་ཡིག་ཀྱང་སྦྱངས་ལྟ་བུ། ༣.རྒྱན་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི་ཡག་ཀྱང་ཡག་ལ་སྤུས་ཀྱང་ལེགས་ལྟ་བུ། ༼ཁ༽ མི་མཐུན་པའི་རྒྱན་སྡུད་ལ་འཇུག་པ་ནི། མདོག་ཡག་ཀྱང་སྤུས་ཀ་དམན་ལྟ་བུ། ༤.ལས་ཚིག་གི་མཐར་སྦྱར་ན། ༼ཀ༽ མི་མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་མྱངས་ཀྱང་སེམས་མི་སྡུག་དགྲ་མང་སླེབས་ཀྱང་དཔའ་མི་ཞུམ་ལྟ་བུ། ༼ཁ༽ མཐུན་པ་སྡུད་པའི་དོན་ལ་འཇུག་པ་ནི་དཀའ་ཚེགས་ཀྱང་མྱངས་ལ་གྲུབ་འབྲས་ཀྱང་ཆེན་པོ་ཐོབ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="360" ht="50" customHeight="1">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
           <t>དཀའ་ལས་</t>
         </is>
       </c>
-      <c r="B356" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B360" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 1) hard/_difficult work; 2) exhaustion, toil; 3) difficulty, trouble, problem, hardship</t>
         </is>
       </c>
-      <c r="C356" s="2" t="inlineStr">
+      <c r="C360" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ༡༽ ཁག་པོའི་ལས་ཀ། ༢༽ ངལ་དུབ། དཀའ་ལས་མ་བརྒྱབ་པར་ལོངས་སུ་སྤྱོད་པ། དཀའ་ལས་ཆེ་ལ་འབྲས་བུ་ཆུང་བ། དཀའ་ལས་ཁག་པོ།</t>
         </is>
       </c>
     </row>
-    <row r="357" ht="50" customHeight="1">
-      <c r="A357" s="1" t="inlineStr">
+    <row r="361" ht="50" customHeight="1">
+      <c r="A361" s="1" t="inlineStr">
         <is>
           <t>ཁག་པོ་</t>
         </is>
       </c>
-      <c r="B357" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
+      <c r="B361" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
 difficult, hard</t>
         </is>
       </c>
-      <c r="C357" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C361" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 དཀའ་བའི་དོན་ཏེ། ལས་ཀ་ཧ་ཅང་ཁག་པོ་ལས། ལམ་ཁག་པོར་སོང་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
-    <row r="358" ht="50" customHeight="1">
-      <c r="A358" s="1" t="inlineStr">
+    <row r="362" ht="50" customHeight="1">
+      <c r="A362" s="1" t="inlineStr">
         <is>
           <t>ནི་</t>
         </is>
       </c>
-      <c r="B358" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B362" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 [a separative particle; non-case particle sets off subject or topic]</t>
         </is>
       </c>
-      <c r="C358" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C362" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་དགར་བ་སྟེ། ཚིག་སྔ་ཕྱི་གཉིས་ཀྱི་བར་ལ་སྦྱར་ན་ཚིག་སྔ་མ་ནི་གཙོ་ཚིག་དང་ཕྱི་མ་ནི་རྗོད་ཚིག་ཡིན་པར་སྟོན་ཏེ། རྟ་ནོར་ལུག་གསུམ་ནི་བོད་རིགས་མི་དམངས་ཀྱི་སྒོ་ཕྱུགས་གཙོ་བོ་ཡིན། བ་ལང་ནི་སྒོ་ཕྱུགས་བཟང་བོ་ཞིག་ཡིན་ཞེས་པ་ལྟ་བུ། ༢.ངེས་བཟུང་ངམ་བརྣན་པ་སྟེ། ནན་ཏན་བྱེད་པའི་དོན་ལ་འཇུག་པ་ནི། སྒྲིག་ཁྲིམས་ནི་ངེས་པར་དུ་བསྲུང་དགོས། སློབ་གྲྭར་ནི་ཞུགས། འགོ་འདྲེན་ནི་བཟང་། ཆ་རྐྱེན་ནི་འཛོམས། བདག་གིས་ནི་ཁྲིམས་འགལ་གཏན་ནས་མི་བྱེད། ཁྱོད་རང་གིས་ནི་སློབ་སྦྱོང་ནན་ཏན་བྱོས་ལྟ་བུ། ༣.ཚིག་ཕྱི་མ་འདྲེན་པའི་དོན་ལ་འཇུག་པ་ནི། རྟ་ནོར་ལུག་གསུམ་གྱི་ཤེད་བཟང་བ་ནི་འཚོ་སྐྱོང་ལེགས་པས་བྱས་པའི་རྐྱེན་གྱིས་ཡིན་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
-    <row r="359" ht="50" customHeight="1">
-      <c r="A359" s="1" t="inlineStr">
+    <row r="363" ht="50" customHeight="1">
+      <c r="A363" s="1" t="inlineStr">
         <is>
           <t>དལ་འབྱོར་</t>
         </is>
       </c>
-      <c r="B359" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B363" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 leisure and fortune</t>
         </is>
       </c>
-      <c r="C359" s="2" t="inlineStr">
+      <c r="C363" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 དལ་བ་བརྒྱད་དང་འབྱོར་པ་བཅུའི་བསྡུས་མིང། དལ་འབྱོར་རྙེད་དཀའ། དལ་འབྱོར་དོན་ཆེན།</t>
         </is>
       </c>
     </row>
-    <row r="360" ht="50" customHeight="1">
-      <c r="A360" s="1" t="inlineStr">
-        <is>
-          <t>གྱི་</t>
-        </is>
-      </c>
-      <c r="B360" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C360" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="361" ht="50" customHeight="1">
-      <c r="A361" s="1" t="inlineStr">
-        <is>
-          <t>མི་</t>
-        </is>
-      </c>
-      <c r="B361" s="2" t="inlineStr">
-        <is>
-          <t>Wetzel
-human\nSanskrit: manuṣyaḥ\nPali: manusso</t>
-        </is>
-      </c>
-      <c r="C361" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་སྨྲ་ཤེས་དོན་གོ་བའམ་ཡོ་བྱད་བཟོ་ཤེས་ཤིང་ཡོ་བྱད་བཀོལ་ནས་ངལ་རྩོལ་བྱེད་ཤེས་པའི་སྲོག་ཆགས། ཡིག་རྙིང་དུ་མྱི་ཞེས་འབྲི། ༼མི་དམངས༽ དམངས་ལ་ལྟོས། ༼མི་རིགས༽ ལོ་རྒྱུས་བྱུང་རིམ་དུ་ཁྱད་ཆོས་ཐུན་མོང་བ་གྲུབ་པའི་མི་ཁག་གཅིག་ཡིན། མི་རིགས་ཤིག་ཡིན་ན་དེ་ལ་སྐད་རིགས་ཐུན་མོང་བ་དང་གནས་སའི་ས་ཁོངས་ཐུན་མོང་བ། དཔལ་འབྱོར་གྱི་འཚོ་བ་ཐུན་མོང་བ། རིག་གནས་ཐུན་མོང་བས་མཚོན་པའི་སེམས་ཁམས་ཀྱི་གཤིས་ལུགས་ཐུན་མོང་བ་བཅས་ཚང་བ་ཡིན། ༼མིའི་རིགས༽ མིའི་སྤྱིའི་མིང་། ༼མི་རྒོད༽ དམངས་ཁྲོད་ཀྱི་ངག་རྒྱུན་དུ་གྲགས་པའི་སྲོག་ཆགས་མི་དང་འདྲ་བ་ཞིག་མི་སྣ། གོང་རིམ་གྱིས་མངགས་པའམ་མི་མང་བོའི་ཚབ་བྱེད་མཁན་གྱི་མི་སྟེ། སྲིད་གཞུང་གི་མི་སྣ། བཟོ་བའི་མི་སྣ་ཞེས་པ་ལྟ་བུ། ༼མི་ཆོས༽ ༼༡༽ འཇིག་རྟེན་པའི་བསླབ་བྱའམ་མིའི་ཚུལ་ལུགས། ༼༢༽ འཇིག་རྟེན་གྱི་བྱ་བ། ༼མི་སེར༽ མི་དམངས་དང་དོན་འདྲ་ཞིང་སྤྱི་ཚོགས་རྙིང་བར་དཔོན་རིགས་ལས་གཞན་ལ་མི་སེར་ཟེར། ༼མི་ཚང༽ ཁྱིམ་ཚང་གི་མིང་གཞན། ༼མི་རབས༽ གནས་པའི་དུས་ཧ་ལམ་མཉམ་པའི་མི་ཁག་ཅིག་ལ་མི་རབས་ཟེར་ཏེ། མི་རབས་སྔོན་མ། མི་རབས་ཕྱི་མ་ཞེས་པ་ལྟ་བུ། ༼མི་དྲག༽ སྤྱི་ཚོགས་སུ་ཐོབ་ཐང་ངེས་ཅན་ཞིག་ཡོད་པའམ་སྙན་གྲགས་ཡོད་པའི་མི། ༼མི་ཧྲེངས༽ བཟའ་ཟླ་མེད་པའི་ཕོ་རྐྱང་། ༢.མི་གཞན་པ་སྟེ། གསང་གཏམ་མི་ལ་མ་བཤད་ཅེས་པ་ལྟ་བུ། ༼མི་ཁ༽ གཞན་གྱིས་ཁ་སྨྲས་བཤད་པའི་ཚིག་གི་མིང་སྟེ། མི་ཁ་ངན་པར་འཛེམ། གྲོགས་ལ་མི་ཁ་མ་གཏོང་ལྟ་བུ། ༣.༼ཀ༽ བྱེད་འབྲེལ་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་རང་གིས་བྱེད་རྒྱུ་མིན་པར་སྟོན་པ་སྟེ། མི་བཟའ། མི་འཐུང་། མི་བྱེད་ལྟ་བུ། ༼ཁ༽ སྐུལ་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་ནུས་པ་མེད་པར་སྟོན་པ་སྟེ། མི་ཁྱོགས། ཁུར་བོ་ལག་པས་མི་ཁྱོགས། མི་ཤོད། ཁ་ནས་གཏམ་མི་ཤོད། མི་ཁྲོལ། སྤྲེའུས་རང་འདོགས་བྱེད་ཀྱི་ཐག་པའི་མདུད་པ་མི་ཁྲོལ་ལྟ་བུ། ༼ག༽ བྱེད་མེད་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་མི་འབྱུང་བ་སྟོན་པ་སྟེ། མི་འཆག་དབྱུག་པ་སྦོམ་ན་མི་འཆག་མི་འཆི། སྨན་བཅོས་བྱས་ན་ནད་པ་མི་འཆི། མི་མཁས། མི་བསྲུན། མི་སྐྲག་སོགས་ལྟ་བུ། ༼ང༽ རྒྱན་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་ཚད་ལས་འདས་པ་མིན་པའམ་ཐལ་དྲགས་པ་མིན་པ་སྟོན་པ་སྟེ། ཆུ་མི་ཆེ་མི་ཆུང་ཨོལ་རྐ་ཙམ། གཟུགས་མི་ཆེ་མི་ཆུང་ཁྲུ་ལྔ་ལོངས། ཐག་མི་རིང་མི་ཉེ་ཉིན་ལམ་གཅིག་ཅེས་པ་སོགས་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="362" ht="50" customHeight="1">
-      <c r="A362" s="1" t="inlineStr">
-        <is>
-          <t>ལུས་</t>
-        </is>
-      </c>
-      <c r="B362" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-skin; body</t>
-        </is>
-      </c>
-      <c r="C362" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་སྲོག་ཆགས་ཀྱི་ལུས་ཕུང་ངམ་གཟུགས་པོའི་མིང་སྟེ། མི་ལུས། ལུས་སྟོད་སྨད། ལུས་ཕུང་། ལུས་ཁམས་བདེ་ཞེས་པ་སོགས་ལྟ་བུ། ༼ལུས་ཅན༽ མི་དང་བཅས་པའི་སྲོག་ཆགས་ཡོངས་ཀྱི་མིང་། ༢.བསྟན་བཅོས་ཀྱི་བརྗོད་བྱ་གཙོ་བོའི་མིང་སྟེ། བསྟན་བཅོས་ཀྱི་ལུས་དང་ཡན་ལག་ཅེས་པ་ལྟ་བུ། ༼ལུས་མདོར་བསྟན༽ བསྟན་བཅོས་ཀྱི་དཔེ་ཆའི་མགོར་ནང་དོན་རྣམས་མདོར་བསྡུས་ནས་བཤད་པའི་མགོ་བརྗོད་སོགས་ཀྱི་མིང་། ༣.རྩོམ་གྱི་རྣམ་པའི་མིང་སྟེ། སྙན་ངག་གི་ལུས་ལ་རྣམ་པ་གསུམ་སྟེ། ཚིགས་བཅད། ཚིག་ལྷུག་བཅད་ལྷུག་སྤེལ་མ་ཞེས་པ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="363" ht="50" customHeight="1">
-      <c r="A363" s="1" t="inlineStr">
-        <is>
-          <t>ཐོབ་ཡ་</t>
-        </is>
-      </c>
-    </row>
     <row r="364" ht="50" customHeight="1">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>དེ་</t>
+          <t>གྱི་</t>
         </is>
       </c>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C364" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="365" ht="50" customHeight="1">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>རེད</t>
+          <t>མི་</t>
         </is>
       </c>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-is</t>
+          <t>Gaeng, Wetzel
+human\nSanskrit: manuṣyaḥ\nPali: manusso</t>
         </is>
       </c>
       <c r="C365" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་སྨྲ་ཤེས་དོན་གོ་བའམ་ཡོ་བྱད་བཟོ་ཤེས་ཤིང་ཡོ་བྱད་བཀོལ་ནས་ངལ་རྩོལ་བྱེད་ཤེས་པའི་སྲོག་ཆགས། ཡིག་རྙིང་དུ་མྱི་ཞེས་འབྲི། ༼མི་དམངས༽ དམངས་ལ་ལྟོས། ༼མི་རིགས༽ ལོ་རྒྱུས་བྱུང་རིམ་དུ་ཁྱད་ཆོས་ཐུན་མོང་བ་གྲུབ་པའི་མི་ཁག་གཅིག་ཡིན། མི་རིགས་ཤིག་ཡིན་ན་དེ་ལ་སྐད་རིགས་ཐུན་མོང་བ་དང་གནས་སའི་ས་ཁོངས་ཐུན་མོང་བ། དཔལ་འབྱོར་གྱི་འཚོ་བ་ཐུན་མོང་བ། རིག་གནས་ཐུན་མོང་བས་མཚོན་པའི་སེམས་ཁམས་ཀྱི་གཤིས་ལུགས་ཐུན་མོང་བ་བཅས་ཚང་བ་ཡིན། ༼མིའི་རིགས༽ མིའི་སྤྱིའི་མིང་། ༼མི་རྒོད༽ དམངས་ཁྲོད་ཀྱི་ངག་རྒྱུན་དུ་གྲགས་པའི་སྲོག་ཆགས་མི་དང་འདྲ་བ་ཞིག་མི་སྣ། གོང་རིམ་གྱིས་མངགས་པའམ་མི་མང་བོའི་ཚབ་བྱེད་མཁན་གྱི་མི་སྟེ། སྲིད་གཞུང་གི་མི་སྣ། བཟོ་བའི་མི་སྣ་ཞེས་པ་ལྟ་བུ། ༼མི་ཆོས༽ ༼༡༽ འཇིག་རྟེན་པའི་བསླབ་བྱའམ་མིའི་ཚུལ་ལུགས། ༼༢༽ འཇིག་རྟེན་གྱི་བྱ་བ། ༼མི་སེར༽ མི་དམངས་དང་དོན་འདྲ་ཞིང་སྤྱི་ཚོགས་རྙིང་བར་དཔོན་རིགས་ལས་གཞན་ལ་མི་སེར་ཟེར། ༼མི་ཚང༽ ཁྱིམ་ཚང་གི་མིང་གཞན། ༼མི་རབས༽ གནས་པའི་དུས་ཧ་ལམ་མཉམ་པའི་མི་ཁག་ཅིག་ལ་མི་རབས་ཟེར་ཏེ། མི་རབས་སྔོན་མ། མི་རབས་ཕྱི་མ་ཞེས་པ་ལྟ་བུ། ༼མི་དྲག༽ སྤྱི་ཚོགས་སུ་ཐོབ་ཐང་ངེས་ཅན་ཞིག་ཡོད་པའམ་སྙན་གྲགས་ཡོད་པའི་མི། ༼མི་ཧྲེངས༽ བཟའ་ཟླ་མེད་པའི་ཕོ་རྐྱང་། ༢.མི་གཞན་པ་སྟེ། གསང་གཏམ་མི་ལ་མ་བཤད་ཅེས་པ་ལྟ་བུ། ༼མི་ཁ༽ གཞན་གྱིས་ཁ་སྨྲས་བཤད་པའི་ཚིག་གི་མིང་སྟེ། མི་ཁ་ངན་པར་འཛེམ། གྲོགས་ལ་མི་ཁ་མ་གཏོང་ལྟ་བུ། ༣.༼ཀ༽ བྱེད་འབྲེལ་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་རང་གིས་བྱེད་རྒྱུ་མིན་པར་སྟོན་པ་སྟེ། མི་བཟའ། མི་འཐུང་། མི་བྱེད་ལྟ་བུ། ༼ཁ༽ སྐུལ་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་ནུས་པ་མེད་པར་སྟོན་པ་སྟེ། མི་ཁྱོགས། ཁུར་བོ་ལག་པས་མི་ཁྱོགས། མི་ཤོད། ཁ་ནས་གཏམ་མི་ཤོད། མི་ཁྲོལ། སྤྲེའུས་རང་འདོགས་བྱེད་ཀྱི་ཐག་པའི་མདུད་པ་མི་ཁྲོལ་ལྟ་བུ། ༼ག༽ བྱེད་མེད་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་མི་འབྱུང་བ་སྟོན་པ་སྟེ། མི་འཆག་དབྱུག་པ་སྦོམ་ན་མི་འཆག་མི་འཆི། སྨན་བཅོས་བྱས་ན་ནད་པ་མི་འཆི། མི་མཁས། མི་བསྲུན། མི་སྐྲག་སོགས་ལྟ་བུ། ༼ང༽ རྒྱན་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་ཚད་ལས་འདས་པ་མིན་པའམ་ཐལ་དྲགས་པ་མིན་པ་སྟོན་པ་སྟེ། ཆུ་མི་ཆེ་མི་ཆུང་ཨོལ་རྐ་ཙམ། གཟུགས་མི་ཆེ་མི་ཆུང་ཁྲུ་ལྔ་ལོངས། ཐག་མི་རིང་མི་ཉེ་ཉིན་ལམ་གཅིག་ཅེས་པ་སོགས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="366" ht="50" customHeight="1">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>ལུས་</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+skin; body</t>
+        </is>
+      </c>
+      <c r="C366" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་སྲོག་ཆགས་ཀྱི་ལུས་ཕུང་ངམ་གཟུགས་པོའི་མིང་སྟེ། མི་ལུས། ལུས་སྟོད་སྨད། ལུས་ཕུང་། ལུས་ཁམས་བདེ་ཞེས་པ་སོགས་ལྟ་བུ། ༼ལུས་ཅན༽ མི་དང་བཅས་པའི་སྲོག་ཆགས་ཡོངས་ཀྱི་མིང་། ༢.བསྟན་བཅོས་ཀྱི་བརྗོད་བྱ་གཙོ་བོའི་མིང་སྟེ། བསྟན་བཅོས་ཀྱི་ལུས་དང་ཡན་ལག་ཅེས་པ་ལྟ་བུ། ༼ལུས་མདོར་བསྟན༽ བསྟན་བཅོས་ཀྱི་དཔེ་ཆའི་མགོར་ནང་དོན་རྣམས་མདོར་བསྡུས་ནས་བཤད་པའི་མགོ་བརྗོད་སོགས་ཀྱི་མིང་། ༣.རྩོམ་གྱི་རྣམ་པའི་མིང་སྟེ། སྙན་ངག་གི་ལུས་ལ་རྣམ་པ་གསུམ་སྟེ། ཚིགས་བཅད། ཚིག་ལྷུག་བཅད་ལྷུག་སྤེལ་མ་ཞེས་པ་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="367" ht="50" customHeight="1">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>བྱས་ཙང་</t>
-        </is>
-      </c>
-      <c r="B367" s="2" t="inlineStr">
-        <is>
-          <t>Waldo
-therefore</t>
+          <t>ཐོབ་ཡ་</t>
         </is>
       </c>
     </row>
     <row r="368" ht="50" customHeight="1">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">། </t>
+          <t>དེ་</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+(1) that; (2) continuative particle indicating that there is more to come in the sentence, sometimes setting off appositives and usually indicating that there is another clause to the sentence; (3) past and present participal</t>
+        </is>
+      </c>
+      <c r="C368" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་དུས་འདས་པ་སྟོན་ཞིང་མི་དང་གནས་ཕ་རོལ་བོ་སོགས་སྟོན་པའི་ཚབ་མིང་སྟེ། སྔོན་གྱི་དུས་དེ་དང་ད་ལྟའི་འདི། ཕ་རོལ་གྱི་ས་ཆ་དེ་དང་ཚུ་རོལ་གྱི་ས་ཆ་འདི། མི་དེ་ཚོ། བྱ་བ་དེ་དག་དེ་རྣམས་ཞེས་པ་ལྟ་བུ། ༼དེ་སྐད༽ དེ་ལྟར་བཤད་པའི་དོན་ཏེ། དེ་སྐད་ཅེས་བྱའོ་ཞེས་པ་ལྟ་བུ། ༼དེ་ཁོ་ན༽ དེ་གཅིག་པུའམ་རྐྱང་བའི་དོན་ཏེ། རང་གིས་བཤད་པ་དེ་ཁོ་ན་བདེན་སྙམ་པ་མི་འགྲིག་དེ་ཁོ་ན་མ་གཏོགས་མེད་ལྟ་བུ། ༢.ཏེ་ལ་ལྟོས། ༣.གེ་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="369" ht="50" customHeight="1">
       <c r="A369" s="1" t="inlineStr">
         <is>
+          <t>རེད</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+is</t>
+        </is>
+      </c>
+      <c r="C369" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="370" ht="50" customHeight="1">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="371" ht="50" customHeight="1">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>བྱས་ཙང་</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="inlineStr">
+        <is>
+          <t>Ives Waldo
+therefore</t>
+        </is>
+      </c>
+    </row>
+    <row r="372" ht="50" customHeight="1">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">། </t>
+        </is>
+      </c>
+    </row>
+    <row r="373" ht="50" customHeight="1">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
           <t>དལ་འབྱོར་</t>
         </is>
       </c>
-      <c r="B369" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B373" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 leisure and fortune</t>
         </is>
       </c>
-      <c r="C369" s="2" t="inlineStr">
+      <c r="C373" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 དལ་བ་བརྒྱད་དང་འབྱོར་པ་བཅུའི་བསྡུས་མིང། དལ་འབྱོར་རྙེད་དཀའ། དལ་འབྱོར་དོན་ཆེན།</t>
         </is>
       </c>
     </row>
-    <row r="370" ht="50" customHeight="1">
-      <c r="A370" s="1" t="inlineStr">
-        <is>
-          <t>གྱི་</t>
-        </is>
-      </c>
-      <c r="B370" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
-        </is>
-      </c>
-      <c r="C370" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-ཀྱི་ལ་ལྟོས།</t>
-        </is>
-      </c>
-    </row>
-    <row r="371" ht="50" customHeight="1">
-      <c r="A371" s="1" t="inlineStr">
-        <is>
-          <t>མི་</t>
-        </is>
-      </c>
-      <c r="B371" s="2" t="inlineStr">
-        <is>
-          <t>Wetzel
-human\nSanskrit: manuṣyaḥ\nPali: manusso</t>
-        </is>
-      </c>
-      <c r="C371" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་སྨྲ་ཤེས་དོན་གོ་བའམ་ཡོ་བྱད་བཟོ་ཤེས་ཤིང་ཡོ་བྱད་བཀོལ་ནས་ངལ་རྩོལ་བྱེད་ཤེས་པའི་སྲོག་ཆགས། ཡིག་རྙིང་དུ་མྱི་ཞེས་འབྲི། ༼མི་དམངས༽ དམངས་ལ་ལྟོས། ༼མི་རིགས༽ ལོ་རྒྱུས་བྱུང་རིམ་དུ་ཁྱད་ཆོས་ཐུན་མོང་བ་གྲུབ་པའི་མི་ཁག་གཅིག་ཡིན། མི་རིགས་ཤིག་ཡིན་ན་དེ་ལ་སྐད་རིགས་ཐུན་མོང་བ་དང་གནས་སའི་ས་ཁོངས་ཐུན་མོང་བ། དཔལ་འབྱོར་གྱི་འཚོ་བ་ཐུན་མོང་བ། རིག་གནས་ཐུན་མོང་བས་མཚོན་པའི་སེམས་ཁམས་ཀྱི་གཤིས་ལུགས་ཐུན་མོང་བ་བཅས་ཚང་བ་ཡིན། ༼མིའི་རིགས༽ མིའི་སྤྱིའི་མིང་། ༼མི་རྒོད༽ དམངས་ཁྲོད་ཀྱི་ངག་རྒྱུན་དུ་གྲགས་པའི་སྲོག་ཆགས་མི་དང་འདྲ་བ་ཞིག་མི་སྣ། གོང་རིམ་གྱིས་མངགས་པའམ་མི་མང་བོའི་ཚབ་བྱེད་མཁན་གྱི་མི་སྟེ། སྲིད་གཞུང་གི་མི་སྣ། བཟོ་བའི་མི་སྣ་ཞེས་པ་ལྟ་བུ། ༼མི་ཆོས༽ ༼༡༽ འཇིག་རྟེན་པའི་བསླབ་བྱའམ་མིའི་ཚུལ་ལུགས། ༼༢༽ འཇིག་རྟེན་གྱི་བྱ་བ། ༼མི་སེར༽ མི་དམངས་དང་དོན་འདྲ་ཞིང་སྤྱི་ཚོགས་རྙིང་བར་དཔོན་རིགས་ལས་གཞན་ལ་མི་སེར་ཟེར། ༼མི་ཚང༽ ཁྱིམ་ཚང་གི་མིང་གཞན། ༼མི་རབས༽ གནས་པའི་དུས་ཧ་ལམ་མཉམ་པའི་མི་ཁག་ཅིག་ལ་མི་རབས་ཟེར་ཏེ། མི་རབས་སྔོན་མ། མི་རབས་ཕྱི་མ་ཞེས་པ་ལྟ་བུ། ༼མི་དྲག༽ སྤྱི་ཚོགས་སུ་ཐོབ་ཐང་ངེས་ཅན་ཞིག་ཡོད་པའམ་སྙན་གྲགས་ཡོད་པའི་མི། ༼མི་ཧྲེངས༽ བཟའ་ཟླ་མེད་པའི་ཕོ་རྐྱང་། ༢.མི་གཞན་པ་སྟེ། གསང་གཏམ་མི་ལ་མ་བཤད་ཅེས་པ་ལྟ་བུ། ༼མི་ཁ༽ གཞན་གྱིས་ཁ་སྨྲས་བཤད་པའི་ཚིག་གི་མིང་སྟེ། མི་ཁ་ངན་པར་འཛེམ། གྲོགས་ལ་མི་ཁ་མ་གཏོང་ལྟ་བུ། ༣.༼ཀ༽ བྱེད་འབྲེལ་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་རང་གིས་བྱེད་རྒྱུ་མིན་པར་སྟོན་པ་སྟེ། མི་བཟའ། མི་འཐུང་། མི་བྱེད་ལྟ་བུ། ༼ཁ༽ སྐུལ་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་ནུས་པ་མེད་པར་སྟོན་པ་སྟེ། མི་ཁྱོགས། ཁུར་བོ་ལག་པས་མི་ཁྱོགས། མི་ཤོད། ཁ་ནས་གཏམ་མི་ཤོད། མི་ཁྲོལ། སྤྲེའུས་རང་འདོགས་བྱེད་ཀྱི་ཐག་པའི་མདུད་པ་མི་ཁྲོལ་ལྟ་བུ། ༼ག༽ བྱེད་མེད་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་མི་འབྱུང་བ་སྟོན་པ་སྟེ། མི་འཆག་དབྱུག་པ་སྦོམ་ན་མི་འཆག་མི་འཆི། སྨན་བཅོས་བྱས་ན་ནད་པ་མི་འཆི། མི་མཁས། མི་བསྲུན། མི་སྐྲག་སོགས་ལྟ་བུ། ༼ང༽ རྒྱན་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་ཚད་ལས་འདས་པ་མིན་པའམ་ཐལ་དྲགས་པ་མིན་པ་སྟོན་པ་སྟེ། ཆུ་མི་ཆེ་མི་ཆུང་ཨོལ་རྐ་ཙམ། གཟུགས་མི་ཆེ་མི་ཆུང་ཁྲུ་ལྔ་ལོངས། ཐག་མི་རིང་མི་ཉེ་ཉིན་ལམ་གཅིག་ཅེས་པ་སོགས་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="372" ht="50" customHeight="1">
-      <c r="A372" s="1" t="inlineStr">
-        <is>
-          <t>ལུས་</t>
-        </is>
-      </c>
-      <c r="B372" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-skin; body</t>
-        </is>
-      </c>
-      <c r="C372" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༡.་སྲོག་ཆགས་ཀྱི་ལུས་ཕུང་ངམ་གཟུགས་པོའི་མིང་སྟེ། མི་ལུས། ལུས་སྟོད་སྨད། ལུས་ཕུང་། ལུས་ཁམས་བདེ་ཞེས་པ་སོགས་ལྟ་བུ། ༼ལུས་ཅན༽ མི་དང་བཅས་པའི་སྲོག་ཆགས་ཡོངས་ཀྱི་མིང་། ༢.བསྟན་བཅོས་ཀྱི་བརྗོད་བྱ་གཙོ་བོའི་མིང་སྟེ། བསྟན་བཅོས་ཀྱི་ལུས་དང་ཡན་ལག་ཅེས་པ་ལྟ་བུ། ༼ལུས་མདོར་བསྟན༽ བསྟན་བཅོས་ཀྱི་དཔེ་ཆའི་མགོར་ནང་དོན་རྣམས་མདོར་བསྡུས་ནས་བཤད་པའི་མགོ་བརྗོད་སོགས་ཀྱི་མིང་། ༣.རྩོམ་གྱི་རྣམ་པའི་མིང་སྟེ། སྙན་ངག་གི་ལུས་ལ་རྣམ་པ་གསུམ་སྟེ། ཚིགས་བཅད། ཚིག་ལྷུག་བཅད་ལྷུག་སྤེལ་མ་ཞེས་པ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
-    <row r="373" ht="50" customHeight="1">
-      <c r="A373" s="1" t="inlineStr">
-        <is>
-          <t>ཐོབ་</t>
-        </is>
-      </c>
-      <c r="B373" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
-attain; obtain; get</t>
-        </is>
-      </c>
-      <c r="C373" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
-༼བྱེད་མེད་ལས་ཚིག་འདས་པ༽ ༡་ལག་ལ་འོངས་པ་སྟེ། ངལ་རྩོལ་མང་བོ་བྱས་ནས་སྐལ་བ་མང་བོ་ཐོབ་ལྟ་བུ། ༼འཐོབ༽ ནི་མ་འོངས་པ་དང་ད་ལྟ་བ་སྟེ། ད་ལོ་སྐལ་བ་མང་བོ་འཐོབ་རྒྱུ་རེད། སྐལ་བ་འཐོབ་མཁན་ཞེས་པ་ལྟ་བུ། ༢.བླངས་པའི་དོན་ཏེ། རྒྱལ་ཁ་ཐོབ་ལྟ་བུ། ༣.འོས་པ་དང་འཚམ་པའི་དོན་ཏེ། ཡི་གེའི་ཐོབ་ཐང་། རྗེས་འཇུག་ས་མཐར་སུ་ཡིག་ཐོབ་ཅེས་པ་ལྟ་བུ། ༼ཐོབ་ཐང༽ ༼༡༽ ཡི་གེའི་ཐོབ་ཐང་། ༼༢༽ སྤྱི་ཚོགས་ཐོག་དང་ཁྲིམས་ལུགས་ཐོག་གི་མིའི་གོ་གནས་ཀྱི་མིང་སྟེ། མི་དམངས་མཐུས་མིའི་ཐོབ་ཐང་། ༼ཐོབ་ནོར༽ ༼༡༽ སྐལ་བར་ཐོབ་པའི་རྒྱུ་ནོར། ༼༢༽ ར་ཙི་ས༼?༽ རིག་གི་བགོད་ཐབས་ཀྱིས་བགོས་ནས་ཐོབ་པའི་གྲངས་ཀའི་མིང་སྟེ། གཉིས་ཀྱིས་བརྒྱད་བགོས་པའི་ཐོབ་ནོར་གྱི་གྲངས་ཀ་ནི་བཞི་ཡིན་པ་ལྟ་བུ། ༤.ཉམས་སུ་མྱོང་བའི་དོན་ཏེ། ན་ཟུག་དྲག་པོས་གདུང་བ་བསྐྱེད། སྨན་མཆོག་བསྟེན་པས་བདེ་བ་ཐོབ། ཡོན་ཏན་བསླབས་ནས་མཁས་པའི་གོ་འཕང་ཐོབ་ཅེས་པ་ལྟ་བུ།</t>
-        </is>
-      </c>
-    </row>
     <row r="374" ht="50" customHeight="1">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>དུས་</t>
+          <t>གྱི་</t>
         </is>
       </c>
       <c r="B374" s="2" t="inlineStr">
         <is>
-          <t>Gateway
-Time, as one of the ten non-concurrent formations</t>
+          <t>Hopkins 2015
+(as genitive particle) of; by; in; which. (as non-case particle) and; but; (semi-colon)</t>
         </is>
       </c>
       <c r="C374" s="2" t="inlineStr">
         <is>
-          <t>དག་གསར།
-༡.་བྱ་དངོས་ཐམས་ཅད་འགྱུར་ལྡོག་གི་ཡུན་ཚད་ཀྱི་མིང་སྟེ། སྔོན་དུས། དེང་དུས། མ་འོངས་པའི་དུས་ཞེས་པ་ལྟ་བུ། ༼དུས་སྐབས༽ དུས་ཡུན་ཚད་ཡོད་པ་ཞིག་གི་མིང་སྟེ། དུས་སྐབས་སྔོན་མ། དུས་སྐབས་རྗེས་མ་ཞེས་པ་ལྟ་བུ། ༼དུས་འཁྲུགས༽ ལོ་རྒྱུས་ཀྱི་ནང་དུ་འབངས་ཀྱིས་གྱེན་ལྡོག་བྱས་པའི་འཁྲུག་སློང་གི་མིང། ༼དུས་རྒྱུན༽ བྱ་ལས་སོགས་མུ་མཐུད་བྱེད་པའི་དུས་ཡུན་ཏེ། དུས་རྒྱུན་པར་སློབ་སྦྱོང་བྱེད། དུས་རྒྱུན་གྱི་ལས་ཀ་ཞེས་པ་ལྟ་བུ། ༼དུས་ཆེན༽ རྗེས་དྲན་དུས་ཚིགས་ཀྱི་མིང་སྟེ། རྒྱལ་ཚུགས་དུས་ཆེན། ངལ་རྩོལ་དུས་ཆེན་ཞེས་པ་ལྟ་བུ། ༼དུས་ཆུང༽ ཉིན་ཞག་གཅིག་གི་ཡུན་ཚད་ལ་ཆ་མཉམ་ཉེར་བཞི་བགོས་པའི་ཆ་གཅིག་གི་དུས་ཡུན་གྱི་མིང་། ༼དུས་བཏབ༽ མི་དང་མིའི་བར་དུ་བྱ་བ་ཞིག་བྱེད་པའི་ཆེད་དུལྷན་དུ་འཛོམས་པའི་དུས་ངེས་ཅན་ཞིག་གཏན་ཁེལ་བྱས་པའི་དོན། ༼དུས་དུས་སུ༽ དུས་དང་མཐུན་པའམ་དུས་དང་འཚམས་པའི་དོན་ཏེ། དུས་དུས་སུ་ཞིང་ལ་ཆུ་གཏོང་དགོསལྟ་བུ། ༼དུས་བབ༽ དུས་སྐབས་ངེས་ཅན་ཞིག་གི་ཆ་རྐྱེན་དང་གནས་ཚུལ་གྱི་མིང་སྟེ། དུས་བབ་བཟང་བོ་ཞེས་པ་ལྟ་བུ། ༼དུས་ལ་བབ་པ༽ བྱ་དངོས་རྣམས་འབྱུང་བར་འཚམ་པའི་རྐྱེན་རྣམས་ཚང་བའི་དོན་ཏེ། ཚོགས་ཤིང་དུས་ལ་བབ་པ་ན། འབྲས་བུ་སྨིན་པ་ཉིད་དུ་འགྱུར་ཞེས་པ་ལྟ་བུ། ཚིག་བསྡུས་ན་དུས་བབ་ཞེས་འབྲི་ཆོག ༢་ལོ་གཅིག་གི་ནམ་ཟླའི་འགྱུར་ལྡོག་ངེས་ཅན་གྱི་མིང་སྟེ། དུས་བཞི། དཔྱིད་དུས་ཞེས་པ་ལྟ་བུ། ༼དུས་ཚིགས༽ ༼༡༽ ལོ་གཅིག་ལ་དཔྱིད་དབྱར་སྟོན་དགུན་གྱི་དུས་ཚིགས་བཞི་དང་། དུས་ཚིགས་རེ་ལ་ཟླ་བ་གསུམ་རེ་ཡོད། ༼༢༽ ལོ་གཅིག་ནང་གི་ཁྱད་ཆོས་ཁྱད་པར་བ་རེ་ཡོད་པའི་དུས་ཀྱི་མིང་སྟེ། ཞིང་ལས་བྲེལ་བ་ཆེ་བའི་དུས་ཚིགས། བལ་འབྲེག་པའི་དུས་ཚིགས་ཞེས་པ་ལྟ་བུ། ༼དུས་ཚོད༽ མི་རྣམས་ཀྱིས་གཏན་ཁེལ་བྱས་པའི་དུས་ཡུན་ངེས་ཅན་ཞིག་གི་མིང་སྟེ། སློབ་སྦྱོང་གི་དུས་ཚོད། དྲོས་ཇ་འཐུང་བའི་དུས་ཚོད་ཅེས་པ་ལྟ་བུ། ༼དུས་ཚོད་འཁོར་ལོ༽ དུས་ཚོད་ངོས་འཛིན་བྱེད་ཀྱི་དཔྱད་ཆས་རིགས་སྣ་ཚོགས་ཀྱི་སྤྱི་མིང་། ༼དུས་གཟེར༽ ཉིན་མཚན་གྱི་རིང་ཐུང་དང་། ཉིན་གུང་གི་གྲིབ་གཟུགས་ཀྱི་མཐོ་དམའ། ནམ་ཟླའི་འགྱུར་ལྡོག་རྣམས་ལ་བརྟེན་ནས་ལོ་གཅིག་གི་ཡུན་ལ་དུས་གཟེར་འགའ་ཞིག་གཏན་ཁེལ་བྱས་ཤིང་། དུས་གཟེར་དེ་རྣམས་ཀྱིས་སའི་གོ་ལ་སྤྱི་འགྲོས་བྱེད་པའི་གནས་གང་ན་ཡོད་པ་སྟོན་པར་བྱེད། དུས་གཟེར་ལ་བསྡོམས་པའི་ཉེར་བཞི་ཡོད་དེ། དཔྱིད་ཚུགས། ཆར་འབབ། སྲིན་བུ་འགུལ། དཔྱིད་མཉམ། དྭངས་གསལ། འབྲུ་ཆར། དབྱར་ཚུགས། བྲི་བ་གང་། མྱུར་འདེབས། དབྱར་ཉི་ལྡོག་ཚ་བ་ཆུང་། ཚ་བ་ཆེ། སྟོན་ཚུགས། བསིལ་འགུག་བད་དཀར། སྟོན་མཉམ། བད་ནག་བ་མོ་འབབ། དགུན་ཚུགས། ཁ་བ་ཆེ། ཁ་བ་ཆུང་། དགུན་ཉི་ལྡོག་གྲང་ངར་ཆུང་། གྲང་ངར་ཆེ་བཅས་ཡིན། ༼དུས་རབས༽ སྤྱི་ལོའི་མགོ་ཚུགས་པའི་ལོ་དེ་ནས་བཟུང་ལོ་བརྒྱ་རེའི་ཡུན་ལ་དུས་རབས་ཟེར། ༼དུས་གསུམ༽ ༼༡༽ འདས་པ་དང་ད་ལྟ་བ་མ་འོངས་པ་གསུམ་ལ་དུས་གསུམ་ཟེར། ༼༢༽ ལས་ཚིག་གམ་བྱ་ཚིག་གི་དུས་གསུམ་སྟོན་པའི་སྒྲའི་འགྱུར་བ་དང་ཡིག་གཟུགས་ཀྱི་འགྱུར་བ་ལའང་དུས་གསུམ་ཟེར་བའི་སྐབས་ཡོད།</t>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+ཀྱི་ལ་ལྟོས།</t>
         </is>
       </c>
     </row>
     <row r="375" ht="50" customHeight="1">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>ཕན་ཐོགས་</t>
+          <t>མི་</t>
         </is>
       </c>
       <c r="B375" s="2" t="inlineStr">
         <is>
-          <t>Hopkins
-administer help; do benefit; help</t>
+          <t>Gaeng, Wetzel
+human\nSanskrit: manuṣyaḥ\nPali: manusso</t>
+        </is>
+      </c>
+      <c r="C375" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་སྨྲ་ཤེས་དོན་གོ་བའམ་ཡོ་བྱད་བཟོ་ཤེས་ཤིང་ཡོ་བྱད་བཀོལ་ནས་ངལ་རྩོལ་བྱེད་ཤེས་པའི་སྲོག་ཆགས། ཡིག་རྙིང་དུ་མྱི་ཞེས་འབྲི། ༼མི་དམངས༽ དམངས་ལ་ལྟོས། ༼མི་རིགས༽ ལོ་རྒྱུས་བྱུང་རིམ་དུ་ཁྱད་ཆོས་ཐུན་མོང་བ་གྲུབ་པའི་མི་ཁག་གཅིག་ཡིན། མི་རིགས་ཤིག་ཡིན་ན་དེ་ལ་སྐད་རིགས་ཐུན་མོང་བ་དང་གནས་སའི་ས་ཁོངས་ཐུན་མོང་བ། དཔལ་འབྱོར་གྱི་འཚོ་བ་ཐུན་མོང་བ། རིག་གནས་ཐུན་མོང་བས་མཚོན་པའི་སེམས་ཁམས་ཀྱི་གཤིས་ལུགས་ཐུན་མོང་བ་བཅས་ཚང་བ་ཡིན། ༼མིའི་རིགས༽ མིའི་སྤྱིའི་མིང་། ༼མི་རྒོད༽ དམངས་ཁྲོད་ཀྱི་ངག་རྒྱུན་དུ་གྲགས་པའི་སྲོག་ཆགས་མི་དང་འདྲ་བ་ཞིག་མི་སྣ། གོང་རིམ་གྱིས་མངགས་པའམ་མི་མང་བོའི་ཚབ་བྱེད་མཁན་གྱི་མི་སྟེ། སྲིད་གཞུང་གི་མི་སྣ། བཟོ་བའི་མི་སྣ་ཞེས་པ་ལྟ་བུ། ༼མི་ཆོས༽ ༼༡༽ འཇིག་རྟེན་པའི་བསླབ་བྱའམ་མིའི་ཚུལ་ལུགས། ༼༢༽ འཇིག་རྟེན་གྱི་བྱ་བ། ༼མི་སེར༽ མི་དམངས་དང་དོན་འདྲ་ཞིང་སྤྱི་ཚོགས་རྙིང་བར་དཔོན་རིགས་ལས་གཞན་ལ་མི་སེར་ཟེར། ༼མི་ཚང༽ ཁྱིམ་ཚང་གི་མིང་གཞན། ༼མི་རབས༽ གནས་པའི་དུས་ཧ་ལམ་མཉམ་པའི་མི་ཁག་ཅིག་ལ་མི་རབས་ཟེར་ཏེ། མི་རབས་སྔོན་མ། མི་རབས་ཕྱི་མ་ཞེས་པ་ལྟ་བུ། ༼མི་དྲག༽ སྤྱི་ཚོགས་སུ་ཐོབ་ཐང་ངེས་ཅན་ཞིག་ཡོད་པའམ་སྙན་གྲགས་ཡོད་པའི་མི། ༼མི་ཧྲེངས༽ བཟའ་ཟླ་མེད་པའི་ཕོ་རྐྱང་། ༢.མི་གཞན་པ་སྟེ། གསང་གཏམ་མི་ལ་མ་བཤད་ཅེས་པ་ལྟ་བུ། ༼མི་ཁ༽ གཞན་གྱིས་ཁ་སྨྲས་བཤད་པའི་ཚིག་གི་མིང་སྟེ། མི་ཁ་ངན་པར་འཛེམ། གྲོགས་ལ་མི་ཁ་མ་གཏོང་ལྟ་བུ། ༣.༼ཀ༽ བྱེད་འབྲེལ་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་རང་གིས་བྱེད་རྒྱུ་མིན་པར་སྟོན་པ་སྟེ། མི་བཟའ། མི་འཐུང་། མི་བྱེད་ལྟ་བུ། ༼ཁ༽ སྐུལ་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་ནུས་པ་མེད་པར་སྟོན་པ་སྟེ། མི་ཁྱོགས། ཁུར་བོ་ལག་པས་མི་ཁྱོགས། མི་ཤོད། ཁ་ནས་གཏམ་མི་ཤོད། མི་ཁྲོལ། སྤྲེའུས་རང་འདོགས་བྱེད་ཀྱི་ཐག་པའི་མདུད་པ་མི་ཁྲོལ་ལྟ་བུ། ༼ག༽ བྱེད་མེད་ལས་ཚིག་ད་ལྟ་བའི་མགོར་སྦྱར་ན་བྱ་བ་དེ་མི་འབྱུང་བ་སྟོན་པ་སྟེ། མི་འཆག་དབྱུག་པ་སྦོམ་ན་མི་འཆག་མི་འཆི། སྨན་བཅོས་བྱས་ན་ནད་པ་མི་འཆི། མི་མཁས། མི་བསྲུན། མི་སྐྲག་སོགས་ལྟ་བུ། ༼ང༽ རྒྱན་ཚིག་ལ་ལའི་མགོར་སྦྱར་ན་ཚད་ལས་འདས་པ་མིན་པའམ་ཐལ་དྲགས་པ་མིན་པ་སྟོན་པ་སྟེ། ཆུ་མི་ཆེ་མི་ཆུང་ཨོལ་རྐ་ཙམ། གཟུགས་མི་ཆེ་མི་ཆུང་ཁྲུ་ལྔ་ལོངས། ཐག་མི་རིང་མི་ཉེ་ཉིན་ལམ་གཅིག་ཅེས་པ་སོགས་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
     <row r="376" ht="50" customHeight="1">
       <c r="A376" s="1" t="inlineStr">
         <is>
+          <t>ལུས་</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+skin; body</t>
+        </is>
+      </c>
+      <c r="C376" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་སྲོག་ཆགས་ཀྱི་ལུས་ཕུང་ངམ་གཟུགས་པོའི་མིང་སྟེ། མི་ལུས། ལུས་སྟོད་སྨད། ལུས་ཕུང་། ལུས་ཁམས་བདེ་ཞེས་པ་སོགས་ལྟ་བུ། ༼ལུས་ཅན༽ མི་དང་བཅས་པའི་སྲོག་ཆགས་ཡོངས་ཀྱི་མིང་། ༢.བསྟན་བཅོས་ཀྱི་བརྗོད་བྱ་གཙོ་བོའི་མིང་སྟེ། བསྟན་བཅོས་ཀྱི་ལུས་དང་ཡན་ལག་ཅེས་པ་ལྟ་བུ། ༼ལུས་མདོར་བསྟན༽ བསྟན་བཅོས་ཀྱི་དཔེ་ཆའི་མགོར་ནང་དོན་རྣམས་མདོར་བསྡུས་ནས་བཤད་པའི་མགོ་བརྗོད་སོགས་ཀྱི་མིང་། ༣.རྩོམ་གྱི་རྣམ་པའི་མིང་སྟེ། སྙན་ངག་གི་ལུས་ལ་རྣམ་པ་གསུམ་སྟེ། ཚིགས་བཅད། ཚིག་ལྷུག་བཅད་ལྷུག་སྤེལ་མ་ཞེས་པ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="377" ht="50" customHeight="1">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>ཐོབ་</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+attain; obtain; get</t>
+        </is>
+      </c>
+      <c r="C377" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༼བྱེད་མེད་ལས་ཚིག་འདས་པ༽ ༡་ལག་ལ་འོངས་པ་སྟེ། ངལ་རྩོལ་མང་བོ་བྱས་ནས་སྐལ་བ་མང་བོ་ཐོབ་ལྟ་བུ། ༼འཐོབ༽ ནི་མ་འོངས་པ་དང་ད་ལྟ་བ་སྟེ། ད་ལོ་སྐལ་བ་མང་བོ་འཐོབ་རྒྱུ་རེད། སྐལ་བ་འཐོབ་མཁན་ཞེས་པ་ལྟ་བུ། ༢.བླངས་པའི་དོན་ཏེ། རྒྱལ་ཁ་ཐོབ་ལྟ་བུ། ༣.འོས་པ་དང་འཚམ་པའི་དོན་ཏེ། ཡི་གེའི་ཐོབ་ཐང་། རྗེས་འཇུག་ས་མཐར་སུ་ཡིག་ཐོབ་ཅེས་པ་ལྟ་བུ། ༼ཐོབ་ཐང༽ ༼༡༽ ཡི་གེའི་ཐོབ་ཐང་། ༼༢༽ སྤྱི་ཚོགས་ཐོག་དང་ཁྲིམས་ལུགས་ཐོག་གི་མིའི་གོ་གནས་ཀྱི་མིང་སྟེ། མི་དམངས་མཐུས་མིའི་ཐོབ་ཐང་། ༼ཐོབ་ནོར༽ ༼༡༽ སྐལ་བར་ཐོབ་པའི་རྒྱུ་ནོར། ༼༢༽ ར་ཙི་ས༼?༽ རིག་གི་བགོད་ཐབས་ཀྱིས་བགོས་ནས་ཐོབ་པའི་གྲངས་ཀའི་མིང་སྟེ། གཉིས་ཀྱིས་བརྒྱད་བགོས་པའི་ཐོབ་ནོར་གྱི་གྲངས་ཀ་ནི་བཞི་ཡིན་པ་ལྟ་བུ། ༤.ཉམས་སུ་མྱོང་བའི་དོན་ཏེ། ན་ཟུག་དྲག་པོས་གདུང་བ་བསྐྱེད། སྨན་མཆོག་བསྟེན་པས་བདེ་བ་ཐོབ། ཡོན་ཏན་བསླབས་ནས་མཁས་པའི་གོ་འཕང་ཐོབ་ཅེས་པ་ལྟ་བུ།</t>
+        </is>
+      </c>
+    </row>
+    <row r="378" ht="50" customHeight="1">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>དུས་</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="inlineStr">
+        <is>
+          <t>Gateway To Knowledge
+Time, as one of the ten non-concurrent formations</t>
+        </is>
+      </c>
+      <c r="C378" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
+༡.་བྱ་དངོས་ཐམས་ཅད་འགྱུར་ལྡོག་གི་ཡུན་ཚད་ཀྱི་མིང་སྟེ། སྔོན་དུས། དེང་དུས། མ་འོངས་པའི་དུས་ཞེས་པ་ལྟ་བུ། ༼དུས་སྐབས༽ དུས་ཡུན་ཚད་ཡོད་པ་ཞིག་གི་མིང་སྟེ། དུས་སྐབས་སྔོན་མ། དུས་སྐབས་རྗེས་མ་ཞེས་པ་ལྟ་བུ། ༼དུས་འཁྲུགས༽ ལོ་རྒྱུས་ཀྱི་ནང་དུ་འབངས་ཀྱིས་གྱེན་ལྡོག་བྱས་པའི་འཁྲུག་སློང་གི་མིང། ༼དུས་རྒྱུན༽ བྱ་ལས་སོགས་མུ་མཐུད་བྱེད་པའི་དུས་ཡུན་ཏེ། དུས་རྒྱུན་པར་སློབ་སྦྱོང་བྱེད། དུས་རྒྱུན་གྱི་ལས་ཀ་ཞེས་པ་ལྟ་བུ། ༼དུས་ཆེན༽ རྗེས་དྲན་དུས་ཚིགས་ཀྱི་མིང་སྟེ། རྒྱལ་ཚུགས་དུས་ཆེན། ངལ་རྩོལ་དུས་ཆེན་ཞེས་པ་ལྟ་བུ། ༼དུས་ཆུང༽ ཉིན་ཞག་གཅིག་གི་ཡུན་ཚད་ལ་ཆ་མཉམ་ཉེར་བཞི་བགོས་པའི་ཆ་གཅིག་གི་དུས་ཡུན་གྱི་མིང་། ༼དུས་བཏབ༽ མི་དང་མིའི་བར་དུ་བྱ་བ་ཞིག་བྱེད་པའི་ཆེད་དུལྷན་དུ་འཛོམས་པའི་དུས་ངེས་ཅན་ཞིག་གཏན་ཁེལ་བྱས་པའི་དོན། ༼དུས་དུས་སུ༽ དུས་དང་མཐུན་པའམ་དུས་དང་འཚམས་པའི་དོན་ཏེ། དུས་དུས་སུ་ཞིང་ལ་ཆུ་གཏོང་དགོསལྟ་བུ། ༼དུས་བབ༽ དུས་སྐབས་ངེས་ཅན་ཞིག་གི་ཆ་རྐྱེན་དང་གནས་ཚུལ་གྱི་མིང་སྟེ། དུས་བབ་བཟང་བོ་ཞེས་པ་ལྟ་བུ། ༼དུས་ལ་བབ་པ༽ བྱ་དངོས་རྣམས་འབྱུང་བར་འཚམ་པའི་རྐྱེན་རྣམས་ཚང་བའི་དོན་ཏེ། ཚོགས་ཤིང་དུས་ལ་བབ་པ་ན། འབྲས་བུ་སྨིན་པ་ཉིད་དུ་འགྱུར་ཞེས་པ་ལྟ་བུ། ཚིག་བསྡུས་ན་དུས་བབ་ཞེས་འབྲི་ཆོག ༢་ལོ་གཅིག་གི་ནམ་ཟླའི་འགྱུར་ལྡོག་ངེས་ཅན་གྱི་མིང་སྟེ། དུས་བཞི། དཔྱིད་དུས་ཞེས་པ་ལྟ་བུ། ༼དུས་ཚིགས༽ ༼༡༽ ལོ་གཅིག་ལ་དཔྱིད་དབྱར་སྟོན་དགུན་གྱི་དུས་ཚིགས་བཞི་དང་། དུས་ཚིགས་རེ་ལ་ཟླ་བ་གསུམ་རེ་ཡོད། ༼༢༽ ལོ་གཅིག་ནང་གི་ཁྱད་ཆོས་ཁྱད་པར་བ་རེ་ཡོད་པའི་དུས་ཀྱི་མིང་སྟེ། ཞིང་ལས་བྲེལ་བ་ཆེ་བའི་དུས་ཚིགས། བལ་འབྲེག་པའི་དུས་ཚིགས་ཞེས་པ་ལྟ་བུ། ༼དུས་ཚོད༽ མི་རྣམས་ཀྱིས་གཏན་ཁེལ་བྱས་པའི་དུས་ཡུན་ངེས་ཅན་ཞིག་གི་མིང་སྟེ། སློབ་སྦྱོང་གི་དུས་ཚོད། དྲོས་ཇ་འཐུང་བའི་དུས་ཚོད་ཅེས་པ་ལྟ་བུ། ༼དུས་ཚོད་འཁོར་ལོ༽ དུས་ཚོད་ངོས་འཛིན་བྱེད་ཀྱི་དཔྱད་ཆས་རིགས་སྣ་ཚོགས་ཀྱི་སྤྱི་མིང་། ༼དུས་གཟེར༽ ཉིན་མཚན་གྱི་རིང་ཐུང་དང་། ཉིན་གུང་གི་གྲིབ་གཟུགས་ཀྱི་མཐོ་དམའ། ནམ་ཟླའི་འགྱུར་ལྡོག་རྣམས་ལ་བརྟེན་ནས་ལོ་གཅིག་གི་ཡུན་ལ་དུས་གཟེར་འགའ་ཞིག་གཏན་ཁེལ་བྱས་ཤིང་། དུས་གཟེར་དེ་རྣམས་ཀྱིས་སའི་གོ་ལ་སྤྱི་འགྲོས་བྱེད་པའི་གནས་གང་ན་ཡོད་པ་སྟོན་པར་བྱེད། དུས་གཟེར་ལ་བསྡོམས་པའི་ཉེར་བཞི་ཡོད་དེ། དཔྱིད་ཚུགས། ཆར་འབབ། སྲིན་བུ་འགུལ། དཔྱིད་མཉམ། དྭངས་གསལ། འབྲུ་ཆར། དབྱར་ཚུགས། བྲི་བ་གང་། མྱུར་འདེབས། དབྱར་ཉི་ལྡོག་ཚ་བ་ཆུང་། ཚ་བ་ཆེ། སྟོན་ཚུགས། བསིལ་འགུག་བད་དཀར། སྟོན་མཉམ། བད་ནག་བ་མོ་འབབ། དགུན་ཚུགས། ཁ་བ་ཆེ། ཁ་བ་ཆུང་། དགུན་ཉི་ལྡོག་གྲང་ངར་ཆུང་། གྲང་ངར་ཆེ་བཅས་ཡིན། ༼དུས་རབས༽ སྤྱི་ལོའི་མགོ་ཚུགས་པའི་ལོ་དེ་ནས་བཟུང་ལོ་བརྒྱ་རེའི་ཡུན་ལ་དུས་རབས་ཟེར། ༼དུས་གསུམ༽ ༼༡༽ འདས་པ་དང་ད་ལྟ་བ་མ་འོངས་པ་གསུམ་ལ་དུས་གསུམ་ཟེར། ༼༢༽ ལས་ཚིག་གམ་བྱ་ཚིག་གི་དུས་གསུམ་སྟོན་པའི་སྒྲའི་འགྱུར་བ་དང་ཡིག་གཟུགས་ཀྱི་འགྱུར་བ་ལའང་དུས་གསུམ་ཟེར་བའི་སྐབས་ཡོད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="379" ht="50" customHeight="1">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>ཕན་ཐོགས་</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
+administer help; do benefit; help</t>
+        </is>
+      </c>
+    </row>
+    <row r="380" ht="50" customHeight="1">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
           <t>ཡོད་པ་</t>
         </is>
       </c>
-      <c r="B376" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B380" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 be; exist; be present; an existent (thing); existence; exists</t>
         </is>
       </c>
-      <c r="C376" s="2" t="inlineStr">
+      <c r="C380" s="2" t="inlineStr">
         <is>
           <t>ཚིག་མཛོད་ཆེན་མོ།
 ༡༽ མཆིས་པ་སྟེ་མེད་པའི་ལྡོག་ཕྱོགས། ཡོད་པར་ངེས་པ། ཡོད་པའི་དངོས་པོ། དངོས་སུ་ཡོད་པ། ནམ་མཁར་ཉི་ཟླ་སྐར་གསུམ་ཡོད། ༢༽ འདས་ཚིག་གི་རྗེས་སུ་སྦྱར་ནས་བྱུང་ཟིན་པའམ། བྱུང་ནས་གནས་བཞིན་པའི་དོན་སྟོན་པའི་ཚིག་གྲོགས་ཤིག་ལྕོག་རྩེ་འདི་ངས་འོད་ཐིང་ཐིང་དུ་ཕྱིས་ཡོད། ངས་ཁམ་བུ་ཉོས་ཡོད། ཁོ་ལ་ལན་བཞག་ཡོད། ༣༽ ཚད་མས་དམིགས་པ་སྟེ། ཀ་བུམ་ལ་སོགས་པའི་ཆོས་རྣམས་བློ་ཚད་མས་ཡོད་པར་དམིགས་པའོ།</t>
         </is>
       </c>
     </row>
-    <row r="377" ht="50" customHeight="1">
-      <c r="A377" s="1" t="inlineStr">
+    <row r="381" ht="50" customHeight="1">
+      <c r="A381" s="1" t="inlineStr">
         <is>
           <t>བྱེད་</t>
         </is>
       </c>
-      <c r="B377" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B381" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 do; act; perform; does; refer (to)(BJ 24.5)</t>
         </is>
       </c>
-      <c r="C377" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C381" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་བྱས་ལ་ལྟོས། ༼བྱེད་སྒྲ༽ བོད་ཡིག་གི་ཚིག་སྔ་ཕྱིའི་འབྲེལ་བ་མཚོན་བྱེད་ཀྱི་ཡི་གེ་གིས་ཀྱིས་གྱིས་འིས་ཡིས་ལྔའི་མིང་། ༼བྱེད་པ་པོ༽ ༼༡༽ ལས་ཀ་གང་དང་གང་བྱེད་མཁན་ལ་བྱེད་པ་པོ་ཟེར། ༼༢༽ ཚིག་སྦྱོར་ནང་གི་བྱེད་པ་པོ་སྟོན་པའི་ཚིག་གི་མིང་། ༼བྱེད་འབྲེལ་ལས་ཚིག༽ བྱེད་པ་པོ་གཞན་དང་དངོས་སུ་འབྲེལ་བའི་ལས་ཚིག་སྟེ། ལས་ཚིག་ནང་གི་བརྐོ། རྐོ། བརྐོས་དང་། གཟུགས། འཛུགས། བཙུགས། ཚུགས། ཤེས། གླེང་། གཟིགས་ལྟ་བུ་སོགས་ནི་བྱེད་འབྲེལ་ལས་ཚིག་ཡིན་ལ། ལས་ཚིག་དེ་དག་གྲུབ་ཆ་བྱས་ཡོད་པའི་ཚིག་ཀ་ཆ་ཚང་ཞིག་ཡིན་ན། ཚིག་ཀ་དེ་རིགས་ཀྱི་གཙོ་ཚིག་དང་རྗོད་ཚིག་གི་བར་དུ་བྱེད་སྒྲ་འཇུག་པས། བྱེད་སྒྲས་བྱ་བ་དང་བྱེད་པ་པོ་གཉིས་ཐ་དད་དུ་ཕྱེ་ཡོད་པ་རེད། དེའི་ཕྱིར་ལས་ཚིག་དེ་རིགས་ལ་བྱེད་འབྲེལ་ལས་ཚིག་ཟེར། འདིར་བཤད་པའི་བྱེད་པ་པོ་ནི་མི་ཞིག་གམ་སེམས་ལྡན་ཞིག་ཡིན་དགོས་པའི་ངེས་པ་མེད་དེ། དར་ཆ་རླུང་གིས་བསྐྱོད་ཅེས་པའི་ཚིག་ལ་མཚོན་ན། རླུང་ནི་བྱེད་པ་པོ་ཡིན་པ་ལྟ་བུའང་ཤེས་དགོས་སོ། ། ༼བྱེད་མེད་ལས་ཚིག༽ བྱེད་པ་པོ་གཞན་དངོས་སུ་མེད་པའི་ལས་ཚིག་སྟེ། ལས་ཚིག་གི་ནང་གི་རྐྱལ། རྐྱོལ། འཁྱམ། འཁྱམས། བརྒྱུག་རྒྱུག་བརྒྱུགས། རྒྱུགས། མཁས། ཕན་ལྟ་བུ་སོགས་ནི་བྱེད་མེད་ལས་ཚིག་ཡིན་ལ། ལས་ཚིག་དེ་དག་གྲུབ་ཆ་བྱས་ཡོད་པའི་ཚིག་ཀ་ཆ་ཚང་ཞིག་ཡིན་ན། གཙོ་ཚིག་དང་རྗོད་ཚིག་བར་དུ་བྱེད་སྒྲ་མི་འཇུག་པ་ཡིན་ཏེ། ཞིང་པ་སོ་ནམ་ལ་མཁས། ཤིང་དུམ་བུར་གས་ལྟ་བུ། དེའི་ཕྱིར་ལས་ཚིག་དེ་དག་ལ་བྱེད་པ་པོ་གཞན་དངོས་སུ་མེད་པས་ན་བྱེད་མེད་ལས་ཚིག་ཟེར། ༼བྱེད་ཚིག༽ བྱེད་པ་པོ་ཡོད་པའི་ལས་ཚིག་ད་ལྟ་བའི་མིང་། ༼བྱེད་ལས༽ རྒྱུ་རྐྱེན་ཞིག་གིས་དངོས་སུ་བསྐྱེད་པའི་འབྲས་བུའམ་ནུས་པའི་མིང་སྟེ། སྨན་གྱི་བྱེད་ལས། ནད་ཀྱི་བྱེད་ལས་ཞེས་པ་ལྟ་བུ། ༢.ལས་ཚིག་ད་ལྟ་བའི་མཐར་སྦྱར་ན་བྱ་བ་དེ་བྱེད་པའི་ཐབས་དང་ཡོ་བྱད་སོགས་ཀྱི་མིང་སྟེ། ས་རྐོ་བྱེད། སྨན་རྡུང་བྱེད་ཅེས་པ་ལྟ་བུ། ༼བྱེད་རྒྱུ༽ ༼༡༽ བྱེད་དགོས་པ་སྟེ། ཁྱོད་ཀྱིས་བྱེད་རྒྱུའི་ལས་དོན་རྣམས་རིམ་གྱིས་ལེགས་པར་བྱེད་དགོས་ལྟ་བུ། ༼༢༽ ལས་དོན་ནམ་བྱ་བ་སྟེ། མི་དེ་ལ་བྱེད་རྒྱུ་མང་བོ་འདུག་ལུང་པ་འདིར་ཤིང་འཛུགས་ནགས་བཟོའི་ལས་ཀ་བྱེད་རྒྱུ་མང་བོ་ཡོད་ཅེས་པ་ལྟ་བུ། ༼༣༽ རྒྱུ་དྲུག་གི་ནང་གསེས་ཤིག་སྟེ། རང་འབྲས་སྐྱེ་བ་ལ་གེགས་མི་བྱེད་ཅིང་ཕན་འདོགས་པའི་དངོས་པོ། འབྲས་བུ་རང་ལས་གཞན་པའི་ཆོས་རྣམས་སོ། །</t>
         </is>
       </c>
     </row>
-    <row r="378" ht="50" customHeight="1">
-      <c r="A378" s="1" t="inlineStr">
+    <row r="382" ht="50" customHeight="1">
+      <c r="A382" s="1" t="inlineStr">
         <is>
           <t>དགོས་</t>
         </is>
       </c>
-      <c r="B378" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B382" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 must; need; purpose; necessity; need to; necessary</t>
         </is>
       </c>
-      <c r="C378" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C382" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ལས་ཚིག་གི་མཐར་སྦྱར་ན་དེ་ལྟར་བྱེད་པར་སྐུལ་མ་གཏོང་བའི་ཚིག་གྲོགས་ཏེ། ཐུན་མོང་གི་རྒྱུ་ནོར་ལ་གཅེས་སྤྲས་བྱེད་དགོས། ཞིང་ལ་ཆུ་གཏོང་དགོས། ཟས་ཟ་ཁར་ལག་པ་བཀྲུ་དགོས། དཔེ་ཆ་ཀློག་དགོས་ལྟ་བུ། ༢.མིང་རྐྱང་གི་མཐར་སྦྱར་ན་མཁོ་བའི་དོན་ཏེ། མྱུ་གུ་ལ་ཆུ་དགོས། ཞིང་པར་ཞིང་ཆས་དགོས་ལྟ་བུ། ༼དགོས་པ༽ ༼༡༽ དམིགས་ཡུལ་གྱི་མིང་སྟེ། ཞིང་བཏབ་པའི་དགོས་པ། སློབ་སྦྱོང་བྱས་པའི་དགོས་པ། དཔེ་ཆ་བརྩམས་པའི་དགོས་པ་ནི་ཡོན་ཏན་སྤེལ་བ་ཡིན་ལྟ་བུ། ༼༢༽ སྙིང་བོ་དང་གོ་དོན་གྱི་མིང་སྟེ། དགོས་པ་མེད་པའི་སྐད་ཆ་མ་བཤད་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
-    <row r="379" ht="50" customHeight="1">
-      <c r="A379" s="1" t="inlineStr">
+    <row r="383" ht="50" customHeight="1">
+      <c r="A383" s="1" t="inlineStr">
         <is>
           <t>རེད</t>
         </is>
       </c>
-      <c r="B379" s="2" t="inlineStr">
-        <is>
-          <t>Hopkins
+      <c r="B383" s="2" t="inlineStr">
+        <is>
+          <t>Hopkins 2015
 is</t>
         </is>
       </c>
-      <c r="C379" s="2" t="inlineStr">
-        <is>
-          <t>དག་གསར།
+      <c r="C383" s="2" t="inlineStr">
+        <is>
+          <t>དག་ཡིག་གསར་བསྒྲིགས།
 ༡.་ཐག་ཆོད་པའི་དོན་ལ་འཇུག་ཅིང་། གཙོ་བོར་རང་དང་རང་གི་སྐད་ཆ་བཤད་ཡུལ་ལས་གཞན་པའི་བྱ་དངོས་ཀྱི་མཐར་སྦྱོར་ཏེ། མེ་ཏོག་དེ་དམར་བོ་རེད། ཤིང་འདི་ཙན་དན་རེད། ཁོ་མོ་དགེ་རྒན་རེད་ཅེས་པ་ལྟ་བུ། རྒྱས་པར་ཡིན་ལ་ལྟོས། ༢.ཚིག་མཐའ་ཙམ་ལ་འཇུག་པ་ནི། ངལ་རྩོལ་ལ་སོང་བ་རེད། ཁོ་རང་ལུག་རྫི་བྱེད་དུ་སོང་བ་རེད། ཟས་ཟོས་ཟིན་པ་རེད་ལྟ་བུ།</t>
         </is>
       </c>
     </row>
-    <row r="380" ht="50" customHeight="1">
-      <c r="A380" s="1" t="inlineStr">
+    <row r="384" ht="50" customHeight="1">
+      <c r="A384" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">། </t>
         </is>
@@ -6726,21 +6826,21 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A64" r:id="rId52"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A65" r:id="rId53"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A66" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A69" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A67" r:id="rId55"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A70" r:id="rId56"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A71" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A73" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A72" r:id="rId58"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A74" r:id="rId59"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A75" r:id="rId60"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A76" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A78" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A77" r:id="rId62"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A79" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A81" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A80" r:id="rId64"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A82" r:id="rId65"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A83" r:id="rId66"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A84" r:id="rId67"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A85" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A88" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A86" r:id="rId69"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A89" r:id="rId70"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A90" r:id="rId71"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A91" r:id="rId72"/>
@@ -6750,19 +6850,19 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A95" r:id="rId76"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A96" r:id="rId77"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A97" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A100" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A101" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A98" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A99" r:id="rId80"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A102" r:id="rId81"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A103" r:id="rId82"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A104" r:id="rId83"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A105" r:id="rId84"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A106" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A108" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A109" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A111" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A112" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A114" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A115" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A107" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A108" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A110" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A111" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A113" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A114" r:id="rId91"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A116" r:id="rId92"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A117" r:id="rId93"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A118" r:id="rId94"/>
@@ -6773,31 +6873,31 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A123" r:id="rId99"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A124" r:id="rId100"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A125" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A127" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A128" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A126" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A127" r:id="rId103"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A129" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A131" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A132" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A130" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A131" r:id="rId106"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A133" r:id="rId107"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A134" r:id="rId108"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A135" r:id="rId109"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A136" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A138" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A139" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A137" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A138" r:id="rId112"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A140" r:id="rId113"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A141" r:id="rId114"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A142" r:id="rId115"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A143" r:id="rId116"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A144" r:id="rId117"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A145" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A147" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A148" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A146" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A147" r:id="rId120"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A149" r:id="rId121"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A150" r:id="rId122"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A151" r:id="rId123"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A152" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A154" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A155" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A153" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A154" r:id="rId126"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A156" r:id="rId127"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A157" r:id="rId128"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A158" r:id="rId129"/>
@@ -6808,8 +6908,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A163" r:id="rId134"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A164" r:id="rId135"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A165" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A167" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A168" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A166" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A167" r:id="rId138"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A169" r:id="rId139"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A170" r:id="rId140"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A171" r:id="rId141"/>
@@ -6819,14 +6919,14 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A175" r:id="rId145"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A176" r:id="rId146"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A177" r:id="rId147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A179" r:id="rId148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A180" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A178" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A179" r:id="rId149"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A181" r:id="rId150"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A182" r:id="rId151"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A183" r:id="rId152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A185" r:id="rId153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A187" r:id="rId154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A188" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A184" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A185" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A187" r:id="rId155"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A189" r:id="rId156"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A190" r:id="rId157"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A191" r:id="rId158"/>
@@ -6837,59 +6937,59 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A196" r:id="rId163"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A197" r:id="rId164"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A198" r:id="rId165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A200" r:id="rId166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A202" r:id="rId167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A203" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A199" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A200" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A202" r:id="rId168"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A204" r:id="rId169"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A205" r:id="rId170"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A206" r:id="rId171"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A207" r:id="rId172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A210" r:id="rId173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A211" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A208" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A209" r:id="rId174"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A212" r:id="rId175"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A213" r:id="rId176"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A214" r:id="rId177"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A215" r:id="rId178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A218" r:id="rId179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A219" r:id="rId180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A220" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A216" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A217" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A218" r:id="rId181"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A221" r:id="rId182"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A222" r:id="rId183"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A223" r:id="rId184"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A225" r:id="rId185"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A227" r:id="rId186"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A228" r:id="rId187"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A229" r:id="rId188"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A231" r:id="rId189"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A232" r:id="rId190"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A233" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A224" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A225" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A226" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A228" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A230" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A231" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A232" r:id="rId191"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A234" r:id="rId192"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A237" r:id="rId193"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A238" r:id="rId194"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A239" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A235" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A236" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A237" r:id="rId195"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A240" r:id="rId196"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A241" r:id="rId197"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A243" r:id="rId198"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A244" r:id="rId199"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A245" r:id="rId200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A247" r:id="rId201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A248" r:id="rId202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A249" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A242" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A243" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A244" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A246" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A247" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A248" r:id="rId203"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A250" r:id="rId204"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A251" r:id="rId205"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A252" r:id="rId206"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A253" r:id="rId207"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A254" r:id="rId208"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A255" r:id="rId209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A257" r:id="rId210"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A258" r:id="rId211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A259" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A256" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A257" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A258" r:id="rId212"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A260" r:id="rId213"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A261" r:id="rId214"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A262" r:id="rId215"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A264" r:id="rId216"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A265" r:id="rId217"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A266" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A263" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A264" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A265" r:id="rId218"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A267" r:id="rId219"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A268" r:id="rId220"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A269" r:id="rId221"/>
@@ -6897,23 +6997,23 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A271" r:id="rId223"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A272" r:id="rId224"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A273" r:id="rId225"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A275" r:id="rId226"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A276" r:id="rId227"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A277" r:id="rId228"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A279" r:id="rId229"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A281" r:id="rId230"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A282" r:id="rId231"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A283" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A274" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A275" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A276" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A278" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A279" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A280" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A282" r:id="rId232"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A284" r:id="rId233"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A285" r:id="rId234"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A286" r:id="rId235"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A287" r:id="rId236"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A288" r:id="rId237"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A290" r:id="rId238"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A292" r:id="rId239"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A293" r:id="rId240"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A294" r:id="rId241"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A295" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A289" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A290" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A291" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A292" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A294" r:id="rId242"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A296" r:id="rId243"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A297" r:id="rId244"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A298" r:id="rId245"/>
@@ -6921,29 +7021,29 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A300" r:id="rId247"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A301" r:id="rId248"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A302" r:id="rId249"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A304" r:id="rId250"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A306" r:id="rId251"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A307" r:id="rId252"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A308" r:id="rId253"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A309" r:id="rId254"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A311" r:id="rId255"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A312" r:id="rId256"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A313" r:id="rId257"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A314" r:id="rId258"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A303" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A304" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A305" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A306" r:id="rId253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A308" r:id="rId254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A310" r:id="rId255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A311" r:id="rId256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A312" r:id="rId257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A313" r:id="rId258"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A315" r:id="rId259"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A318" r:id="rId260"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A320" r:id="rId261"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A321" r:id="rId262"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A322" r:id="rId263"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A323" r:id="rId264"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A316" r:id="rId260"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A317" r:id="rId261"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A318" r:id="rId262"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A319" r:id="rId263"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A322" r:id="rId264"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A324" r:id="rId265"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A325" r:id="rId266"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A326" r:id="rId267"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A328" r:id="rId268"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A330" r:id="rId269"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A331" r:id="rId270"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A332" r:id="rId271"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A333" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A327" r:id="rId268"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A328" r:id="rId269"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A329" r:id="rId270"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A330" r:id="rId271"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A332" r:id="rId272"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A334" r:id="rId273"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A335" r:id="rId274"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A336" r:id="rId275"/>
@@ -6953,29 +7053,29 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A340" r:id="rId279"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A341" r:id="rId280"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A342" r:id="rId281"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A344" r:id="rId282"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A345" r:id="rId283"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A347" r:id="rId284"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A349" r:id="rId285"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A350" r:id="rId286"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A351" r:id="rId287"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A353" r:id="rId288"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A354" r:id="rId289"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A355" r:id="rId290"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A356" r:id="rId291"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A343" r:id="rId282"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A344" r:id="rId283"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A345" r:id="rId284"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A346" r:id="rId285"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A348" r:id="rId286"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A349" r:id="rId287"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A351" r:id="rId288"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A353" r:id="rId289"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A354" r:id="rId290"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A355" r:id="rId291"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A357" r:id="rId292"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A358" r:id="rId293"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A359" r:id="rId294"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A360" r:id="rId295"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A361" r:id="rId296"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A362" r:id="rId297"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A364" r:id="rId298"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A365" r:id="rId299"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A367" r:id="rId300"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A369" r:id="rId301"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A370" r:id="rId302"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A371" r:id="rId303"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A372" r:id="rId304"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A363" r:id="rId298"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A364" r:id="rId299"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A365" r:id="rId300"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A366" r:id="rId301"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A368" r:id="rId302"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A369" r:id="rId303"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A371" r:id="rId304"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A373" r:id="rId305"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A374" r:id="rId306"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A375" r:id="rId307"/>
@@ -6983,6 +7083,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A377" r:id="rId309"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A378" r:id="rId310"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A379" r:id="rId311"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A380" r:id="rId312"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A381" r:id="rId313"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A382" r:id="rId314"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A383" r:id="rId315"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
